--- a/bottlenecks.xlsx
+++ b/bottlenecks.xlsx
@@ -12,39 +12,46 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="assumevalidBlockTime">Sheet1!$C$14</definedName>
-    <definedName name="assumevalidSpeedup">Sheet1!$B$14</definedName>
+    <definedName name="assumevalidBlockTime">Sheet1!$C$15</definedName>
+    <definedName name="assumevalidSpeedup">Sheet1!$B$15</definedName>
     <definedName name="avgTrSize">Sheet1!$F$10</definedName>
-    <definedName name="bandwidth1">Sheet1!$C$18</definedName>
-    <definedName name="bandwidth2">Sheet1!$C$40</definedName>
-    <definedName name="bandwidth3">Sheet1!$C$62</definedName>
-    <definedName name="bandwidth4">Sheet1!$C$147</definedName>
+    <definedName name="bandwidth1">Sheet1!$C$19</definedName>
+    <definedName name="bandwidth2">Sheet1!$C$41</definedName>
+    <definedName name="bandwidth3">Sheet1!$C$63</definedName>
+    <definedName name="bandwidth5">Sheet1!$C$176</definedName>
     <definedName name="bandwidthGrowth">Sheet1!$C$6</definedName>
     <definedName name="cpuGrowth">Sheet1!$F$6</definedName>
-    <definedName name="disk1">Sheet1!$D$18</definedName>
-    <definedName name="disk2">Sheet1!$D$40</definedName>
-    <definedName name="disk3">Sheet1!$D$62</definedName>
-    <definedName name="disk4">Sheet1!$D$147</definedName>
+    <definedName name="curThroughput">Sheet1!$F$15</definedName>
+    <definedName name="disk1">Sheet1!$D$19</definedName>
+    <definedName name="disk2">Sheet1!$D$41</definedName>
+    <definedName name="disk3">Sheet1!$D$63</definedName>
+    <definedName name="disk4">Sheet1!$D$127</definedName>
+    <definedName name="disk5">Sheet1!$D$176</definedName>
     <definedName name="diskGrowth">Sheet1!$D$6</definedName>
     <definedName name="KBperGB">Sheet1!$E$10</definedName>
     <definedName name="mbToGB">Sheet1!$D$10</definedName>
-    <definedName name="memory1">Sheet1!$E$18</definedName>
-    <definedName name="memory2">Sheet1!$E$40</definedName>
-    <definedName name="memory3">Sheet1!$E$62</definedName>
+    <definedName name="memory1">Sheet1!$E$19</definedName>
+    <definedName name="memory2">Sheet1!$E$41</definedName>
+    <definedName name="memory3">Sheet1!$E$63</definedName>
+    <definedName name="memory4">Sheet1!$E$127</definedName>
+    <definedName name="memory5">Sheet1!$E$176</definedName>
     <definedName name="memoryGrowth">Sheet1!$E$6</definedName>
-    <definedName name="ongoingResourcePercent4">Sheet1!$J$147</definedName>
-    <definedName name="resourcePercent">Sheet1!$I$18</definedName>
-    <definedName name="resourcePercent2">Sheet1!$I$40</definedName>
-    <definedName name="resourcePercent3">Sheet1!$I$62</definedName>
+    <definedName name="ongoingResourcePercent4">Sheet1!$J$127</definedName>
+    <definedName name="ongoingResourcePercent5">Sheet1!$J$176</definedName>
+    <definedName name="resourcePercent">Sheet1!$I$19</definedName>
+    <definedName name="resourcePercent2">Sheet1!$I$41</definedName>
+    <definedName name="resourcePercent3">Sheet1!$I$63</definedName>
     <definedName name="secondsPerBlock">Sheet1!$C$10</definedName>
     <definedName name="secondsPerYear">Sheet1!$B$10</definedName>
-    <definedName name="syncTime1">Sheet1!$H$18</definedName>
-    <definedName name="syncTime2">Sheet1!$H$40</definedName>
-    <definedName name="syncTime3">Sheet1!$H$62</definedName>
-    <definedName name="throughput1">Sheet1!$F$18</definedName>
-    <definedName name="throughput2">Sheet1!$F$40</definedName>
-    <definedName name="throughput3">Sheet1!$F$62</definedName>
+    <definedName name="syncTime1">Sheet1!$H$19</definedName>
+    <definedName name="syncTime2">Sheet1!$H$41</definedName>
+    <definedName name="syncTime3">Sheet1!$H$63</definedName>
+    <definedName name="throughput1">Sheet1!$F$19</definedName>
+    <definedName name="throughput2">Sheet1!$F$41</definedName>
+    <definedName name="throughput3">Sheet1!$F$63</definedName>
+    <definedName name="utxoExpand">Sheet1!$E$15</definedName>
     <definedName name="utxoGrowth">Sheet1!$H$10</definedName>
+    <definedName name="utxoMemoryPercent">Sheet1!$D$15</definedName>
     <definedName name="utxoSize">Sheet1!$G$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -52,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
   <si>
     <t>User Type</t>
   </si>
@@ -183,9 +190,6 @@
     <t>Growth Rate</t>
   </si>
   <si>
-    <t>UTXO Disk Space Requirements</t>
-  </si>
-  <si>
     <t>UTXO Size</t>
   </si>
   <si>
@@ -198,23 +202,68 @@
     <t>Ongoing</t>
   </si>
   <si>
-    <t>Blockchain Disk Space Requirements</t>
-  </si>
-  <si>
     <t>Blockchain size</t>
   </si>
   <si>
     <t>Max Blockchain</t>
   </si>
   <si>
-    <t>UTXO Memory Requirements</t>
+    <t>Near-Optimal</t>
+  </si>
+  <si>
+    <t>UTXO Memory %</t>
+  </si>
+  <si>
+    <t>In-Memory</t>
+  </si>
+  <si>
+    <t>Expand</t>
+  </si>
+  <si>
+    <t>Memory Use</t>
+  </si>
+  <si>
+    <t>Max UTXO</t>
+  </si>
+  <si>
+    <t>Near-Upper Bound</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>UTXO Set Disk Usage</t>
+  </si>
+  <si>
+    <t>UTXO Set Memory Usage</t>
+  </si>
+  <si>
+    <t>Blockchain &amp; UTXO Disk Usage</t>
+  </si>
+  <si>
+    <t>Disk Use</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Current Max</t>
+  </si>
+  <si>
+    <t>Blockchain Growth</t>
+  </si>
+  <si>
+    <t>Ongoing Transaction Validation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="18">
+  <numFmts count="20">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0\ &quot;days&quot;"/>
@@ -222,19 +271,21 @@
     <numFmt numFmtId="167" formatCode="#\ &quot;GB&quot;"/>
     <numFmt numFmtId="168" formatCode="#,###\ &quot;Mbps&quot;"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="#,###\ &quot;GB&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,###\ &quot;GB/year&quot;"/>
-    <numFmt numFmtId="173" formatCode="#,###\ &quot;KB&quot;"/>
-    <numFmt numFmtId="174" formatCode="#\ &quot;bytes&quot;"/>
-    <numFmt numFmtId="176" formatCode="#"/>
-    <numFmt numFmtId="177" formatCode="#,###\ &quot;million&quot;"/>
-    <numFmt numFmtId="184" formatCode="#\ &quot;KB&quot;"/>
-    <numFmt numFmtId="185" formatCode="#\ &quot;days&quot;"/>
-    <numFmt numFmtId="186" formatCode="#,###\ &quot;million/year&quot;"/>
-    <numFmt numFmtId="189" formatCode="#.0\ &quot;days&quot;"/>
-    <numFmt numFmtId="190" formatCode="0%&quot;/year&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,###\ &quot;GB&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,###\ &quot;GB/year&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,###\ &quot;KB&quot;"/>
+    <numFmt numFmtId="173" formatCode="#\ &quot;bytes&quot;"/>
+    <numFmt numFmtId="174" formatCode="#"/>
+    <numFmt numFmtId="175" formatCode="#,###\ &quot;million&quot;"/>
+    <numFmt numFmtId="176" formatCode="#\ &quot;KB&quot;"/>
+    <numFmt numFmtId="177" formatCode="#\ &quot;days&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,###\ &quot;million/year&quot;"/>
+    <numFmt numFmtId="179" formatCode="#.0\ &quot;days&quot;"/>
+    <numFmt numFmtId="180" formatCode="0%&quot;/year&quot;"/>
+    <numFmt numFmtId="181" formatCode="#,###.0\ &quot;GB&quot;"/>
+    <numFmt numFmtId="182" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,8 +334,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +392,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,17 +406,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -361,25 +426,31 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="185" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="190" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -431,7 +502,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$20</c:f>
+              <c:f>Sheet1!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -445,7 +516,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$21:$A$36</c:f>
+              <c:f>Sheet1!$A$22:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -502,7 +573,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$36</c:f>
+              <c:f>Sheet1!$B$22:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>#,###\ "GB"</c:formatCode>
                 <c:ptCount val="16"/>
@@ -569,8 +640,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86433152"/>
-        <c:axId val="86439424"/>
+        <c:axId val="151869696"/>
+        <c:axId val="151875968"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -580,7 +651,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$20</c:f>
+              <c:f>Sheet1!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -594,7 +665,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$21:$A$36</c:f>
+              <c:f>Sheet1!$A$22:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -651,7 +722,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$36</c:f>
+              <c:f>Sheet1!$D$22:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>#,###\ "KB"</c:formatCode>
                 <c:ptCount val="16"/>
@@ -718,11 +789,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86566016"/>
-        <c:axId val="86441344"/>
+        <c:axId val="151879040"/>
+        <c:axId val="151877504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86433152"/>
+        <c:axId val="151869696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +822,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86439424"/>
+        <c:crossAx val="151875968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86439424"/>
+        <c:axId val="151875968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,12 +855,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86433152"/>
+        <c:crossAx val="151869696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86441344"/>
+        <c:axId val="151877504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,12 +886,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86566016"/>
+        <c:crossAx val="151879040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="86566016"/>
+        <c:axId val="151879040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86441344"/>
+        <c:crossAx val="151877504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -899,7 +970,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$42</c:f>
+              <c:f>Sheet1!$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -913,7 +984,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$21:$A$36</c:f>
+              <c:f>Sheet1!$A$22:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -970,7 +1041,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$B$58</c:f>
+              <c:f>Sheet1!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>#,###\ "million"</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1037,8 +1108,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87627264"/>
-        <c:axId val="87629184"/>
+        <c:axId val="135795840"/>
+        <c:axId val="135797760"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1048,7 +1119,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$42</c:f>
+              <c:f>Sheet1!$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1062,7 +1133,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$21:$A$36</c:f>
+              <c:f>Sheet1!$A$22:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1119,7 +1190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$43:$D$58</c:f>
+              <c:f>Sheet1!$D$44:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>#\ "KB"</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1186,11 +1257,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88252800"/>
-        <c:axId val="88228224"/>
+        <c:axId val="135805184"/>
+        <c:axId val="135803648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87627264"/>
+        <c:axId val="135795840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1290,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87629184"/>
+        <c:crossAx val="135797760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87629184"/>
+        <c:axId val="135797760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,12 +1323,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87627264"/>
+        <c:crossAx val="135795840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88228224"/>
+        <c:axId val="135803648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,12 +1354,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88252800"/>
+        <c:crossAx val="135805184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="88252800"/>
+        <c:axId val="135805184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88228224"/>
+        <c:crossAx val="135803648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1367,7 +1438,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$65:$E$66</c:f>
+              <c:f>Sheet1!$E$66:$E$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1381,7 +1452,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$21:$A$36</c:f>
+              <c:f>Sheet1!$A$22:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1438,7 +1509,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$67:$E$82</c:f>
+              <c:f>Sheet1!$E$68:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>#\ "KB"</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1505,8 +1576,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41119744"/>
-        <c:axId val="41140608"/>
+        <c:axId val="135839744"/>
+        <c:axId val="135841664"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1516,7 +1587,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$66</c:f>
+              <c:f>Sheet1!$C$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1530,7 +1601,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$21:$A$36</c:f>
+              <c:f>Sheet1!$A$22:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1587,7 +1658,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$67:$C$82</c:f>
+              <c:f>Sheet1!$C$68:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>#,###\ "million"</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1654,11 +1725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41312256"/>
-        <c:axId val="41145088"/>
+        <c:axId val="135849088"/>
+        <c:axId val="135843200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41119744"/>
+        <c:axId val="135839744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,7 +1758,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41140608"/>
+        <c:crossAx val="135841664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1695,7 +1766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41140608"/>
+        <c:axId val="135841664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,12 +1791,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41119744"/>
+        <c:crossAx val="135839744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41145088"/>
+        <c:axId val="135843200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,12 +1822,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41312256"/>
+        <c:crossAx val="135849088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="41312256"/>
+        <c:axId val="135849088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41145088"/>
+        <c:crossAx val="135843200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1836,7 +1907,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$85:$E$86</c:f>
+              <c:f>Sheet1!$E$86:$E$87</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1850,7 +1921,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$21:$A$36</c:f>
+              <c:f>Sheet1!$A$22:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1907,7 +1978,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$87:$E$102</c:f>
+              <c:f>Sheet1!$E$88:$E$103</c:f>
               <c:numCache>
                 <c:formatCode>#\ "KB"</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1974,8 +2045,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87683456"/>
-        <c:axId val="87685376"/>
+        <c:axId val="151610496"/>
+        <c:axId val="151612416"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1985,7 +2056,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$86</c:f>
+              <c:f>Sheet1!$C$87</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1999,7 +2070,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$21:$A$36</c:f>
+              <c:f>Sheet1!$A$22:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2056,7 +2127,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$87:$C$102</c:f>
+              <c:f>Sheet1!$C$88:$C$103</c:f>
               <c:numCache>
                 <c:formatCode>#,###\ "million"</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2123,11 +2194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87709184"/>
-        <c:axId val="87707648"/>
+        <c:axId val="151623936"/>
+        <c:axId val="151622400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87683456"/>
+        <c:axId val="151610496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2227,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87685376"/>
+        <c:crossAx val="151612416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2164,7 +2235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87685376"/>
+        <c:axId val="151612416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,12 +2260,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87683456"/>
+        <c:crossAx val="151610496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87707648"/>
+        <c:axId val="151622400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,12 +2291,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87709184"/>
+        <c:crossAx val="151623936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="87709184"/>
+        <c:axId val="151623936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,7 +2306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87707648"/>
+        <c:crossAx val="151622400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2292,9 +2363,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.16879418197725285"/>
-          <c:y val="7.6315808713325869E-2"/>
+          <c:y val="0.12816768737241177"/>
           <c:w val="0.77178597219167622"/>
-          <c:h val="0.78314273389920963"/>
+          <c:h val="0.73129075532225141"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2305,11 +2376,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$126</c:f>
+              <c:f>Sheet1!$C$178:$C$179</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UTXO Size</c:v>
+                  <c:v>Max Blockchain size</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2326,7 +2397,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$127:$A$142</c:f>
+              <c:f>Sheet1!$A$180:$A$195</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2383,7 +2454,90 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$127:$B$142</c:f>
+              <c:f>Sheet1!$C$180:$C$195</c:f>
+              <c:numCache>
+                <c:formatCode>#\ "GB"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.1875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>228.953125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>282.39453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>347.2978515625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>425.579345703125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>519.15972900390625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>651.47767639160156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>799.0046272277832</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1016.6262674331665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1237.5698826313019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1598.0457883477211</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1913.2608487159014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2526.9558826722205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$179</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UTXO Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$180:$B$195</c:f>
               <c:numCache>
                 <c:formatCode>#,###\ "GB"</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2415,25 +2569,25 @@
                   <c:v>76.88671875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115.330078125</c:v>
+                  <c:v>93.58038330078125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>172.9951171875</c:v>
+                  <c:v>132.31794738769531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>259.49267578125</c:v>
+                  <c:v>147.52695083618164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>389.239013671875</c:v>
+                  <c:v>217.6216402053833</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>583.8585205078125</c:v>
+                  <c:v>220.94361519813538</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>875.78778076171875</c:v>
+                  <c:v>360.47590571641922</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1313.6816711425781</c:v>
+                  <c:v>315.21506036818027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2450,11 +2604,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69909504"/>
-        <c:axId val="86656128"/>
+        <c:axId val="151748992"/>
+        <c:axId val="151750912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69909504"/>
+        <c:axId val="151748992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,7 +2637,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86656128"/>
+        <c:crossAx val="151750912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2491,14 +2645,14 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86656128"/>
+        <c:axId val="151750912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,###\ &quot;GB&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="#\ &quot;GB&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2516,7 +2670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69909504"/>
+        <c:crossAx val="151748992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2527,10 +2681,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14883484023807997"/>
-          <c:y val="0.28469370298072072"/>
-          <c:w val="0.36363115931263312"/>
-          <c:h val="0.14099737532808398"/>
+          <c:x val="0.17907531559400464"/>
+          <c:y val="0.25863371245261008"/>
+          <c:w val="0.43259794683450736"/>
+          <c:h val="0.2203610382035579"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2544,6 +2698,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2569,9 +2724,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.16879418197725285"/>
-          <c:y val="7.6315808713325869E-2"/>
+          <c:y val="0.14316817640134813"/>
           <c:w val="0.77178597219167622"/>
-          <c:h val="0.78314273389920963"/>
+          <c:h val="0.71629036621118736"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2582,11 +2737,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$149:$C$150</c:f>
+              <c:f>Sheet1!$D$153:$D$154</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Max Blockchain size</c:v>
+                  <c:v>Expected UTXO Size</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2603,7 +2758,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$151:$A$166</c:f>
+              <c:f>Sheet1!$A$155:$A$170</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2660,57 +2815,197 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$151:$C$166</c:f>
+              <c:f>Sheet1!$D$155:$D$170</c:f>
               <c:numCache>
-                <c:formatCode>#\ "GB"</c:formatCode>
+                <c:formatCode>#,###\ "GB"</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.5</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>185.1875</c:v>
+                  <c:v>10.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>228.953125</c:v>
+                  <c:v>15.1875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>282.39453125</c:v>
+                  <c:v>22.78125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>347.2978515625</c:v>
+                  <c:v>34.171875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425.579345703125</c:v>
+                  <c:v>51.2578125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>519.15972900390625</c:v>
+                  <c:v>76.88671875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>629.72798156738281</c:v>
+                  <c:v>115.330078125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>758.32745742797852</c:v>
+                  <c:v>172.9951171875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>904.66054248809814</c:v>
+                  <c:v>235.9094371875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1065.9525091648102</c:v>
+                  <c:v>298.82375718750001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1235.130883038044</c:v>
+                  <c:v>361.73807718749998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1397.9489736706018</c:v>
+                  <c:v>424.65239718749996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1528.4892718978226</c:v>
+                  <c:v>487.56671718749993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$153:$C$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max UTXO Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$155:$A$170</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$155:$C$170</c:f>
+              <c:numCache>
+                <c:formatCode>#,###\ "GB"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7633333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0278333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.332008333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6818095833333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0840810208333327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5466931739583316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.078697150052081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6905017225598931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3940769809438764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2031885280854571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1336668072982734</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.2037168283930164</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4342743526519683</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.849415505549761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2727,11 +3022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124352384"/>
-        <c:axId val="124375424"/>
+        <c:axId val="44198144"/>
+        <c:axId val="154883200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124352384"/>
+        <c:axId val="44198144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +3055,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124375424"/>
+        <c:crossAx val="154883200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2768,14 +3063,14 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124375424"/>
+        <c:axId val="154883200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#\ &quot;GB&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="#,###\ &quot;GB&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2786,14 +3081,14 @@
             <a:pPr>
               <a:defRPr b="1" i="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124352384"/>
+        <c:crossAx val="44198144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2804,10 +3099,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17907531559400464"/>
-          <c:y val="0.23641143742826018"/>
-          <c:w val="0.48766205446562122"/>
-          <c:h val="0.14099737532808398"/>
+          <c:x val="0.19020969977917687"/>
+          <c:y val="0.31440586639761953"/>
+          <c:w val="0.30811522254916468"/>
+          <c:h val="0.13432061939332793"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2821,6 +3116,425 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16879418197725285"/>
+          <c:y val="0.12088405383867405"/>
+          <c:w val="0.77178597219167622"/>
+          <c:h val="0.73857448877386145"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$129:$E$130</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected UTXO Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$155:$A$170</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$131:$E$146</c:f>
+              <c:numCache>
+                <c:formatCode>#,###\ "GB"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.1875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.78125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.171875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.2578125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.88671875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115.330078125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>172.9951171875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>235.9094371875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>298.82375718750001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>361.73807718749998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>424.65239718749996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>487.56671718749993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$129:$C$130</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max UTXO Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$155:$A$170</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$131:$C$146</c:f>
+              <c:numCache>
+                <c:formatCode>#,###\ "GB"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>85.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.13333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.85333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.78133333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.24853333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>171.63581333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>197.38118533333329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>226.98836313333322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>261.03661760333318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300.19211024383316</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>345.22092678040809</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>397.00406579746925</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>456.5546756670895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>525.03787701715305</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>603.79355856972597</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>694.36259235518469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="53313536"/>
+        <c:axId val="53315456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53313536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53315456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53315456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,###\ &quot;GB&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53313536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18742612288286511"/>
+          <c:y val="0.24383947828248489"/>
+          <c:w val="0.30811522254916468"/>
+          <c:h val="0.13432061939332793"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2830,13 +3544,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2860,13 +3574,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2892,13 +3606,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2924,13 +3638,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2954,20 +3668,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219073</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="13" name="Chart 12"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2986,20 +3700,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219073</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3011,6 +3725,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3110,6 +3856,336 @@
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>0) = 4.2</a:t>
           </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13178</cdr:x>
+      <cdr:y>0.02593</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91564</cdr:x>
+      <cdr:y>0.10371</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="431800" y="88900"/>
+          <a:ext cx="2568399" cy="266719"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Blockchain &amp; UTXO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Disk Usage</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2366</cdr:x>
+      <cdr:y>0.02878</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79954</cdr:x>
+      <cdr:y>0.10678</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1079500" y="98425"/>
+          <a:ext cx="2568399" cy="266719"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>UTXO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Set Size Based on Memory Usage</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21781</cdr:x>
+      <cdr:y>0.02043</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78075</cdr:x>
+      <cdr:y>0.09843</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="993775" y="69850"/>
+          <a:ext cx="2568399" cy="266719"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>UTXO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Set Size Based on Disk Usage</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -3405,19 +4481,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
@@ -3429,7 +4505,7 @@
         <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3567,7 +4643,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>41</v>
@@ -3593,7 +4669,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>42</v>
@@ -3627,2829 +4703,3553 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
         <v>0.9</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C15" s="24">
         <f>7*30</f>
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="D15" s="42">
+        <f>0.45/utxoSize/utxoExpand</f>
+        <v>2.3437499999999997E-2</v>
+      </c>
+      <c r="E15" s="21">
+        <v>6.4</v>
+      </c>
+      <c r="F15" s="18">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C19" s="16">
         <v>1</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="17">
         <v>128</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="17">
         <v>2</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F19" s="18">
         <v>200</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H19" s="20">
         <v>7</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I19" s="21">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="J19" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>0</v>
       </c>
-      <c r="B21" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A21)*syncTime1/365</f>
+      <c r="B22" s="7">
+        <f t="shared" ref="B22:B37" si="0">bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A22)*syncTime1/365</f>
         <v>56.7</v>
       </c>
-      <c r="C21" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A21)*syncTime1/365</f>
+      <c r="C22" s="8">
+        <f t="shared" ref="C22:C37" si="1">bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A22)*syncTime1/365</f>
         <v>12.652239359515697</v>
       </c>
-      <c r="D21" s="9">
-        <f>C21*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D22" s="9">
+        <f t="shared" ref="D22:D37" si="2">C22*(secondsPerBlock/secondsPerYear)*KBperGB</f>
         <v>240.71992693142499</v>
       </c>
-      <c r="E21" s="10">
-        <f>D21*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E22" s="10">
+        <f t="shared" ref="E22:E37" si="3">D22*1000/(secondsPerBlock*avgTrSize)</f>
         <v>0.8446313225664035</v>
       </c>
-      <c r="F21" s="33"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>1</v>
       </c>
-      <c r="B22" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A22)*syncTime1/365</f>
+      <c r="B23" s="7">
+        <f t="shared" si="0"/>
         <v>70.875</v>
       </c>
-      <c r="C22" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A22)*syncTime1/365</f>
+      <c r="C23" s="8">
+        <f t="shared" si="1"/>
         <v>15.815299199394618</v>
       </c>
-      <c r="D22" s="9">
-        <f>C22*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D23" s="9">
+        <f t="shared" si="2"/>
         <v>300.89990866428116</v>
       </c>
-      <c r="E22" s="10">
-        <f>D22*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E23" s="10">
+        <f t="shared" si="3"/>
         <v>1.0557891532080039</v>
       </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2</v>
       </c>
-      <c r="B23" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A23)*syncTime1/365</f>
+      <c r="B24" s="7">
+        <f t="shared" si="0"/>
         <v>88.59375</v>
       </c>
-      <c r="C23" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A23)*syncTime1/365</f>
+      <c r="C24" s="8">
+        <f t="shared" si="1"/>
         <v>19.769123999243277</v>
       </c>
-      <c r="D23" s="9">
-        <f>C23*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D24" s="9">
+        <f t="shared" si="2"/>
         <v>376.12488583035162</v>
       </c>
-      <c r="E23" s="10">
-        <f>D23*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E24" s="10">
+        <f t="shared" si="3"/>
         <v>1.3197364415100057</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>3</v>
       </c>
-      <c r="B24" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A24)*syncTime1/365</f>
+      <c r="B25" s="7">
+        <f t="shared" si="0"/>
         <v>110.7421875</v>
       </c>
-      <c r="C24" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A24)*syncTime1/365</f>
+      <c r="C25" s="8">
+        <f t="shared" si="1"/>
         <v>24.711404999054093</v>
       </c>
-      <c r="D24" s="9">
-        <f>C24*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D25" s="9">
+        <f t="shared" si="2"/>
         <v>470.15610728793939</v>
       </c>
-      <c r="E24" s="10">
-        <f>D24*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E25" s="10">
+        <f t="shared" si="3"/>
         <v>1.6496705518875068</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>4</v>
       </c>
-      <c r="B25" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A25)*syncTime1/365</f>
+      <c r="B26" s="7">
+        <f t="shared" si="0"/>
         <v>138.427734375</v>
       </c>
-      <c r="C25" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A25)*syncTime1/365</f>
+      <c r="C26" s="8">
+        <f t="shared" si="1"/>
         <v>30.88925624881762</v>
       </c>
-      <c r="D25" s="9">
-        <f>C25*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D26" s="9">
+        <f t="shared" si="2"/>
         <v>587.69513410992431</v>
       </c>
-      <c r="E25" s="10">
-        <f>D25*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E26" s="10">
+        <f t="shared" si="3"/>
         <v>2.0620881898593835</v>
       </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>5</v>
       </c>
-      <c r="B26" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A26)*syncTime1/365</f>
+      <c r="B27" s="7">
+        <f t="shared" si="0"/>
         <v>173.03466796875</v>
       </c>
-      <c r="C26" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A26)*syncTime1/365</f>
+      <c r="C27" s="8">
+        <f t="shared" si="1"/>
         <v>38.611570311022021</v>
       </c>
-      <c r="D26" s="9">
-        <f>C26*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D27" s="9">
+        <f t="shared" si="2"/>
         <v>734.61891763740527</v>
       </c>
-      <c r="E26" s="10">
-        <f>D26*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E27" s="10">
+        <f t="shared" si="3"/>
         <v>2.5776102373242287</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>6</v>
       </c>
-      <c r="B27" s="14">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A27)*syncTime1/365</f>
+      <c r="B28" s="14">
+        <f t="shared" si="0"/>
         <v>216.2933349609375</v>
       </c>
-      <c r="C27" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A27)*syncTime1/365</f>
+      <c r="C28" s="8">
+        <f t="shared" si="1"/>
         <v>48.264462888777523</v>
       </c>
-      <c r="D27" s="9">
-        <f>C27*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D28" s="9">
+        <f t="shared" si="2"/>
         <v>918.27364704675665</v>
       </c>
-      <c r="E27" s="10">
-        <f>D27*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E28" s="10">
+        <f t="shared" si="3"/>
         <v>3.2220127966552865</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>7</v>
       </c>
-      <c r="B28" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A28)*syncTime1/365</f>
+      <c r="B29" s="7">
+        <f t="shared" si="0"/>
         <v>270.36666870117187</v>
       </c>
-      <c r="C28" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A28)*syncTime1/365</f>
+      <c r="C29" s="8">
+        <f t="shared" si="1"/>
         <v>60.330578610971912</v>
       </c>
-      <c r="D28" s="9">
-        <f>C28*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D29" s="9">
+        <f t="shared" si="2"/>
         <v>1147.8420588084459</v>
       </c>
-      <c r="E28" s="10">
-        <f>D28*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E29" s="10">
+        <f t="shared" si="3"/>
         <v>4.0275159958191082</v>
       </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>8</v>
       </c>
-      <c r="B29" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A29)*syncTime1/365</f>
+      <c r="B30" s="7">
+        <f t="shared" si="0"/>
         <v>337.95833587646484</v>
       </c>
-      <c r="C29" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A29)*syncTime1/365</f>
+      <c r="C30" s="8">
+        <f t="shared" si="1"/>
         <v>75.413223263714883</v>
       </c>
-      <c r="D29" s="9">
-        <f>C29*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D30" s="9">
+        <f t="shared" si="2"/>
         <v>1434.8025735105573</v>
       </c>
-      <c r="E29" s="10">
-        <f>D29*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E30" s="10">
+        <f t="shared" si="3"/>
         <v>5.0343949947738844</v>
       </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>9</v>
       </c>
-      <c r="B30" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A30)*syncTime1/365</f>
+      <c r="B31" s="7">
+        <f t="shared" si="0"/>
         <v>422.44791984558105</v>
       </c>
-      <c r="C30" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A30)*syncTime1/365</f>
+      <c r="C31" s="8">
+        <f t="shared" si="1"/>
         <v>94.266529079643618</v>
       </c>
-      <c r="D30" s="9">
-        <f>C30*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D31" s="9">
+        <f t="shared" si="2"/>
         <v>1793.5032168881967</v>
       </c>
-      <c r="E30" s="10">
-        <f>D30*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E31" s="10">
+        <f t="shared" si="3"/>
         <v>6.2929937434673571</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>10</v>
       </c>
-      <c r="B31" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A31)*syncTime1/365</f>
+      <c r="B32" s="7">
+        <f t="shared" si="0"/>
         <v>528.05989980697632</v>
       </c>
-      <c r="C31" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A31)*syncTime1/365</f>
+      <c r="C32" s="8">
+        <f t="shared" si="1"/>
         <v>117.83316134955453</v>
       </c>
-      <c r="D31" s="9">
-        <f>C31*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D32" s="9">
+        <f t="shared" si="2"/>
         <v>2241.8790211102464</v>
       </c>
-      <c r="E31" s="10">
-        <f>D31*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E32" s="10">
+        <f t="shared" si="3"/>
         <v>7.8662421793341979</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>11</v>
       </c>
-      <c r="B32" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A32)*syncTime1/365</f>
+      <c r="B33" s="7">
+        <f t="shared" si="0"/>
         <v>660.0748747587204</v>
       </c>
-      <c r="C32" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A32)*syncTime1/365</f>
+      <c r="C33" s="8">
+        <f t="shared" si="1"/>
         <v>147.29145168694313</v>
       </c>
-      <c r="D32" s="9">
-        <f>C32*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D33" s="9">
+        <f t="shared" si="2"/>
         <v>2802.348776387807</v>
       </c>
-      <c r="E32" s="10">
-        <f>D32*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E33" s="10">
+        <f t="shared" si="3"/>
         <v>9.8328027241677436</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>12</v>
       </c>
-      <c r="B33" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A33)*syncTime1/365</f>
+      <c r="B34" s="7">
+        <f t="shared" si="0"/>
         <v>825.0935934484005</v>
       </c>
-      <c r="C33" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A33)*syncTime1/365</f>
+      <c r="C34" s="8">
+        <f t="shared" si="1"/>
         <v>184.11431460867891</v>
       </c>
-      <c r="D33" s="9">
-        <f>C33*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D34" s="9">
+        <f t="shared" si="2"/>
         <v>3502.9359704847589</v>
       </c>
-      <c r="E33" s="10">
-        <f>D33*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E34" s="10">
+        <f t="shared" si="3"/>
         <v>12.291003405209679</v>
       </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>13</v>
       </c>
-      <c r="B34" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A34)*syncTime1/365</f>
+      <c r="B35" s="7">
+        <f t="shared" si="0"/>
         <v>1031.3669918105006</v>
       </c>
-      <c r="C34" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A34)*syncTime1/365</f>
+      <c r="C35" s="8">
+        <f t="shared" si="1"/>
         <v>230.14289326084864</v>
       </c>
-      <c r="D34" s="9">
-        <f>C34*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D35" s="9">
+        <f t="shared" si="2"/>
         <v>4378.6699631059482</v>
       </c>
-      <c r="E34" s="10">
-        <f>D34*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E35" s="10">
+        <f t="shared" si="3"/>
         <v>15.363754256512101</v>
       </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>14</v>
       </c>
-      <c r="B35" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A35)*syncTime1/365</f>
+      <c r="B36" s="7">
+        <f t="shared" si="0"/>
         <v>1289.2087397631258</v>
       </c>
-      <c r="C35" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A35)*syncTime1/365</f>
+      <c r="C36" s="8">
+        <f t="shared" si="1"/>
         <v>287.67861657606079</v>
       </c>
-      <c r="D35" s="9">
-        <f>C35*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D36" s="9">
+        <f t="shared" si="2"/>
         <v>5473.3374538824364</v>
       </c>
-      <c r="E35" s="10">
-        <f>D35*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E36" s="10">
+        <f t="shared" si="3"/>
         <v>19.204692820640126</v>
       </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>15</v>
       </c>
-      <c r="B36" s="7">
-        <f>bandwidth1*resourcePercent*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A36)*syncTime1/365</f>
+      <c r="B37" s="7">
+        <f t="shared" si="0"/>
         <v>1611.5109247039072</v>
       </c>
-      <c r="C36" s="8">
-        <f>bandwidth1*resourcePercent*LN(1+bandwidthGrowth)*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A36)*syncTime1/365</f>
+      <c r="C37" s="8">
+        <f t="shared" si="1"/>
         <v>359.59827072007602</v>
       </c>
-      <c r="D36" s="9">
-        <f>C36*(secondsPerBlock/secondsPerYear)*KBperGB</f>
+      <c r="D37" s="9">
+        <f t="shared" si="2"/>
         <v>6841.6718173530453</v>
       </c>
-      <c r="E36" s="10">
-        <f>D36*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="E37" s="10">
+        <f t="shared" si="3"/>
         <v>24.005866025800159</v>
       </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F37" s="33"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C41" s="16">
         <v>1</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="17">
         <v>128</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>2</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F41" s="18">
         <v>200</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G41" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H41" s="20">
         <v>7</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I41" s="21">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="J41" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>0</v>
       </c>
-      <c r="B43" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A43)*syncTime2/365/1000/1000</f>
+      <c r="B44" s="12">
+        <f t="shared" ref="B44:B59" si="4">throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A44)*syncTime2/365/1000/1000</f>
         <v>90.72</v>
       </c>
-      <c r="C43" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A43)*syncTime2/365/1000/1000</f>
+      <c r="C44" s="25">
+        <f t="shared" ref="C44:C59" si="5">throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A44)*syncTime2/365/1000/1000</f>
         <v>14.243380092012782</v>
       </c>
-      <c r="D43" s="13">
-        <f>E43*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D44" s="13">
+        <f t="shared" ref="D44:D59" si="6">E44*secondsPerBlock*avgTrSize/1000</f>
         <v>128.72156666107443</v>
       </c>
-      <c r="E43" s="6">
-        <f>C43*1000*1000/secondsPerYear</f>
+      <c r="E44" s="6">
+        <f t="shared" ref="E44:E59" si="7">C44*1000*1000/secondsPerYear</f>
         <v>0.45165461986341898</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>1</v>
       </c>
-      <c r="B44" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A44)*syncTime2/365/1000/1000</f>
+      <c r="B45" s="12">
+        <f t="shared" si="4"/>
         <v>106.14239999999999</v>
       </c>
-      <c r="C44" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A44)*syncTime2/365/1000/1000</f>
+      <c r="C45" s="25">
+        <f t="shared" si="5"/>
         <v>16.664754707654954</v>
       </c>
-      <c r="D44" s="13">
-        <f>E44*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D45" s="13">
+        <f t="shared" si="6"/>
         <v>150.60423299345706</v>
       </c>
-      <c r="E44" s="6">
-        <f>C44*1000*1000/secondsPerYear</f>
+      <c r="E45" s="6">
+        <f t="shared" si="7"/>
         <v>0.52843590524020023</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>2</v>
       </c>
-      <c r="B45" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A45)*syncTime2/365/1000/1000</f>
+      <c r="B46" s="12">
+        <f t="shared" si="4"/>
         <v>124.18660799999998</v>
       </c>
-      <c r="C45" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A45)*syncTime2/365/1000/1000</f>
+      <c r="C46" s="25">
+        <f t="shared" si="5"/>
         <v>19.497763007956291</v>
       </c>
-      <c r="D45" s="13">
-        <f>E45*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D46" s="13">
+        <f t="shared" si="6"/>
         <v>176.20695260234473</v>
       </c>
-      <c r="E45" s="6">
-        <f>C45*1000*1000/secondsPerYear</f>
+      <c r="E46" s="6">
+        <f t="shared" si="7"/>
         <v>0.61827000913103414</v>
       </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>3</v>
       </c>
-      <c r="B46" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A46)*syncTime2/365/1000/1000</f>
+      <c r="B47" s="12">
+        <f t="shared" si="4"/>
         <v>145.29833135999999</v>
       </c>
-      <c r="C46" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A46)*syncTime2/365/1000/1000</f>
+      <c r="C47" s="25">
+        <f t="shared" si="5"/>
         <v>22.812382719308864</v>
       </c>
-      <c r="D46" s="13">
-        <f>E46*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D47" s="13">
+        <f t="shared" si="6"/>
         <v>206.16213454474334</v>
       </c>
-      <c r="E46" s="6">
-        <f>C46*1000*1000/secondsPerYear</f>
+      <c r="E47" s="6">
+        <f t="shared" si="7"/>
         <v>0.72337591068330998</v>
       </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>4</v>
       </c>
-      <c r="B47" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A47)*syncTime2/365/1000/1000</f>
+      <c r="B48" s="12">
+        <f t="shared" si="4"/>
         <v>169.99904769119996</v>
       </c>
-      <c r="C47" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A47)*syncTime2/365/1000/1000</f>
+      <c r="C48" s="25">
+        <f t="shared" si="5"/>
         <v>26.690487781591369</v>
       </c>
-      <c r="D47" s="13">
-        <f>E47*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D48" s="13">
+        <f t="shared" si="6"/>
         <v>241.20969741734967</v>
       </c>
-      <c r="E47" s="6">
-        <f>C47*1000*1000/secondsPerYear</f>
+      <c r="E48" s="6">
+        <f t="shared" si="7"/>
         <v>0.84634981549947252</v>
       </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>5</v>
       </c>
-      <c r="B48" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A48)*syncTime2/365/1000/1000</f>
+      <c r="B49" s="12">
+        <f t="shared" si="4"/>
         <v>198.8988857987039</v>
       </c>
-      <c r="C48" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A48)*syncTime2/365/1000/1000</f>
+      <c r="C49" s="25">
+        <f t="shared" si="5"/>
         <v>31.2278707044619</v>
       </c>
-      <c r="D48" s="13">
-        <f>E48*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D49" s="13">
+        <f t="shared" si="6"/>
         <v>282.21534597829907</v>
       </c>
-      <c r="E48" s="6">
-        <f>C48*1000*1000/secondsPerYear</f>
+      <c r="E49" s="6">
+        <f t="shared" si="7"/>
         <v>0.99022928413438294</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>6</v>
       </c>
-      <c r="B49" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A49)*syncTime2/365/1000/1000</f>
+      <c r="B50" s="12">
+        <f t="shared" si="4"/>
         <v>232.71169638448359</v>
       </c>
-      <c r="C49" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A49)*syncTime2/365/1000/1000</f>
+      <c r="C50" s="25">
+        <f t="shared" si="5"/>
         <v>36.536608724220415</v>
       </c>
-      <c r="D49" s="13">
-        <f>E49*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D50" s="13">
+        <f t="shared" si="6"/>
         <v>330.1919547946099</v>
       </c>
-      <c r="E49" s="6">
-        <f>C49*1000*1000/secondsPerYear</f>
+      <c r="E50" s="6">
+        <f t="shared" si="7"/>
         <v>1.1585682624372278</v>
       </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>7</v>
       </c>
-      <c r="B50" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A50)*syncTime2/365/1000/1000</f>
+      <c r="B51" s="12">
+        <f t="shared" si="4"/>
         <v>272.27268476984574</v>
       </c>
-      <c r="C50" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A50)*syncTime2/365/1000/1000</f>
+      <c r="C51" s="25">
+        <f t="shared" si="5"/>
         <v>42.747832207337886</v>
       </c>
-      <c r="D50" s="13">
-        <f>E50*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D51" s="13">
+        <f t="shared" si="6"/>
         <v>386.3245871096936</v>
       </c>
-      <c r="E50" s="6">
-        <f>C50*1000*1000/secondsPerYear</f>
+      <c r="E51" s="6">
+        <f t="shared" si="7"/>
         <v>1.3555248670515565</v>
       </c>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>8</v>
       </c>
-      <c r="B51" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A51)*syncTime2/365/1000/1000</f>
+      <c r="B52" s="12">
+        <f t="shared" si="4"/>
         <v>318.55904118071953</v>
       </c>
-      <c r="C51" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A51)*syncTime2/365/1000/1000</f>
+      <c r="C52" s="25">
+        <f t="shared" si="5"/>
         <v>50.014963682585318</v>
       </c>
-      <c r="D51" s="13">
-        <f>E51*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D52" s="13">
+        <f t="shared" si="6"/>
         <v>451.99976691834138</v>
       </c>
-      <c r="E51" s="6">
-        <f>C51*1000*1000/secondsPerYear</f>
+      <c r="E52" s="6">
+        <f t="shared" si="7"/>
         <v>1.5859640944503206</v>
       </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>9</v>
       </c>
-      <c r="B52" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A52)*syncTime2/365/1000/1000</f>
+      <c r="B53" s="12">
+        <f t="shared" si="4"/>
         <v>372.71407818144172</v>
       </c>
-      <c r="C52" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A52)*syncTime2/365/1000/1000</f>
+      <c r="C53" s="25">
+        <f t="shared" si="5"/>
         <v>58.517507508624817</v>
       </c>
-      <c r="D52" s="13">
-        <f>E52*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D53" s="13">
+        <f t="shared" si="6"/>
         <v>528.83972729445941</v>
       </c>
-      <c r="E52" s="6">
-        <f>C52*1000*1000/secondsPerYear</f>
+      <c r="E53" s="6">
+        <f t="shared" si="7"/>
         <v>1.8555779905068752</v>
       </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>10</v>
       </c>
-      <c r="B53" s="15">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A53)*syncTime2/365/1000/1000</f>
+      <c r="B54" s="15">
+        <f t="shared" si="4"/>
         <v>436.07547147228695</v>
       </c>
-      <c r="C53" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A53)*syncTime2/365/1000/1000</f>
+      <c r="C54" s="25">
+        <f t="shared" si="5"/>
         <v>68.465483785091038</v>
       </c>
-      <c r="D53" s="13">
-        <f>E53*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D54" s="13">
+        <f t="shared" si="6"/>
         <v>618.74248093451774</v>
       </c>
-      <c r="E53" s="6">
-        <f>C53*1000*1000/secondsPerYear</f>
+      <c r="E54" s="6">
+        <f t="shared" si="7"/>
         <v>2.1710262488930443</v>
       </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>11</v>
       </c>
-      <c r="B54" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A54)*syncTime2/365/1000/1000</f>
+      <c r="B55" s="12">
+        <f t="shared" si="4"/>
         <v>510.20830162257562</v>
       </c>
-      <c r="C54" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A54)*syncTime2/365/1000/1000</f>
+      <c r="C55" s="25">
+        <f t="shared" si="5"/>
         <v>80.104616028556507</v>
       </c>
-      <c r="D54" s="13">
-        <f>E54*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D55" s="13">
+        <f t="shared" si="6"/>
         <v>723.9287026933855</v>
       </c>
-      <c r="E54" s="6">
-        <f>C54*1000*1000/secondsPerYear</f>
+      <c r="E55" s="6">
+        <f t="shared" si="7"/>
         <v>2.5401007112048615</v>
       </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>12</v>
       </c>
-      <c r="B55" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A55)*syncTime2/365/1000/1000</f>
+      <c r="B56" s="12">
+        <f t="shared" si="4"/>
         <v>596.94371289841331</v>
       </c>
-      <c r="C55" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A55)*syncTime2/365/1000/1000</f>
+      <c r="C56" s="25">
+        <f t="shared" si="5"/>
         <v>93.722400753411094</v>
       </c>
-      <c r="D55" s="13">
-        <f>E55*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D56" s="13">
+        <f t="shared" si="6"/>
         <v>846.9965821512609</v>
       </c>
-      <c r="E55" s="6">
-        <f>C55*1000*1000/secondsPerYear</f>
+      <c r="E56" s="6">
+        <f t="shared" si="7"/>
         <v>2.9719178321096873</v>
       </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>13</v>
       </c>
-      <c r="B56" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A56)*syncTime2/365/1000/1000</f>
+      <c r="B57" s="12">
+        <f t="shared" si="4"/>
         <v>698.4241440911436</v>
       </c>
-      <c r="C56" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A56)*syncTime2/365/1000/1000</f>
+      <c r="C57" s="25">
+        <f t="shared" si="5"/>
         <v>109.65520888149099</v>
       </c>
-      <c r="D56" s="13">
-        <f>E56*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D57" s="13">
+        <f t="shared" si="6"/>
         <v>990.98600111697533</v>
       </c>
-      <c r="E56" s="6">
-        <f>C56*1000*1000/secondsPerYear</f>
+      <c r="E57" s="6">
+        <f t="shared" si="7"/>
         <v>3.4771438635683345</v>
       </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>14</v>
       </c>
-      <c r="B57" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A57)*syncTime2/365/1000/1000</f>
+      <c r="B58" s="12">
+        <f t="shared" si="4"/>
         <v>817.15624858663818</v>
       </c>
-      <c r="C57" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A57)*syncTime2/365/1000/1000</f>
+      <c r="C58" s="25">
+        <f t="shared" si="5"/>
         <v>128.29659439134446</v>
       </c>
-      <c r="D57" s="13">
-        <f>E57*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D58" s="13">
+        <f t="shared" si="6"/>
         <v>1159.4536213068609</v>
       </c>
-      <c r="E57" s="6">
-        <f>C57*1000*1000/secondsPerYear</f>
+      <c r="E58" s="6">
+        <f t="shared" si="7"/>
         <v>4.0682583203749507</v>
       </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>15</v>
       </c>
-      <c r="B58" s="12">
-        <f>throughput2*resourcePercent2*secondsPerYear*POWER(1+cpuGrowth,A58)*syncTime2/365/1000/1000</f>
+      <c r="B59" s="12">
+        <f t="shared" si="4"/>
         <v>956.07281084636656</v>
       </c>
-      <c r="C58" s="25">
-        <f>throughput2*resourcePercent2*secondsPerYear*LN(1+cpuGrowth)*POWER(1+cpuGrowth,A58)*syncTime2/365/1000/1000</f>
+      <c r="C59" s="25">
+        <f t="shared" si="5"/>
         <v>150.10701543787297</v>
       </c>
-      <c r="D58" s="13">
-        <f>E58*secondsPerBlock*avgTrSize/1000</f>
+      <c r="D59" s="13">
+        <f t="shared" si="6"/>
         <v>1356.5607369290271</v>
       </c>
-      <c r="E58" s="6">
-        <f>C58*1000*1000/secondsPerYear</f>
+      <c r="E59" s="6">
+        <f t="shared" si="7"/>
         <v>4.7598622348386916</v>
       </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="D62" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C63" s="16">
         <v>1</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="17">
         <v>128</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>2</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F63" s="18">
         <v>200</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="G63" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H63" s="20">
         <v>7</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I63" s="21">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H64" s="1" t="s">
+      <c r="J63" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="1" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="28"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="I66" s="28"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>0</v>
-      </c>
-      <c r="B67" s="26">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C67" s="30">
-        <v>415</v>
-      </c>
-      <c r="D67" s="25">
-        <f>B67*secondsPerYear/1000/1000</f>
-        <v>154.5264</v>
-      </c>
-      <c r="E67" s="13">
-        <f>B67*secondsPerBlock*avgTrSize/1000</f>
-        <v>1396.5</v>
-      </c>
-      <c r="F67" s="12">
-        <f>assumevalidBlockTime*D67/365</f>
-        <v>88.905599999999993</v>
-      </c>
-      <c r="G67" s="12">
-        <f>C67-F67</f>
-        <v>326.09440000000001</v>
-      </c>
-      <c r="H67" s="12">
-        <f>F67+G67*(1-assumevalidSpeedup)</f>
-        <v>121.51503999999998</v>
-      </c>
-      <c r="I67" s="27">
-        <f>(H67*1000*1000/(throughput3*POWER(1+cpuGrowth,A67)))/(secondsPerYear/365)</f>
-        <v>7.0321203703703699</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="26">
-        <v>5.2</v>
-      </c>
-      <c r="C68" s="12">
-        <f>C67+D67</f>
-        <v>569.52639999999997</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C68" s="30">
+        <v>415</v>
       </c>
       <c r="D68" s="25">
-        <f>B68*secondsPerYear/1000/1000</f>
-        <v>163.9872</v>
+        <f t="shared" ref="D68:D83" si="8">B68*secondsPerYear/1000/1000</f>
+        <v>154.5264</v>
       </c>
       <c r="E68" s="13">
-        <f>B68*secondsPerBlock*avgTrSize/1000</f>
-        <v>1482</v>
+        <f t="shared" ref="E68:E83" si="9">B68*secondsPerBlock*avgTrSize/1000</f>
+        <v>1396.5</v>
       </c>
       <c r="F68" s="12">
-        <f>assumevalidBlockTime*D68/365</f>
-        <v>94.348799999999997</v>
+        <f t="shared" ref="F68:F83" si="10">assumevalidBlockTime*D68/365</f>
+        <v>88.905599999999993</v>
       </c>
       <c r="G68" s="12">
-        <f>C68-F68</f>
-        <v>475.17759999999998</v>
+        <f t="shared" ref="G68:G83" si="11">C68-F68</f>
+        <v>326.09440000000001</v>
       </c>
       <c r="H68" s="12">
-        <f>F68+G68*(1-assumevalidSpeedup)</f>
-        <v>141.86655999999999</v>
+        <f t="shared" ref="H68:H83" si="12">F68+G68*(1-assumevalidSpeedup)</f>
+        <v>121.51503999999998</v>
       </c>
       <c r="I68" s="27">
-        <f>(H68*1000*1000/(throughput3*POWER(1+cpuGrowth,A68)))/(secondsPerYear/365)</f>
-        <v>7.0169832225387774</v>
+        <f t="shared" ref="I68:I83" si="13">(H68*1000*1000/(throughput3*POWER(1+cpuGrowth,A68)))/(secondsPerYear/365)</f>
+        <v>7.0321203703703699</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" s="26">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="C69" s="12">
-        <f t="shared" ref="C69:C82" si="0">C68+D68</f>
-        <v>733.5136</v>
+        <f>C68+D68</f>
+        <v>569.52639999999997</v>
       </c>
       <c r="D69" s="25">
-        <f>B69*secondsPerYear/1000/1000</f>
-        <v>176.60160000000002</v>
+        <f t="shared" si="8"/>
+        <v>163.9872</v>
       </c>
       <c r="E69" s="13">
-        <f>B69*secondsPerBlock*avgTrSize/1000</f>
-        <v>1596</v>
+        <f t="shared" si="9"/>
+        <v>1482</v>
       </c>
       <c r="F69" s="12">
-        <f>assumevalidBlockTime*D69/365</f>
-        <v>101.60640000000001</v>
+        <f t="shared" si="10"/>
+        <v>94.348799999999997</v>
       </c>
       <c r="G69" s="12">
-        <f>C69-F69</f>
-        <v>631.90719999999999</v>
+        <f t="shared" si="11"/>
+        <v>475.17759999999998</v>
       </c>
       <c r="H69" s="12">
-        <f>F69+G69*(1-assumevalidSpeedup)</f>
-        <v>164.79712000000001</v>
+        <f t="shared" si="12"/>
+        <v>141.86655999999999</v>
       </c>
       <c r="I69" s="27">
-        <f>(H69*1000*1000/(throughput3*POWER(1+cpuGrowth,A69)))/(secondsPerYear/365)</f>
-        <v>6.9668130399374473</v>
+        <f t="shared" si="13"/>
+        <v>7.0169832225387774</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70" s="26">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="C70" s="12">
-        <f t="shared" si="0"/>
-        <v>910.11519999999996</v>
+        <f t="shared" ref="C70:C83" si="14">C69+D69</f>
+        <v>733.5136</v>
       </c>
       <c r="D70" s="25">
-        <f>B70*secondsPerYear/1000/1000</f>
-        <v>198.67679999999999</v>
+        <f t="shared" si="8"/>
+        <v>176.60160000000002</v>
       </c>
       <c r="E70" s="13">
-        <f>B70*secondsPerBlock*avgTrSize/1000</f>
-        <v>1795.5</v>
+        <f t="shared" si="9"/>
+        <v>1596</v>
       </c>
       <c r="F70" s="12">
-        <f>assumevalidBlockTime*D70/365</f>
-        <v>114.30719999999999</v>
+        <f t="shared" si="10"/>
+        <v>101.60640000000001</v>
       </c>
       <c r="G70" s="12">
-        <f>C70-F70</f>
-        <v>795.80799999999999</v>
+        <f t="shared" si="11"/>
+        <v>631.90719999999999</v>
       </c>
       <c r="H70" s="12">
-        <f>F70+G70*(1-assumevalidSpeedup)</f>
-        <v>193.88799999999998</v>
+        <f t="shared" si="12"/>
+        <v>164.79712000000001</v>
       </c>
       <c r="I70" s="27">
-        <f>(H70*1000*1000/(throughput3*POWER(1+cpuGrowth,A70)))/(secondsPerYear/365)</f>
-        <v>7.005668891530207</v>
+        <f t="shared" si="13"/>
+        <v>6.9668130399374473</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" s="26">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="C71" s="12">
-        <f t="shared" si="0"/>
-        <v>1108.7919999999999</v>
+        <f t="shared" si="14"/>
+        <v>910.11519999999996</v>
       </c>
       <c r="D71" s="25">
-        <f>B71*secondsPerYear/1000/1000</f>
-        <v>220.75200000000001</v>
+        <f t="shared" si="8"/>
+        <v>198.67679999999999</v>
       </c>
       <c r="E71" s="13">
-        <f>B71*secondsPerBlock*avgTrSize/1000</f>
-        <v>1995</v>
+        <f t="shared" si="9"/>
+        <v>1795.5</v>
       </c>
       <c r="F71" s="12">
-        <f>assumevalidBlockTime*D71/365</f>
-        <v>127.00800000000001</v>
+        <f t="shared" si="10"/>
+        <v>114.30719999999999</v>
       </c>
       <c r="G71" s="12">
-        <f>C71-F71</f>
-        <v>981.78399999999988</v>
+        <f t="shared" si="11"/>
+        <v>795.80799999999999</v>
       </c>
       <c r="H71" s="12">
-        <f>F71+G71*(1-assumevalidSpeedup)</f>
-        <v>225.18639999999999</v>
+        <f t="shared" si="12"/>
+        <v>193.88799999999998</v>
       </c>
       <c r="I71" s="27">
-        <f>(H71*1000*1000/(throughput3*POWER(1+cpuGrowth,A71)))/(secondsPerYear/365)</f>
-        <v>6.9543248392043688</v>
+        <f t="shared" si="13"/>
+        <v>7.005668891530207</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" s="26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" s="12">
-        <f t="shared" si="0"/>
-        <v>1329.5439999999999</v>
+        <f t="shared" si="14"/>
+        <v>1108.7919999999999</v>
       </c>
       <c r="D72" s="25">
-        <f>B72*secondsPerYear/1000/1000</f>
-        <v>252.28800000000001</v>
+        <f t="shared" si="8"/>
+        <v>220.75200000000001</v>
       </c>
       <c r="E72" s="13">
-        <f>B72*secondsPerBlock*avgTrSize/1000</f>
-        <v>2280</v>
+        <f t="shared" si="9"/>
+        <v>1995</v>
       </c>
       <c r="F72" s="12">
-        <f>assumevalidBlockTime*D72/365</f>
-        <v>145.15200000000002</v>
+        <f t="shared" si="10"/>
+        <v>127.00800000000001</v>
       </c>
       <c r="G72" s="12">
-        <f>C72-F72</f>
-        <v>1184.3919999999998</v>
+        <f t="shared" si="11"/>
+        <v>981.78399999999988</v>
       </c>
       <c r="H72" s="12">
-        <f>F72+G72*(1-assumevalidSpeedup)</f>
-        <v>263.59119999999996</v>
+        <f t="shared" si="12"/>
+        <v>225.18639999999999</v>
       </c>
       <c r="I72" s="27">
-        <f>(H72*1000*1000/(throughput3*POWER(1+cpuGrowth,A72)))/(secondsPerYear/365)</f>
-        <v>6.9575744200021923</v>
+        <f t="shared" si="13"/>
+        <v>6.9543248392043688</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73" s="26">
-        <v>9.1999999999999993</v>
+        <v>8</v>
       </c>
       <c r="C73" s="12">
-        <f t="shared" si="0"/>
-        <v>1581.8319999999999</v>
+        <f t="shared" si="14"/>
+        <v>1329.5439999999999</v>
       </c>
       <c r="D73" s="25">
-        <f>B73*secondsPerYear/1000/1000</f>
-        <v>290.13120000000004</v>
+        <f t="shared" si="8"/>
+        <v>252.28800000000001</v>
       </c>
       <c r="E73" s="13">
-        <f>B73*secondsPerBlock*avgTrSize/1000</f>
-        <v>2622</v>
+        <f t="shared" si="9"/>
+        <v>2280</v>
       </c>
       <c r="F73" s="12">
-        <f>assumevalidBlockTime*D73/365</f>
-        <v>166.92480000000003</v>
+        <f t="shared" si="10"/>
+        <v>145.15200000000002</v>
       </c>
       <c r="G73" s="12">
-        <f>C73-F73</f>
-        <v>1414.9071999999999</v>
+        <f t="shared" si="11"/>
+        <v>1184.3919999999998</v>
       </c>
       <c r="H73" s="12">
-        <f>F73+G73*(1-assumevalidSpeedup)</f>
-        <v>308.41552000000001</v>
+        <f t="shared" si="12"/>
+        <v>263.59119999999996</v>
       </c>
       <c r="I73" s="27">
-        <f>(H73*1000*1000/(throughput3*POWER(1+cpuGrowth,A73)))/(secondsPerYear/365)</f>
-        <v>6.9578861103947567</v>
+        <f t="shared" si="13"/>
+        <v>6.9575744200021923</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" s="26">
-        <v>10.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C74" s="12">
-        <f t="shared" si="0"/>
-        <v>1871.9631999999999</v>
+        <f t="shared" si="14"/>
+        <v>1581.8319999999999</v>
       </c>
       <c r="D74" s="25">
-        <f>B74*secondsPerYear/1000/1000</f>
-        <v>340.58879999999999</v>
+        <f t="shared" si="8"/>
+        <v>290.13120000000004</v>
       </c>
       <c r="E74" s="13">
-        <f>B74*secondsPerBlock*avgTrSize/1000</f>
-        <v>3078</v>
+        <f t="shared" si="9"/>
+        <v>2622</v>
       </c>
       <c r="F74" s="12">
-        <f>assumevalidBlockTime*D74/365</f>
-        <v>195.95519999999999</v>
+        <f t="shared" si="10"/>
+        <v>166.92480000000003</v>
       </c>
       <c r="G74" s="12">
-        <f>C74-F74</f>
-        <v>1676.0079999999998</v>
+        <f t="shared" si="11"/>
+        <v>1414.9071999999999</v>
       </c>
       <c r="H74" s="12">
-        <f>F74+G74*(1-assumevalidSpeedup)</f>
-        <v>363.55599999999993</v>
+        <f t="shared" si="12"/>
+        <v>308.41552000000001</v>
       </c>
       <c r="I74" s="27">
-        <f>(H74*1000*1000/(throughput3*POWER(1+cpuGrowth,A74)))/(secondsPerYear/365)</f>
-        <v>7.0101376552459262</v>
+        <f t="shared" si="13"/>
+        <v>6.9578861103947567</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" s="26">
-        <v>12.5</v>
+        <v>10.8</v>
       </c>
       <c r="C75" s="12">
-        <f t="shared" si="0"/>
-        <v>2212.5519999999997</v>
+        <f t="shared" si="14"/>
+        <v>1871.9631999999999</v>
       </c>
       <c r="D75" s="25">
-        <f>B75*secondsPerYear/1000/1000</f>
-        <v>394.2</v>
+        <f t="shared" si="8"/>
+        <v>340.58879999999999</v>
       </c>
       <c r="E75" s="13">
-        <f>B75*secondsPerBlock*avgTrSize/1000</f>
-        <v>3562.5</v>
+        <f t="shared" si="9"/>
+        <v>3078</v>
       </c>
       <c r="F75" s="12">
-        <f>assumevalidBlockTime*D75/365</f>
-        <v>226.8</v>
+        <f t="shared" si="10"/>
+        <v>195.95519999999999</v>
       </c>
       <c r="G75" s="12">
-        <f>C75-F75</f>
-        <v>1985.7519999999997</v>
+        <f t="shared" si="11"/>
+        <v>1676.0079999999998</v>
       </c>
       <c r="H75" s="12">
-        <f>F75+G75*(1-assumevalidSpeedup)</f>
-        <v>425.37519999999995</v>
+        <f t="shared" si="12"/>
+        <v>363.55599999999993</v>
       </c>
       <c r="I75" s="27">
-        <f>(H75*1000*1000/(throughput3*POWER(1+cpuGrowth,A75)))/(secondsPerYear/365)</f>
-        <v>7.0103795884201165</v>
+        <f t="shared" si="13"/>
+        <v>7.0101376552459262</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76" s="26">
-        <v>14.3</v>
+        <v>12.5</v>
       </c>
       <c r="C76" s="12">
-        <f t="shared" si="0"/>
-        <v>2606.7519999999995</v>
+        <f t="shared" si="14"/>
+        <v>2212.5519999999997</v>
       </c>
       <c r="D76" s="25">
-        <f>B76*secondsPerYear/1000/1000</f>
-        <v>450.96479999999997</v>
+        <f t="shared" si="8"/>
+        <v>394.2</v>
       </c>
       <c r="E76" s="13">
-        <f>B76*secondsPerBlock*avgTrSize/1000</f>
-        <v>4075.5</v>
+        <f t="shared" si="9"/>
+        <v>3562.5</v>
       </c>
       <c r="F76" s="12">
-        <f>assumevalidBlockTime*D76/365</f>
-        <v>259.45919999999995</v>
+        <f t="shared" si="10"/>
+        <v>226.8</v>
       </c>
       <c r="G76" s="12">
-        <f>C76-F76</f>
-        <v>2347.2927999999997</v>
+        <f t="shared" si="11"/>
+        <v>1985.7519999999997</v>
       </c>
       <c r="H76" s="12">
-        <f>F76+G76*(1-assumevalidSpeedup)</f>
-        <v>494.18847999999991</v>
+        <f t="shared" si="12"/>
+        <v>425.37519999999995</v>
       </c>
       <c r="I76" s="27">
-        <f>(H76*1000*1000/(throughput3*POWER(1+cpuGrowth,A76)))/(secondsPerYear/365)</f>
-        <v>6.9610719634179485</v>
+        <f t="shared" si="13"/>
+        <v>7.0103795884201165</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77" s="26">
-        <v>17</v>
-      </c>
-      <c r="C77" s="31">
-        <f t="shared" si="0"/>
-        <v>3057.7167999999992</v>
+        <v>14.3</v>
+      </c>
+      <c r="C77" s="12">
+        <f t="shared" si="14"/>
+        <v>2606.7519999999995</v>
       </c>
       <c r="D77" s="25">
-        <f>B77*secondsPerYear/1000/1000</f>
-        <v>536.11199999999997</v>
+        <f t="shared" si="8"/>
+        <v>450.96479999999997</v>
       </c>
       <c r="E77" s="13">
-        <f>B77*secondsPerBlock*avgTrSize/1000</f>
-        <v>4845</v>
+        <f t="shared" si="9"/>
+        <v>4075.5</v>
       </c>
       <c r="F77" s="12">
-        <f>assumevalidBlockTime*D77/365</f>
-        <v>308.44799999999998</v>
+        <f t="shared" si="10"/>
+        <v>259.45919999999995</v>
       </c>
       <c r="G77" s="12">
-        <f>C77-F77</f>
-        <v>2749.2687999999994</v>
+        <f t="shared" si="11"/>
+        <v>2347.2927999999997</v>
       </c>
       <c r="H77" s="12">
-        <f>F77+G77*(1-assumevalidSpeedup)</f>
-        <v>583.37487999999985</v>
+        <f t="shared" si="12"/>
+        <v>494.18847999999991</v>
       </c>
       <c r="I77" s="27">
-        <f>(H77*1000*1000/(throughput3*POWER(1+cpuGrowth,A77)))/(secondsPerYear/365)</f>
-        <v>7.0233671012487537</v>
+        <f t="shared" si="13"/>
+        <v>6.9610719634179485</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" s="26">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C78" s="12">
-        <f t="shared" si="0"/>
-        <v>3593.8287999999993</v>
+        <v>17</v>
+      </c>
+      <c r="C78" s="31">
+        <f t="shared" si="14"/>
+        <v>3057.7167999999992</v>
       </c>
       <c r="D78" s="25">
-        <f>B78*secondsPerYear/1000/1000</f>
-        <v>611.79840000000002</v>
+        <f t="shared" si="8"/>
+        <v>536.11199999999997</v>
       </c>
       <c r="E78" s="13">
-        <f>B78*secondsPerBlock*avgTrSize/1000</f>
-        <v>5529</v>
+        <f t="shared" si="9"/>
+        <v>4845</v>
       </c>
       <c r="F78" s="12">
-        <f>assumevalidBlockTime*D78/365</f>
-        <v>351.99360000000001</v>
+        <f t="shared" si="10"/>
+        <v>308.44799999999998</v>
       </c>
       <c r="G78" s="12">
-        <f>C78-F78</f>
-        <v>3241.8351999999995</v>
+        <f t="shared" si="11"/>
+        <v>2749.2687999999994</v>
       </c>
       <c r="H78" s="12">
-        <f>F78+G78*(1-assumevalidSpeedup)</f>
-        <v>676.17711999999983</v>
+        <f t="shared" si="12"/>
+        <v>583.37487999999985</v>
       </c>
       <c r="I78" s="27">
-        <f>(H78*1000*1000/(throughput3*POWER(1+cpuGrowth,A78)))/(secondsPerYear/365)</f>
-        <v>6.9578050155405826</v>
+        <f t="shared" si="13"/>
+        <v>7.0233671012487537</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79" s="26">
-        <v>23</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C79" s="12">
-        <f t="shared" si="0"/>
-        <v>4205.627199999999</v>
+        <f t="shared" si="14"/>
+        <v>3593.8287999999993</v>
       </c>
       <c r="D79" s="25">
-        <f>B79*secondsPerYear/1000/1000</f>
-        <v>725.32799999999997</v>
+        <f t="shared" si="8"/>
+        <v>611.79840000000002</v>
       </c>
       <c r="E79" s="13">
-        <f>B79*secondsPerBlock*avgTrSize/1000</f>
-        <v>6555</v>
+        <f t="shared" si="9"/>
+        <v>5529</v>
       </c>
       <c r="F79" s="12">
-        <f>assumevalidBlockTime*D79/365</f>
-        <v>417.31200000000001</v>
+        <f t="shared" si="10"/>
+        <v>351.99360000000001</v>
       </c>
       <c r="G79" s="12">
-        <f>C79-F79</f>
-        <v>3788.3151999999991</v>
+        <f t="shared" si="11"/>
+        <v>3241.8351999999995</v>
       </c>
       <c r="H79" s="12">
-        <f>F79+G79*(1-assumevalidSpeedup)</f>
-        <v>796.14351999999985</v>
+        <f t="shared" si="12"/>
+        <v>676.17711999999983</v>
       </c>
       <c r="I79" s="27">
-        <f>(H79*1000*1000/(throughput3*POWER(1+cpuGrowth,A79)))/(secondsPerYear/365)</f>
-        <v>7.0019222745567324</v>
+        <f t="shared" si="13"/>
+        <v>6.9578050155405826</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80" s="26">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C80" s="12">
-        <f t="shared" si="0"/>
-        <v>4930.9551999999985</v>
+        <f t="shared" si="14"/>
+        <v>4205.627199999999</v>
       </c>
       <c r="D80" s="25">
-        <f>B80*secondsPerYear/1000/1000</f>
-        <v>851.47199999999998</v>
+        <f t="shared" si="8"/>
+        <v>725.32799999999997</v>
       </c>
       <c r="E80" s="13">
-        <f>B80*secondsPerBlock*avgTrSize/1000</f>
-        <v>7695</v>
+        <f t="shared" si="9"/>
+        <v>6555</v>
       </c>
       <c r="F80" s="12">
-        <f>assumevalidBlockTime*D80/365</f>
-        <v>489.88799999999998</v>
+        <f t="shared" si="10"/>
+        <v>417.31200000000001</v>
       </c>
       <c r="G80" s="12">
-        <f>C80-F80</f>
-        <v>4441.0671999999986</v>
+        <f t="shared" si="11"/>
+        <v>3788.3151999999991</v>
       </c>
       <c r="H80" s="12">
-        <f>F80+G80*(1-assumevalidSpeedup)</f>
-        <v>933.99471999999969</v>
+        <f t="shared" si="12"/>
+        <v>796.14351999999985</v>
       </c>
       <c r="I80" s="27">
-        <f>(H80*1000*1000/(throughput3*POWER(1+cpuGrowth,A80)))/(secondsPerYear/365)</f>
-        <v>7.0207657073208232</v>
+        <f t="shared" si="13"/>
+        <v>7.0019222745567324</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81" s="26">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C81" s="12">
-        <f t="shared" si="0"/>
-        <v>5782.4271999999983</v>
+        <f t="shared" si="14"/>
+        <v>4930.9551999999985</v>
       </c>
       <c r="D81" s="25">
-        <f>B81*secondsPerYear/1000/1000</f>
-        <v>977.61599999999999</v>
+        <f t="shared" si="8"/>
+        <v>851.47199999999998</v>
       </c>
       <c r="E81" s="13">
-        <f>B81*secondsPerBlock*avgTrSize/1000</f>
-        <v>8835</v>
+        <f t="shared" si="9"/>
+        <v>7695</v>
       </c>
       <c r="F81" s="12">
-        <f>assumevalidBlockTime*D81/365</f>
-        <v>562.46399999999994</v>
+        <f t="shared" si="10"/>
+        <v>489.88799999999998</v>
       </c>
       <c r="G81" s="12">
-        <f>C81-F81</f>
-        <v>5219.9631999999983</v>
+        <f t="shared" si="11"/>
+        <v>4441.0671999999986</v>
       </c>
       <c r="H81" s="12">
-        <f>F81+G81*(1-assumevalidSpeedup)</f>
-        <v>1084.4603199999997</v>
+        <f t="shared" si="12"/>
+        <v>933.99471999999969</v>
       </c>
       <c r="I81" s="27">
-        <f>(H81*1000*1000/(throughput3*POWER(1+cpuGrowth,A81)))/(secondsPerYear/365)</f>
-        <v>6.9673537831319159</v>
+        <f t="shared" si="13"/>
+        <v>7.0207657073208232</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82" s="26">
+        <v>31</v>
+      </c>
+      <c r="C82" s="12">
+        <f t="shared" si="14"/>
+        <v>5782.4271999999983</v>
+      </c>
+      <c r="D82" s="25">
+        <f t="shared" si="8"/>
+        <v>977.61599999999999</v>
+      </c>
+      <c r="E82" s="13">
+        <f t="shared" si="9"/>
+        <v>8835</v>
+      </c>
+      <c r="F82" s="12">
+        <f t="shared" si="10"/>
+        <v>562.46399999999994</v>
+      </c>
+      <c r="G82" s="12">
+        <f t="shared" si="11"/>
+        <v>5219.9631999999983</v>
+      </c>
+      <c r="H82" s="12">
+        <f t="shared" si="12"/>
+        <v>1084.4603199999997</v>
+      </c>
+      <c r="I82" s="27">
+        <f t="shared" si="13"/>
+        <v>6.9673537831319159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>15</v>
       </c>
-      <c r="B82" s="26">
+      <c r="B83" s="26">
         <v>37</v>
       </c>
-      <c r="C82" s="12">
-        <f t="shared" si="0"/>
+      <c r="C83" s="12">
+        <f t="shared" si="14"/>
         <v>6760.0431999999983</v>
       </c>
-      <c r="D82" s="25">
-        <f>B82*secondsPerYear/1000/1000</f>
+      <c r="D83" s="25">
+        <f t="shared" si="8"/>
         <v>1166.8320000000001</v>
       </c>
-      <c r="E82" s="13">
-        <f>B82*secondsPerBlock*avgTrSize/1000</f>
+      <c r="E83" s="13">
+        <f t="shared" si="9"/>
         <v>10545</v>
       </c>
-      <c r="F82" s="12">
-        <f>assumevalidBlockTime*D82/365</f>
+      <c r="F83" s="12">
+        <f t="shared" si="10"/>
         <v>671.32800000000009</v>
       </c>
-      <c r="G82" s="12">
-        <f>C82-F82</f>
+      <c r="G83" s="12">
+        <f t="shared" si="11"/>
         <v>6088.7151999999978</v>
       </c>
-      <c r="H82" s="12">
-        <f>F82+G82*(1-assumevalidSpeedup)</f>
+      <c r="H83" s="12">
+        <f t="shared" si="12"/>
         <v>1280.1995199999997</v>
       </c>
-      <c r="I82" s="27">
-        <f>(H82*1000*1000/(throughput3*POWER(1+cpuGrowth,A82)))/(secondsPerYear/365)</f>
+      <c r="I83" s="27">
+        <f t="shared" si="13"/>
         <v>7.0298489861354483</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H84" s="1" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H85" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E85" s="1" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="I87" s="5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>0</v>
-      </c>
-      <c r="B87" s="32">
-        <v>4.2</v>
-      </c>
-      <c r="C87" s="29">
-        <v>530</v>
-      </c>
-      <c r="D87" s="25">
-        <f>B87*secondsPerYear/1000/1000</f>
-        <v>132.4512</v>
-      </c>
-      <c r="E87" s="13">
-        <f>B87*secondsPerBlock*avgTrSize/1000</f>
-        <v>1197</v>
-      </c>
-      <c r="F87" s="12">
-        <f>assumevalidBlockTime*D87/365</f>
-        <v>76.204800000000006</v>
-      </c>
-      <c r="G87" s="12">
-        <f>C87-F87</f>
-        <v>453.79520000000002</v>
-      </c>
-      <c r="H87" s="12">
-        <f>F87+G87*(1-assumevalidSpeedup)</f>
-        <v>121.58431999999999</v>
-      </c>
-      <c r="I87" s="27">
-        <f>(H87*1000*1000/(throughput3*POWER(1+cpuGrowth,A87)))/(secondsPerYear/365)</f>
-        <v>7.0361296296296292</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" s="26">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C88" s="12">
-        <f>C87+D87</f>
-        <v>662.45119999999997</v>
+        <v>0</v>
+      </c>
+      <c r="B88" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="C88" s="29">
+        <v>530</v>
       </c>
       <c r="D88" s="25">
-        <f>B88*secondsPerYear/1000/1000</f>
-        <v>145.06560000000002</v>
+        <f t="shared" ref="D88:D103" si="15">B88*secondsPerYear/1000/1000</f>
+        <v>132.4512</v>
       </c>
       <c r="E88" s="13">
-        <f>B88*secondsPerBlock*avgTrSize/1000</f>
-        <v>1311</v>
+        <f t="shared" ref="E88:E103" si="16">B88*secondsPerBlock*avgTrSize/1000</f>
+        <v>1197</v>
       </c>
       <c r="F88" s="12">
-        <f>assumevalidBlockTime*D88/365</f>
-        <v>83.462400000000017</v>
+        <f t="shared" ref="F88:F103" si="17">assumevalidBlockTime*D88/365</f>
+        <v>76.204800000000006</v>
       </c>
       <c r="G88" s="12">
-        <f>C88-F88</f>
-        <v>578.98879999999997</v>
+        <f t="shared" ref="G88:G103" si="18">C88-F88</f>
+        <v>453.79520000000002</v>
       </c>
       <c r="H88" s="12">
-        <f>F88+G88*(1-assumevalidSpeedup)</f>
-        <v>141.36127999999999</v>
+        <f t="shared" ref="H88:H103" si="19">F88+G88*(1-assumevalidSpeedup)</f>
+        <v>121.58431999999999</v>
       </c>
       <c r="I88" s="27">
-        <f>(H88*1000*1000/(throughput3*POWER(1+cpuGrowth,A88)))/(secondsPerYear/365)</f>
-        <v>6.9919911364355816</v>
+        <f t="shared" ref="I88:I103" si="20">(H88*1000*1000/(throughput3*POWER(1+cpuGrowth,A88)))/(secondsPerYear/365)</f>
+        <v>7.0361296296296292</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" s="26">
-        <v>5.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C89" s="12">
-        <f t="shared" ref="C89:C102" si="1">C88+D88</f>
-        <v>807.51679999999999</v>
+        <f>C88+D88</f>
+        <v>662.45119999999997</v>
       </c>
       <c r="D89" s="25">
-        <f>B89*secondsPerYear/1000/1000</f>
-        <v>163.9872</v>
+        <f t="shared" si="15"/>
+        <v>145.06560000000002</v>
       </c>
       <c r="E89" s="13">
-        <f>B89*secondsPerBlock*avgTrSize/1000</f>
-        <v>1482</v>
+        <f t="shared" si="16"/>
+        <v>1311</v>
       </c>
       <c r="F89" s="12">
-        <f>assumevalidBlockTime*D89/365</f>
-        <v>94.348799999999997</v>
+        <f t="shared" si="17"/>
+        <v>83.462400000000017</v>
       </c>
       <c r="G89" s="12">
-        <f>C89-F89</f>
-        <v>713.16800000000001</v>
+        <f t="shared" si="18"/>
+        <v>578.98879999999997</v>
       </c>
       <c r="H89" s="12">
-        <f>F89+G89*(1-assumevalidSpeedup)</f>
-        <v>165.66559999999998</v>
+        <f t="shared" si="19"/>
+        <v>141.36127999999999</v>
       </c>
       <c r="I89" s="27">
-        <f>(H89*1000*1000/(throughput3*POWER(1+cpuGrowth,A89)))/(secondsPerYear/365)</f>
-        <v>7.0035281098908824</v>
+        <f t="shared" si="20"/>
+        <v>6.9919911364355816</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B90" s="26">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="C90" s="12">
-        <f t="shared" si="1"/>
-        <v>971.50400000000002</v>
+        <f t="shared" ref="C90:C103" si="21">C89+D89</f>
+        <v>807.51679999999999</v>
       </c>
       <c r="D90" s="25">
-        <f>B90*secondsPerYear/1000/1000</f>
-        <v>186.0624</v>
+        <f t="shared" si="15"/>
+        <v>163.9872</v>
       </c>
       <c r="E90" s="13">
-        <f>B90*secondsPerBlock*avgTrSize/1000</f>
-        <v>1681.5</v>
+        <f t="shared" si="16"/>
+        <v>1482</v>
       </c>
       <c r="F90" s="12">
-        <f>assumevalidBlockTime*D90/365</f>
-        <v>107.0496</v>
+        <f t="shared" si="17"/>
+        <v>94.348799999999997</v>
       </c>
       <c r="G90" s="12">
-        <f>C90-F90</f>
-        <v>864.45440000000008</v>
+        <f t="shared" si="18"/>
+        <v>713.16800000000001</v>
       </c>
       <c r="H90" s="12">
-        <f>F90+G90*(1-assumevalidSpeedup)</f>
-        <v>193.49503999999999</v>
+        <f t="shared" si="19"/>
+        <v>165.66559999999998</v>
       </c>
       <c r="I90" s="27">
-        <f>(H90*1000*1000/(throughput3*POWER(1+cpuGrowth,A90)))/(secondsPerYear/365)</f>
-        <v>6.9914702425802169</v>
+        <f t="shared" si="20"/>
+        <v>7.0035281098908824</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91" s="26">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="C91" s="12">
-        <f t="shared" si="1"/>
-        <v>1157.5663999999999</v>
+        <f t="shared" si="21"/>
+        <v>971.50400000000002</v>
       </c>
       <c r="D91" s="25">
-        <f>B91*secondsPerYear/1000/1000</f>
-        <v>211.2912</v>
+        <f t="shared" si="15"/>
+        <v>186.0624</v>
       </c>
       <c r="E91" s="13">
-        <f>B91*secondsPerBlock*avgTrSize/1000</f>
-        <v>1909.5</v>
+        <f t="shared" si="16"/>
+        <v>1681.5</v>
       </c>
       <c r="F91" s="12">
-        <f>assumevalidBlockTime*D91/365</f>
-        <v>121.56480000000001</v>
+        <f t="shared" si="17"/>
+        <v>107.0496</v>
       </c>
       <c r="G91" s="12">
-        <f>C91-F91</f>
-        <v>1036.0015999999998</v>
+        <f t="shared" si="18"/>
+        <v>864.45440000000008</v>
       </c>
       <c r="H91" s="12">
-        <f>F91+G91*(1-assumevalidSpeedup)</f>
-        <v>225.16495999999995</v>
+        <f t="shared" si="19"/>
+        <v>193.49503999999999</v>
       </c>
       <c r="I91" s="27">
-        <f>(H91*1000*1000/(throughput3*POWER(1+cpuGrowth,A91)))/(secondsPerYear/365)</f>
-        <v>6.9536627178482266</v>
+        <f t="shared" si="20"/>
+        <v>6.9914702425802169</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" s="26">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="C92" s="12">
-        <f t="shared" si="1"/>
-        <v>1368.8575999999998</v>
+        <f t="shared" si="21"/>
+        <v>1157.5663999999999</v>
       </c>
       <c r="D92" s="25">
-        <f>B92*secondsPerYear/1000/1000</f>
-        <v>245.98079999999999</v>
+        <f t="shared" si="15"/>
+        <v>211.2912</v>
       </c>
       <c r="E92" s="13">
-        <f>B92*secondsPerBlock*avgTrSize/1000</f>
-        <v>2223</v>
+        <f t="shared" si="16"/>
+        <v>1909.5</v>
       </c>
       <c r="F92" s="12">
-        <f>assumevalidBlockTime*D92/365</f>
-        <v>141.5232</v>
+        <f t="shared" si="17"/>
+        <v>121.56480000000001</v>
       </c>
       <c r="G92" s="12">
-        <f>C92-F92</f>
-        <v>1227.3343999999997</v>
+        <f t="shared" si="18"/>
+        <v>1036.0015999999998</v>
       </c>
       <c r="H92" s="12">
-        <f>F92+G92*(1-assumevalidSpeedup)</f>
-        <v>264.25663999999995</v>
+        <f t="shared" si="19"/>
+        <v>225.16495999999995</v>
       </c>
       <c r="I92" s="27">
-        <f>(H92*1000*1000/(throughput3*POWER(1+cpuGrowth,A92)))/(secondsPerYear/365)</f>
-        <v>6.9751389226185418</v>
+        <f t="shared" si="20"/>
+        <v>6.9536627178482266</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B93" s="26">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="C93" s="12">
-        <f t="shared" si="1"/>
-        <v>1614.8383999999999</v>
+        <f t="shared" si="21"/>
+        <v>1368.8575999999998</v>
       </c>
       <c r="D93" s="25">
-        <f>B93*secondsPerYear/1000/1000</f>
-        <v>283.82400000000001</v>
+        <f t="shared" si="15"/>
+        <v>245.98079999999999</v>
       </c>
       <c r="E93" s="13">
-        <f>B93*secondsPerBlock*avgTrSize/1000</f>
-        <v>2565</v>
+        <f t="shared" si="16"/>
+        <v>2223</v>
       </c>
       <c r="F93" s="12">
-        <f>assumevalidBlockTime*D93/365</f>
-        <v>163.29599999999999</v>
+        <f t="shared" si="17"/>
+        <v>141.5232</v>
       </c>
       <c r="G93" s="12">
-        <f>C93-F93</f>
-        <v>1451.5423999999998</v>
+        <f t="shared" si="18"/>
+        <v>1227.3343999999997</v>
       </c>
       <c r="H93" s="12">
-        <f>F93+G93*(1-assumevalidSpeedup)</f>
-        <v>308.45023999999995</v>
+        <f t="shared" si="19"/>
+        <v>264.25663999999995</v>
       </c>
       <c r="I93" s="27">
-        <f>(H93*1000*1000/(throughput3*POWER(1+cpuGrowth,A93)))/(secondsPerYear/365)</f>
-        <v>6.9586693971948259</v>
+        <f t="shared" si="20"/>
+        <v>6.9751389226185418</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" s="26">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="C94" s="12">
-        <f t="shared" si="1"/>
-        <v>1898.6623999999999</v>
+        <f t="shared" si="21"/>
+        <v>1614.8383999999999</v>
       </c>
       <c r="D94" s="25">
-        <f>B94*secondsPerYear/1000/1000</f>
-        <v>331.12799999999999</v>
+        <f t="shared" si="15"/>
+        <v>283.82400000000001</v>
       </c>
       <c r="E94" s="13">
-        <f>B94*secondsPerBlock*avgTrSize/1000</f>
-        <v>2992.5</v>
+        <f t="shared" si="16"/>
+        <v>2565</v>
       </c>
       <c r="F94" s="12">
-        <f>assumevalidBlockTime*D94/365</f>
-        <v>190.51199999999997</v>
+        <f t="shared" si="17"/>
+        <v>163.29599999999999</v>
       </c>
       <c r="G94" s="12">
-        <f>C94-F94</f>
-        <v>1708.1504</v>
+        <f t="shared" si="18"/>
+        <v>1451.5423999999998</v>
       </c>
       <c r="H94" s="12">
-        <f>F94+G94*(1-assumevalidSpeedup)</f>
-        <v>361.3270399999999</v>
+        <f t="shared" si="19"/>
+        <v>308.45023999999995</v>
       </c>
       <c r="I94" s="27">
-        <f>(H94*1000*1000/(throughput3*POWER(1+cpuGrowth,A94)))/(secondsPerYear/365)</f>
-        <v>6.9671585366836224</v>
+        <f t="shared" si="20"/>
+        <v>6.9586693971948259</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" s="26">
-        <v>12.2</v>
+        <v>10.5</v>
       </c>
       <c r="C95" s="12">
-        <f t="shared" si="1"/>
-        <v>2229.7903999999999</v>
+        <f t="shared" si="21"/>
+        <v>1898.6623999999999</v>
       </c>
       <c r="D95" s="25">
-        <f>B95*secondsPerYear/1000/1000</f>
-        <v>384.73920000000004</v>
+        <f t="shared" si="15"/>
+        <v>331.12799999999999</v>
       </c>
       <c r="E95" s="13">
-        <f>B95*secondsPerBlock*avgTrSize/1000</f>
-        <v>3477</v>
+        <f t="shared" si="16"/>
+        <v>2992.5</v>
       </c>
       <c r="F95" s="12">
-        <f>assumevalidBlockTime*D95/365</f>
-        <v>221.35680000000002</v>
+        <f t="shared" si="17"/>
+        <v>190.51199999999997</v>
       </c>
       <c r="G95" s="12">
-        <f>C95-F95</f>
-        <v>2008.4335999999998</v>
+        <f t="shared" si="18"/>
+        <v>1708.1504</v>
       </c>
       <c r="H95" s="12">
-        <f>F95+G95*(1-assumevalidSpeedup)</f>
-        <v>422.20015999999998</v>
+        <f t="shared" si="19"/>
+        <v>361.3270399999999</v>
       </c>
       <c r="I95" s="27">
-        <f>(H95*1000*1000/(throughput3*POWER(1+cpuGrowth,A95)))/(secondsPerYear/365)</f>
-        <v>6.9580534640752632</v>
+        <f t="shared" si="20"/>
+        <v>6.9671585366836224</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B96" s="26">
-        <v>14.3</v>
+        <v>12.2</v>
       </c>
       <c r="C96" s="12">
-        <f t="shared" si="1"/>
-        <v>2614.5295999999998</v>
+        <f t="shared" si="21"/>
+        <v>2229.7903999999999</v>
       </c>
       <c r="D96" s="25">
-        <f>B96*secondsPerYear/1000/1000</f>
-        <v>450.96479999999997</v>
+        <f t="shared" si="15"/>
+        <v>384.73920000000004</v>
       </c>
       <c r="E96" s="13">
-        <f>B96*secondsPerBlock*avgTrSize/1000</f>
-        <v>4075.5</v>
+        <f t="shared" si="16"/>
+        <v>3477</v>
       </c>
       <c r="F96" s="12">
-        <f>assumevalidBlockTime*D96/365</f>
-        <v>259.45919999999995</v>
+        <f t="shared" si="17"/>
+        <v>221.35680000000002</v>
       </c>
       <c r="G96" s="12">
-        <f>C96-F96</f>
-        <v>2355.0704000000001</v>
+        <f t="shared" si="18"/>
+        <v>2008.4335999999998</v>
       </c>
       <c r="H96" s="12">
-        <f>F96+G96*(1-assumevalidSpeedup)</f>
-        <v>494.96623999999991</v>
+        <f t="shared" si="19"/>
+        <v>422.20015999999998</v>
       </c>
       <c r="I96" s="27">
-        <f>(H96*1000*1000/(throughput3*POWER(1+cpuGrowth,A96)))/(secondsPerYear/365)</f>
-        <v>6.9720273853862391</v>
+        <f t="shared" si="20"/>
+        <v>6.9580534640752632</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97" s="26">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C97" s="31">
-        <f t="shared" si="1"/>
-        <v>3065.4943999999996</v>
+        <v>14.3</v>
+      </c>
+      <c r="C97" s="12">
+        <f t="shared" si="21"/>
+        <v>2614.5295999999998</v>
       </c>
       <c r="D97" s="25">
-        <f>B97*secondsPerYear/1000/1000</f>
-        <v>523.49760000000003</v>
+        <f t="shared" si="15"/>
+        <v>450.96479999999997</v>
       </c>
       <c r="E97" s="13">
-        <f>B97*secondsPerBlock*avgTrSize/1000</f>
-        <v>4731</v>
+        <f t="shared" si="16"/>
+        <v>4075.5</v>
       </c>
       <c r="F97" s="12">
-        <f>assumevalidBlockTime*D97/365</f>
-        <v>301.19040000000001</v>
+        <f t="shared" si="17"/>
+        <v>259.45919999999995</v>
       </c>
       <c r="G97" s="12">
-        <f>C97-F97</f>
-        <v>2764.3039999999996</v>
+        <f t="shared" si="18"/>
+        <v>2355.0704000000001</v>
       </c>
       <c r="H97" s="12">
-        <f>F97+G97*(1-assumevalidSpeedup)</f>
-        <v>577.62079999999992</v>
+        <f t="shared" si="19"/>
+        <v>494.96623999999991</v>
       </c>
       <c r="I97" s="27">
-        <f>(H97*1000*1000/(throughput3*POWER(1+cpuGrowth,A97)))/(secondsPerYear/365)</f>
-        <v>6.9540925788868142</v>
+        <f t="shared" si="20"/>
+        <v>6.9720273853862391</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98" s="26">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C98" s="12">
-        <f t="shared" si="1"/>
-        <v>3588.9919999999997</v>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C98" s="31">
+        <f t="shared" si="21"/>
+        <v>3065.4943999999996</v>
       </c>
       <c r="D98" s="25">
-        <f>B98*secondsPerYear/1000/1000</f>
-        <v>611.79840000000002</v>
+        <f t="shared" si="15"/>
+        <v>523.49760000000003</v>
       </c>
       <c r="E98" s="13">
-        <f>B98*secondsPerBlock*avgTrSize/1000</f>
-        <v>5529</v>
+        <f t="shared" si="16"/>
+        <v>4731</v>
       </c>
       <c r="F98" s="12">
-        <f>assumevalidBlockTime*D98/365</f>
-        <v>351.99360000000001</v>
+        <f t="shared" si="17"/>
+        <v>301.19040000000001</v>
       </c>
       <c r="G98" s="12">
-        <f>C98-F98</f>
-        <v>3236.9983999999995</v>
+        <f t="shared" si="18"/>
+        <v>2764.3039999999996</v>
       </c>
       <c r="H98" s="12">
-        <f>F98+G98*(1-assumevalidSpeedup)</f>
-        <v>675.6934399999999</v>
+        <f t="shared" si="19"/>
+        <v>577.62079999999992</v>
       </c>
       <c r="I98" s="27">
-        <f>(H98*1000*1000/(throughput3*POWER(1+cpuGrowth,A98)))/(secondsPerYear/365)</f>
-        <v>6.9528279895064635</v>
+        <f t="shared" si="20"/>
+        <v>6.9540925788868142</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B99" s="26">
-        <v>23</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C99" s="12">
-        <f t="shared" si="1"/>
-        <v>4200.7903999999999</v>
+        <f t="shared" si="21"/>
+        <v>3588.9919999999997</v>
       </c>
       <c r="D99" s="25">
-        <f>B99*secondsPerYear/1000/1000</f>
-        <v>725.32799999999997</v>
+        <f t="shared" si="15"/>
+        <v>611.79840000000002</v>
       </c>
       <c r="E99" s="13">
-        <f>B99*secondsPerBlock*avgTrSize/1000</f>
-        <v>6555</v>
+        <f t="shared" si="16"/>
+        <v>5529</v>
       </c>
       <c r="F99" s="12">
-        <f>assumevalidBlockTime*D99/365</f>
-        <v>417.31200000000001</v>
+        <f t="shared" si="17"/>
+        <v>351.99360000000001</v>
       </c>
       <c r="G99" s="12">
-        <f>C99-F99</f>
-        <v>3783.4784</v>
+        <f t="shared" si="18"/>
+        <v>3236.9983999999995</v>
       </c>
       <c r="H99" s="12">
-        <f>F99+G99*(1-assumevalidSpeedup)</f>
-        <v>795.65983999999992</v>
+        <f t="shared" si="19"/>
+        <v>675.6934399999999</v>
       </c>
       <c r="I99" s="27">
-        <f>(H99*1000*1000/(throughput3*POWER(1+cpuGrowth,A99)))/(secondsPerYear/365)</f>
-        <v>6.9976684061515027</v>
+        <f t="shared" si="20"/>
+        <v>6.9528279895064635</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="26">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C100" s="12">
-        <f t="shared" si="1"/>
-        <v>4926.1183999999994</v>
+        <f t="shared" si="21"/>
+        <v>4200.7903999999999</v>
       </c>
       <c r="D100" s="25">
-        <f>B100*secondsPerYear/1000/1000</f>
-        <v>851.47199999999998</v>
+        <f t="shared" si="15"/>
+        <v>725.32799999999997</v>
       </c>
       <c r="E100" s="13">
-        <f>B100*secondsPerBlock*avgTrSize/1000</f>
-        <v>7695</v>
+        <f t="shared" si="16"/>
+        <v>6555</v>
       </c>
       <c r="F100" s="12">
-        <f>assumevalidBlockTime*D100/365</f>
-        <v>489.88799999999998</v>
+        <f t="shared" si="17"/>
+        <v>417.31200000000001</v>
       </c>
       <c r="G100" s="12">
-        <f>C100-F100</f>
-        <v>4436.2303999999995</v>
+        <f t="shared" si="18"/>
+        <v>3783.4784</v>
       </c>
       <c r="H100" s="12">
-        <f>F100+G100*(1-assumevalidSpeedup)</f>
-        <v>933.51103999999987</v>
+        <f t="shared" si="19"/>
+        <v>795.65983999999992</v>
       </c>
       <c r="I100" s="27">
-        <f>(H100*1000*1000/(throughput3*POWER(1+cpuGrowth,A100)))/(secondsPerYear/365)</f>
-        <v>7.0171299223590875</v>
+        <f t="shared" si="20"/>
+        <v>6.9976684061515027</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B101" s="26">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C101" s="12">
-        <f t="shared" si="1"/>
-        <v>5777.5903999999991</v>
+        <f t="shared" si="21"/>
+        <v>4926.1183999999994</v>
       </c>
       <c r="D101" s="25">
-        <f>B101*secondsPerYear/1000/1000</f>
-        <v>977.61599999999999</v>
+        <f t="shared" si="15"/>
+        <v>851.47199999999998</v>
       </c>
       <c r="E101" s="13">
-        <f>B101*secondsPerBlock*avgTrSize/1000</f>
-        <v>8835</v>
+        <f t="shared" si="16"/>
+        <v>7695</v>
       </c>
       <c r="F101" s="12">
-        <f>assumevalidBlockTime*D101/365</f>
-        <v>562.46399999999994</v>
+        <f t="shared" si="17"/>
+        <v>489.88799999999998</v>
       </c>
       <c r="G101" s="12">
-        <f>C101-F101</f>
-        <v>5215.1263999999992</v>
+        <f t="shared" si="18"/>
+        <v>4436.2303999999995</v>
       </c>
       <c r="H101" s="12">
-        <f>F101+G101*(1-assumevalidSpeedup)</f>
-        <v>1083.9766399999999</v>
+        <f t="shared" si="19"/>
+        <v>933.51103999999987</v>
       </c>
       <c r="I101" s="27">
-        <f>(H101*1000*1000/(throughput3*POWER(1+cpuGrowth,A101)))/(secondsPerYear/365)</f>
-        <v>6.9642462746176159</v>
+        <f t="shared" si="20"/>
+        <v>7.0171299223590875</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
+        <v>14</v>
+      </c>
+      <c r="B102" s="26">
+        <v>31</v>
+      </c>
+      <c r="C102" s="12">
+        <f t="shared" si="21"/>
+        <v>5777.5903999999991</v>
+      </c>
+      <c r="D102" s="25">
+        <f t="shared" si="15"/>
+        <v>977.61599999999999</v>
+      </c>
+      <c r="E102" s="13">
+        <f t="shared" si="16"/>
+        <v>8835</v>
+      </c>
+      <c r="F102" s="12">
+        <f t="shared" si="17"/>
+        <v>562.46399999999994</v>
+      </c>
+      <c r="G102" s="12">
+        <f t="shared" si="18"/>
+        <v>5215.1263999999992</v>
+      </c>
+      <c r="H102" s="12">
+        <f t="shared" si="19"/>
+        <v>1083.9766399999999</v>
+      </c>
+      <c r="I102" s="27">
+        <f t="shared" si="20"/>
+        <v>6.9642462746176159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>15</v>
       </c>
-      <c r="B102" s="26">
+      <c r="B103" s="26">
         <v>37</v>
       </c>
-      <c r="C102" s="12">
-        <f t="shared" si="1"/>
+      <c r="C103" s="12">
+        <f t="shared" si="21"/>
         <v>6755.2063999999991</v>
       </c>
-      <c r="D102" s="25">
-        <f>B102*secondsPerYear/1000/1000</f>
+      <c r="D103" s="25">
+        <f t="shared" si="15"/>
         <v>1166.8320000000001</v>
       </c>
-      <c r="E102" s="13">
-        <f>B102*secondsPerBlock*avgTrSize/1000</f>
+      <c r="E103" s="13">
+        <f t="shared" si="16"/>
         <v>10545</v>
       </c>
-      <c r="F102" s="12">
-        <f>assumevalidBlockTime*D102/365</f>
+      <c r="F103" s="12">
+        <f t="shared" si="17"/>
         <v>671.32800000000009</v>
       </c>
-      <c r="G102" s="12">
-        <f>C102-F102</f>
+      <c r="G103" s="12">
+        <f t="shared" si="18"/>
         <v>6083.8783999999987</v>
       </c>
-      <c r="H102" s="12">
-        <f>F102+G102*(1-assumevalidSpeedup)</f>
+      <c r="H103" s="12">
+        <f t="shared" si="19"/>
         <v>1279.7158399999998</v>
       </c>
-      <c r="I102" s="27">
-        <f>(H102*1000*1000/(throughput3*POWER(1+cpuGrowth,A102)))/(secondsPerYear/365)</f>
+      <c r="I103" s="27">
+        <f t="shared" si="20"/>
         <v>7.0271929959522845</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="D126" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="16">
+        <v>1</v>
+      </c>
+      <c r="D127" s="17">
+        <v>128</v>
+      </c>
+      <c r="E127" s="17">
+        <v>2</v>
+      </c>
+      <c r="F127" s="18">
+        <v>200</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" s="20">
+        <v>7</v>
+      </c>
+      <c r="I127" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="J127" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A127)</f>
-        <v>3</v>
-      </c>
-      <c r="C127" s="25"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="6"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A128)</f>
-        <v>4.5</v>
-      </c>
-      <c r="C128" s="25"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="6"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>2</v>
-      </c>
-      <c r="B129" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A129)</f>
-        <v>6.75</v>
-      </c>
-      <c r="C129" s="25"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="6"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>3</v>
-      </c>
-      <c r="B130" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A130)</f>
-        <v>10.125</v>
-      </c>
-      <c r="C130" s="25"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>4</v>
-      </c>
-      <c r="B131" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A131)</f>
-        <v>15.1875</v>
-      </c>
-      <c r="C131" s="25"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="B131" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A131)</f>
+        <v>12.8</v>
+      </c>
+      <c r="C131" s="7">
+        <f>B131/utxoExpand/utxoMemoryPercent</f>
+        <v>85.333333333333343</v>
+      </c>
+      <c r="D131" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E131" s="43">
+        <f xml:space="preserve"> utxoSize</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>5</v>
-      </c>
-      <c r="B132" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A132)</f>
-        <v>22.78125</v>
-      </c>
-      <c r="C132" s="25"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B132" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A132)</f>
+        <v>14.719999999999999</v>
+      </c>
+      <c r="C132" s="7">
+        <f>B132/utxoExpand/utxoMemoryPercent</f>
+        <v>98.13333333333334</v>
+      </c>
+      <c r="D132" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E132" s="7">
+        <f xml:space="preserve"> E131 + MIN(E131*utxoGrowth,D132)</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>6</v>
-      </c>
-      <c r="B133" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A133)</f>
-        <v>34.171875</v>
-      </c>
-      <c r="C133" s="25"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="B133" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A133)</f>
+        <v>16.927999999999997</v>
+      </c>
+      <c r="C133" s="7">
+        <f>B133/utxoExpand/utxoMemoryPercent</f>
+        <v>112.85333333333334</v>
+      </c>
+      <c r="D133" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E133" s="7">
+        <f xml:space="preserve"> E132 + MIN(E132*utxoGrowth,D133)</f>
+        <v>6.75</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>7</v>
-      </c>
-      <c r="B134" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A134)</f>
-        <v>51.2578125</v>
-      </c>
-      <c r="C134" s="25"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B134" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A134)</f>
+        <v>19.467199999999995</v>
+      </c>
+      <c r="C134" s="7">
+        <f>B134/utxoExpand/utxoMemoryPercent</f>
+        <v>129.78133333333332</v>
+      </c>
+      <c r="D134" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E134" s="7">
+        <f xml:space="preserve"> E133 + MIN(E133*utxoGrowth,D134)</f>
+        <v>10.125</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>8</v>
-      </c>
-      <c r="B135" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A135)</f>
-        <v>76.88671875</v>
-      </c>
-      <c r="C135" s="25"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B135" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A135)</f>
+        <v>22.387279999999993</v>
+      </c>
+      <c r="C135" s="7">
+        <f>B135/utxoExpand/utxoMemoryPercent</f>
+        <v>149.24853333333331</v>
+      </c>
+      <c r="D135" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E135" s="7">
+        <f xml:space="preserve"> E134 + MIN(E134*utxoGrowth,D135)</f>
+        <v>15.1875</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>9</v>
-      </c>
-      <c r="B136" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A136)</f>
-        <v>115.330078125</v>
-      </c>
-      <c r="C136" s="25"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B136" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A136)</f>
+        <v>25.745371999999993</v>
+      </c>
+      <c r="C136" s="7">
+        <f>B136/utxoExpand/utxoMemoryPercent</f>
+        <v>171.63581333333332</v>
+      </c>
+      <c r="D136" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E136" s="7">
+        <f xml:space="preserve"> E135 + MIN(E135*utxoGrowth,D136)</f>
+        <v>22.78125</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>10</v>
-      </c>
-      <c r="B137" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A137)</f>
-        <v>172.9951171875</v>
-      </c>
-      <c r="C137" s="25"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B137" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A137)</f>
+        <v>29.607177799999988</v>
+      </c>
+      <c r="C137" s="7">
+        <f>B137/utxoExpand/utxoMemoryPercent</f>
+        <v>197.38118533333329</v>
+      </c>
+      <c r="D137" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E137" s="7">
+        <f xml:space="preserve"> E136 + MIN(E136*utxoGrowth,D137)</f>
+        <v>34.171875</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>11</v>
-      </c>
-      <c r="B138" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A138)</f>
-        <v>259.49267578125</v>
-      </c>
-      <c r="C138" s="25"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B138" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A138)</f>
+        <v>34.048254469999982</v>
+      </c>
+      <c r="C138" s="7">
+        <f>B138/utxoExpand/utxoMemoryPercent</f>
+        <v>226.98836313333322</v>
+      </c>
+      <c r="D138" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E138" s="7">
+        <f xml:space="preserve"> E137 + MIN(E137*utxoGrowth,D138)</f>
+        <v>51.2578125</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>12</v>
-      </c>
-      <c r="B139" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A139)</f>
-        <v>389.239013671875</v>
-      </c>
-      <c r="C139" s="25"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B139" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A139)</f>
+        <v>39.155492640499972</v>
+      </c>
+      <c r="C139" s="7">
+        <f>B139/utxoExpand/utxoMemoryPercent</f>
+        <v>261.03661760333318</v>
+      </c>
+      <c r="D139" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E139" s="7">
+        <f xml:space="preserve"> E138 + MIN(E138*utxoGrowth,D139)</f>
+        <v>76.88671875</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>13</v>
-      </c>
-      <c r="B140" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A140)</f>
-        <v>583.8585205078125</v>
-      </c>
-      <c r="C140" s="25"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B140" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A140)</f>
+        <v>45.028816536574965</v>
+      </c>
+      <c r="C140" s="7">
+        <f>B140/utxoExpand/utxoMemoryPercent</f>
+        <v>300.19211024383316</v>
+      </c>
+      <c r="D140" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E140" s="7">
+        <f xml:space="preserve"> E139 + MIN(E139*utxoGrowth,D140)</f>
+        <v>115.330078125</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>14</v>
-      </c>
-      <c r="B141" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A141)</f>
-        <v>875.78778076171875</v>
-      </c>
-      <c r="C141" s="25"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B141" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A141)</f>
+        <v>51.78313901706121</v>
+      </c>
+      <c r="C141" s="7">
+        <f>B141/utxoExpand/utxoMemoryPercent</f>
+        <v>345.22092678040809</v>
+      </c>
+      <c r="D141" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E141" s="7">
+        <f xml:space="preserve"> E140 + MIN(E140*utxoGrowth,D141)</f>
+        <v>172.9951171875</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
+        <v>11</v>
+      </c>
+      <c r="B142" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A142)</f>
+        <v>59.550609869620388</v>
+      </c>
+      <c r="C142" s="7">
+        <f>B142/utxoExpand/utxoMemoryPercent</f>
+        <v>397.00406579746925</v>
+      </c>
+      <c r="D142" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E142" s="7">
+        <f xml:space="preserve"> E141 + MIN(E141*utxoGrowth,D142)</f>
+        <v>235.9094371875</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>12</v>
+      </c>
+      <c r="B143" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A143)</f>
+        <v>68.483201350063425</v>
+      </c>
+      <c r="C143" s="7">
+        <f>B143/utxoExpand/utxoMemoryPercent</f>
+        <v>456.5546756670895</v>
+      </c>
+      <c r="D143" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E143" s="7">
+        <f xml:space="preserve"> E142 + MIN(E142*utxoGrowth,D143)</f>
+        <v>298.82375718750001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>13</v>
+      </c>
+      <c r="B144" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A144)</f>
+        <v>78.755681552572952</v>
+      </c>
+      <c r="C144" s="7">
+        <f>B144/utxoExpand/utxoMemoryPercent</f>
+        <v>525.03787701715305</v>
+      </c>
+      <c r="D144" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E144" s="7">
+        <f xml:space="preserve"> E143 + MIN(E143*utxoGrowth,D144)</f>
+        <v>361.73807718749998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>14</v>
+      </c>
+      <c r="B145" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A145)</f>
+        <v>90.569033785458885</v>
+      </c>
+      <c r="C145" s="7">
+        <f>B145/utxoExpand/utxoMemoryPercent</f>
+        <v>603.79355856972597</v>
+      </c>
+      <c r="D145" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E145" s="7">
+        <f xml:space="preserve"> E144 + MIN(E144*utxoGrowth,D145)</f>
+        <v>424.65239718749996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>15</v>
       </c>
-      <c r="B142" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A142)</f>
-        <v>1313.6816711425781</v>
-      </c>
-      <c r="C142" s="25"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="6"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+      <c r="B146" s="41">
+        <f>disk4*ongoingResourcePercent4*POWER(1+memoryGrowth, A146)</f>
+        <v>104.15438885327769</v>
+      </c>
+      <c r="C146" s="7">
+        <f>B146/utxoExpand/utxoMemoryPercent</f>
+        <v>694.36259235518469</v>
+      </c>
+      <c r="D146" s="7">
+        <f>curThroughput*avgTrSize*secondsPerYear/1000/KBperGB</f>
+        <v>62.914319999999996</v>
+      </c>
+      <c r="E146" s="7">
+        <f xml:space="preserve"> E145 + MIN(E145*utxoGrowth,D146)</f>
+        <v>487.56671718749993</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B149" s="38"/>
+      <c r="C149" s="39"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E152" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A155)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C155" s="7">
+        <f>B155/utxoExpand/utxoMemoryPercent</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="D155" s="7">
+        <f>E131</f>
+        <v>3</v>
+      </c>
+      <c r="E155" s="41">
+        <f>D155*utxoExpand*utxoMemoryPercent</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A156)</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="C156" s="7">
+        <f>B156/utxoExpand/utxoMemoryPercent</f>
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="D156" s="7">
+        <f t="shared" ref="D156:D170" si="22">E132</f>
+        <v>4.5</v>
+      </c>
+      <c r="E156" s="41">
+        <f>D156*utxoExpand*utxoMemoryPercent</f>
+        <v>0.67499999999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A157)</f>
+        <v>0.26449999999999996</v>
+      </c>
+      <c r="C157" s="7">
+        <f>B157/utxoExpand/utxoMemoryPercent</f>
+        <v>1.7633333333333334</v>
+      </c>
+      <c r="D157" s="7">
+        <f t="shared" si="22"/>
+        <v>6.75</v>
+      </c>
+      <c r="E157" s="41">
+        <f>D157*utxoExpand*utxoMemoryPercent</f>
+        <v>1.0125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A158)</f>
+        <v>0.30417499999999992</v>
+      </c>
+      <c r="C158" s="7">
+        <f>B158/utxoExpand/utxoMemoryPercent</f>
+        <v>2.0278333333333332</v>
+      </c>
+      <c r="D158" s="7">
+        <f t="shared" si="22"/>
+        <v>10.125</v>
+      </c>
+      <c r="E158" s="41">
+        <f>D158*utxoExpand*utxoMemoryPercent</f>
+        <v>1.5187499999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A159)</f>
+        <v>0.3498012499999999</v>
+      </c>
+      <c r="C159" s="7">
+        <f>B159/utxoExpand/utxoMemoryPercent</f>
+        <v>2.332008333333333</v>
+      </c>
+      <c r="D159" s="7">
+        <f t="shared" si="22"/>
+        <v>15.1875</v>
+      </c>
+      <c r="E159" s="41">
+        <f>D159*utxoExpand*utxoMemoryPercent</f>
+        <v>2.2781249999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>5</v>
+      </c>
+      <c r="B160" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A160)</f>
+        <v>0.40227143749999988</v>
+      </c>
+      <c r="C160" s="7">
+        <f>B160/utxoExpand/utxoMemoryPercent</f>
+        <v>2.6818095833333331</v>
+      </c>
+      <c r="D160" s="7">
+        <f t="shared" si="22"/>
+        <v>22.78125</v>
+      </c>
+      <c r="E160" s="41">
+        <f>D160*utxoExpand*utxoMemoryPercent</f>
+        <v>3.4171874999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A161)</f>
+        <v>0.46261215312499981</v>
+      </c>
+      <c r="C161" s="7">
+        <f>B161/utxoExpand/utxoMemoryPercent</f>
+        <v>3.0840810208333327</v>
+      </c>
+      <c r="D161" s="7">
+        <f t="shared" si="22"/>
+        <v>34.171875</v>
+      </c>
+      <c r="E161" s="41">
+        <f>D161*utxoExpand*utxoMemoryPercent</f>
+        <v>5.1257812499999993</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A162)</f>
+        <v>0.53200397609374972</v>
+      </c>
+      <c r="C162" s="7">
+        <f>B162/utxoExpand/utxoMemoryPercent</f>
+        <v>3.5466931739583316</v>
+      </c>
+      <c r="D162" s="7">
+        <f t="shared" si="22"/>
+        <v>51.2578125</v>
+      </c>
+      <c r="E162" s="41">
+        <f>D162*utxoExpand*utxoMemoryPercent</f>
+        <v>7.6886718749999989</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>8</v>
+      </c>
+      <c r="B163" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A163)</f>
+        <v>0.61180457250781206</v>
+      </c>
+      <c r="C163" s="7">
+        <f>B163/utxoExpand/utxoMemoryPercent</f>
+        <v>4.078697150052081</v>
+      </c>
+      <c r="D163" s="7">
+        <f t="shared" si="22"/>
+        <v>76.88671875</v>
+      </c>
+      <c r="E163" s="41">
+        <f>D163*utxoExpand*utxoMemoryPercent</f>
+        <v>11.533007812499999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>9</v>
+      </c>
+      <c r="B164" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A164)</f>
+        <v>0.70357525838398383</v>
+      </c>
+      <c r="C164" s="7">
+        <f>B164/utxoExpand/utxoMemoryPercent</f>
+        <v>4.6905017225598931</v>
+      </c>
+      <c r="D164" s="7">
+        <f t="shared" si="22"/>
+        <v>115.330078125</v>
+      </c>
+      <c r="E164" s="41">
+        <f>D164*utxoExpand*utxoMemoryPercent</f>
+        <v>17.299511718750001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A165)</f>
+        <v>0.8091115471415814</v>
+      </c>
+      <c r="C165" s="7">
+        <f>B165/utxoExpand/utxoMemoryPercent</f>
+        <v>5.3940769809438764</v>
+      </c>
+      <c r="D165" s="7">
+        <f t="shared" si="22"/>
+        <v>172.9951171875</v>
+      </c>
+      <c r="E165" s="41">
+        <f>D165*utxoExpand*utxoMemoryPercent</f>
+        <v>25.949267578124996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>11</v>
+      </c>
+      <c r="B166" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A166)</f>
+        <v>0.93047827921281856</v>
+      </c>
+      <c r="C166" s="7">
+        <f>B166/utxoExpand/utxoMemoryPercent</f>
+        <v>6.2031885280854571</v>
+      </c>
+      <c r="D166" s="7">
+        <f t="shared" si="22"/>
+        <v>235.9094371875</v>
+      </c>
+      <c r="E166" s="41">
+        <f>D166*utxoExpand*utxoMemoryPercent</f>
+        <v>35.386415578124996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>12</v>
+      </c>
+      <c r="B167" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A167)</f>
+        <v>1.070050021094741</v>
+      </c>
+      <c r="C167" s="7">
+        <f>B167/utxoExpand/utxoMemoryPercent</f>
+        <v>7.1336668072982734</v>
+      </c>
+      <c r="D167" s="7">
+        <f t="shared" si="22"/>
+        <v>298.82375718750001</v>
+      </c>
+      <c r="E167" s="41">
+        <f>D167*utxoExpand*utxoMemoryPercent</f>
+        <v>44.823563578124997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>13</v>
+      </c>
+      <c r="B168" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A168)</f>
+        <v>1.2305575242589524</v>
+      </c>
+      <c r="C168" s="7">
+        <f>B168/utxoExpand/utxoMemoryPercent</f>
+        <v>8.2037168283930164</v>
+      </c>
+      <c r="D168" s="7">
+        <f t="shared" si="22"/>
+        <v>361.73807718749998</v>
+      </c>
+      <c r="E168" s="41">
+        <f>D168*utxoExpand*utxoMemoryPercent</f>
+        <v>54.26071157812499</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>14</v>
+      </c>
+      <c r="B169" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A169)</f>
+        <v>1.4151411528977951</v>
+      </c>
+      <c r="C169" s="7">
+        <f>B169/utxoExpand/utxoMemoryPercent</f>
+        <v>9.4342743526519683</v>
+      </c>
+      <c r="D169" s="7">
+        <f t="shared" si="22"/>
+        <v>424.65239718749996</v>
+      </c>
+      <c r="E169" s="41">
+        <f>D169*utxoExpand*utxoMemoryPercent</f>
+        <v>63.697859578124991</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>15</v>
+      </c>
+      <c r="B170" s="41">
+        <f>memory4*ongoingResourcePercent5*POWER(1+memoryGrowth, A170)</f>
+        <v>1.627412325832464</v>
+      </c>
+      <c r="C170" s="7">
+        <f>B170/utxoExpand/utxoMemoryPercent</f>
+        <v>10.849415505549761</v>
+      </c>
+      <c r="D170" s="7">
+        <f t="shared" si="22"/>
+        <v>487.56671718749993</v>
+      </c>
+      <c r="E170" s="41">
+        <f>D170*utxoExpand*utxoMemoryPercent</f>
+        <v>73.135007578124984</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D175" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E175" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="16">
+        <v>50</v>
+      </c>
+      <c r="D176" s="17">
+        <v>1000</v>
+      </c>
+      <c r="E176" s="17">
+        <v>8</v>
+      </c>
+      <c r="F176" s="18">
+        <v>5000</v>
+      </c>
+      <c r="G176" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H176" s="20">
+        <v>7</v>
+      </c>
+      <c r="I176" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="J176" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="E178" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180" s="7">
+        <f>utxoSize*POWER(1+utxoGrowth,A180)</f>
+        <v>3</v>
+      </c>
+      <c r="C180" s="36">
+        <f t="shared" ref="C180:C196" si="23">disk5*POWER(1+diskGrowth,A180)*ongoingResourcePercent5-B180</f>
+        <v>97</v>
+      </c>
+      <c r="D180" s="8">
+        <f>C181-C180</f>
+        <v>23.5</v>
+      </c>
+      <c r="E180" s="13">
+        <f t="shared" ref="E180:E195" si="24">D180*1000*1000*secondsPerBlock/secondsPerYear</f>
+        <v>447.10806697108069</v>
+      </c>
+      <c r="F180" s="6">
+        <f t="shared" ref="F180:F195" si="25">E180*1000/secondsPerBlock/avgTrSize</f>
+        <v>1.568800234986248</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181" s="7">
+        <f t="shared" ref="B181" si="26">utxoSize*POWER(1+utxoGrowth,A181)</f>
+        <v>4.5</v>
+      </c>
+      <c r="C181" s="36">
+        <f t="shared" si="23"/>
+        <v>120.5</v>
+      </c>
+      <c r="D181" s="8">
+        <f t="shared" ref="D181:D195" si="27">C182-C181</f>
+        <v>29</v>
+      </c>
+      <c r="E181" s="13">
+        <f t="shared" si="24"/>
+        <v>551.7503805175038</v>
+      </c>
+      <c r="F181" s="6">
+        <f t="shared" si="25"/>
+        <v>1.935966247429838</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A182),D180)</f>
+        <v>6.75</v>
+      </c>
+      <c r="C182" s="36">
+        <f t="shared" si="23"/>
+        <v>149.5</v>
+      </c>
+      <c r="D182" s="8">
+        <f t="shared" si="27"/>
+        <v>35.6875</v>
+      </c>
+      <c r="E182" s="13">
+        <f t="shared" si="24"/>
+        <v>678.98592085235919</v>
+      </c>
+      <c r="F182" s="6">
+        <f t="shared" si="25"/>
+        <v>2.3824067398328395</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>3</v>
+      </c>
+      <c r="B183" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A183),D181)</f>
+        <v>10.125</v>
+      </c>
+      <c r="C183" s="36">
+        <f>disk5*POWER(1+diskGrowth,A183)*ongoingResourcePercent5-B183</f>
+        <v>185.1875</v>
+      </c>
+      <c r="D183" s="8">
+        <f t="shared" si="27"/>
+        <v>43.765625</v>
+      </c>
+      <c r="E183" s="13">
+        <f t="shared" si="24"/>
+        <v>832.67931887366819</v>
+      </c>
+      <c r="F183" s="6">
+        <f t="shared" si="25"/>
+        <v>2.9216818206093622</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A184),D182)</f>
+        <v>15.1875</v>
+      </c>
+      <c r="C184" s="36">
+        <f t="shared" si="23"/>
+        <v>228.953125</v>
+      </c>
+      <c r="D184" s="8">
+        <f t="shared" si="27"/>
+        <v>53.44140625</v>
+      </c>
+      <c r="E184" s="13">
+        <f t="shared" si="24"/>
+        <v>1016.7695253044139</v>
+      </c>
+      <c r="F184" s="6">
+        <f t="shared" si="25"/>
+        <v>3.5676123694891717</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>5</v>
+      </c>
+      <c r="B185" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A185),D183)</f>
+        <v>22.78125</v>
+      </c>
+      <c r="C185" s="36">
+        <f t="shared" si="23"/>
+        <v>282.39453125</v>
+      </c>
+      <c r="D185" s="8">
+        <f t="shared" si="27"/>
+        <v>64.9033203125</v>
+      </c>
+      <c r="E185" s="13">
+        <f t="shared" si="24"/>
+        <v>1234.8424716990107</v>
+      </c>
+      <c r="F185" s="6">
+        <f t="shared" si="25"/>
+        <v>4.3327806024526696</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A186),D184)</f>
+        <v>34.171875</v>
+      </c>
+      <c r="C186" s="36">
+        <f t="shared" si="23"/>
+        <v>347.2978515625</v>
+      </c>
+      <c r="D186" s="8">
+        <f t="shared" si="27"/>
+        <v>78.281494140625</v>
+      </c>
+      <c r="E186" s="13">
+        <f t="shared" si="24"/>
+        <v>1489.3739372265031</v>
+      </c>
+      <c r="F186" s="6">
+        <f t="shared" si="25"/>
+        <v>5.2258734639526425</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>7</v>
+      </c>
+      <c r="B187" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A187),D185)</f>
+        <v>51.2578125</v>
+      </c>
+      <c r="C187" s="36">
+        <f t="shared" si="23"/>
+        <v>425.579345703125</v>
+      </c>
+      <c r="D187" s="8">
+        <f t="shared" si="27"/>
+        <v>93.58038330078125</v>
+      </c>
+      <c r="E187" s="13">
+        <f t="shared" si="24"/>
+        <v>1780.4486929372383</v>
+      </c>
+      <c r="F187" s="6">
+        <f t="shared" si="25"/>
+        <v>6.247188396271012</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A188),D186)</f>
+        <v>76.88671875</v>
+      </c>
+      <c r="C188" s="36">
+        <f t="shared" si="23"/>
+        <v>519.15972900390625</v>
+      </c>
+      <c r="D188" s="8">
+        <f t="shared" si="27"/>
+        <v>132.31794738769531</v>
+      </c>
+      <c r="E188" s="13">
+        <f t="shared" si="24"/>
+        <v>2517.4647524295151</v>
+      </c>
+      <c r="F188" s="6">
+        <f t="shared" si="25"/>
+        <v>8.8332096576474211</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>9</v>
+      </c>
+      <c r="B189" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A189),D187)</f>
+        <v>93.58038330078125</v>
+      </c>
+      <c r="C189" s="36">
+        <f t="shared" si="23"/>
+        <v>651.47767639160156</v>
+      </c>
+      <c r="D189" s="8">
+        <f t="shared" si="27"/>
+        <v>147.52695083618164</v>
+      </c>
+      <c r="E189" s="13">
+        <f t="shared" si="24"/>
+        <v>2806.8293538086309</v>
+      </c>
+      <c r="F189" s="6">
+        <f t="shared" si="25"/>
+        <v>9.8485240484513366</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>10</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B190" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A190),D188)</f>
+        <v>132.31794738769531</v>
+      </c>
+      <c r="C190" s="36">
+        <f t="shared" si="23"/>
+        <v>799.0046272277832</v>
+      </c>
+      <c r="D190" s="8">
+        <f t="shared" si="27"/>
+        <v>217.6216402053833</v>
+      </c>
+      <c r="E190" s="13">
+        <f t="shared" si="24"/>
+        <v>4140.4421652470182</v>
+      </c>
+      <c r="F190" s="6">
+        <f t="shared" si="25"/>
+        <v>14.527867246480767</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>11</v>
+      </c>
+      <c r="B191" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A191),D189)</f>
+        <v>147.52695083618164</v>
+      </c>
+      <c r="C191" s="36">
+        <f t="shared" si="23"/>
+        <v>1016.6262674331665</v>
+      </c>
+      <c r="D191" s="8">
+        <f t="shared" si="27"/>
+        <v>220.94361519813538</v>
+      </c>
+      <c r="E191" s="13">
+        <f t="shared" si="24"/>
+        <v>4203.6456468442802</v>
+      </c>
+      <c r="F191" s="6">
+        <f t="shared" si="25"/>
+        <v>14.749633848576421</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>12</v>
+      </c>
+      <c r="B192" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A192),D190)</f>
+        <v>217.6216402053833</v>
+      </c>
+      <c r="C192" s="36">
+        <f t="shared" si="23"/>
+        <v>1237.5698826313019</v>
+      </c>
+      <c r="D192" s="8">
+        <f t="shared" si="27"/>
+        <v>360.47590571641922</v>
+      </c>
+      <c r="E192" s="13">
+        <f t="shared" si="24"/>
+        <v>6858.3695912560734</v>
+      </c>
+      <c r="F192" s="6">
+        <f t="shared" si="25"/>
+        <v>24.064454706161662</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>13</v>
+      </c>
+      <c r="B193" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A193),D191)</f>
+        <v>220.94361519813538</v>
+      </c>
+      <c r="C193" s="36">
+        <f t="shared" si="23"/>
+        <v>1598.0457883477211</v>
+      </c>
+      <c r="D193" s="8">
+        <f t="shared" si="27"/>
+        <v>315.21506036818027</v>
+      </c>
+      <c r="E193" s="13">
+        <f t="shared" si="24"/>
+        <v>5997.2423966548758</v>
+      </c>
+      <c r="F193" s="6">
+        <f t="shared" si="25"/>
+        <v>21.042955777736406</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>14</v>
+      </c>
+      <c r="B194" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A194),D192)</f>
+        <v>360.47590571641922</v>
+      </c>
+      <c r="C194" s="36">
+        <f t="shared" si="23"/>
+        <v>1913.2608487159014</v>
+      </c>
+      <c r="D194" s="8">
+        <f t="shared" si="27"/>
+        <v>613.69503395631909</v>
+      </c>
+      <c r="E194" s="13">
+        <f t="shared" si="24"/>
+        <v>11676.085120934533</v>
+      </c>
+      <c r="F194" s="6">
+        <f t="shared" si="25"/>
+        <v>40.968719722577312</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>15</v>
+      </c>
+      <c r="B195" s="7">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A195),D193)</f>
+        <v>315.21506036818027</v>
+      </c>
+      <c r="C195" s="36">
+        <f t="shared" si="23"/>
+        <v>2526.9558826722205</v>
+      </c>
+      <c r="D195" s="8">
+        <f t="shared" si="27"/>
+        <v>412.06276217196137</v>
+      </c>
+      <c r="E195" s="13">
+        <f t="shared" si="24"/>
+        <v>7839.8546836370124</v>
+      </c>
+      <c r="F195" s="6">
+        <f t="shared" si="25"/>
+        <v>27.508262047849168</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="37">
+        <v>16</v>
+      </c>
+      <c r="B196" s="38">
+        <f>MIN(utxoSize*POWER(1+utxoGrowth,A196),D194)</f>
+        <v>613.69503395631909</v>
+      </c>
+      <c r="C196" s="39">
+        <f t="shared" si="23"/>
+        <v>2939.0186448441818</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="37"/>
+      <c r="B197" s="38"/>
+      <c r="C197" s="39"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D199" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C147" s="16">
+      <c r="C200" s="16">
         <v>50</v>
       </c>
-      <c r="D147" s="17">
+      <c r="D200" s="17">
         <v>1000</v>
       </c>
-      <c r="E147" s="17">
+      <c r="E200" s="17">
         <v>8</v>
       </c>
-      <c r="F147" s="18">
+      <c r="F200" s="18">
         <v>5000</v>
       </c>
-      <c r="G147" s="19" t="s">
+      <c r="G200" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H147" s="20">
+      <c r="H200" s="20">
         <v>7</v>
       </c>
-      <c r="I147" s="21">
+      <c r="I200" s="21">
         <v>0.1</v>
       </c>
-      <c r="J147" s="21">
+      <c r="J200" s="21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C149" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>0</v>
-      </c>
-      <c r="B151" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A151)</f>
-        <v>3</v>
-      </c>
-      <c r="C151" s="36">
-        <f>disk4*POWER(1+diskGrowth,A151)*ongoingResourcePercent4-B151</f>
-        <v>97</v>
-      </c>
-      <c r="D151" s="8">
-        <f>C152-C151</f>
-        <v>23.5</v>
-      </c>
-      <c r="E151" s="13">
-        <f>D151*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>447.10806697108069</v>
-      </c>
-      <c r="F151" s="6">
-        <f>E151*1000/secondsPerBlock/avgTrSize</f>
-        <v>1.568800234986248</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>1</v>
-      </c>
-      <c r="B152" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A152)</f>
-        <v>4.5</v>
-      </c>
-      <c r="C152" s="36">
-        <f>disk4*POWER(1+diskGrowth,A152)*ongoingResourcePercent4-B152</f>
-        <v>120.5</v>
-      </c>
-      <c r="D152" s="8">
-        <f t="shared" ref="D152:D166" si="2">C153-C152</f>
-        <v>29</v>
-      </c>
-      <c r="E152" s="13">
-        <f>D152*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>551.7503805175038</v>
-      </c>
-      <c r="F152" s="6">
-        <f>E152*1000/secondsPerBlock/avgTrSize</f>
-        <v>1.935966247429838</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>2</v>
-      </c>
-      <c r="B153" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A153)</f>
-        <v>6.75</v>
-      </c>
-      <c r="C153" s="36">
-        <f>disk4*POWER(1+diskGrowth,A153)*ongoingResourcePercent4-B153</f>
-        <v>149.5</v>
-      </c>
-      <c r="D153" s="8">
-        <f t="shared" si="2"/>
-        <v>35.6875</v>
-      </c>
-      <c r="E153" s="13">
-        <f>D153*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>678.98592085235919</v>
-      </c>
-      <c r="F153" s="6">
-        <f>E153*1000/secondsPerBlock/avgTrSize</f>
-        <v>2.3824067398328395</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>3</v>
-      </c>
-      <c r="B154" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A154)</f>
-        <v>10.125</v>
-      </c>
-      <c r="C154" s="36">
-        <f>disk4*POWER(1+diskGrowth,A154)*ongoingResourcePercent4-B154</f>
-        <v>185.1875</v>
-      </c>
-      <c r="D154" s="8">
-        <f t="shared" si="2"/>
-        <v>43.765625</v>
-      </c>
-      <c r="E154" s="13">
-        <f>D154*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>832.67931887366819</v>
-      </c>
-      <c r="F154" s="6">
-        <f>E154*1000/secondsPerBlock/avgTrSize</f>
-        <v>2.9216818206093622</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>4</v>
-      </c>
-      <c r="B155" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A155)</f>
-        <v>15.1875</v>
-      </c>
-      <c r="C155" s="36">
-        <f>disk4*POWER(1+diskGrowth,A155)*ongoingResourcePercent4-B155</f>
-        <v>228.953125</v>
-      </c>
-      <c r="D155" s="8">
-        <f t="shared" si="2"/>
-        <v>53.44140625</v>
-      </c>
-      <c r="E155" s="13">
-        <f>D155*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>1016.7695253044139</v>
-      </c>
-      <c r="F155" s="6">
-        <f>E155*1000/secondsPerBlock/avgTrSize</f>
-        <v>3.5676123694891717</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>5</v>
-      </c>
-      <c r="B156" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A156)</f>
-        <v>22.78125</v>
-      </c>
-      <c r="C156" s="36">
-        <f>disk4*POWER(1+diskGrowth,A156)*ongoingResourcePercent4-B156</f>
-        <v>282.39453125</v>
-      </c>
-      <c r="D156" s="8">
-        <f t="shared" si="2"/>
-        <v>64.9033203125</v>
-      </c>
-      <c r="E156" s="13">
-        <f>D156*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>1234.8424716990107</v>
-      </c>
-      <c r="F156" s="6">
-        <f>E156*1000/secondsPerBlock/avgTrSize</f>
-        <v>4.3327806024526696</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>6</v>
-      </c>
-      <c r="B157" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A157)</f>
-        <v>34.171875</v>
-      </c>
-      <c r="C157" s="36">
-        <f>disk4*POWER(1+diskGrowth,A157)*ongoingResourcePercent4-B157</f>
-        <v>347.2978515625</v>
-      </c>
-      <c r="D157" s="8">
-        <f t="shared" si="2"/>
-        <v>78.281494140625</v>
-      </c>
-      <c r="E157" s="13">
-        <f>D157*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>1489.3739372265031</v>
-      </c>
-      <c r="F157" s="6">
-        <f>E157*1000/secondsPerBlock/avgTrSize</f>
-        <v>5.2258734639526425</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A158)</f>
-        <v>51.2578125</v>
-      </c>
-      <c r="C158" s="36">
-        <f>disk4*POWER(1+diskGrowth,A158)*ongoingResourcePercent4-B158</f>
-        <v>425.579345703125</v>
-      </c>
-      <c r="D158" s="8">
-        <f t="shared" si="2"/>
-        <v>93.58038330078125</v>
-      </c>
-      <c r="E158" s="13">
-        <f>D158*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>1780.4486929372383</v>
-      </c>
-      <c r="F158" s="6">
-        <f>E158*1000/secondsPerBlock/avgTrSize</f>
-        <v>6.247188396271012</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>8</v>
-      </c>
-      <c r="B159" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A159)</f>
-        <v>76.88671875</v>
-      </c>
-      <c r="C159" s="36">
-        <f>disk4*POWER(1+diskGrowth,A159)*ongoingResourcePercent4-B159</f>
-        <v>519.15972900390625</v>
-      </c>
-      <c r="D159" s="8">
-        <f t="shared" si="2"/>
-        <v>110.56825256347656</v>
-      </c>
-      <c r="E159" s="13">
-        <f>D159*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>2103.6577732777123</v>
-      </c>
-      <c r="F159" s="6">
-        <f>E159*1000/secondsPerBlock/avgTrSize</f>
-        <v>7.381255344834079</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>9</v>
-      </c>
-      <c r="B160" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A160)</f>
-        <v>115.330078125</v>
-      </c>
-      <c r="C160" s="36">
-        <f>disk4*POWER(1+diskGrowth,A160)*ongoingResourcePercent4-B160</f>
-        <v>629.72798156738281</v>
-      </c>
-      <c r="D160" s="8">
-        <f t="shared" si="2"/>
-        <v>128.5994758605957</v>
-      </c>
-      <c r="E160" s="13">
-        <f>D160*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>2446.7175772563869</v>
-      </c>
-      <c r="F160" s="6">
-        <f>E160*1000/secondsPerBlock/avgTrSize</f>
-        <v>8.5849739552855695</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>10</v>
-      </c>
-      <c r="B161" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A161)</f>
-        <v>172.9951171875</v>
-      </c>
-      <c r="C161" s="36">
-        <f>disk4*POWER(1+diskGrowth,A161)*ongoingResourcePercent4-B161</f>
-        <v>758.32745742797852</v>
-      </c>
-      <c r="D161" s="8">
-        <f t="shared" si="2"/>
-        <v>146.33308506011963</v>
-      </c>
-      <c r="E161" s="13">
-        <f>D161*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>2784.1150125593535</v>
-      </c>
-      <c r="F161" s="6">
-        <f>E161*1000/secondsPerBlock/avgTrSize</f>
-        <v>9.7688246054714156</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>11</v>
-      </c>
-      <c r="B162" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A162)</f>
-        <v>259.49267578125</v>
-      </c>
-      <c r="C162" s="36">
-        <f>disk4*POWER(1+diskGrowth,A162)*ongoingResourcePercent4-B162</f>
-        <v>904.66054248809814</v>
-      </c>
-      <c r="D162" s="8">
-        <f t="shared" si="2"/>
-        <v>161.29196667671204</v>
-      </c>
-      <c r="E162" s="13">
-        <f>D162*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>3068.720827182497</v>
-      </c>
-      <c r="F162" s="6">
-        <f>E162*1000/secondsPerBlock/avgTrSize</f>
-        <v>10.767441498885955</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>12</v>
-      </c>
-      <c r="B163" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A163)</f>
-        <v>389.239013671875</v>
-      </c>
-      <c r="C163" s="36">
-        <f>disk4*POWER(1+diskGrowth,A163)*ongoingResourcePercent4-B163</f>
-        <v>1065.9525091648102</v>
-      </c>
-      <c r="D163" s="8">
-        <f t="shared" si="2"/>
-        <v>169.1783738732338</v>
-      </c>
-      <c r="E163" s="13">
-        <f>D163*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>3218.7666262030784</v>
-      </c>
-      <c r="F163" s="6">
-        <f>E163*1000/secondsPerBlock/avgTrSize</f>
-        <v>11.293917986677467</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>13</v>
-      </c>
-      <c r="B164" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A164)</f>
-        <v>583.8585205078125</v>
-      </c>
-      <c r="C164" s="36">
-        <f>disk4*POWER(1+diskGrowth,A164)*ongoingResourcePercent4-B164</f>
-        <v>1235.130883038044</v>
-      </c>
-      <c r="D164" s="8">
-        <f t="shared" si="2"/>
-        <v>162.81809063255787</v>
-      </c>
-      <c r="E164" s="13">
-        <f>D164*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>3097.7566710912838</v>
-      </c>
-      <c r="F164" s="6">
-        <f>E164*1000/secondsPerBlock/avgTrSize</f>
-        <v>10.869321652951871</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>14</v>
-      </c>
-      <c r="B165" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A165)</f>
-        <v>875.78778076171875</v>
-      </c>
-      <c r="C165" s="36">
-        <f>disk4*POWER(1+diskGrowth,A165)*ongoingResourcePercent4-B165</f>
-        <v>1397.9489736706018</v>
-      </c>
-      <c r="D165" s="8">
-        <f t="shared" si="2"/>
-        <v>130.54029822722077</v>
-      </c>
-      <c r="E165" s="13">
-        <f>D165*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>2483.6434213702582</v>
-      </c>
-      <c r="F165" s="6">
-        <f>E165*1000/secondsPerBlock/avgTrSize</f>
-        <v>8.7145383205973967</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>15</v>
-      </c>
-      <c r="B166" s="7">
-        <f>utxoSize*POWER(1+utxoGrowth,A166)</f>
-        <v>1313.6816711425781</v>
-      </c>
-      <c r="C166" s="36">
-        <f>disk4*POWER(1+diskGrowth,A166)*ongoingResourcePercent4-B166</f>
-        <v>1528.4892718978226</v>
-      </c>
-      <c r="D166" s="8">
-        <f t="shared" si="2"/>
-        <v>53.701900188811123</v>
-      </c>
-      <c r="E166" s="13">
-        <f>D166*1000*1000*secondsPerBlock/secondsPerYear</f>
-        <v>1021.7256504720533</v>
-      </c>
-      <c r="F166" s="6">
-        <f>E166*1000/secondsPerBlock/avgTrSize</f>
-        <v>3.585002282358082</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="37">
-        <v>16</v>
-      </c>
-      <c r="B167" s="38">
-        <f>utxoSize*POWER(1+utxoGrowth,A167)</f>
-        <v>1970.5225067138672</v>
-      </c>
-      <c r="C167" s="39">
-        <f>disk4*POWER(1+diskGrowth,A167)*ongoingResourcePercent4-B167</f>
-        <v>1582.1911720866337</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I87:I102">
+  <conditionalFormatting sqref="I88:I103">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="7"/>
+        <cfvo type="num" val="14"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68:I83">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -6461,20 +8261,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I82">
+  <conditionalFormatting sqref="C180:C197 C149">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="7"/>
-        <cfvo type="num" val="14"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151:C167">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>

--- a/bottlenecks.xlsx
+++ b/bottlenecks.xlsx
@@ -19,7 +19,7 @@
     <definedName name="bandwidth1">'Current Bitcoin'!$B$44</definedName>
     <definedName name="bandwidth10">'Future Bitcoin'!$B$36</definedName>
     <definedName name="bandwidth13">'Future Bitcoin'!#REF!</definedName>
-    <definedName name="bandwidth15">'Future Bitcoin'!$B$119</definedName>
+    <definedName name="bandwidth15">'Future Bitcoin'!$B$120</definedName>
     <definedName name="bandwidth2">'Current Bitcoin'!$B$68</definedName>
     <definedName name="bandwidth3">'Current Bitcoin'!$B$92</definedName>
     <definedName name="bandwidth4">'Future Bitcoin'!#REF!</definedName>
@@ -36,9 +36,9 @@
     <definedName name="disk6">'Current Bitcoin'!$C$228</definedName>
     <definedName name="disk7">'Current Bitcoin'!$C$252</definedName>
     <definedName name="diskGrowth">'Current Bitcoin'!$C$6</definedName>
-    <definedName name="endGameEmergencyUsage">'Future Bitcoin'!$G$124</definedName>
-    <definedName name="endGameTransactionSize">'Future Bitcoin'!$A$124</definedName>
-    <definedName name="endGameUsers">'Future Bitcoin'!$C$124</definedName>
+    <definedName name="endGameEmergencyUsage">'Future Bitcoin'!$G$125</definedName>
+    <definedName name="endGameTransactionSize">'Future Bitcoin'!$A$125</definedName>
+    <definedName name="endGameUsers">'Future Bitcoin'!$C$125</definedName>
     <definedName name="historicalResourcePercent10">'Future Bitcoin'!$L$36</definedName>
     <definedName name="historicalResourcePercent12">'Future Bitcoin'!$L$84</definedName>
     <definedName name="historicalResourcePercent13">'Future Bitcoin'!#REF!</definedName>
@@ -51,7 +51,7 @@
     <definedName name="KBperGB">'Current Bitcoin'!$E$10</definedName>
     <definedName name="mbToGB">'Current Bitcoin'!$D$10</definedName>
     <definedName name="memory1">'Current Bitcoin'!$D$44</definedName>
-    <definedName name="memory15">'Future Bitcoin'!$D$119</definedName>
+    <definedName name="memory15">'Future Bitcoin'!$D$120</definedName>
     <definedName name="memory2">'Current Bitcoin'!$D$68</definedName>
     <definedName name="memory3">'Current Bitcoin'!$D$92</definedName>
     <definedName name="memory6">'Current Bitcoin'!$D$228</definedName>
@@ -61,7 +61,7 @@
     <definedName name="ongoingResourcePercent6">'Current Bitcoin'!$K$228</definedName>
     <definedName name="ongoingResourcePercent6p5">'Current Bitcoin'!$K$277</definedName>
     <definedName name="ongoingResourcePercent7">'Current Bitcoin'!$K$252</definedName>
-    <definedName name="ongoingResourcePercentage15">'Future Bitcoin'!$L$119</definedName>
+    <definedName name="ongoingResourcePercentage15">'Future Bitcoin'!$L$120</definedName>
     <definedName name="ongoingResourcePercentage4">'Future Bitcoin'!#REF!</definedName>
     <definedName name="ongoingResourcePercentage5">'Current Bitcoin'!$K$204</definedName>
     <definedName name="ongoingResourcePercentage8">'Current Bitcoin'!$K$156</definedName>
@@ -73,7 +73,7 @@
     <definedName name="publicConnections9">'Current Bitcoin'!$H$180</definedName>
     <definedName name="publicNodePercent">'Current Bitcoin'!$F$15</definedName>
     <definedName name="recentSyncTime11">'Future Bitcoin'!$I$60</definedName>
-    <definedName name="recentSyncTime15">'Future Bitcoin'!$I$119</definedName>
+    <definedName name="recentSyncTime15">'Future Bitcoin'!$I$120</definedName>
     <definedName name="recentSyncTime8">'Future Bitcoin'!$I$12</definedName>
     <definedName name="resourcePercent">'Current Bitcoin'!$J$44</definedName>
     <definedName name="resourcePercent2">'Current Bitcoin'!$J$68</definedName>
@@ -83,7 +83,7 @@
     <definedName name="syncResourcePercent10">'Future Bitcoin'!$K$36</definedName>
     <definedName name="syncResourcePercent11">'Future Bitcoin'!$K$60</definedName>
     <definedName name="syncResourcePercent8">'Future Bitcoin'!$K$12</definedName>
-    <definedName name="syncResourcePercentage15">'Future Bitcoin'!$K$119</definedName>
+    <definedName name="syncResourcePercentage15">'Future Bitcoin'!$K$120</definedName>
     <definedName name="syncTime1">'Current Bitcoin'!$I$44</definedName>
     <definedName name="syncTime2">'Current Bitcoin'!$I$68</definedName>
     <definedName name="syncTime3">'Current Bitcoin'!$I$92</definedName>
@@ -100,7 +100,7 @@
     <definedName name="utxoGrowth">'Current Bitcoin'!$E$19</definedName>
     <definedName name="utxoMemoryPercent">'Current Bitcoin'!$D$15</definedName>
     <definedName name="utxoSize">'Current Bitcoin'!$D$19</definedName>
-    <definedName name="utxosPerUserEndGame">'Future Bitcoin'!$D$124</definedName>
+    <definedName name="utxosPerUserEndGame">'Future Bitcoin'!$D$125</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="135">
   <si>
     <t>User Type</t>
   </si>
@@ -448,9 +448,6 @@
     <t>Ongoing Transaction Download &amp; Upload (10th %ile)</t>
   </si>
   <si>
-    <t>End Game</t>
-  </si>
-  <si>
     <t>TPS</t>
   </si>
   <si>
@@ -530,6 +527,15 @@
   </si>
   <si>
     <t>Initial Sync</t>
+  </si>
+  <si>
+    <t>Future throughput</t>
+  </si>
+  <si>
+    <t>Future throughput summary (based on today)</t>
+  </si>
+  <si>
+    <t>Future throughput summary (based on 10 years from now)</t>
   </si>
 </sst>
 </file>
@@ -936,7 +942,58 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBD1D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBD1D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBD1D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1002,6 +1059,30 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBD1D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1190,8 +1271,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146995072"/>
-        <c:axId val="147001344"/>
+        <c:axId val="146687872"/>
+        <c:axId val="146690048"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1339,11 +1420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147004416"/>
-        <c:axId val="147002880"/>
+        <c:axId val="146693120"/>
+        <c:axId val="146691584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146995072"/>
+        <c:axId val="146687872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,14 +1446,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147001344"/>
+        <c:crossAx val="146690048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1380,7 +1460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147001344"/>
+        <c:axId val="146690048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,12 +1485,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146995072"/>
+        <c:crossAx val="146687872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147002880"/>
+        <c:axId val="146691584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,12 +1516,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147004416"/>
+        <c:crossAx val="146693120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="147004416"/>
+        <c:axId val="146693120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147002880"/>
+        <c:crossAx val="146691584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1658,8 +1738,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147047168"/>
-        <c:axId val="147049088"/>
+        <c:axId val="146719488"/>
+        <c:axId val="146721408"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1807,11 +1887,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147060608"/>
-        <c:axId val="147059072"/>
+        <c:axId val="146728832"/>
+        <c:axId val="146727296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147047168"/>
+        <c:axId val="146719488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,14 +1913,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147049088"/>
+        <c:crossAx val="146721408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1848,7 +1927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147049088"/>
+        <c:axId val="146721408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,12 +1952,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147047168"/>
+        <c:crossAx val="146719488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147059072"/>
+        <c:axId val="146727296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1904,12 +1983,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147060608"/>
+        <c:crossAx val="146728832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="147060608"/>
+        <c:axId val="146728832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,7 +1998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147059072"/>
+        <c:crossAx val="146727296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2126,8 +2205,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147086720"/>
-        <c:axId val="147092992"/>
+        <c:axId val="147283328"/>
+        <c:axId val="147293696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2275,11 +2354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147104512"/>
-        <c:axId val="147094528"/>
+        <c:axId val="147305216"/>
+        <c:axId val="147295232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147086720"/>
+        <c:axId val="147283328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,14 +2380,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147092992"/>
+        <c:crossAx val="147293696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2316,7 +2394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147092992"/>
+        <c:axId val="147293696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,12 +2419,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147086720"/>
+        <c:crossAx val="147283328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147094528"/>
+        <c:axId val="147295232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,12 +2450,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147104512"/>
+        <c:crossAx val="147305216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="147104512"/>
+        <c:axId val="147305216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147094528"/>
+        <c:crossAx val="147295232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2595,8 +2673,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163126272"/>
-        <c:axId val="163132544"/>
+        <c:axId val="147397632"/>
+        <c:axId val="147403904"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2744,11 +2822,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163148160"/>
-        <c:axId val="163134080"/>
+        <c:axId val="147419520"/>
+        <c:axId val="147405440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163126272"/>
+        <c:axId val="147397632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2770,14 +2848,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163132544"/>
+        <c:crossAx val="147403904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2785,7 +2862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163132544"/>
+        <c:axId val="147403904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2810,12 +2887,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163126272"/>
+        <c:crossAx val="147397632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163134080"/>
+        <c:axId val="147405440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,12 +2918,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163148160"/>
+        <c:crossAx val="147419520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="163148160"/>
+        <c:axId val="147419520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,7 +2933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163134080"/>
+        <c:crossAx val="147405440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3211,11 +3288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163175424"/>
-        <c:axId val="163181696"/>
+        <c:axId val="147446400"/>
+        <c:axId val="147448576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163175424"/>
+        <c:axId val="147446400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3237,13 +3314,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163181696"/>
+        <c:crossAx val="147448576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3251,7 +3329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163181696"/>
+        <c:axId val="147448576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163175424"/>
+        <c:crossAx val="147446400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3481,8 +3559,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163208192"/>
-        <c:axId val="163226752"/>
+        <c:axId val="147487744"/>
+        <c:axId val="147494016"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3630,11 +3708,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163230080"/>
-        <c:axId val="163228288"/>
+        <c:axId val="147505536"/>
+        <c:axId val="147495552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163208192"/>
+        <c:axId val="147487744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,7 +3740,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163226752"/>
+        <c:crossAx val="147494016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3670,7 +3748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163226752"/>
+        <c:axId val="147494016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3695,12 +3773,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163208192"/>
+        <c:crossAx val="147487744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163228288"/>
+        <c:axId val="147495552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,12 +3804,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163230080"/>
+        <c:crossAx val="147505536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="163230080"/>
+        <c:axId val="147505536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3741,7 +3819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163228288"/>
+        <c:crossAx val="147495552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4095,11 +4173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163240960"/>
-        <c:axId val="163337344"/>
+        <c:axId val="147516032"/>
+        <c:axId val="147604224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163240960"/>
+        <c:axId val="147516032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4127,7 +4205,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163337344"/>
+        <c:crossAx val="147604224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4135,7 +4213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163337344"/>
+        <c:axId val="147604224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,7 +4238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163240960"/>
+        <c:crossAx val="147516032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4365,11 +4443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162333824"/>
-        <c:axId val="162335744"/>
+        <c:axId val="147129472"/>
+        <c:axId val="147131392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162333824"/>
+        <c:axId val="147129472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4391,14 +4469,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162335744"/>
+        <c:crossAx val="147131392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4406,7 +4483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162335744"/>
+        <c:axId val="147131392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4433,7 +4510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162333824"/>
+        <c:crossAx val="147129472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5336,8 +5413,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K309"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="A4:K4"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5704,7 +5781,7 @@
     </row>
     <row r="21" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -10744,63 +10821,63 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="147" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B306" s="147"/>
       <c r="C306" s="147"/>
       <c r="D306" s="2" t="str">
-        <f>A204</f>
+        <f>A156</f>
         <v>90th %ile</v>
       </c>
       <c r="E306" s="45">
-        <f>B208</f>
-        <v>20</v>
-      </c>
-      <c r="F306" s="13">
-        <f>C208*1000</f>
-        <v>5700</v>
-      </c>
-      <c r="G306" s="56"/>
+        <f>D160</f>
+        <v>10.096930533117932</v>
+      </c>
+      <c r="F306" s="9">
+        <f>E160*1000</f>
+        <v>2877.6252019386106</v>
+      </c>
+      <c r="G306" s="57"/>
       <c r="H306" s="132"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="147" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B307" s="147"/>
       <c r="C307" s="147"/>
       <c r="D307" s="2" t="str">
-        <f>A228</f>
+        <f>A204</f>
         <v>90th %ile</v>
       </c>
-      <c r="E307" s="58"/>
-      <c r="F307" s="57"/>
+      <c r="E307" s="45">
+        <f>B208</f>
+        <v>20</v>
+      </c>
+      <c r="F307" s="13">
+        <f>C208*1000</f>
+        <v>5700</v>
+      </c>
       <c r="G307" s="56"/>
-      <c r="H307" s="54">
-        <f>B232</f>
-        <v>12.8</v>
-      </c>
+      <c r="H307" s="132"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="147" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B308" s="147"/>
       <c r="C308" s="147"/>
       <c r="D308" s="2" t="str">
-        <f>A156</f>
+        <f>A228</f>
         <v>90th %ile</v>
       </c>
-      <c r="E308" s="45">
-        <f>D160</f>
-        <v>10.096930533117932</v>
-      </c>
-      <c r="F308" s="9">
-        <f>E160*1000</f>
-        <v>2877.6252019386106</v>
-      </c>
-      <c r="G308" s="57"/>
-      <c r="H308" s="132"/>
+      <c r="E308" s="58"/>
+      <c r="F308" s="57"/>
+      <c r="G308" s="56"/>
+      <c r="H308" s="54">
+        <f>B232</f>
+        <v>12.8</v>
+      </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="147" t="s">
@@ -10808,9 +10885,8 @@
       </c>
       <c r="B309" s="147"/>
       <c r="C309" s="147"/>
-      <c r="D309" s="110">
-        <f>A258</f>
-        <v>2</v>
+      <c r="D309" s="110" t="s">
+        <v>85</v>
       </c>
       <c r="E309" s="46">
         <f>D184</f>
@@ -10826,15 +10902,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
     <mergeCell ref="A309:C309"/>
     <mergeCell ref="A302:C302"/>
     <mergeCell ref="A301:C301"/>
     <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A307:C307"/>
     <mergeCell ref="A304:C304"/>
     <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A306:C306"/>
   </mergeCells>
   <conditionalFormatting sqref="I117:I132">
     <cfRule type="colorScale" priority="8">
@@ -10860,23 +10936,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F301:F303 F308 F305:F306">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="F301:F303 F305:F307">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>$C$19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E301:E303 E308 E305:E306">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="E301:E303 E305:E307">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>$C$19*1000/$C$10/$F$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301:G303 G305">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
       <formula>$B$19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H307 H304">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="H308 H304">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>$D$19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10889,10 +10965,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L194"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="I208" sqref="I208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13366,1371 +13442,1597 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="113" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="113"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="110" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="108" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="110" t="s">
+    <row r="120" spans="1:12" s="108" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="B119" s="115">
+      <c r="B120" s="115">
         <v>50</v>
       </c>
-      <c r="C119" s="116">
+      <c r="C120" s="116">
         <v>1000</v>
       </c>
-      <c r="D119" s="116">
+      <c r="D120" s="116">
         <v>8</v>
       </c>
-      <c r="E119" s="117">
+      <c r="E120" s="117">
         <v>5000</v>
       </c>
-      <c r="F119" s="118" t="s">
+      <c r="F120" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="G119" s="121">
+      <c r="G120" s="121">
         <v>8</v>
       </c>
-      <c r="H119" s="133">
+      <c r="H120" s="133">
         <f>($G$5*0.9+$G$4*0.09+$G$3*0.01)/publicNodePercent</f>
         <v>80</v>
       </c>
-      <c r="I119" s="119">
+      <c r="I120" s="119">
         <v>7</v>
       </c>
-      <c r="J119" s="119">
+      <c r="J120" s="119">
         <v>60</v>
       </c>
-      <c r="K119" s="120">
+      <c r="K120" s="120">
         <f>'Current Bitcoin'!$J$4</f>
         <v>0.5</v>
       </c>
-      <c r="L119" s="120">
+      <c r="L120" s="120">
         <v>0.1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G121" s="109" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="C122" s="109"/>
-      <c r="D122" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="E122" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="F122" s="109" t="s">
-        <v>115</v>
-      </c>
+    <row r="121" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G122" s="109" t="s">
-        <v>120</v>
-      </c>
-      <c r="H122" s="109"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="109" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="C123" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="109"/>
+      <c r="D123" s="109" t="s">
         <v>109</v>
-      </c>
-      <c r="D123" s="109" t="s">
-        <v>111</v>
       </c>
       <c r="E123" s="109" t="s">
         <v>116</v>
       </c>
       <c r="F123" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="G123" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="H123" s="109"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="E124" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="F124" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="G123" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="H123" s="109"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="23">
+      <c r="G124" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="H124" s="109"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="23">
         <f>avgTrSize</f>
         <v>475</v>
       </c>
-      <c r="B124" s="121">
+      <c r="B125" s="121">
         <v>2</v>
       </c>
-      <c r="C124" s="140">
+      <c r="C125" s="140">
         <v>8</v>
       </c>
-      <c r="D124" s="121">
+      <c r="D125" s="121">
         <v>100</v>
       </c>
-      <c r="E124" s="142">
+      <c r="E125" s="142">
         <v>1E-4</v>
       </c>
-      <c r="F124">
-        <f>CEILING(LOG(E124,0.5),1)</f>
+      <c r="F125">
+        <f>CEILING(LOG(E125,0.5),1)</f>
         <v>14</v>
       </c>
-      <c r="G124" s="143">
+      <c r="G125" s="143">
         <v>0.75</v>
       </c>
-      <c r="I124" s="108"/>
-    </row>
-    <row r="126" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="113" t="s">
-        <v>132</v>
-      </c>
+      <c r="I125" s="108"/>
     </row>
     <row r="127" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="109"/>
-      <c r="C127" s="109" t="s">
+      <c r="A127" s="113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="109"/>
+      <c r="C128" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="D127" s="109" t="s">
+      <c r="D128" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="E127" s="109" t="s">
+      <c r="E128" s="109" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="145" t="s">
+    <row r="129" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="B128" s="109" t="s">
+      <c r="B129" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="C128" s="109" t="s">
+      <c r="C129" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="D128" s="109" t="s">
+      <c r="D129" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="109" t="s">
+      <c r="E129" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="F128" s="109" t="s">
+      <c r="F129" s="109" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="108">
+    <row r="130" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="108">
         <v>0</v>
       </c>
-      <c r="B129" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A129)*recentSyncTime15/365</f>
+      <c r="B130" s="130">
+        <f t="shared" ref="B130:B145" si="19">bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A130)*recentSyncTime15/365</f>
         <v>1890</v>
       </c>
-      <c r="C129" s="102">
+      <c r="C130" s="102">
         <f xml:space="preserve"> utxoSize</f>
         <v>3</v>
       </c>
-      <c r="D129" s="114">
-        <f>(B129-C129)/(assumevalidBlockTime/365)</f>
+      <c r="D130" s="114">
+        <f>(B130-C130)/(assumevalidBlockTime/365)</f>
         <v>3279.7857142857147</v>
       </c>
-      <c r="E129" s="129">
-        <f>(D129*KBperGB/secondsPerYear)*secondsPerBlock/1000</f>
+      <c r="E130" s="129">
+        <f>(D130*KBperGB/secondsPerYear)*secondsPerBlock/1000</f>
         <v>62.400793650793652</v>
       </c>
-      <c r="F129" s="93">
-        <f t="shared" ref="F129:F144" si="19">E129*1000*1000/(secondsPerBlock*avgTrSize)</f>
+      <c r="F130" s="93">
+        <f t="shared" ref="F130:F145" si="20">E130*1000*1000/(secondsPerBlock*avgTrSize)</f>
         <v>218.95015316067949</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="108">
-        <v>1</v>
-      </c>
-      <c r="B130" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A130)*recentSyncTime15/365</f>
-        <v>2362.5</v>
-      </c>
-      <c r="C130" s="104">
-        <f xml:space="preserve"> C129 + MIN(C129*utxoGrowth, curMaxBlocksize*secondsPerYear/secondsPerBlock/KBperGB)</f>
-        <v>4.5</v>
-      </c>
-      <c r="D130" s="114">
-        <f t="shared" ref="D129:D144" si="20">(B130-C130)/(assumevalidBlockTime/365)</f>
-        <v>4098.4285714285716</v>
-      </c>
-      <c r="E130" s="129">
-        <f t="shared" ref="E129:E131" si="21">(D130*KBperGB/secondsPerYear)*secondsPerBlock/1000</f>
-        <v>77.976190476190482</v>
-      </c>
-      <c r="F130" s="93">
-        <f t="shared" si="19"/>
-        <v>273.60066833751051</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A131)*recentSyncTime15/365</f>
-        <v>2953.125</v>
+        <f t="shared" si="19"/>
+        <v>2362.5</v>
       </c>
       <c r="C131" s="104">
-        <f t="shared" ref="C130:C144" si="22" xml:space="preserve"> C130 + MIN(C130*utxoGrowth, curMaxBlocksize*secondsPerYear/secondsPerBlock/KBperGB)</f>
-        <v>6.75</v>
+        <f xml:space="preserve"> C130 + MIN(C130*utxoGrowth, curMaxBlocksize*secondsPerYear/secondsPerBlock/KBperGB)</f>
+        <v>4.5</v>
       </c>
       <c r="D131" s="114">
+        <f t="shared" ref="D131:D145" si="21">(B131-C131)/(assumevalidBlockTime/365)</f>
+        <v>4098.4285714285716</v>
+      </c>
+      <c r="E131" s="129">
+        <f t="shared" ref="E131:E132" si="22">(D131*KBperGB/secondsPerYear)*secondsPerBlock/1000</f>
+        <v>77.976190476190482</v>
+      </c>
+      <c r="F131" s="93">
         <f t="shared" si="20"/>
-        <v>5121.0803571428578</v>
-      </c>
-      <c r="E131" s="129">
-        <f t="shared" si="21"/>
-        <v>97.433035714285708</v>
-      </c>
-      <c r="F131" s="93">
-        <f t="shared" si="19"/>
-        <v>341.87030075187971</v>
+        <v>273.60066833751051</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B132" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A132)*recentSyncTime15/365</f>
-        <v>3691.40625</v>
+        <f t="shared" si="19"/>
+        <v>2953.125</v>
       </c>
       <c r="C132" s="104">
+        <f t="shared" ref="C132:C145" si="23" xml:space="preserve"> C131 + MIN(C131*utxoGrowth, curMaxBlocksize*secondsPerYear/secondsPerBlock/KBperGB)</f>
+        <v>6.75</v>
+      </c>
+      <c r="D132" s="114">
+        <f t="shared" si="21"/>
+        <v>5121.0803571428578</v>
+      </c>
+      <c r="E132" s="129">
         <f t="shared" si="22"/>
-        <v>10.125</v>
-      </c>
-      <c r="D132" s="114">
+        <v>97.433035714285708</v>
+      </c>
+      <c r="F132" s="93">
         <f t="shared" si="20"/>
-        <v>6398.4174107142862</v>
-      </c>
-      <c r="E132" s="129">
-        <f>(D132*KBperGB/secondsPerYear)*secondsPerBlock/1000</f>
-        <v>121.73549107142857</v>
-      </c>
-      <c r="F132" s="93">
-        <f t="shared" si="19"/>
-        <v>427.14207393483707</v>
+        <v>341.87030075187971</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B133" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A133)*recentSyncTime15/365</f>
-        <v>4614.2578125</v>
+        <f t="shared" si="19"/>
+        <v>3691.40625</v>
       </c>
       <c r="C133" s="104">
-        <f t="shared" si="22"/>
-        <v>15.1875</v>
+        <f t="shared" si="23"/>
+        <v>10.125</v>
       </c>
       <c r="D133" s="114">
+        <f t="shared" si="21"/>
+        <v>6398.4174107142862</v>
+      </c>
+      <c r="E133" s="129">
+        <f>(D133*KBperGB/secondsPerYear)*secondsPerBlock/1000</f>
+        <v>121.73549107142857</v>
+      </c>
+      <c r="F133" s="93">
         <f t="shared" si="20"/>
-        <v>7993.6222098214294</v>
-      </c>
-      <c r="E133" s="129">
-        <f t="shared" ref="E133:E144" si="23">(D133*KBperGB/secondsPerYear)*secondsPerBlock/1000</f>
-        <v>152.08565848214286</v>
-      </c>
-      <c r="F133" s="93">
-        <f t="shared" si="19"/>
-        <v>533.63388941102755</v>
+        <v>427.14207393483707</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A134)*recentSyncTime15/365</f>
-        <v>5767.822265625</v>
+        <f t="shared" si="19"/>
+        <v>4614.2578125</v>
       </c>
       <c r="C134" s="104">
-        <f t="shared" si="22"/>
-        <v>22.78125</v>
+        <f t="shared" si="23"/>
+        <v>15.1875</v>
       </c>
       <c r="D134" s="114">
+        <f t="shared" si="21"/>
+        <v>7993.6222098214294</v>
+      </c>
+      <c r="E134" s="129">
+        <f t="shared" ref="E134:E145" si="24">(D134*KBperGB/secondsPerYear)*secondsPerBlock/1000</f>
+        <v>152.08565848214286</v>
+      </c>
+      <c r="F134" s="93">
         <f t="shared" si="20"/>
-        <v>9985.4284319196431</v>
-      </c>
-      <c r="E134" s="129">
-        <f t="shared" si="23"/>
-        <v>189.98151506696428</v>
-      </c>
-      <c r="F134" s="93">
-        <f t="shared" si="19"/>
-        <v>666.60180725250632</v>
+        <v>533.63388941102755</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B135" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A135)*recentSyncTime15/365</f>
-        <v>7209.77783203125</v>
+        <f t="shared" si="19"/>
+        <v>5767.822265625</v>
       </c>
       <c r="C135" s="104">
-        <f t="shared" si="22"/>
-        <v>34.171875</v>
+        <f t="shared" si="23"/>
+        <v>22.78125</v>
       </c>
       <c r="D135" s="114">
+        <f t="shared" si="21"/>
+        <v>9985.4284319196431</v>
+      </c>
+      <c r="E135" s="129">
+        <f t="shared" si="24"/>
+        <v>189.98151506696428</v>
+      </c>
+      <c r="F135" s="93">
         <f t="shared" si="20"/>
-        <v>12471.886544363841</v>
-      </c>
-      <c r="E135" s="129">
-        <f t="shared" si="23"/>
-        <v>237.28855678013394</v>
-      </c>
-      <c r="F135" s="93">
-        <f t="shared" si="19"/>
-        <v>832.59142729871564</v>
+        <v>666.60180725250632</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B136" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A136)*recentSyncTime15/365</f>
-        <v>9012.2222900390625</v>
+        <f t="shared" si="19"/>
+        <v>7209.77783203125</v>
       </c>
       <c r="C136" s="104">
-        <f t="shared" si="22"/>
-        <v>51.2578125</v>
+        <f t="shared" si="23"/>
+        <v>34.171875</v>
       </c>
       <c r="D136" s="114">
+        <f t="shared" si="21"/>
+        <v>12471.886544363841</v>
+      </c>
+      <c r="E136" s="129">
+        <f t="shared" si="24"/>
+        <v>237.28855678013394</v>
+      </c>
+      <c r="F136" s="93">
         <f t="shared" si="20"/>
-        <v>15575.009687151229</v>
-      </c>
-      <c r="E136" s="129">
-        <f t="shared" si="23"/>
-        <v>296.32819039481029</v>
-      </c>
-      <c r="F136" s="93">
-        <f t="shared" si="19"/>
-        <v>1039.7480364730184</v>
+        <v>832.59142729871564</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="108">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B137" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A137)*recentSyncTime15/365</f>
-        <v>11265.277862548828</v>
+        <f t="shared" si="19"/>
+        <v>9012.2222900390625</v>
       </c>
       <c r="C137" s="104">
-        <f t="shared" si="22"/>
-        <v>76.88671875</v>
+        <f t="shared" si="23"/>
+        <v>51.2578125</v>
       </c>
       <c r="D137" s="114">
+        <f t="shared" si="21"/>
+        <v>15575.009687151229</v>
+      </c>
+      <c r="E137" s="129">
+        <f t="shared" si="24"/>
+        <v>296.32819039481029</v>
+      </c>
+      <c r="F137" s="93">
         <f t="shared" si="20"/>
-        <v>19446.489368983679</v>
-      </c>
-      <c r="E137" s="129">
-        <f t="shared" si="23"/>
-        <v>369.98647962297719</v>
-      </c>
-      <c r="F137" s="93">
-        <f t="shared" si="19"/>
-        <v>1298.1981741157094</v>
+        <v>1039.7480364730184</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="108">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B138" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A138)*recentSyncTime15/365</f>
-        <v>14081.597328186035</v>
+        <f t="shared" si="19"/>
+        <v>11265.277862548828</v>
       </c>
       <c r="C138" s="104">
-        <f t="shared" si="22"/>
-        <v>115.330078125</v>
+        <f t="shared" si="23"/>
+        <v>76.88671875</v>
       </c>
       <c r="D138" s="114">
+        <f t="shared" si="21"/>
+        <v>19446.489368983679</v>
+      </c>
+      <c r="E138" s="129">
+        <f t="shared" si="24"/>
+        <v>369.98647962297719</v>
+      </c>
+      <c r="F138" s="93">
         <f t="shared" si="20"/>
-        <v>24274.702601296562</v>
-      </c>
-      <c r="E138" s="129">
-        <f t="shared" si="23"/>
-        <v>461.84746197291787</v>
-      </c>
-      <c r="F138" s="93">
-        <f t="shared" si="19"/>
-        <v>1620.517410431291</v>
+        <v>1298.1981741157094</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B139" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A139)*recentSyncTime15/365</f>
-        <v>17601.996660232544</v>
+        <f t="shared" si="19"/>
+        <v>14081.597328186035</v>
       </c>
       <c r="C139" s="104">
-        <f t="shared" si="22"/>
-        <v>172.9951171875</v>
+        <f t="shared" si="23"/>
+        <v>115.330078125</v>
       </c>
       <c r="D139" s="114">
+        <f t="shared" si="21"/>
+        <v>24274.702601296562</v>
+      </c>
+      <c r="E139" s="129">
+        <f t="shared" si="24"/>
+        <v>461.84746197291787</v>
+      </c>
+      <c r="F139" s="93">
         <f t="shared" si="20"/>
-        <v>30293.26458672115</v>
-      </c>
-      <c r="E139" s="129">
-        <f t="shared" si="23"/>
-        <v>576.35587113244208</v>
-      </c>
-      <c r="F139" s="93">
-        <f t="shared" si="19"/>
-        <v>2022.3013022190946</v>
+        <v>1620.517410431291</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="108">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B140" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A140)*recentSyncTime15/365</f>
-        <v>22002.49582529068</v>
+        <f t="shared" si="19"/>
+        <v>17601.996660232544</v>
       </c>
       <c r="C140" s="104">
-        <f t="shared" si="22"/>
-        <v>259.49267578125</v>
+        <f t="shared" si="23"/>
+        <v>172.9951171875</v>
       </c>
       <c r="D140" s="114">
+        <f t="shared" si="21"/>
+        <v>30293.26458672115</v>
+      </c>
+      <c r="E140" s="129">
+        <f t="shared" si="24"/>
+        <v>576.35587113244208</v>
+      </c>
+      <c r="F140" s="93">
         <f t="shared" si="20"/>
-        <v>37791.410236052106</v>
-      </c>
-      <c r="E140" s="129">
-        <f t="shared" si="23"/>
-        <v>719.01465441499442</v>
-      </c>
-      <c r="F140" s="93">
-        <f t="shared" si="19"/>
-        <v>2522.8584365438401</v>
+        <v>2022.3013022190946</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B141" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A141)*recentSyncTime15/365</f>
-        <v>27503.11978161335</v>
+        <f t="shared" si="19"/>
+        <v>22002.49582529068</v>
       </c>
       <c r="C141" s="104">
-        <f t="shared" si="22"/>
-        <v>364.61267578125</v>
+        <f t="shared" si="23"/>
+        <v>259.49267578125</v>
       </c>
       <c r="D141" s="114">
+        <f t="shared" si="21"/>
+        <v>37791.410236052106</v>
+      </c>
+      <c r="E141" s="129">
+        <f t="shared" si="24"/>
+        <v>719.01465441499442</v>
+      </c>
+      <c r="F141" s="93">
         <f t="shared" si="20"/>
-        <v>47169.309969660557</v>
-      </c>
-      <c r="E141" s="129">
-        <f t="shared" si="23"/>
-        <v>897.43740429338959</v>
-      </c>
-      <c r="F141" s="93">
-        <f t="shared" si="19"/>
-        <v>3148.9031729592621</v>
+        <v>2522.8584365438401</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="108">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B142" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A142)*recentSyncTime15/365</f>
-        <v>34378.899727016687</v>
+        <f t="shared" si="19"/>
+        <v>27503.11978161335</v>
       </c>
       <c r="C142" s="104">
-        <f t="shared" si="22"/>
-        <v>469.73267578125001</v>
+        <f t="shared" si="23"/>
+        <v>364.61267578125</v>
       </c>
       <c r="D142" s="114">
+        <f t="shared" si="21"/>
+        <v>47169.309969660557</v>
+      </c>
+      <c r="E142" s="129">
+        <f t="shared" si="24"/>
+        <v>897.43740429338959</v>
+      </c>
+      <c r="F142" s="93">
         <f t="shared" si="20"/>
-        <v>58937.36177952827</v>
-      </c>
-      <c r="E142" s="129">
-        <f t="shared" si="23"/>
-        <v>1121.3348892604313</v>
-      </c>
-      <c r="F142" s="93">
-        <f t="shared" si="19"/>
-        <v>3934.5083833699346</v>
+        <v>3148.9031729592621</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="108">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B143" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A143)*recentSyncTime15/365</f>
-        <v>42973.624658770859</v>
+        <f t="shared" si="19"/>
+        <v>34378.899727016687</v>
       </c>
       <c r="C143" s="104">
-        <f t="shared" si="22"/>
-        <v>574.85267578125001</v>
+        <f t="shared" si="23"/>
+        <v>469.73267578125001</v>
       </c>
       <c r="D143" s="114">
+        <f t="shared" si="21"/>
+        <v>58937.36177952827</v>
+      </c>
+      <c r="E143" s="129">
+        <f t="shared" si="24"/>
+        <v>1121.3348892604313</v>
+      </c>
+      <c r="F143" s="93">
         <f t="shared" si="20"/>
-        <v>73693.103684720045</v>
-      </c>
-      <c r="E143" s="129">
-        <f t="shared" si="23"/>
-        <v>1402.075793088281</v>
-      </c>
-      <c r="F143" s="93">
-        <f t="shared" si="19"/>
-        <v>4919.5641862746706</v>
+        <v>3934.5083833699346</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="108">
+        <v>14</v>
+      </c>
+      <c r="B144" s="130">
+        <f t="shared" si="19"/>
+        <v>42973.624658770859</v>
+      </c>
+      <c r="C144" s="104">
+        <f t="shared" si="23"/>
+        <v>574.85267578125001</v>
+      </c>
+      <c r="D144" s="114">
+        <f t="shared" si="21"/>
+        <v>73693.103684720045</v>
+      </c>
+      <c r="E144" s="129">
+        <f t="shared" si="24"/>
+        <v>1402.075793088281</v>
+      </c>
+      <c r="F144" s="93">
+        <f t="shared" si="20"/>
+        <v>4919.5641862746706</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="108">
         <v>15</v>
       </c>
-      <c r="B144" s="130">
-        <f>bandwidth15*syncResourcePercentage15*mbToGB*secondsPerYear*POWER(1+bandwidthGrowth,A144)*recentSyncTime15/365</f>
+      <c r="B145" s="130">
+        <f t="shared" si="19"/>
         <v>53717.030823463567</v>
       </c>
-      <c r="C144" s="104">
-        <f t="shared" si="22"/>
+      <c r="C145" s="104">
+        <f t="shared" si="23"/>
         <v>679.97267578125002</v>
       </c>
-      <c r="D144" s="114">
+      <c r="D145" s="114">
+        <f t="shared" si="21"/>
+        <v>92183.458209066885</v>
+      </c>
+      <c r="E145" s="129">
+        <f t="shared" si="24"/>
+        <v>1753.87097049214</v>
+      </c>
+      <c r="F145" s="93">
         <f t="shared" si="20"/>
-        <v>92183.458209066885</v>
-      </c>
-      <c r="E144" s="129">
-        <f t="shared" si="23"/>
-        <v>1753.87097049214</v>
-      </c>
-      <c r="F144" s="93">
-        <f t="shared" si="19"/>
         <v>6153.9332297969822</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:5" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="109" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C150" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="D150" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E150" s="109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="C149" s="109" t="s">
+      <c r="C151" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="D149" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="E149" s="109" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="138" t="s">
+      <c r="D151" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E151" s="109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="108">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ref="B152:B167" si="25">FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A152)*ongoingResourcePercentage15, 2),1)</f>
+        <v>29</v>
+      </c>
+      <c r="C152" s="141">
+        <f t="shared" ref="C152:C167" si="26">$B$125*32*(LOG((endGameUsers*1000*1000*1000)*utxosPerUserEndGame, 2)-B152)</f>
+        <v>674.63737880070312</v>
+      </c>
+      <c r="D152" s="129">
+        <f t="shared" ref="D152:D167" si="27">(bandwidth15*ongoingResourcePercentage15*POWER(1+bandwidthGrowth,A152)*mbToGB*1000)*secondsPerBlock/2</f>
+        <v>187.5</v>
+      </c>
+      <c r="E152" s="111">
+        <f t="shared" ref="E152:E167" si="28">D152*1000*1000/secondsPerBlock/(2*(endGameTransactionSize+C152))</f>
+        <v>135.91242150024675</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="108">
+        <v>1</v>
+      </c>
+      <c r="B153" s="108">
+        <f t="shared" si="25"/>
+        <v>29</v>
+      </c>
+      <c r="C153" s="141">
+        <f t="shared" si="26"/>
+        <v>674.63737880070312</v>
+      </c>
+      <c r="D153" s="129">
+        <f t="shared" si="27"/>
+        <v>234.375</v>
+      </c>
+      <c r="E153" s="111">
+        <f t="shared" si="28"/>
+        <v>169.89052687530844</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="108">
+        <v>2</v>
+      </c>
+      <c r="B154" s="108">
+        <f t="shared" si="25"/>
+        <v>29</v>
+      </c>
+      <c r="C154" s="141">
+        <f t="shared" si="26"/>
+        <v>674.63737880070312</v>
+      </c>
+      <c r="D154" s="129">
+        <f t="shared" si="27"/>
+        <v>292.96875</v>
+      </c>
+      <c r="E154" s="111">
+        <f t="shared" si="28"/>
+        <v>212.36315859413554</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="108">
+        <v>3</v>
+      </c>
+      <c r="B155" s="108">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="C155" s="141">
+        <f t="shared" si="26"/>
+        <v>610.63737880070312</v>
+      </c>
+      <c r="D155" s="129">
+        <f t="shared" si="27"/>
+        <v>366.2109375</v>
+      </c>
+      <c r="E155" s="111">
+        <f t="shared" si="28"/>
+        <v>281.10286842474585</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="108">
+        <v>4</v>
+      </c>
+      <c r="B156" s="108">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="C156" s="141">
+        <f t="shared" si="26"/>
+        <v>610.63737880070312</v>
+      </c>
+      <c r="D156" s="129">
+        <f t="shared" si="27"/>
+        <v>457.763671875</v>
+      </c>
+      <c r="E156" s="111">
+        <f t="shared" si="28"/>
+        <v>351.3785855309323</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="108">
+        <v>5</v>
+      </c>
+      <c r="B157" s="108">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="C157" s="141">
+        <f t="shared" si="26"/>
+        <v>610.63737880070312</v>
+      </c>
+      <c r="D157" s="129">
+        <f t="shared" si="27"/>
+        <v>572.20458984375</v>
+      </c>
+      <c r="E157" s="111">
+        <f t="shared" si="28"/>
+        <v>439.22323191366536</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="108">
+        <v>6</v>
+      </c>
+      <c r="B158" s="108">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="C158" s="141">
+        <f t="shared" si="26"/>
+        <v>610.63737880070312</v>
+      </c>
+      <c r="D158" s="129">
+        <f t="shared" si="27"/>
+        <v>715.2557373046875</v>
+      </c>
+      <c r="E158" s="111">
+        <f t="shared" si="28"/>
+        <v>549.02903989208176</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="108">
+        <v>7</v>
+      </c>
+      <c r="B159" s="108">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="C159" s="141">
+        <f t="shared" si="26"/>
+        <v>610.63737880070312</v>
+      </c>
+      <c r="D159" s="129">
+        <f t="shared" si="27"/>
+        <v>894.06967163085937</v>
+      </c>
+      <c r="E159" s="111">
+        <f t="shared" si="28"/>
+        <v>686.28629986510214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="108">
         <v>8</v>
       </c>
-      <c r="B150" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="C150" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="D150" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="E150" s="109" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="108">
-        <v>0</v>
-      </c>
-      <c r="B151">
-        <f t="shared" ref="B151:B166" si="24">FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A151)*ongoingResourcePercentage15, 2),1)</f>
-        <v>29</v>
-      </c>
-      <c r="C151" s="141">
-        <f t="shared" ref="C151:C166" si="25">$B$124*32*(LOG((endGameUsers*1000*1000*1000)*utxosPerUserEndGame, 2)-B151)</f>
-        <v>674.63737880070312</v>
-      </c>
-      <c r="D151" s="129">
-        <f t="shared" ref="D151:D166" si="26">(bandwidth15*ongoingResourcePercentage15*POWER(1+bandwidthGrowth,A151)*mbToGB*1000)*secondsPerBlock/2</f>
-        <v>187.5</v>
-      </c>
-      <c r="E151" s="111">
-        <f t="shared" ref="E151:E166" si="27">D151*1000*1000/secondsPerBlock/(2*(endGameTransactionSize+C151))</f>
-        <v>135.91242150024675</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="108">
-        <v>1</v>
-      </c>
-      <c r="B152" s="108">
-        <f t="shared" si="24"/>
-        <v>29</v>
-      </c>
-      <c r="C152" s="141">
+      <c r="B160" s="108">
         <f t="shared" si="25"/>
-        <v>674.63737880070312</v>
-      </c>
-      <c r="D152" s="129">
+        <v>31</v>
+      </c>
+      <c r="C160" s="141">
         <f t="shared" si="26"/>
-        <v>234.375</v>
-      </c>
-      <c r="E152" s="111">
+        <v>546.63737880070312</v>
+      </c>
+      <c r="D160" s="129">
         <f t="shared" si="27"/>
-        <v>169.89052687530844</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="108">
-        <v>2</v>
-      </c>
-      <c r="B153" s="108">
-        <f t="shared" si="24"/>
-        <v>29</v>
-      </c>
-      <c r="C153" s="141">
-        <f t="shared" si="25"/>
-        <v>674.63737880070312</v>
-      </c>
-      <c r="D153" s="129">
-        <f t="shared" si="26"/>
-        <v>292.96875</v>
-      </c>
-      <c r="E153" s="111">
-        <f t="shared" si="27"/>
-        <v>212.36315859413554</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="108">
-        <v>3</v>
-      </c>
-      <c r="B154" s="108">
-        <f t="shared" si="24"/>
-        <v>30</v>
-      </c>
-      <c r="C154" s="141">
-        <f t="shared" si="25"/>
-        <v>610.63737880070312</v>
-      </c>
-      <c r="D154" s="129">
-        <f t="shared" si="26"/>
-        <v>366.2109375</v>
-      </c>
-      <c r="E154" s="111">
-        <f t="shared" si="27"/>
-        <v>281.10286842474585</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="108">
-        <v>4</v>
-      </c>
-      <c r="B155" s="108">
-        <f t="shared" si="24"/>
-        <v>30</v>
-      </c>
-      <c r="C155" s="141">
-        <f t="shared" si="25"/>
-        <v>610.63737880070312</v>
-      </c>
-      <c r="D155" s="129">
-        <f t="shared" si="26"/>
-        <v>457.763671875</v>
-      </c>
-      <c r="E155" s="111">
-        <f t="shared" si="27"/>
-        <v>351.3785855309323</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="108">
-        <v>5</v>
-      </c>
-      <c r="B156" s="108">
-        <f t="shared" si="24"/>
-        <v>30</v>
-      </c>
-      <c r="C156" s="141">
-        <f t="shared" si="25"/>
-        <v>610.63737880070312</v>
-      </c>
-      <c r="D156" s="129">
-        <f t="shared" si="26"/>
-        <v>572.20458984375</v>
-      </c>
-      <c r="E156" s="111">
-        <f t="shared" si="27"/>
-        <v>439.22323191366536</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="108">
-        <v>6</v>
-      </c>
-      <c r="B157" s="108">
-        <f t="shared" si="24"/>
-        <v>30</v>
-      </c>
-      <c r="C157" s="141">
-        <f t="shared" si="25"/>
-        <v>610.63737880070312</v>
-      </c>
-      <c r="D157" s="129">
-        <f t="shared" si="26"/>
-        <v>715.2557373046875</v>
-      </c>
-      <c r="E157" s="111">
-        <f t="shared" si="27"/>
-        <v>549.02903989208176</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="108">
-        <v>7</v>
-      </c>
-      <c r="B158" s="108">
-        <f t="shared" si="24"/>
-        <v>30</v>
-      </c>
-      <c r="C158" s="141">
-        <f t="shared" si="25"/>
-        <v>610.63737880070312</v>
-      </c>
-      <c r="D158" s="129">
-        <f t="shared" si="26"/>
-        <v>894.06967163085937</v>
-      </c>
-      <c r="E158" s="111">
-        <f t="shared" si="27"/>
-        <v>686.28629986510214</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="108">
-        <v>8</v>
-      </c>
-      <c r="B159" s="108">
-        <f t="shared" si="24"/>
-        <v>31</v>
-      </c>
-      <c r="C159" s="141">
-        <f t="shared" si="25"/>
-        <v>546.63737880070312</v>
-      </c>
-      <c r="D159" s="129">
-        <f t="shared" si="26"/>
         <v>1117.5870895385742</v>
       </c>
-      <c r="E159" s="111">
-        <f t="shared" si="27"/>
+      <c r="E160" s="111">
+        <f t="shared" si="28"/>
         <v>911.59798372760713</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="108">
-        <v>9</v>
-      </c>
-      <c r="B160" s="108">
-        <f t="shared" si="24"/>
-        <v>31</v>
-      </c>
-      <c r="C160" s="141">
-        <f t="shared" si="25"/>
-        <v>546.63737880070312</v>
-      </c>
-      <c r="D160" s="129">
-        <f t="shared" si="26"/>
-        <v>1396.9838619232178</v>
-      </c>
-      <c r="E160" s="111">
-        <f t="shared" si="27"/>
-        <v>1139.4974796595088</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B161" s="108">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>31</v>
       </c>
       <c r="C161" s="141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>546.63737880070312</v>
       </c>
       <c r="D161" s="129">
-        <f t="shared" si="26"/>
-        <v>1746.2298274040222</v>
+        <f t="shared" si="27"/>
+        <v>1396.9838619232178</v>
       </c>
       <c r="E161" s="111">
-        <f t="shared" si="27"/>
-        <v>1424.371849574386</v>
+        <f t="shared" si="28"/>
+        <v>1139.4974796595088</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="108">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B162" s="108">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>31</v>
       </c>
       <c r="C162" s="141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>546.63737880070312</v>
       </c>
       <c r="D162" s="129">
-        <f t="shared" si="26"/>
-        <v>2182.7872842550278</v>
+        <f t="shared" si="27"/>
+        <v>1746.2298274040222</v>
       </c>
       <c r="E162" s="111">
-        <f t="shared" si="27"/>
-        <v>1780.4648119679825</v>
+        <f t="shared" si="28"/>
+        <v>1424.371849574386</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B163" s="108">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>31</v>
       </c>
       <c r="C163" s="141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>546.63737880070312</v>
       </c>
       <c r="D163" s="129">
-        <f t="shared" si="26"/>
-        <v>2728.4841053187847</v>
+        <f t="shared" si="27"/>
+        <v>2182.7872842550278</v>
       </c>
       <c r="E163" s="111">
-        <f t="shared" si="27"/>
-        <v>2225.5810149599783</v>
+        <f t="shared" si="28"/>
+        <v>1780.4648119679825</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="108">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B164" s="108">
-        <f t="shared" si="24"/>
-        <v>32</v>
+        <f t="shared" si="25"/>
+        <v>31</v>
       </c>
       <c r="C164" s="141">
-        <f t="shared" si="25"/>
-        <v>482.63737880070312</v>
+        <f t="shared" si="26"/>
+        <v>546.63737880070312</v>
       </c>
       <c r="D164" s="129">
-        <f t="shared" si="26"/>
-        <v>3410.6051316484809</v>
+        <f t="shared" si="27"/>
+        <v>2728.4841053187847</v>
       </c>
       <c r="E164" s="111">
-        <f t="shared" si="27"/>
-        <v>2967.8989207791706</v>
+        <f t="shared" si="28"/>
+        <v>2225.5810149599783</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="108">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B165" s="108">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>32</v>
       </c>
       <c r="C165" s="141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>482.63737880070312</v>
       </c>
       <c r="D165" s="129">
-        <f t="shared" si="26"/>
-        <v>4263.2564145606011</v>
+        <f t="shared" si="27"/>
+        <v>3410.6051316484809</v>
       </c>
       <c r="E165" s="111">
-        <f t="shared" si="27"/>
-        <v>3709.8736509739633</v>
+        <f t="shared" si="28"/>
+        <v>2967.8989207791706</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="108">
+        <v>14</v>
+      </c>
+      <c r="B166" s="108">
+        <f t="shared" si="25"/>
+        <v>32</v>
+      </c>
+      <c r="C166" s="141">
+        <f t="shared" si="26"/>
+        <v>482.63737880070312</v>
+      </c>
+      <c r="D166" s="129">
+        <f t="shared" si="27"/>
+        <v>4263.2564145606011</v>
+      </c>
+      <c r="E166" s="111">
+        <f t="shared" si="28"/>
+        <v>3709.8736509739633</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="108">
         <v>15</v>
       </c>
-      <c r="B166" s="108">
-        <f t="shared" si="24"/>
+      <c r="B167" s="108">
+        <f t="shared" si="25"/>
         <v>32</v>
       </c>
-      <c r="C166" s="141">
-        <f t="shared" si="25"/>
+      <c r="C167" s="141">
+        <f t="shared" si="26"/>
         <v>482.63737880070312</v>
       </c>
-      <c r="D166" s="129">
-        <f t="shared" si="26"/>
+      <c r="D167" s="129">
+        <f t="shared" si="27"/>
         <v>5329.0705182007514</v>
       </c>
-      <c r="E166" s="111">
-        <f t="shared" si="27"/>
+      <c r="E167" s="111">
+        <f t="shared" si="28"/>
         <v>4637.342063717454</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="113" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="108"/>
-      <c r="B170" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="C170" s="108"/>
-      <c r="D170" s="108"/>
-      <c r="E170" s="108"/>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="113" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="108"/>
       <c r="B171" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C171" s="108"/>
+      <c r="D171" s="108"/>
+      <c r="E171" s="108"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="108"/>
+      <c r="B172" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C172" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="D172" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E172" s="109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="C171" s="109" t="s">
+      <c r="C173" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="D171" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="E171" s="109" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="139" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="C172" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="D172" s="109" t="s">
+      <c r="D173" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="E172" s="109" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="108">
-        <v>0</v>
-      </c>
-      <c r="B173" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A173)*ongoingResourcePercentage15, 2),1)</f>
-        <v>29</v>
-      </c>
-      <c r="C173" s="141">
-        <f t="shared" ref="C173:C188" si="28">$B$124*32*(LOG((endGameUsers*1000*1000*1000)*utxosPerUserEndGame, 2)-B173)</f>
-        <v>674.63737880070312</v>
-      </c>
-      <c r="D173" s="129">
-        <f t="shared" ref="D173:D188" si="29">(bandwidth15*endGameEmergencyUsage*POWER(1+bandwidthGrowth,A173)*mbToGB*1000)*secondsPerBlock/2</f>
-        <v>1406.25</v>
-      </c>
-      <c r="E173" s="111">
-        <f t="shared" ref="E173:E188" si="30">D173*1000*1000/secondsPerBlock/(2*(endGameTransactionSize+C173))</f>
-        <v>1019.3431612518506</v>
+      <c r="E173" s="109" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B174" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A174)*ongoingResourcePercentage15, 2),1)</f>
+        <f t="shared" ref="B174:B189" si="29">FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A174)*ongoingResourcePercentage15, 2),1)</f>
         <v>29</v>
       </c>
       <c r="C174" s="141">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="C174:C189" si="30">$B$125*32*(LOG((endGameUsers*1000*1000*1000)*utxosPerUserEndGame, 2)-B174)</f>
         <v>674.63737880070312</v>
       </c>
       <c r="D174" s="129">
-        <f t="shared" si="29"/>
-        <v>1757.8125</v>
+        <f t="shared" ref="D174:D189" si="31">(bandwidth15*endGameEmergencyUsage*POWER(1+bandwidthGrowth,A174)*mbToGB*1000)*secondsPerBlock/2</f>
+        <v>1406.25</v>
       </c>
       <c r="E174" s="111">
-        <f t="shared" si="30"/>
-        <v>1274.1789515648134</v>
+        <f t="shared" ref="E174:E189" si="32">D174*1000*1000/secondsPerBlock/(2*(endGameTransactionSize+C174))</f>
+        <v>1019.3431612518506</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A175)*ongoingResourcePercentage15, 2),1)</f>
+        <f t="shared" si="29"/>
         <v>29</v>
       </c>
       <c r="C175" s="141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>674.63737880070312</v>
       </c>
       <c r="D175" s="129">
-        <f t="shared" si="29"/>
-        <v>2197.265625</v>
+        <f t="shared" si="31"/>
+        <v>1757.8125</v>
       </c>
       <c r="E175" s="111">
-        <f t="shared" si="30"/>
-        <v>1592.7236894560167</v>
+        <f t="shared" si="32"/>
+        <v>1274.1789515648134</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B176" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A176)*ongoingResourcePercentage15, 2),1)</f>
-        <v>30</v>
+        <f t="shared" si="29"/>
+        <v>29</v>
       </c>
       <c r="C176" s="141">
-        <f t="shared" si="28"/>
-        <v>610.63737880070312</v>
+        <f t="shared" si="30"/>
+        <v>674.63737880070312</v>
       </c>
       <c r="D176" s="129">
-        <f t="shared" si="29"/>
-        <v>2746.58203125</v>
+        <f t="shared" si="31"/>
+        <v>2197.265625</v>
       </c>
       <c r="E176" s="111">
-        <f t="shared" si="30"/>
-        <v>2108.2715131855939</v>
+        <f t="shared" si="32"/>
+        <v>1592.7236894560167</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B177" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A177)*ongoingResourcePercentage15, 2),1)</f>
+        <f t="shared" si="29"/>
         <v>30</v>
       </c>
       <c r="C177" s="141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>610.63737880070312</v>
       </c>
       <c r="D177" s="129">
-        <f t="shared" si="29"/>
-        <v>3433.2275390625</v>
+        <f t="shared" si="31"/>
+        <v>2746.58203125</v>
       </c>
       <c r="E177" s="111">
-        <f t="shared" si="30"/>
-        <v>2635.3393914819922</v>
+        <f t="shared" si="32"/>
+        <v>2108.2715131855939</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B178" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A178)*ongoingResourcePercentage15, 2),1)</f>
+        <f t="shared" si="29"/>
         <v>30</v>
       </c>
       <c r="C178" s="141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>610.63737880070312</v>
       </c>
       <c r="D178" s="129">
-        <f t="shared" si="29"/>
-        <v>4291.534423828125</v>
+        <f t="shared" si="31"/>
+        <v>3433.2275390625</v>
       </c>
       <c r="E178" s="111">
-        <f t="shared" si="30"/>
-        <v>3294.1742393524901</v>
+        <f t="shared" si="32"/>
+        <v>2635.3393914819922</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B179" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A179)*ongoingResourcePercentage15, 2),1)</f>
+        <f t="shared" si="29"/>
         <v>30</v>
       </c>
       <c r="C179" s="141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>610.63737880070312</v>
       </c>
       <c r="D179" s="129">
-        <f t="shared" si="29"/>
-        <v>5364.4180297851562</v>
+        <f t="shared" si="31"/>
+        <v>4291.534423828125</v>
       </c>
       <c r="E179" s="111">
-        <f t="shared" si="30"/>
-        <v>4117.7177991906128</v>
+        <f t="shared" si="32"/>
+        <v>3294.1742393524901</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B180" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A180)*ongoingResourcePercentage15, 2),1)</f>
+        <f t="shared" si="29"/>
         <v>30</v>
       </c>
       <c r="C180" s="141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>610.63737880070312</v>
       </c>
       <c r="D180" s="129">
-        <f t="shared" si="29"/>
-        <v>6705.5225372314453</v>
+        <f t="shared" si="31"/>
+        <v>5364.4180297851562</v>
       </c>
       <c r="E180" s="111">
-        <f t="shared" si="30"/>
-        <v>5147.1472489882663</v>
+        <f t="shared" si="32"/>
+        <v>4117.7177991906128</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="108">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B181" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A181)*ongoingResourcePercentage15, 2),1)</f>
-        <v>31</v>
+        <f t="shared" si="29"/>
+        <v>30</v>
       </c>
       <c r="C181" s="141">
-        <f t="shared" si="28"/>
-        <v>546.63737880070312</v>
+        <f t="shared" si="30"/>
+        <v>610.63737880070312</v>
       </c>
       <c r="D181" s="129">
-        <f t="shared" si="29"/>
-        <v>8381.9031715393066</v>
+        <f t="shared" si="31"/>
+        <v>6705.5225372314453</v>
       </c>
       <c r="E181" s="111">
-        <f t="shared" si="30"/>
-        <v>6836.984877957053</v>
+        <f t="shared" si="32"/>
+        <v>5147.1472489882663</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="108">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B182" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A182)*ongoingResourcePercentage15, 2),1)</f>
+        <f t="shared" si="29"/>
         <v>31</v>
       </c>
       <c r="C182" s="141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>546.63737880070312</v>
       </c>
       <c r="D182" s="129">
-        <f t="shared" si="29"/>
-        <v>10477.378964424133</v>
+        <f t="shared" si="31"/>
+        <v>8381.9031715393066</v>
       </c>
       <c r="E182" s="111">
-        <f t="shared" si="30"/>
-        <v>8546.2310974463162</v>
+        <f t="shared" si="32"/>
+        <v>6836.984877957053</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B183" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A183)*ongoingResourcePercentage15, 2),1)</f>
+        <f t="shared" si="29"/>
         <v>31</v>
       </c>
       <c r="C183" s="141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>546.63737880070312</v>
       </c>
       <c r="D183" s="129">
-        <f t="shared" si="29"/>
-        <v>13096.723705530167</v>
+        <f t="shared" si="31"/>
+        <v>10477.378964424133</v>
       </c>
       <c r="E183" s="111">
-        <f t="shared" si="30"/>
-        <v>10682.788871807896</v>
+        <f t="shared" si="32"/>
+        <v>8546.2310974463162</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="108">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B184" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A184)*ongoingResourcePercentage15, 2),1)</f>
+        <f t="shared" si="29"/>
         <v>31</v>
       </c>
       <c r="C184" s="141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>546.63737880070312</v>
       </c>
       <c r="D184" s="129">
-        <f t="shared" si="29"/>
-        <v>16370.904631912708</v>
+        <f t="shared" si="31"/>
+        <v>13096.723705530167</v>
       </c>
       <c r="E184" s="111">
-        <f t="shared" si="30"/>
-        <v>13353.48608975987</v>
+        <f t="shared" si="32"/>
+        <v>10682.788871807896</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B185" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A185)*ongoingResourcePercentage15, 2),1)</f>
+        <f t="shared" si="29"/>
         <v>31</v>
       </c>
       <c r="C185" s="141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>546.63737880070312</v>
       </c>
       <c r="D185" s="129">
-        <f t="shared" si="29"/>
-        <v>20463.630789890885</v>
+        <f t="shared" si="31"/>
+        <v>16370.904631912708</v>
       </c>
       <c r="E185" s="111">
-        <f t="shared" si="30"/>
-        <v>16691.857612199838</v>
+        <f t="shared" si="32"/>
+        <v>13353.48608975987</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="108">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B186" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A186)*ongoingResourcePercentage15, 2),1)</f>
-        <v>32</v>
+        <f t="shared" si="29"/>
+        <v>31</v>
       </c>
       <c r="C186" s="141">
-        <f t="shared" si="28"/>
-        <v>482.63737880070312</v>
+        <f t="shared" si="30"/>
+        <v>546.63737880070312</v>
       </c>
       <c r="D186" s="129">
-        <f t="shared" si="29"/>
-        <v>25579.538487363607</v>
+        <f t="shared" si="31"/>
+        <v>20463.630789890885</v>
       </c>
       <c r="E186" s="111">
-        <f t="shared" si="30"/>
-        <v>22259.241905843781</v>
+        <f t="shared" si="32"/>
+        <v>16691.857612199838</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="108">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B187" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A187)*ongoingResourcePercentage15, 2),1)</f>
+        <f t="shared" si="29"/>
         <v>32</v>
       </c>
       <c r="C187" s="141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>482.63737880070312</v>
       </c>
       <c r="D187" s="129">
-        <f t="shared" si="29"/>
-        <v>31974.423109204508</v>
+        <f t="shared" si="31"/>
+        <v>25579.538487363607</v>
       </c>
       <c r="E187" s="111">
-        <f t="shared" si="30"/>
-        <v>27824.052382304726</v>
+        <f t="shared" si="32"/>
+        <v>22259.241905843781</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="108">
+        <v>14</v>
+      </c>
+      <c r="B188" s="108">
+        <f t="shared" si="29"/>
+        <v>32</v>
+      </c>
+      <c r="C188" s="141">
+        <f t="shared" si="30"/>
+        <v>482.63737880070312</v>
+      </c>
+      <c r="D188" s="129">
+        <f t="shared" si="31"/>
+        <v>31974.423109204508</v>
+      </c>
+      <c r="E188" s="111">
+        <f t="shared" si="32"/>
+        <v>27824.052382304726</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="108">
         <v>15</v>
       </c>
-      <c r="B188" s="108">
-        <f>FLOOR(LOG((memory15*1000*1000*1000)*POWER(1+memoryGrowth,A188)*ongoingResourcePercentage15, 2),1)</f>
+      <c r="B189" s="108">
+        <f t="shared" si="29"/>
         <v>32</v>
       </c>
-      <c r="C188" s="141">
-        <f t="shared" si="28"/>
+      <c r="C189" s="141">
+        <f t="shared" si="30"/>
         <v>482.63737880070312</v>
       </c>
-      <c r="D188" s="129">
-        <f t="shared" si="29"/>
+      <c r="D189" s="129">
+        <f t="shared" si="31"/>
         <v>39968.028886505635</v>
       </c>
-      <c r="E188" s="111">
-        <f t="shared" si="30"/>
+      <c r="E189" s="111">
+        <f t="shared" si="32"/>
         <v>34780.065477880904</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="113" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="109" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="109" t="s">
+      <c r="C193" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="C192" s="109" t="s">
+      <c r="D193" s="109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C194" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="D192" s="109" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="C193" s="109" t="s">
-        <v>128</v>
-      </c>
-      <c r="D193" s="109" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="121">
+      <c r="D194" s="109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="121">
         <v>3</v>
       </c>
-      <c r="C194" s="24">
+      <c r="C195" s="24">
         <v>30</v>
       </c>
-      <c r="D194" s="144">
-        <f>(endGameUsers*1000*1000*1000)*(B194/2)/(C194*24*60*60)</f>
+      <c r="D195" s="144">
+        <f>(endGameUsers*1000*1000*1000)*(B195/2)/(C195*24*60*60)</f>
         <v>4629.6296296296296</v>
       </c>
     </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="D197" s="109"/>
+      <c r="E197" s="109"/>
+      <c r="F197" s="109"/>
+      <c r="G197" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="H197" s="109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D198" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="E198" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="F198" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="H198" s="109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="B199" s="147"/>
+      <c r="C199" s="147"/>
+      <c r="D199" s="106" t="str">
+        <f>$A$120</f>
+        <v>10th %ile</v>
+      </c>
+      <c r="E199" s="111">
+        <f>E152</f>
+        <v>135.91242150024675</v>
+      </c>
+      <c r="F199" s="134">
+        <f>D152</f>
+        <v>187.5</v>
+      </c>
+      <c r="G199" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H199" s="135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="B200" s="147"/>
+      <c r="C200" s="147"/>
+      <c r="D200" s="106" t="str">
+        <f>$A$120</f>
+        <v>10th %ile</v>
+      </c>
+      <c r="E200" s="46">
+        <f>F130</f>
+        <v>218.95015316067949</v>
+      </c>
+      <c r="F200" s="134">
+        <f>E130</f>
+        <v>62.400793650793652</v>
+      </c>
+      <c r="G200" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H200" s="135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="B201" s="147"/>
+      <c r="C201" s="147"/>
+      <c r="D201" s="106" t="str">
+        <f>$A$120</f>
+        <v>10th %ile</v>
+      </c>
+      <c r="E201" s="111">
+        <f>E174</f>
+        <v>1019.3431612518506</v>
+      </c>
+      <c r="F201" s="134">
+        <f>D174</f>
+        <v>1406.25</v>
+      </c>
+      <c r="G201" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H201" s="135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="B203" s="108"/>
+      <c r="C203" s="108"/>
+      <c r="D203" s="109"/>
+      <c r="E203" s="109"/>
+      <c r="F203" s="109"/>
+      <c r="G203" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="H203" s="109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="108"/>
+      <c r="B204" s="108"/>
+      <c r="C204" s="108"/>
+      <c r="D204" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="E204" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="F204" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="H204" s="109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="B205" s="147"/>
+      <c r="C205" s="147"/>
+      <c r="D205" s="106" t="str">
+        <f>$A$120</f>
+        <v>10th %ile</v>
+      </c>
+      <c r="E205" s="111">
+        <f>E162</f>
+        <v>1424.371849574386</v>
+      </c>
+      <c r="F205" s="134">
+        <f>D162</f>
+        <v>1746.2298274040222</v>
+      </c>
+      <c r="G205" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H205" s="135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="B206" s="147"/>
+      <c r="C206" s="147"/>
+      <c r="D206" s="106" t="str">
+        <f>$A$120</f>
+        <v>10th %ile</v>
+      </c>
+      <c r="E206" s="46">
+        <f>F140</f>
+        <v>2022.3013022190946</v>
+      </c>
+      <c r="F206" s="134">
+        <f>E140</f>
+        <v>576.35587113244208</v>
+      </c>
+      <c r="G206" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H206" s="135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="B207" s="147"/>
+      <c r="C207" s="147"/>
+      <c r="D207" s="106" t="str">
+        <f>$A$120</f>
+        <v>10th %ile</v>
+      </c>
+      <c r="E207" s="111">
+        <f>E184</f>
+        <v>10682.788871807896</v>
+      </c>
+      <c r="F207" s="134">
+        <f>D184</f>
+        <v>13096.723705530167</v>
+      </c>
+      <c r="G207" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H207" s="135" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A201:C201"/>
     <mergeCell ref="A110:C110"/>
     <mergeCell ref="A111:C111"/>
     <mergeCell ref="A113:C113"/>
@@ -14746,7 +15048,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="lessThan" id="{CCBBA876-7DF4-468C-8839-EA8CEE01F71E}">
+          <x14:cfRule type="cellIs" priority="13" operator="lessThan" id="{CCBBA876-7DF4-468C-8839-EA8CEE01F71E}">
             <xm:f>'Current Bitcoin'!$C$19</xm:f>
             <x14:dxf>
               <font>
@@ -14762,7 +15064,7 @@
           <xm:sqref>F108:F109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="lessThan" id="{A26EE87F-1C32-41E6-AC03-91370DB0C051}">
+          <x14:cfRule type="cellIs" priority="12" operator="lessThan" id="{A26EE87F-1C32-41E6-AC03-91370DB0C051}">
             <xm:f>'Current Bitcoin'!$C$19*1000/'Current Bitcoin'!$C$10/'Current Bitcoin'!$F$10</xm:f>
             <x14:dxf>
               <fill>
@@ -14772,10 +15074,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E108:E113</xm:sqref>
+          <xm:sqref>E108:E113 E201 E199</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="lessThan" id="{E16F959B-687E-48F0-9CC9-FF6B850AFA7F}">
+          <x14:cfRule type="cellIs" priority="11" operator="lessThan" id="{E16F959B-687E-48F0-9CC9-FF6B850AFA7F}">
             <xm:f>'Current Bitcoin'!$B$19</xm:f>
             <x14:dxf>
               <fill>
@@ -14788,7 +15090,7 @@
           <xm:sqref>G108:G110 G113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{321EA6B3-025D-4AB3-8E5D-63B63B669534}">
+          <x14:cfRule type="cellIs" priority="6" operator="lessThan" id="{321EA6B3-025D-4AB3-8E5D-63B63B669534}">
             <xm:f>'Current Bitcoin'!$C$19/1000</xm:f>
             <x14:dxf>
               <font>
@@ -14802,6 +15104,51 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>F110:F113</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="lessThan" id="{8FB7B753-C1D7-4AB1-8C28-AF407E639D08}">
+            <xm:f>'Current Bitcoin'!$C$19/1000</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFBD1D7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F199:F201</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{F69B60C6-2386-48E1-AF9E-DB8B0480E3DE}">
+            <xm:f>'Current Bitcoin'!$C$19*1000/'Current Bitcoin'!$C$10/'Current Bitcoin'!$F$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E207 E205</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{3D4FB6AB-EB61-4230-B3E1-02B34DEC6588}">
+            <xm:f>'Current Bitcoin'!$C$19/1000</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFBD1D7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F205:F207</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/bottlenecks.xlsx
+++ b/bottlenecks.xlsx
@@ -532,10 +532,10 @@
     <t>Future throughput</t>
   </si>
   <si>
-    <t>Future throughput summary (based on today)</t>
+    <t>Future throughput summary (based on today's machine resources)</t>
   </si>
   <si>
-    <t>Future throughput summary (based on 10 years from now)</t>
+    <t>Future throughput summary (based on expect machine resources avaliable 10 years from now)</t>
   </si>
 </sst>
 </file>
@@ -942,7 +942,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="11">
     <dxf>
       <font>
         <color auto="1"/>
@@ -950,30 +950,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFBD1D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBD1D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1059,30 +1035,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBD1D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1271,8 +1223,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146687872"/>
-        <c:axId val="146690048"/>
+        <c:axId val="156108672"/>
+        <c:axId val="156114944"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1420,11 +1372,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146693120"/>
-        <c:axId val="146691584"/>
+        <c:axId val="156118016"/>
+        <c:axId val="156116480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146687872"/>
+        <c:axId val="156108672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1404,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146690048"/>
+        <c:crossAx val="156114944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1460,7 +1412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146690048"/>
+        <c:axId val="156114944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,12 +1437,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146687872"/>
+        <c:crossAx val="156108672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146691584"/>
+        <c:axId val="156116480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,12 +1468,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146693120"/>
+        <c:crossAx val="156118016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="146693120"/>
+        <c:axId val="156118016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146691584"/>
+        <c:crossAx val="156116480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1738,8 +1690,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146719488"/>
-        <c:axId val="146721408"/>
+        <c:axId val="156156672"/>
+        <c:axId val="156158592"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1887,11 +1839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146728832"/>
-        <c:axId val="146727296"/>
+        <c:axId val="156166016"/>
+        <c:axId val="156164480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146719488"/>
+        <c:axId val="156156672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,7 +1871,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146721408"/>
+        <c:crossAx val="156158592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1927,7 +1879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146721408"/>
+        <c:axId val="156158592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,12 +1904,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146719488"/>
+        <c:crossAx val="156156672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146727296"/>
+        <c:axId val="156164480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,12 +1935,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146728832"/>
+        <c:crossAx val="156166016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="146728832"/>
+        <c:axId val="156166016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +1950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146727296"/>
+        <c:crossAx val="156164480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2205,8 +2157,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147283328"/>
-        <c:axId val="147293696"/>
+        <c:axId val="156192128"/>
+        <c:axId val="156202496"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2354,11 +2306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147305216"/>
-        <c:axId val="147295232"/>
+        <c:axId val="156214016"/>
+        <c:axId val="156204032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147283328"/>
+        <c:axId val="156192128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2338,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147293696"/>
+        <c:crossAx val="156202496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2394,7 +2346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147293696"/>
+        <c:axId val="156202496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,12 +2371,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147283328"/>
+        <c:crossAx val="156192128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147295232"/>
+        <c:axId val="156204032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,12 +2402,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147305216"/>
+        <c:crossAx val="156214016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="147305216"/>
+        <c:axId val="156214016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +2417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147295232"/>
+        <c:crossAx val="156204032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,8 +2625,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147397632"/>
-        <c:axId val="147403904"/>
+        <c:axId val="172235776"/>
+        <c:axId val="172242048"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2822,11 +2774,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147419520"/>
-        <c:axId val="147405440"/>
+        <c:axId val="172257664"/>
+        <c:axId val="172243584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147397632"/>
+        <c:axId val="172235776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2854,7 +2806,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147403904"/>
+        <c:crossAx val="172242048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2862,7 +2814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147403904"/>
+        <c:axId val="172242048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,12 +2839,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147397632"/>
+        <c:crossAx val="172235776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147405440"/>
+        <c:axId val="172243584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2918,12 +2870,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147419520"/>
+        <c:crossAx val="172257664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="147419520"/>
+        <c:axId val="172257664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147405440"/>
+        <c:crossAx val="172243584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3288,11 +3240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147446400"/>
-        <c:axId val="147448576"/>
+        <c:axId val="172284544"/>
+        <c:axId val="172290816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147446400"/>
+        <c:axId val="172284544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3314,14 +3266,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147448576"/>
+        <c:crossAx val="172290816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3329,7 +3280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147448576"/>
+        <c:axId val="172290816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3354,7 +3305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147446400"/>
+        <c:crossAx val="172284544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3559,8 +3510,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147487744"/>
-        <c:axId val="147494016"/>
+        <c:axId val="172321792"/>
+        <c:axId val="172340352"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3708,11 +3659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147505536"/>
-        <c:axId val="147495552"/>
+        <c:axId val="172343680"/>
+        <c:axId val="172341888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147487744"/>
+        <c:axId val="172321792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3740,7 +3691,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147494016"/>
+        <c:crossAx val="172340352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3748,7 +3699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147494016"/>
+        <c:axId val="172340352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3773,12 +3724,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147487744"/>
+        <c:crossAx val="172321792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147495552"/>
+        <c:axId val="172341888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3804,12 +3755,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147505536"/>
+        <c:crossAx val="172343680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="147505536"/>
+        <c:axId val="172343680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147495552"/>
+        <c:crossAx val="172341888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4173,11 +4124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147516032"/>
-        <c:axId val="147604224"/>
+        <c:axId val="172446464"/>
+        <c:axId val="172448384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147516032"/>
+        <c:axId val="172446464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4205,7 +4156,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147604224"/>
+        <c:crossAx val="172448384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4213,7 +4164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147604224"/>
+        <c:axId val="172448384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4238,7 +4189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147516032"/>
+        <c:crossAx val="172446464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4443,11 +4394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147129472"/>
-        <c:axId val="147131392"/>
+        <c:axId val="172473344"/>
+        <c:axId val="172369024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147129472"/>
+        <c:axId val="172473344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4475,7 +4426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147131392"/>
+        <c:crossAx val="172369024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4483,7 +4434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147131392"/>
+        <c:axId val="172369024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4510,7 +4461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147129472"/>
+        <c:crossAx val="172473344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10937,22 +10888,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301:F303 F305:F307">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>$C$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E301:E303 E305:E307">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>$C$19*1000/$C$10/$F$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301:G303 G305">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>$B$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H308 H304">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>$D$19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10965,10 +10916,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L207"/>
+  <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="I208" sqref="I208"/>
+      <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14812,61 +14763,38 @@
       <c r="A197" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="D197" s="109"/>
-      <c r="E197" s="109"/>
-      <c r="F197" s="109"/>
-      <c r="G197" s="109" t="s">
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D198" s="109"/>
+      <c r="E198" s="109"/>
+      <c r="F198" s="109"/>
+      <c r="G198" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="H197" s="109" t="s">
+      <c r="H198" s="109" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D198" s="109" t="s">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D199" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="E198" s="109" t="s">
+      <c r="E199" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="F198" s="109" t="s">
+      <c r="F199" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="G198" s="109" t="s">
+      <c r="G199" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="H198" s="109" t="s">
+      <c r="H199" s="109" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="147" t="s">
-        <v>130</v>
-      </c>
-      <c r="B199" s="147"/>
-      <c r="C199" s="147"/>
-      <c r="D199" s="106" t="str">
-        <f>$A$120</f>
-        <v>10th %ile</v>
-      </c>
-      <c r="E199" s="111">
-        <f>E152</f>
-        <v>135.91242150024675</v>
-      </c>
-      <c r="F199" s="134">
-        <f>D152</f>
-        <v>187.5</v>
-      </c>
-      <c r="G199" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H199" s="135" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="147" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B200" s="147"/>
       <c r="C200" s="147"/>
@@ -14874,13 +14802,13 @@
         <f>$A$120</f>
         <v>10th %ile</v>
       </c>
-      <c r="E200" s="46">
-        <f>F130</f>
-        <v>218.95015316067949</v>
+      <c r="E200" s="111">
+        <f>E152</f>
+        <v>135.91242150024675</v>
       </c>
       <c r="F200" s="134">
-        <f>E130</f>
-        <v>62.400793650793652</v>
+        <f>D152</f>
+        <v>187.5</v>
       </c>
       <c r="G200" s="135" t="s">
         <v>5</v>
@@ -14891,7 +14819,7 @@
     </row>
     <row r="201" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="147" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B201" s="147"/>
       <c r="C201" s="147"/>
@@ -14899,110 +14827,87 @@
         <f>$A$120</f>
         <v>10th %ile</v>
       </c>
-      <c r="E201" s="111">
+      <c r="E201" s="46">
+        <f>F130</f>
+        <v>218.95015316067949</v>
+      </c>
+      <c r="F201" s="134">
+        <f>E130</f>
+        <v>62.400793650793652</v>
+      </c>
+      <c r="G201" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H201" s="135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" s="108" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="B202" s="147"/>
+      <c r="C202" s="147"/>
+      <c r="D202" s="106" t="str">
+        <f>$A$120</f>
+        <v>10th %ile</v>
+      </c>
+      <c r="E202" s="111">
         <f>E174</f>
         <v>1019.3431612518506</v>
       </c>
-      <c r="F201" s="134">
+      <c r="F202" s="134">
         <f>D174</f>
         <v>1406.25</v>
       </c>
-      <c r="G201" s="135" t="s">
+      <c r="G202" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="H201" s="135" t="s">
+      <c r="H202" s="135" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="113" t="s">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="B203" s="108"/>
-      <c r="C203" s="108"/>
-      <c r="D203" s="109"/>
-      <c r="E203" s="109"/>
-      <c r="F203" s="109"/>
-      <c r="G203" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="H203" s="109" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="108"/>
       <c r="B204" s="108"/>
       <c r="C204" s="108"/>
-      <c r="D204" s="109" t="s">
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="108"/>
+      <c r="B205" s="108"/>
+      <c r="C205" s="108"/>
+      <c r="D205" s="109"/>
+      <c r="E205" s="109"/>
+      <c r="F205" s="109"/>
+      <c r="G205" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="H205" s="109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D206" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="E204" s="109" t="s">
+      <c r="E206" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="F204" s="109" t="s">
+      <c r="F206" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="G204" s="109" t="s">
+      <c r="G206" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="H204" s="109" t="s">
+      <c r="H206" s="109" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="147" t="s">
-        <v>130</v>
-      </c>
-      <c r="B205" s="147"/>
-      <c r="C205" s="147"/>
-      <c r="D205" s="106" t="str">
-        <f>$A$120</f>
-        <v>10th %ile</v>
-      </c>
-      <c r="E205" s="111">
-        <f>E162</f>
-        <v>1424.371849574386</v>
-      </c>
-      <c r="F205" s="134">
-        <f>D162</f>
-        <v>1746.2298274040222</v>
-      </c>
-      <c r="G205" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H205" s="135" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="147" t="s">
-        <v>131</v>
-      </c>
-      <c r="B206" s="147"/>
-      <c r="C206" s="147"/>
-      <c r="D206" s="106" t="str">
-        <f>$A$120</f>
-        <v>10th %ile</v>
-      </c>
-      <c r="E206" s="46">
-        <f>F140</f>
-        <v>2022.3013022190946</v>
-      </c>
-      <c r="F206" s="134">
-        <f>E140</f>
-        <v>576.35587113244208</v>
-      </c>
-      <c r="G206" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H206" s="135" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="147" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B207" s="147"/>
       <c r="C207" s="147"/>
@@ -15011,34 +14916,84 @@
         <v>10th %ile</v>
       </c>
       <c r="E207" s="111">
+        <f>E162</f>
+        <v>1424.371849574386</v>
+      </c>
+      <c r="F207" s="134">
+        <f>D162</f>
+        <v>1746.2298274040222</v>
+      </c>
+      <c r="G207" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H207" s="135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="B208" s="147"/>
+      <c r="C208" s="147"/>
+      <c r="D208" s="106" t="str">
+        <f>$A$120</f>
+        <v>10th %ile</v>
+      </c>
+      <c r="E208" s="46">
+        <f>F140</f>
+        <v>2022.3013022190946</v>
+      </c>
+      <c r="F208" s="134">
+        <f>E140</f>
+        <v>576.35587113244208</v>
+      </c>
+      <c r="G208" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H208" s="135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="B209" s="147"/>
+      <c r="C209" s="147"/>
+      <c r="D209" s="106" t="str">
+        <f>$A$120</f>
+        <v>10th %ile</v>
+      </c>
+      <c r="E209" s="111">
         <f>E184</f>
         <v>10682.788871807896</v>
       </c>
-      <c r="F207" s="134">
+      <c r="F209" s="134">
         <f>D184</f>
         <v>13096.723705530167</v>
       </c>
-      <c r="G207" s="135" t="s">
+      <c r="G209" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="H207" s="135" t="s">
+      <c r="H209" s="135" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A208:C208"/>
     <mergeCell ref="A110:C110"/>
     <mergeCell ref="A111:C111"/>
     <mergeCell ref="A113:C113"/>
     <mergeCell ref="A108:C108"/>
     <mergeCell ref="A112:C112"/>
     <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A202:C202"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15074,7 +15029,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E108:E113 E201 E199</xm:sqref>
+          <xm:sqref>E108:E113 E202 E200</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="lessThan" id="{E16F959B-687E-48F0-9CC9-FF6B850AFA7F}">
@@ -15119,7 +15074,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F199:F201</xm:sqref>
+          <xm:sqref>F200:F202</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{F69B60C6-2386-48E1-AF9E-DB8B0480E3DE}">
@@ -15132,7 +15087,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E207 E205</xm:sqref>
+          <xm:sqref>E209 E207</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{3D4FB6AB-EB61-4230-B3E1-02B34DEC6588}">
@@ -15148,7 +15103,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F205:F207</xm:sqref>
+          <xm:sqref>F207:F209</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/bottlenecks.xlsx
+++ b/bottlenecks.xlsx
@@ -14,16 +14,18 @@
   <definedNames>
     <definedName name="assumevalidBlockTime">'Current Bitcoin'!$C$15</definedName>
     <definedName name="assumevalidSpeedup">'Current Bitcoin'!$B$15</definedName>
-    <definedName name="averageRelayTps">'Current Bitcoin'!$D$318</definedName>
-    <definedName name="avgHops">'Current Bitcoin'!$I$318</definedName>
+    <definedName name="averageRelayTps">'Current Bitcoin'!#REF!</definedName>
+    <definedName name="avgHops">'Current Bitcoin'!$E$318</definedName>
     <definedName name="avgHops19">'Current Bitcoin'!$C$358</definedName>
-    <definedName name="avgHops20">'Future Bitcoin'!$J$201</definedName>
-    <definedName name="avgLatencyPerHop">'Current Bitcoin'!$E$318</definedName>
+    <definedName name="avgHops20">'Future Bitcoin'!$F$201</definedName>
+    <definedName name="avgLatencyPerHop">'Current Bitcoin'!#REF!</definedName>
     <definedName name="avgMerkleProofSizeEndGame">'Future Bitcoin'!#REF!</definedName>
-    <definedName name="avgRelayBandwidth">'Current Bitcoin'!$J$318</definedName>
-    <definedName name="avgTrSize">'Current Bitcoin'!$F$10</definedName>
+    <definedName name="avgRelayBandwidth">'Current Bitcoin'!$F$318</definedName>
+    <definedName name="avgRelayBandwidth20">'Future Bitcoin'!#REF!</definedName>
+    <definedName name="avgTrSize">'Current Bitcoin'!$A$15</definedName>
     <definedName name="bandwidth1">'Current Bitcoin'!$B$53</definedName>
     <definedName name="bandwidth10">'Future Bitcoin'!$B$36</definedName>
+    <definedName name="Bandwidth10thP2">'Future Bitcoin'!$B$195</definedName>
     <definedName name="bandwidth13">'Future Bitcoin'!#REF!</definedName>
     <definedName name="bandwidth15">'Future Bitcoin'!$B$120</definedName>
     <definedName name="bandwidth2">'Current Bitcoin'!$B$77</definedName>
@@ -32,8 +34,9 @@
     <definedName name="bandwidth8">'Current Bitcoin'!$B$165</definedName>
     <definedName name="bandwidth8p9">'Current Bitcoin'!$B$189</definedName>
     <definedName name="bandwidth9">'Future Bitcoin'!$B$12</definedName>
+    <definedName name="Bandwidth90thP1">'Current Bitcoin'!$B$313</definedName>
     <definedName name="bandwidthGrowth">'Current Bitcoin'!$B$6</definedName>
-    <definedName name="compactBlockCompactedness">'Current Bitcoin'!$E$24</definedName>
+    <definedName name="compactBlockCompactedness">'Current Bitcoin'!$C$24</definedName>
     <definedName name="cpuGrowth">'Current Bitcoin'!$E$6</definedName>
     <definedName name="curChainSize">'Current Bitcoin'!$B$19</definedName>
     <definedName name="curMaxBlocksize">'Current Bitcoin'!$C$19</definedName>
@@ -47,7 +50,7 @@
     <definedName name="endGameEmergencyUsage">'Future Bitcoin'!$G$125</definedName>
     <definedName name="endGameTransactionSize">'Future Bitcoin'!$A$125</definedName>
     <definedName name="endGameUsers">'Future Bitcoin'!$C$125</definedName>
-    <definedName name="futureUsers">'Future Bitcoin'!$H$201</definedName>
+    <definedName name="futureUsers">'Future Bitcoin'!$J$201</definedName>
     <definedName name="historicalResourcePercent10">'Future Bitcoin'!$L$36</definedName>
     <definedName name="historicalResourcePercent12">'Future Bitcoin'!$L$84</definedName>
     <definedName name="historicalResourcePercent13">'Future Bitcoin'!#REF!</definedName>
@@ -56,12 +59,16 @@
     <definedName name="historicalSyncTime12">'Future Bitcoin'!$J$84</definedName>
     <definedName name="historicalSyncTime13">'Future Bitcoin'!#REF!</definedName>
     <definedName name="historicalSyncTime14">'Future Bitcoin'!#REF!</definedName>
-    <definedName name="invSize">'Current Bitcoin'!$D$24</definedName>
+    <definedName name="invSize">'Current Bitcoin'!$A$19</definedName>
     <definedName name="KBperGB">'Current Bitcoin'!$E$10</definedName>
+    <definedName name="Latency10thP1">'Current Bitcoin'!$F$312</definedName>
+    <definedName name="Latency10thP2">'Future Bitcoin'!$F$195</definedName>
+    <definedName name="Latency1stP2">'Future Bitcoin'!$F$194</definedName>
+    <definedName name="Latency90thP1">'Current Bitcoin'!$F$313</definedName>
     <definedName name="latencyGrowth">'Current Bitcoin'!$F$6</definedName>
-    <definedName name="lightspeedAvgLatency">'Current Bitcoin'!$F$15</definedName>
-    <definedName name="maximumMinerAdvantage">'Current Bitcoin'!$G$318</definedName>
-    <definedName name="maximumMinerAdvantage2">'Future Bitcoin'!$G$201</definedName>
+    <definedName name="lightspeedAvgLatency">'Current Bitcoin'!$F$24</definedName>
+    <definedName name="maximumMinerAdvantage">'Current Bitcoin'!$C$318</definedName>
+    <definedName name="maximumMinerAdvantage2">'Future Bitcoin'!$D$201</definedName>
     <definedName name="maximumMinerAdvantagea">'Current Bitcoin'!$H$358</definedName>
     <definedName name="mbToGB">'Current Bitcoin'!$D$10</definedName>
     <definedName name="memory1">'Current Bitcoin'!$D$53</definedName>
@@ -71,11 +78,14 @@
     <definedName name="memory6">'Current Bitcoin'!$D$237</definedName>
     <definedName name="memory6p5">'Current Bitcoin'!$D$286</definedName>
     <definedName name="memoryGrowth">'Current Bitcoin'!$D$6</definedName>
+    <definedName name="minLastMileLatency">'Current Bitcoin'!$E$24</definedName>
     <definedName name="minPublicNodeConnections">'Current Bitcoin'!$H$4</definedName>
-    <definedName name="missingTransactionRate">'Current Bitcoin'!$F$24</definedName>
+    <definedName name="missingTransactionRate">'Current Bitcoin'!$D$24</definedName>
+    <definedName name="ongoingResourcePercent10thP2">'Future Bitcoin'!$L$195</definedName>
     <definedName name="ongoingResourcePercent6">'Current Bitcoin'!$K$237</definedName>
     <definedName name="ongoingResourcePercent6p5">'Current Bitcoin'!$K$286</definedName>
     <definedName name="ongoingResourcePercent7">'Current Bitcoin'!$K$261</definedName>
+    <definedName name="ongoingResourcePercent90thP1">'Current Bitcoin'!$K$313</definedName>
     <definedName name="ongoingResourcePercentage15">'Future Bitcoin'!$L$120</definedName>
     <definedName name="ongoingResourcePercentage4">'Future Bitcoin'!#REF!</definedName>
     <definedName name="ongoingResourcePercentage5">'Current Bitcoin'!$K$213</definedName>
@@ -92,7 +102,9 @@
     <definedName name="privateConnections90tha">'Current Bitcoin'!#REF!</definedName>
     <definedName name="privateConnections90thb">'Current Bitcoin'!$G$313</definedName>
     <definedName name="privateConnections90thc">'Future Bitcoin'!$G$196</definedName>
-    <definedName name="privateNodePercent">'Current Bitcoin'!$C$24</definedName>
+    <definedName name="privateNodePercent">'Current Bitcoin'!$B$24</definedName>
+    <definedName name="proximityFavoringFactor">'Current Bitcoin'!$G$318</definedName>
+    <definedName name="proximityFavoringFactor2">'Future Bitcoin'!$H$201</definedName>
     <definedName name="publicConnections10tha">'Current Bitcoin'!#REF!</definedName>
     <definedName name="publicConnections10thb">'Current Bitcoin'!$H$312</definedName>
     <definedName name="publicConnections10thc">'Future Bitcoin'!$H$195</definedName>
@@ -104,7 +116,7 @@
     <definedName name="publicConnections90tha">'Current Bitcoin'!#REF!</definedName>
     <definedName name="publicConnections90thb">'Current Bitcoin'!$H$313</definedName>
     <definedName name="publicConnections90thc">'Future Bitcoin'!$H$196</definedName>
-    <definedName name="publicNodePercent">'Current Bitcoin'!$B$24</definedName>
+    <definedName name="publicNodePercent">'Current Bitcoin'!$A$24</definedName>
     <definedName name="recentSyncTime11">'Future Bitcoin'!$I$60</definedName>
     <definedName name="recentSyncTime15">'Future Bitcoin'!$I$120</definedName>
     <definedName name="recentSyncTime8">'Future Bitcoin'!$I$12</definedName>
@@ -114,7 +126,7 @@
     <definedName name="secondsPerBlock">'Current Bitcoin'!$C$10</definedName>
     <definedName name="secondsPerYear">'Current Bitcoin'!$B$10</definedName>
     <definedName name="sybilPercenta">'Current Bitcoin'!$A$358</definedName>
-    <definedName name="sybilPercentb">'Future Bitcoin'!$A$205</definedName>
+    <definedName name="sybilPercentb">'Future Bitcoin'!$I$201</definedName>
     <definedName name="syncResourcePercent10">'Future Bitcoin'!$K$36</definedName>
     <definedName name="syncResourcePercent11">'Future Bitcoin'!$K$60</definedName>
     <definedName name="syncResourcePercent8">'Future Bitcoin'!$K$12</definedName>
@@ -123,10 +135,12 @@
     <definedName name="syncTime2">'Current Bitcoin'!$I$77</definedName>
     <definedName name="syncTime3">'Current Bitcoin'!$I$101</definedName>
     <definedName name="syncTime8">'Future Bitcoin'!$I$12</definedName>
-    <definedName name="targetMinerPercentHashpower">'Current Bitcoin'!$F$318</definedName>
-    <definedName name="targetMinerPercentHashpower2">'Future Bitcoin'!$F$201</definedName>
+    <definedName name="targetMinerPercentHashpower">'Current Bitcoin'!$B$318</definedName>
+    <definedName name="targetMinerPercentHashpower2">'Future Bitcoin'!$C$201</definedName>
     <definedName name="targetMinerPercentHashpowera">'Current Bitcoin'!$G$358</definedName>
     <definedName name="throughput1">'Current Bitcoin'!$E$53</definedName>
+    <definedName name="Throughput10thP1">'Current Bitcoin'!$E$312</definedName>
+    <definedName name="Throughput10thP2">'Future Bitcoin'!$E$195</definedName>
     <definedName name="throughput11">'Future Bitcoin'!$E$60</definedName>
     <definedName name="throughput12">'Future Bitcoin'!$E$84</definedName>
     <definedName name="throughput14">'Future Bitcoin'!#REF!</definedName>
@@ -134,6 +148,7 @@
     <definedName name="throughput3">'Current Bitcoin'!$E$101</definedName>
     <definedName name="throughput4">'Future Bitcoin'!#REF!</definedName>
     <definedName name="throughput5">'Current Bitcoin'!$E$213</definedName>
+    <definedName name="Throughput90thP1">'Current Bitcoin'!$E$313</definedName>
     <definedName name="utxoExpand">'Current Bitcoin'!$E$15</definedName>
     <definedName name="utxoGrowth">'Current Bitcoin'!$E$19</definedName>
     <definedName name="utxoMemoryPercent">'Current Bitcoin'!$D$15</definedName>
@@ -169,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="187">
   <si>
     <t>User Type</t>
   </si>
@@ -402,12 +417,6 @@
     <t>Private</t>
   </si>
   <si>
-    <t>inv</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>UTXO Disk Usage</t>
   </si>
   <si>
@@ -415,9 +424,6 @@
   </si>
   <si>
     <t>Avg</t>
-  </si>
-  <si>
-    <t>Transaction Size</t>
   </si>
   <si>
     <t>90th %ile</t>
@@ -582,28 +588,13 @@
     <t>Target Users:</t>
   </si>
   <si>
-    <t>10th %tile</t>
-  </si>
-  <si>
-    <t>Machines</t>
-  </si>
-  <si>
-    <t>Average Transfer Liklihoods</t>
-  </si>
-  <si>
     <t>Latency</t>
-  </si>
-  <si>
-    <t>1st %tile</t>
   </si>
   <si>
     <t>Compact Block</t>
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>Per Hop</t>
   </si>
   <si>
     <t>Compactness</t>
@@ -640,9 +631,6 @@
   </si>
   <si>
     <t>for Latency</t>
-  </si>
-  <si>
-    <t>Sanity Check</t>
   </si>
   <si>
     <t>Distance</t>
@@ -699,6 +687,9 @@
     <t>Percent</t>
   </si>
   <si>
+    <t>Minimum</t>
+  </si>
+  <si>
     <t>Speed-of-light</t>
   </si>
   <si>
@@ -706,9 +697,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>Equivalent Max</t>
   </si>
   <si>
     <t>Latency-based Miner Centralization (No FIBRE, With Sybil)</t>
@@ -720,20 +708,50 @@
     <t>Future</t>
   </si>
   <si>
-    <t>Target</t>
+    <t>Latency-based Miner Centralization (With Sybil)</t>
   </si>
   <si>
-    <t>Miner</t>
+    <t>power(.1</t>
   </si>
   <si>
-    <t>Latency-based Miner Centralization (With Sybil)</t>
+    <t>Slowest-link</t>
+  </si>
+  <si>
+    <t>(for Data Trafer)</t>
+  </si>
+  <si>
+    <t>(for Validation)</t>
+  </si>
+  <si>
+    <t>Tx Size</t>
+  </si>
+  <si>
+    <t>inv msg</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Sanity </t>
+  </si>
+  <si>
+    <t>Promixity</t>
+  </si>
+  <si>
+    <t>Favoring</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Effective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="43">
+  <numFmts count="44">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0\ &quot;days&quot;"/>
@@ -764,7 +782,6 @@
     <numFmt numFmtId="190" formatCode="#\ &quot;Billion&quot;"/>
     <numFmt numFmtId="191" formatCode="#\ &quot; million&quot;"/>
     <numFmt numFmtId="192" formatCode="#,###.0\ &quot;Mbps&quot;"/>
-    <numFmt numFmtId="193" formatCode="#&quot;ms&quot;"/>
     <numFmt numFmtId="194" formatCode="#.0\ &quot;s&quot;"/>
     <numFmt numFmtId="195" formatCode="#\ &quot;ms&quot;"/>
     <numFmt numFmtId="196" formatCode="#.000\ &quot;s&quot;"/>
@@ -775,8 +792,10 @@
     <numFmt numFmtId="201" formatCode="0.00\ &quot;s&quot;"/>
     <numFmt numFmtId="219" formatCode="0%&quot;/yr&quot;"/>
     <numFmt numFmtId="222" formatCode="#.00\ &quot;s&quot;"/>
+    <numFmt numFmtId="227" formatCode="0.0000000"/>
     <numFmt numFmtId="234" formatCode="#\ &quot; Billion&quot;"/>
     <numFmt numFmtId="235" formatCode="&quot;&gt;&quot;#\ &quot;Billion&quot;"/>
+    <numFmt numFmtId="239" formatCode="#.#"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1036,7 +1055,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1233,15 +1252,11 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="192" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="193" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1249,9 +1264,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="195" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1267,13 +1279,6 @@
     <xf numFmtId="200" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="199" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="201" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1333,10 +1338,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="195" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="195" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="222" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="227" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1344,34 +1351,18 @@
     <xf numFmtId="235" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="239" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -1396,23 +1387,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFBD1D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBD1D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5802,13 +5776,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L405"/>
   <sheetViews>
-    <sheetView topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="C358" sqref="C358"/>
+    <sheetView topLeftCell="B313" workbookViewId="0">
+      <selection activeCell="K333" sqref="K333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -5840,7 +5814,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -5855,7 +5829,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>57</v>
@@ -5875,7 +5849,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="16">
         <v>1000</v>
@@ -5889,7 +5863,7 @@
       <c r="E3" s="18">
         <v>50000</v>
       </c>
-      <c r="F3" s="146">
+      <c r="F3" s="144">
         <v>90</v>
       </c>
       <c r="G3" s="21">
@@ -5911,7 +5885,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="16">
         <v>50</v>
@@ -5925,7 +5899,7 @@
       <c r="E4" s="18">
         <v>5000</v>
       </c>
-      <c r="F4" s="146">
+      <c r="F4" s="144">
         <v>130</v>
       </c>
       <c r="G4" s="21">
@@ -5947,7 +5921,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="16">
         <v>1</v>
@@ -5961,7 +5935,7 @@
       <c r="E5" s="18">
         <v>200</v>
       </c>
-      <c r="F5" s="146">
+      <c r="F5" s="144">
         <v>250</v>
       </c>
       <c r="G5" s="21">
@@ -5984,40 +5958,37 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="189">
+      <c r="B6" s="183">
         <v>0.25</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="183">
         <v>0.25</v>
       </c>
-      <c r="D6" s="189">
+      <c r="D6" s="183">
         <v>0.15</v>
       </c>
-      <c r="E6" s="189">
+      <c r="E6" s="183">
         <v>0.17</v>
       </c>
-      <c r="F6" s="190">
+      <c r="F6" s="184">
         <v>-0.03</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="180" t="s">
-        <v>173</v>
-      </c>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
+      <c r="H7" s="174" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="174"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="181" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="181"/>
+      <c r="H8" s="175" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="175"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6035,18 +6006,15 @@
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="H9" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="152"/>
+        <v>150</v>
+      </c>
+      <c r="I9" s="149"/>
       <c r="J9" s="98" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K9" s="98" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -6066,34 +6034,31 @@
         <f>POWER(10,6)</f>
         <v>1000000</v>
       </c>
-      <c r="F10" s="22">
-        <v>475</v>
-      </c>
       <c r="H10" s="98" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I10" s="98" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J10" s="98" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K10" s="98" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="153">
+      <c r="H11" s="150">
         <v>15</v>
       </c>
-      <c r="I11" s="154">
+      <c r="I11" s="151">
         <v>1000</v>
       </c>
-      <c r="J11" s="153">
+      <c r="J11" s="150">
         <f>(I11/299792)*1.5*1000+H11</f>
         <v>20.003469071889842</v>
       </c>
-      <c r="K11" s="159">
+      <c r="K11" s="156">
         <f>0.1%*0.01</f>
         <v>1.0000000000000001E-5</v>
       </c>
@@ -6109,20 +6074,17 @@
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="179" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="153">
+      <c r="H12" s="150">
         <v>15</v>
       </c>
-      <c r="I12" s="154">
+      <c r="I12" s="151">
         <v>2000</v>
       </c>
-      <c r="J12" s="153">
+      <c r="J12" s="150">
         <f>(I12/299792)*1.5*1000+H12</f>
         <v>25.006938143779685</v>
       </c>
-      <c r="K12" s="159">
+      <c r="K12" s="156">
         <f>0.01*0.4%</f>
         <v>4.0000000000000003E-5</v>
       </c>
@@ -6132,6 +6094,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -6144,20 +6109,17 @@
       <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="179" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="153">
+      <c r="H13" s="150">
         <v>15</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="151">
         <v>5000</v>
       </c>
-      <c r="J13" s="153">
+      <c r="J13" s="150">
         <f>(I13/299792)*1.5*1000+H13</f>
         <v>40.017345359449216</v>
       </c>
-      <c r="K13" s="159">
+      <c r="K13" s="156">
         <f>0.01*2.5%</f>
         <v>2.5000000000000001E-4</v>
       </c>
@@ -6167,6 +6129,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -6179,20 +6144,17 @@
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="179" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="153">
+      <c r="H14" s="150">
         <v>15</v>
       </c>
-      <c r="I14" s="154">
+      <c r="I14" s="151">
         <v>10000</v>
       </c>
-      <c r="J14" s="153">
+      <c r="J14" s="150">
         <f>(I14/299792)*1.5*1000+H14</f>
         <v>65.034690718898432</v>
       </c>
-      <c r="K14" s="159">
+      <c r="K14" s="156">
         <f>0.01*10%</f>
         <v>1E-3</v>
       </c>
@@ -6202,6 +6164,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>475</v>
+      </c>
       <c r="B15" s="20">
         <v>0.9</v>
       </c>
@@ -6216,21 +6181,17 @@
       <c r="E15" s="20">
         <v>6.4</v>
       </c>
-      <c r="F15" s="191">
-        <f>(10000/299792)*1000</f>
-        <v>33.356460479265621</v>
-      </c>
-      <c r="H15" s="153">
+      <c r="H15" s="150">
         <v>15</v>
       </c>
-      <c r="I15" s="154">
+      <c r="I15" s="151">
         <v>20000</v>
       </c>
-      <c r="J15" s="153">
+      <c r="J15" s="150">
         <f t="shared" ref="J15:J28" si="1">(I15/299792)*1.5*1000+H15</f>
         <v>115.06938143779686</v>
       </c>
-      <c r="K15" s="159">
+      <c r="K15" s="156">
         <f>0.01*50%</f>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -6240,17 +6201,17 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H16" s="153">
+      <c r="H16" s="150">
         <v>15</v>
       </c>
-      <c r="I16" s="154">
+      <c r="I16" s="151">
         <v>40000</v>
       </c>
-      <c r="J16" s="153">
+      <c r="J16" s="150">
         <f t="shared" si="1"/>
         <v>215.13876287559373</v>
       </c>
-      <c r="K16" s="159">
+      <c r="K16" s="156">
         <f>0.01*100%</f>
         <v>0.01</v>
       </c>
@@ -6260,6 +6221,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
@@ -6273,19 +6237,19 @@
         <v>33</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="155">
+        <v>132</v>
+      </c>
+      <c r="H17" s="152">
         <v>25</v>
       </c>
-      <c r="I17" s="156">
+      <c r="I17" s="153">
         <v>1000</v>
       </c>
-      <c r="J17" s="155">
+      <c r="J17" s="152">
         <f t="shared" si="1"/>
         <v>30.003469071889842</v>
       </c>
-      <c r="K17" s="159">
+      <c r="K17" s="156">
         <f>0.1*0.1%</f>
         <v>1E-4</v>
       </c>
@@ -6295,6 +6259,9 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
+        <v>62</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>72</v>
       </c>
@@ -6308,19 +6275,19 @@
         <v>34</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="155">
+        <v>131</v>
+      </c>
+      <c r="H18" s="152">
         <v>25</v>
       </c>
-      <c r="I18" s="156">
+      <c r="I18" s="153">
         <v>2000</v>
       </c>
-      <c r="J18" s="155">
+      <c r="J18" s="152">
         <f t="shared" si="1"/>
         <v>35.006938143779685</v>
       </c>
-      <c r="K18" s="159">
+      <c r="K18" s="156">
         <f>0.1*0.4%</f>
         <v>4.0000000000000002E-4</v>
       </c>
@@ -6330,6 +6297,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>36</v>
+      </c>
       <c r="B19" s="34">
         <v>210</v>
       </c>
@@ -6345,17 +6315,17 @@
       <c r="F19" s="135">
         <v>7</v>
       </c>
-      <c r="H19" s="155">
+      <c r="H19" s="152">
         <v>25</v>
       </c>
-      <c r="I19" s="156">
+      <c r="I19" s="153">
         <v>5000</v>
       </c>
-      <c r="J19" s="155">
+      <c r="J19" s="152">
         <f t="shared" si="1"/>
         <v>50.017345359449216</v>
       </c>
-      <c r="K19" s="159">
+      <c r="K19" s="156">
         <f>0.1*2.5%</f>
         <v>2.5000000000000005E-3</v>
       </c>
@@ -6370,17 +6340,17 @@
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="H20" s="155">
+      <c r="H20" s="152">
         <v>25</v>
       </c>
-      <c r="I20" s="156">
+      <c r="I20" s="153">
         <v>10000</v>
       </c>
-      <c r="J20" s="155">
+      <c r="J20" s="152">
         <f t="shared" si="1"/>
         <v>75.034690718898432</v>
       </c>
-      <c r="K20" s="159">
+      <c r="K20" s="156">
         <f>0.1*10%</f>
         <v>1.0000000000000002E-2</v>
       </c>
@@ -6391,27 +6361,29 @@
     </row>
     <row r="21" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="155">
+      <c r="C21" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="173" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="173" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="152">
         <v>25</v>
       </c>
-      <c r="I21" s="156">
+      <c r="I21" s="153">
         <v>20000</v>
       </c>
-      <c r="J21" s="155">
+      <c r="J21" s="152">
         <f t="shared" si="1"/>
         <v>125.06938143779686</v>
       </c>
-      <c r="K21" s="159">
+      <c r="K21" s="156">
         <f>0.1*50%</f>
         <v>0.05</v>
       </c>
@@ -6421,32 +6393,35 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="139" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="155">
+      <c r="C22" s="138" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="173" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="173" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="152">
         <v>25</v>
       </c>
-      <c r="I22" s="156">
+      <c r="I22" s="153">
         <v>40000</v>
       </c>
-      <c r="J22" s="155">
+      <c r="J22" s="152">
         <f t="shared" si="1"/>
         <v>225.13876287559373</v>
       </c>
-      <c r="K22" s="159">
+      <c r="K22" s="156">
         <f>0.1*100%</f>
         <v>0.1</v>
       </c>
@@ -6456,32 +6431,35 @@
       </c>
     </row>
     <row r="23" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="98" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="157">
+      <c r="C23" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="173" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="173" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="154">
         <v>45</v>
       </c>
-      <c r="I23" s="158">
+      <c r="I23" s="155">
         <v>1000</v>
       </c>
-      <c r="J23" s="157">
+      <c r="J23" s="154">
         <f t="shared" si="1"/>
         <v>50.003469071889846</v>
       </c>
-      <c r="K23" s="159">
+      <c r="K23" s="156">
         <f>0.9*0.1%</f>
         <v>9.0000000000000008E-4</v>
       </c>
@@ -6491,33 +6469,37 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>0.1</v>
+      </c>
       <c r="B24" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="20">
         <v>0.9</v>
       </c>
-      <c r="D24" s="48">
-        <v>36</v>
-      </c>
-      <c r="E24" s="143">
+      <c r="C24" s="141">
         <f>9/1000</f>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F24" s="104">
+      <c r="D24" s="104">
         <v>0.01</v>
       </c>
-      <c r="H24" s="157">
+      <c r="E24" s="186">
+        <v>15</v>
+      </c>
+      <c r="F24" s="185">
+        <f>(10000/299792)*1000</f>
+        <v>33.356460479265621</v>
+      </c>
+      <c r="H24" s="154">
         <v>45</v>
       </c>
-      <c r="I24" s="158">
+      <c r="I24" s="155">
         <v>2000</v>
       </c>
-      <c r="J24" s="157">
+      <c r="J24" s="154">
         <f t="shared" si="1"/>
         <v>55.006938143779685</v>
       </c>
-      <c r="K24" s="159">
+      <c r="K24" s="156">
         <f>0.9*0.4%</f>
         <v>3.6000000000000003E-3</v>
       </c>
@@ -6530,17 +6512,17 @@
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="H25" s="157">
+      <c r="H25" s="154">
         <v>45</v>
       </c>
-      <c r="I25" s="158">
+      <c r="I25" s="155">
         <v>5000</v>
       </c>
-      <c r="J25" s="157">
+      <c r="J25" s="154">
         <f t="shared" si="1"/>
         <v>70.017345359449223</v>
       </c>
-      <c r="K25" s="159">
+      <c r="K25" s="156">
         <f>0.9*2.5%</f>
         <v>2.2500000000000003E-2</v>
       </c>
@@ -6555,17 +6537,17 @@
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" s="98"/>
-      <c r="H26" s="157">
+      <c r="H26" s="154">
         <v>45</v>
       </c>
-      <c r="I26" s="158">
+      <c r="I26" s="155">
         <v>10000</v>
       </c>
-      <c r="J26" s="157">
+      <c r="J26" s="154">
         <f t="shared" si="1"/>
         <v>95.034690718898432</v>
       </c>
-      <c r="K26" s="159">
+      <c r="K26" s="156">
         <f>0.9*10%</f>
         <v>9.0000000000000011E-2</v>
       </c>
@@ -6580,17 +6562,17 @@
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" s="98"/>
-      <c r="H27" s="157">
+      <c r="H27" s="154">
         <v>45</v>
       </c>
-      <c r="I27" s="158">
+      <c r="I27" s="155">
         <v>20000</v>
       </c>
-      <c r="J27" s="157">
+      <c r="J27" s="154">
         <f t="shared" si="1"/>
         <v>145.06938143779686</v>
       </c>
-      <c r="K27" s="159">
+      <c r="K27" s="156">
         <f>0.9*50%</f>
         <v>0.45</v>
       </c>
@@ -6605,17 +6587,17 @@
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" s="98"/>
-      <c r="H28" s="157">
+      <c r="H28" s="154">
         <v>45</v>
       </c>
-      <c r="I28" s="158">
+      <c r="I28" s="155">
         <v>40000</v>
       </c>
-      <c r="J28" s="157">
+      <c r="J28" s="154">
         <f t="shared" si="1"/>
         <v>245.13876287559373</v>
       </c>
-      <c r="K28" s="159">
+      <c r="K28" s="156">
         <f>0.9*100%</f>
         <v>0.9</v>
       </c>
@@ -6632,7 +6614,7 @@
     </row>
     <row r="30" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6889,7 +6871,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B53" s="130">
         <f>$B$5</f>
@@ -6907,7 +6889,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F53" s="147">
+      <c r="F53" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -7357,7 +7339,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B77" s="130">
         <f>$B$5</f>
@@ -7375,7 +7357,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F77" s="147">
+      <c r="F77" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -7820,9 +7802,9 @@
       <c r="J100" s="97"/>
       <c r="K100" s="97"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B101" s="130">
         <f>$B$5</f>
@@ -7840,7 +7822,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F101" s="148">
+      <c r="F101" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -9117,7 +9099,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -9162,7 +9144,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B165" s="130">
         <f>$B$5</f>
@@ -9180,7 +9162,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F165" s="147">
+      <c r="F165" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -9577,7 +9559,7 @@
     </row>
     <row r="186" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="102" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -9608,7 +9590,7 @@
     </row>
     <row r="189" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="99" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B189" s="130">
         <f>$B$4</f>
@@ -9626,7 +9608,7 @@
         <f>$E$4</f>
         <v>5000</v>
       </c>
-      <c r="F189" s="147">
+      <c r="F189" s="145">
         <f>$F$4</f>
         <v>130</v>
       </c>
@@ -10057,7 +10039,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B213" s="130">
         <f>$B$5</f>
@@ -10075,7 +10057,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F213" s="147">
+      <c r="F213" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -10344,7 +10326,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -10389,7 +10371,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B237" s="130">
         <f>$B$5</f>
@@ -10407,7 +10389,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F237" s="147">
+      <c r="F237" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -10777,7 +10759,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="99" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B261" s="130">
         <f>$B$4</f>
@@ -10795,7 +10777,7 @@
         <f>$E$4</f>
         <v>5000</v>
       </c>
-      <c r="F261" s="147">
+      <c r="F261" s="145">
         <f>$F$4</f>
         <v>130</v>
       </c>
@@ -10914,7 +10896,7 @@
         <v>1146.3089802130899</v>
       </c>
       <c r="F267" s="6">
-        <f t="shared" ref="F266:F280" si="42">E267*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" ref="F267:F280" si="42">E267*1000/secondsPerBlock/avgTrSize</f>
         <v>4.0221367726775084</v>
       </c>
     </row>
@@ -11283,7 +11265,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B286" s="130">
         <f>$B$5</f>
@@ -11301,7 +11283,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F286" s="147">
+      <c r="F286" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -11719,7 +11701,7 @@
     </row>
     <row r="308" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="11" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B308" s="39"/>
       <c r="C308" s="7"/>
@@ -11737,7 +11719,7 @@
     </row>
     <row r="310" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="99" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C310" s="106" t="s">
         <v>2</v>
@@ -11746,7 +11728,7 @@
         <v>3</v>
       </c>
       <c r="F310" s="106" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G310" s="106" t="s">
         <v>57</v>
@@ -11776,7 +11758,7 @@
         <f>$E$3</f>
         <v>50000</v>
       </c>
-      <c r="F311" s="147">
+      <c r="F311" s="145">
         <f>$F$3</f>
         <v>90</v>
       </c>
@@ -11803,7 +11785,7 @@
     </row>
     <row r="312" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="99" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B312" s="130">
         <f>$B$4</f>
@@ -11821,7 +11803,7 @@
         <f>$E$4</f>
         <v>5000</v>
       </c>
-      <c r="F312" s="147">
+      <c r="F312" s="145">
         <f>$F$4</f>
         <v>130</v>
       </c>
@@ -11867,7 +11849,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F313" s="147">
+      <c r="F313" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -11899,120 +11881,75 @@
       <c r="E314" s="39"/>
     </row>
     <row r="315" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="181" t="s">
+      <c r="C315" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="F315" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="G315" s="173" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="C316" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="D316" s="173"/>
+      <c r="E316" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="F316" s="173" t="s">
+        <v>176</v>
+      </c>
+      <c r="G316" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C317" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="D317" s="173" t="s">
+        <v>57</v>
+      </c>
+      <c r="E317" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="B315" s="181"/>
-      <c r="C315" s="181"/>
-      <c r="E315" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="G315" s="98" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="138" t="s">
-        <v>141</v>
-      </c>
-      <c r="B316" s="137" t="s">
-        <v>137</v>
-      </c>
-      <c r="C316" s="160" t="str">
-        <f>$A$5</f>
-        <v>90th %ile</v>
-      </c>
-      <c r="D316" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="E316" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="F316" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="G316" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="H316" s="179" t="s">
-        <v>143</v>
-      </c>
-      <c r="I316" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="J316" s="98" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B317" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="C317" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="D317" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="E317" s="98" t="s">
-        <v>144</v>
-      </c>
       <c r="F317" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="G317" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="H317" s="179" t="s">
-        <v>57</v>
-      </c>
-      <c r="I317" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="J317" s="98" t="s">
         <v>1</v>
       </c>
+      <c r="G317" s="173" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="318" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="140">
-        <f>1/17</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="B318" s="140">
-        <f>8/17</f>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="C318" s="140">
-        <f>8/17</f>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="D318" s="162">
-        <f>E311*A318+E312*B318+E313*C318</f>
-        <v>5388.2352941176468</v>
-      </c>
-      <c r="E318" s="142">
-        <v>95</v>
+      <c r="B318" s="139">
+        <v>0.25</v>
+      </c>
+      <c r="C318" s="142">
+        <v>1E-3</v>
+      </c>
+      <c r="D318" s="179">
+        <f>(privateConnections10thb+publicConnections10thb)</f>
+        <v>88</v>
+      </c>
+      <c r="E318" s="180">
+        <f>LOG(curUsers*1000*1000)/LOG(D318/2)</f>
+        <v>4.1650715824988263</v>
       </c>
       <c r="F318" s="140">
-        <v>0.25</v>
-      </c>
-      <c r="G318" s="144">
-        <v>1E-3</v>
-      </c>
-      <c r="H318" s="185">
-        <f>A318*(privateConnections1stb+publicConnections1stb)+B318*(privateConnections10thb+publicConnections10thb)+C318*(privateConnections90thb+publicConnections90thb)</f>
-        <v>50.352941176470594</v>
-      </c>
-      <c r="I318" s="186">
-        <f>LOG(curUsers*1000*1000)/LOG(H318/2)</f>
-        <v>4.8858838071887769</v>
-      </c>
-      <c r="J318" s="141">
-        <f>B311*A318+B312*B318+B313*C318</f>
-        <v>82.823529411764696</v>
+        <f>B313</f>
+        <v>1</v>
+      </c>
+      <c r="G318" s="105">
+        <v>0.5</v>
       </c>
     </row>
     <row r="319" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -12022,994 +11959,1139 @@
     </row>
     <row r="320" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C320" s="7"/>
-      <c r="E320" s="93"/>
-      <c r="F320" s="39"/>
-      <c r="H320" s="179" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="D320" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="E320" s="173" t="s">
+        <v>144</v>
+      </c>
+      <c r="H320" s="93"/>
+      <c r="I320" s="39"/>
+      <c r="J320" s="106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="C321" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="D321" s="179" t="s">
-        <v>179</v>
-      </c>
-      <c r="E321" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="F321" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="G321" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="H321" s="179" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="C321" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="D321" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="E321" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="F321" s="173" t="s">
+        <v>144</v>
+      </c>
+      <c r="G321" s="173" t="s">
+        <v>30</v>
+      </c>
+      <c r="H321" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="I321" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="J321" s="106" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="129" t="s">
         <v>7</v>
       </c>
       <c r="B322" s="98" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C322" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="D322" s="173" t="s">
+        <v>177</v>
+      </c>
+      <c r="E322" s="173" t="s">
+        <v>178</v>
+      </c>
+      <c r="F322" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="D322" s="179" t="s">
-        <v>104</v>
-      </c>
-      <c r="E322" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="F322" s="98" t="s">
-        <v>155</v>
-      </c>
-      <c r="G322" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="H322" s="137" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G322" s="173" t="s">
+        <v>68</v>
+      </c>
+      <c r="H322" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="I322" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="J322" s="195" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="97">
         <v>0</v>
       </c>
-      <c r="B323" s="145">
+      <c r="B323" s="143">
         <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C323" s="9">
-        <f>(B323/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A323)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A323)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>2721.3228871947827</v>
-      </c>
-      <c r="D323" s="6">
-        <f>C323*1000/secondsPerBlock/avgTrSize</f>
-        <v>9.5485013585781839</v>
-      </c>
-      <c r="E323" s="150">
-        <f>avgHops*(C323*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.51949700364861495</v>
-      </c>
-      <c r="F323" s="149">
-        <f>avgHops*C323*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A323)*mbToGB*KBperGB)</f>
-        <v>0.48802611130258361</v>
-      </c>
-      <c r="G323" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A323)))/1000</f>
-        <v>1.3924768850488014</v>
-      </c>
-      <c r="H323" s="192">
-        <f t="shared" ref="H323:H338" si="47">E323+F323+G323</f>
+      <c r="C323" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A323))))/1000</f>
+        <v>1.4794676897311649</v>
+      </c>
+      <c r="D323" s="9">
+        <f>(B323 - C323)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A323)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>605.61336201897041</v>
+      </c>
+      <c r="E323" s="9">
+        <f>(B323 - C323)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A323))/missingTransactionRate/1000</f>
+        <v>874.50569475539316</v>
+      </c>
+      <c r="F323" s="9">
+        <f>MIN(D323,E323)</f>
+        <v>605.61336201897041</v>
+      </c>
+      <c r="G323" s="6">
+        <f>F323*1000/secondsPerBlock/avgTrSize</f>
+        <v>2.1249591649788435</v>
+      </c>
+      <c r="H323" s="146">
+        <f>F323*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A323)*mbToGB*KBperGB)</f>
+        <v>0.92053231026883497</v>
+      </c>
+      <c r="I323" s="147">
+        <f>(F323*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A323))</f>
+        <v>0.63748774949365306</v>
+      </c>
+      <c r="J323" s="196">
+        <f>MAX(H323,I323)+C323</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="97">
         <v>1</v>
       </c>
-      <c r="B324" s="145">
+      <c r="B324" s="143">
         <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C324" s="9">
-        <f>(B324/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A324)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A324)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>3118.4433456849756</v>
-      </c>
-      <c r="D324" s="6">
-        <f>C324*1000/secondsPerBlock/avgTrSize</f>
-        <v>10.941906476087633</v>
-      </c>
-      <c r="E324" s="150">
-        <f>avgHops*(C324*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.59530678323926189</v>
-      </c>
-      <c r="F324" s="149">
-        <f>avgHops*C324*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A324)*mbToGB*KBperGB)</f>
-        <v>0.44739469512369584</v>
-      </c>
-      <c r="G324" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A324)))/1000</f>
-        <v>1.3572985216370423</v>
-      </c>
-      <c r="H324" s="192">
-        <f t="shared" si="47"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C324" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A324))))/1000</f>
+        <v>1.4387579412513545</v>
+      </c>
+      <c r="D324" s="9">
+        <f>(B324 - C324)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A324)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>790.49511410250443</v>
+      </c>
+      <c r="E324" s="9">
+        <f>(B324 - C324)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A324))/missingTransactionRate/1000</f>
+        <v>1068.4205482991194</v>
+      </c>
+      <c r="F324" s="9">
+        <f t="shared" ref="F324:F338" si="47">MIN(D324,E324)</f>
+        <v>790.49511410250443</v>
+      </c>
+      <c r="G324" s="6">
+        <f>F324*1000/secondsPerBlock/avgTrSize</f>
+        <v>2.7736670670263313</v>
+      </c>
+      <c r="H324" s="146">
+        <f>F324*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A324)*mbToGB*KBperGB)</f>
+        <v>0.96124205874864532</v>
+      </c>
+      <c r="I324" s="147">
+        <f>(F324*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A324))</f>
+        <v>0.71119668385290558</v>
+      </c>
+      <c r="J324" s="196">
+        <f t="shared" ref="J324:J338" si="48">MAX(H324,I324)+C324</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="97">
         <v>2</v>
       </c>
-      <c r="B325" s="145">
-        <f t="shared" ref="B325:B338" si="48">secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B325" s="143">
+        <f t="shared" ref="B325:B338" si="49">secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C325" s="9">
-        <f>(B325/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A325)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A325)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>3522.8039932447055</v>
-      </c>
-      <c r="D325" s="6">
-        <f>C325*1000/secondsPerBlock/avgTrSize</f>
-        <v>12.360715765770895</v>
-      </c>
-      <c r="E325" s="150">
-        <f>avgHops*(C325*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.67249870551689861</v>
-      </c>
-      <c r="F325" s="149">
-        <f>avgHops*C325*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A325)*mbToGB*KBperGB)</f>
-        <v>0.40432578535546537</v>
-      </c>
-      <c r="G325" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A325)))/1000</f>
-        <v>1.3231755091276356</v>
-      </c>
-      <c r="H325" s="192">
+      <c r="C325" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A325))))/1000</f>
+        <v>1.3992694852259382</v>
+      </c>
+      <c r="D325" s="9">
+        <f>(B325 - C325)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A325)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>1028.7114666674154</v>
+      </c>
+      <c r="E325" s="9">
+        <f>(B325 - C325)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A325))/missingTransactionRate/1000</f>
+        <v>1301.4050015905023</v>
+      </c>
+      <c r="F325" s="9">
         <f t="shared" si="47"/>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1028.7114666674154</v>
+      </c>
+      <c r="G325" s="6">
+        <f>F325*1000/secondsPerBlock/avgTrSize</f>
+        <v>3.6095139181312819</v>
+      </c>
+      <c r="H325" s="146">
+        <f>F325*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A325)*mbToGB*KBperGB)</f>
+        <v>1.0007305147740617</v>
+      </c>
+      <c r="I325" s="147">
+        <f>(F325*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A325))</f>
+        <v>0.79103964894395862</v>
+      </c>
+      <c r="J325" s="196">
+        <f t="shared" si="48"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="97">
         <v>3</v>
       </c>
-      <c r="B326" s="145">
+      <c r="B326" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C326" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A326))))/1000</f>
+        <v>1.3609656828812844</v>
+      </c>
+      <c r="D326" s="9">
+        <f>(B326 - C326)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A326)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>1335.1078293569021</v>
+      </c>
+      <c r="E326" s="9">
+        <f>(B326 - C326)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A326))/missingTransactionRate/1000</f>
+        <v>1580.9243262562841</v>
+      </c>
+      <c r="F326" s="9">
+        <f t="shared" si="47"/>
+        <v>1335.1078293569021</v>
+      </c>
+      <c r="G326" s="6">
+        <f>F326*1000/secondsPerBlock/avgTrSize</f>
+        <v>4.6845888749364981</v>
+      </c>
+      <c r="H326" s="146">
+        <f>F326*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A326)*mbToGB*KBperGB)</f>
+        <v>1.0390343171187155</v>
+      </c>
+      <c r="I326" s="147">
+        <f>(F326*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A326))</f>
+        <v>0.87747580875089659</v>
+      </c>
+      <c r="J326" s="196">
         <f t="shared" si="48"/>
         <v>2.4</v>
       </c>
-      <c r="C326" s="9">
-        <f>(B326/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A326)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A326)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>3925.9073216706647</v>
-      </c>
-      <c r="D326" s="6">
-        <f>C326*1000/secondsPerBlock/avgTrSize</f>
-        <v>13.775113409370753</v>
-      </c>
-      <c r="E326" s="150">
-        <f>avgHops*(C326*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.74945060720539536</v>
-      </c>
-      <c r="F326" s="149">
-        <f>avgHops*C326*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A326)*mbToGB*KBperGB)</f>
-        <v>0.36047320580109288</v>
-      </c>
-      <c r="G326" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A326)))/1000</f>
-        <v>1.2900761869935118</v>
-      </c>
-      <c r="H326" s="192">
-        <f t="shared" si="47"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="97">
         <v>4</v>
       </c>
-      <c r="B327" s="145">
+      <c r="B327" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C327" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A327))))/1000</f>
+        <v>1.3238109946069705</v>
+      </c>
+      <c r="D327" s="9">
+        <f>(B327 - C327)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A327)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>1728.5622131235696</v>
+      </c>
+      <c r="E327" s="9">
+        <f>(B327 - C327)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A327))/missingTransactionRate/1000</f>
+        <v>1915.8239721111872</v>
+      </c>
+      <c r="F327" s="9">
+        <f t="shared" si="47"/>
+        <v>1728.5622131235696</v>
+      </c>
+      <c r="G327" s="6">
+        <f>F327*1000/secondsPerBlock/avgTrSize</f>
+        <v>6.0651305723634019</v>
+      </c>
+      <c r="H327" s="146">
+        <f>F327*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A327)*mbToGB*KBperGB)</f>
+        <v>1.0761890053930294</v>
+      </c>
+      <c r="I327" s="147">
+        <f>(F327*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A327))</f>
+        <v>0.97099716674464143</v>
+      </c>
+      <c r="J327" s="196">
         <f t="shared" si="48"/>
         <v>2.4</v>
       </c>
-      <c r="C327" s="9">
-        <f>(B327/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A327)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A327)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>4320.0795184608232</v>
-      </c>
-      <c r="D327" s="6">
-        <f>C327*1000/secondsPerBlock/avgTrSize</f>
-        <v>15.158173748985345</v>
-      </c>
-      <c r="E327" s="150">
-        <f>avgHops*(C327*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.82469756746785927</v>
-      </c>
-      <c r="F327" s="149">
-        <f>avgHops*C327*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A327)*mbToGB*KBperGB)</f>
-        <v>0.31733258800872949</v>
-      </c>
-      <c r="G327" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A327)))/1000</f>
-        <v>1.2579698445234113</v>
-      </c>
-      <c r="H327" s="192">
-        <f t="shared" si="47"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="97">
         <v>5</v>
       </c>
-      <c r="B328" s="145">
+      <c r="B328" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C328" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A328))))/1000</f>
+        <v>1.2877709469808858</v>
+      </c>
+      <c r="D328" s="9">
+        <f>(B328 - C328)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A328)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>2233.061645947736</v>
+      </c>
+      <c r="E328" s="9">
+        <f>(B328 - C328)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A328))/missingTransactionRate/1000</f>
+        <v>2316.5791824132161</v>
+      </c>
+      <c r="F328" s="9">
+        <f t="shared" si="47"/>
+        <v>2233.061645947736</v>
+      </c>
+      <c r="G328" s="6">
+        <f>F328*1000/secondsPerBlock/avgTrSize</f>
+        <v>7.8353040208692493</v>
+      </c>
+      <c r="H328" s="146">
+        <f>F328*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A328)*mbToGB*KBperGB)</f>
+        <v>1.1122290530191141</v>
+      </c>
+      <c r="I328" s="147">
+        <f>(F328*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A328))</f>
+        <v>1.0721308637585492</v>
+      </c>
+      <c r="J328" s="196">
         <f t="shared" si="48"/>
         <v>2.4</v>
       </c>
-      <c r="C328" s="9">
-        <f>(B328/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A328)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A328)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>4699.0291533167692</v>
-      </c>
-      <c r="D328" s="6">
-        <f>C328*1000/secondsPerBlock/avgTrSize</f>
-        <v>16.487821590585153</v>
-      </c>
-      <c r="E328" s="150">
-        <f>avgHops*(C328*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.89703856043409025</v>
-      </c>
-      <c r="F328" s="149">
-        <f>avgHops*C328*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A328)*mbToGB*KBperGB)</f>
-        <v>0.27613474723849613</v>
-      </c>
-      <c r="G328" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A328)))/1000</f>
-        <v>1.2268266923274136</v>
-      </c>
-      <c r="H328" s="192">
-        <f t="shared" si="47"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="97">
         <v>6</v>
       </c>
-      <c r="B329" s="145">
+      <c r="B329" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C329" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A329))))/1000</f>
+        <v>1.2528121007835837</v>
+      </c>
+      <c r="D329" s="9">
+        <f>(B329 - C329)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A329)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>2879.0621988808889</v>
+      </c>
+      <c r="E329" s="9">
+        <f>(B329 - C329)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A329))/missingTransactionRate/1000</f>
+        <v>2795.5890651839063</v>
+      </c>
+      <c r="F329" s="9">
+        <f t="shared" si="47"/>
+        <v>2795.5890651839063</v>
+      </c>
+      <c r="G329" s="6">
+        <f>F329*1000/secondsPerBlock/avgTrSize</f>
+        <v>9.8090844392417758</v>
+      </c>
+      <c r="H329" s="146">
+        <f>F329*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A329)*mbToGB*KBperGB)</f>
+        <v>1.1139272878534263</v>
+      </c>
+      <c r="I329" s="147">
+        <f>(F329*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A329))</f>
+        <v>1.147187899216416</v>
+      </c>
+      <c r="J329" s="196">
+        <f t="shared" si="48"/>
+        <v>2.3999999999999995</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="97">
+        <v>7</v>
+      </c>
+      <c r="B330" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C330" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A330))))/1000</f>
+        <v>1.2189020199722007</v>
+      </c>
+      <c r="D330" s="9">
+        <f>(B330 - C330)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A330)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>3705.2066076046517</v>
+      </c>
+      <c r="E330" s="9">
+        <f>(B330 - C330)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A330))/missingTransactionRate/1000</f>
+        <v>3367.5229508210982</v>
+      </c>
+      <c r="F330" s="9">
+        <f t="shared" si="47"/>
+        <v>3367.5229508210982</v>
+      </c>
+      <c r="G330" s="6">
+        <f>F330*1000/secondsPerBlock/avgTrSize</f>
+        <v>11.815870002881047</v>
+      </c>
+      <c r="H330" s="146">
+        <f>F330*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A330)*mbToGB*KBperGB)</f>
+        <v>1.0734555386867759</v>
+      </c>
+      <c r="I330" s="147">
+        <f>(F330*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A330))</f>
+        <v>1.1810979800277992</v>
+      </c>
+      <c r="J330" s="196">
         <f t="shared" si="48"/>
         <v>2.4</v>
       </c>
-      <c r="C329" s="9">
-        <f>(B329/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A329)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A329)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>5058.1388236888506</v>
-      </c>
-      <c r="D329" s="6">
-        <f>C329*1000/secondsPerBlock/avgTrSize</f>
-        <v>17.747855521715266</v>
-      </c>
-      <c r="E329" s="150">
-        <f>avgHops*(C329*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.96559212995624477</v>
-      </c>
-      <c r="F329" s="149">
-        <f>avgHops*C329*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A329)*mbToGB*KBperGB)</f>
-        <v>0.23779003534645898</v>
-      </c>
-      <c r="G329" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A329)))/1000</f>
-        <v>1.196617834697296</v>
-      </c>
-      <c r="H329" s="192">
+    </row>
+    <row r="331" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="97">
+        <v>8</v>
+      </c>
+      <c r="B331" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C331" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A331))))/1000</f>
+        <v>1.1860092415851591</v>
+      </c>
+      <c r="D331" s="9">
+        <f>(B331 - C331)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A331)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>4760.4926260476086</v>
+      </c>
+      <c r="E331" s="9">
+        <f>(B331 - C331)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A331))/missingTransactionRate/1000</f>
+        <v>4049.7282341572077</v>
+      </c>
+      <c r="F331" s="9">
         <f t="shared" si="47"/>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="97">
-        <v>7</v>
-      </c>
-      <c r="B330" s="145">
+        <v>4049.7282341572077</v>
+      </c>
+      <c r="G331" s="6">
+        <f>F331*1000/secondsPerBlock/avgTrSize</f>
+        <v>14.2095727514288</v>
+      </c>
+      <c r="H331" s="146">
+        <f>F331*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A331)*mbToGB*KBperGB)</f>
+        <v>1.0327361129514616</v>
+      </c>
+      <c r="I331" s="147">
+        <f>(F331*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A331))</f>
+        <v>1.2139907584148408</v>
+      </c>
+      <c r="J331" s="196">
         <f t="shared" si="48"/>
         <v>2.4</v>
       </c>
-      <c r="C330" s="9">
-        <f>(B330/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A330)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A330)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>5394.4975828437919</v>
-      </c>
-      <c r="D330" s="6">
-        <f>C330*1000/secondsPerBlock/avgTrSize</f>
-        <v>18.928061694188742</v>
-      </c>
-      <c r="E330" s="150">
-        <f>avgHops*(C330*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.0298025800848152</v>
-      </c>
-      <c r="F330" s="149">
-        <f>avgHops*C330*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A330)*mbToGB*KBperGB)</f>
-        <v>0.20288217711910253</v>
-      </c>
-      <c r="G330" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A330)))/1000</f>
-        <v>1.167315242796082</v>
-      </c>
-      <c r="H330" s="192">
+    </row>
+    <row r="332" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="97">
+        <v>9</v>
+      </c>
+      <c r="B332" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C332" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A332))))/1000</f>
+        <v>1.1541032465497287</v>
+      </c>
+      <c r="D332" s="9">
+        <f>(B332 - C332)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A332)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>6107.009326991435</v>
+      </c>
+      <c r="E332" s="9">
+        <f>(B332 - C332)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A332))/missingTransactionRate/1000</f>
+        <v>4862.7105045513163</v>
+      </c>
+      <c r="F332" s="9">
         <f t="shared" si="47"/>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="97">
-        <v>8</v>
-      </c>
-      <c r="B331" s="145">
+        <v>4862.7105045513163</v>
+      </c>
+      <c r="G332" s="6">
+        <f>F332*1000/secondsPerBlock/avgTrSize</f>
+        <v>17.062142121232689</v>
+      </c>
+      <c r="H332" s="146">
+        <f>F332*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A332)*mbToGB*KBperGB)</f>
+        <v>0.99204617288076924</v>
+      </c>
+      <c r="I332" s="147">
+        <f>(F332*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A332))</f>
+        <v>1.2458967534502712</v>
+      </c>
+      <c r="J332" s="196">
         <f t="shared" si="48"/>
         <v>2.4</v>
       </c>
-      <c r="C331" s="9">
-        <f>(B331/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A331)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A331)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>5706.7343606267841</v>
-      </c>
-      <c r="D331" s="6">
-        <f>C331*1000/secondsPerBlock/avgTrSize</f>
-        <v>20.023629335532576</v>
-      </c>
-      <c r="E331" s="150">
-        <f>avgHops*(C331*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.0894081753085301</v>
-      </c>
-      <c r="F331" s="149">
-        <f>avgHops*C331*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A331)*mbToGB*KBperGB)</f>
-        <v>0.17170009603956515</v>
-      </c>
-      <c r="G331" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A331)))/1000</f>
-        <v>1.1388917286519045</v>
-      </c>
-      <c r="H331" s="192">
+    </row>
+    <row r="333" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="97">
+        <v>10</v>
+      </c>
+      <c r="B333" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C333" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A333))))/1000</f>
+        <v>1.1231544313653614</v>
+      </c>
+      <c r="D333" s="9">
+        <f>(B333 - C333)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A333)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>7823.3888313630014</v>
+      </c>
+      <c r="E333" s="9">
+        <f>(B333 - C333)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A333))/missingTransactionRate/1000</f>
+        <v>5830.6986515946619</v>
+      </c>
+      <c r="F333" s="9">
         <f t="shared" si="47"/>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="97">
-        <v>9</v>
-      </c>
-      <c r="B332" s="145">
+        <v>5830.6986515946619</v>
+      </c>
+      <c r="G333" s="6">
+        <f>F333*1000/secondsPerBlock/avgTrSize</f>
+        <v>20.458591759981271</v>
+      </c>
+      <c r="H333" s="146">
+        <f>F333*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A333)*mbToGB*KBperGB)</f>
+        <v>0.95162108081435415</v>
+      </c>
+      <c r="I333" s="147">
+        <f>(F333*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A333))</f>
+        <v>1.2768455686346385</v>
+      </c>
+      <c r="J333" s="196">
         <f t="shared" si="48"/>
         <v>2.4</v>
       </c>
-      <c r="C332" s="9">
-        <f>(B332/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A332)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A332)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>5994.7338653530105</v>
-      </c>
-      <c r="D332" s="6">
-        <f>C332*1000/secondsPerBlock/avgTrSize</f>
-        <v>21.034153913519333</v>
-      </c>
-      <c r="E332" s="150">
-        <f>avgHops*(C332*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.1443869065945433</v>
-      </c>
-      <c r="F332" s="149">
-        <f>avgHops*C332*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A332)*mbToGB*KBperGB)</f>
-        <v>0.14429217347340423</v>
-      </c>
-      <c r="G332" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A332)))/1000</f>
-        <v>1.111320919932052</v>
-      </c>
-      <c r="H332" s="192">
+    </row>
+    <row r="334" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="97">
+        <v>11</v>
+      </c>
+      <c r="B334" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C334" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A334))))/1000</f>
+        <v>1.0931340806365248</v>
+      </c>
+      <c r="D334" s="9">
+        <f>(B334 - C334)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A334)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>10009.158986009999</v>
+      </c>
+      <c r="E334" s="9">
+        <f>(B334 - C334)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A334))/missingTransactionRate/1000</f>
+        <v>6982.309844670649</v>
+      </c>
+      <c r="F334" s="9">
         <f t="shared" si="47"/>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="97">
-        <v>10</v>
-      </c>
-      <c r="B333" s="145">
+        <v>6982.309844670649</v>
+      </c>
+      <c r="G334" s="6">
+        <f>F334*1000/secondsPerBlock/avgTrSize</f>
+        <v>24.499332788318064</v>
+      </c>
+      <c r="H334" s="146">
+        <f>F334*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A334)*mbToGB*KBperGB)</f>
+        <v>0.91165928997533807</v>
+      </c>
+      <c r="I334" s="147">
+        <f>(F334*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A334))</f>
+        <v>1.3068659193634753</v>
+      </c>
+      <c r="J334" s="196">
+        <f t="shared" si="48"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="97">
+        <v>12</v>
+      </c>
+      <c r="B335" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C335" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A335))))/1000</f>
+        <v>1.0640143404295537</v>
+      </c>
+      <c r="D335" s="9">
+        <f>(B335 - C335)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A335)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>12790.230305515071</v>
+      </c>
+      <c r="E335" s="9">
+        <f>(B335 - C335)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A335))/missingTransactionRate/1000</f>
+        <v>8351.3318783384802</v>
+      </c>
+      <c r="F335" s="9">
+        <f t="shared" si="47"/>
+        <v>8351.3318783384802</v>
+      </c>
+      <c r="G335" s="6">
+        <f>F335*1000/secondsPerBlock/avgTrSize</f>
+        <v>29.302918871363087</v>
+      </c>
+      <c r="H335" s="146">
+        <f>F335*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A335)*mbToGB*KBperGB)</f>
+        <v>0.87232671822670638</v>
+      </c>
+      <c r="I335" s="147">
+        <f>(F335*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A335))</f>
+        <v>1.3359856595704462</v>
+      </c>
+      <c r="J335" s="196">
         <f t="shared" si="48"/>
         <v>2.4</v>
       </c>
-      <c r="C333" s="9">
-        <f>(B333/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A333)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A333)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>6259.3111350585341</v>
-      </c>
-      <c r="D333" s="6">
-        <f>C333*1000/secondsPerBlock/avgTrSize</f>
-        <v>21.962495210731699</v>
-      </c>
-      <c r="E333" s="150">
-        <f>avgHops*(C333*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.19489436364505</v>
-      </c>
-      <c r="F333" s="149">
-        <f>avgHops*C333*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A333)*mbToGB*KBperGB)</f>
-        <v>0.12052840088115463</v>
-      </c>
-      <c r="G333" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A333)))/1000</f>
-        <v>1.0845772354737953</v>
-      </c>
-      <c r="H333" s="192">
+    </row>
+    <row r="336" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="97">
+        <v>13</v>
+      </c>
+      <c r="B336" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C336" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A336))))/1000</f>
+        <v>1.0357681924287916</v>
+      </c>
+      <c r="D336" s="9">
+        <f>(B336 - C336)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A336)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>16325.81053915946</v>
+      </c>
+      <c r="E336" s="9">
+        <f>(B336 - C336)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A336))/missingTransactionRate/1000</f>
+        <v>9977.6434184038044</v>
+      </c>
+      <c r="F336" s="9">
         <f t="shared" si="47"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="97">
-        <v>11</v>
-      </c>
-      <c r="B334" s="145">
+        <v>9977.6434184038044</v>
+      </c>
+      <c r="G336" s="6">
+        <f>F336*1000/secondsPerBlock/avgTrSize</f>
+        <v>35.009275152294045</v>
+      </c>
+      <c r="H336" s="146">
+        <f>F336*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A336)*mbToGB*KBperGB)</f>
+        <v>0.8337606566816621</v>
+      </c>
+      <c r="I336" s="147">
+        <f>(F336*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A336))</f>
+        <v>1.3642318075712083</v>
+      </c>
+      <c r="J336" s="196">
         <f t="shared" si="48"/>
         <v>2.4</v>
-      </c>
-      <c r="C334" s="9">
-        <f>(B334/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A334)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A334)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>6501.9007257997782</v>
-      </c>
-      <c r="D334" s="6">
-        <f>C334*1000/secondsPerBlock/avgTrSize</f>
-        <v>22.813686757192205</v>
-      </c>
-      <c r="E334" s="150">
-        <f>avgHops*(C334*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.2412044013474595</v>
-      </c>
-      <c r="F334" s="149">
-        <f>avgHops*C334*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A334)*mbToGB*KBperGB)</f>
-        <v>0.10015973710325395</v>
-      </c>
-      <c r="G334" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A334)))/1000</f>
-        <v>1.0586358615492866</v>
-      </c>
-      <c r="H334" s="192">
-        <f t="shared" si="47"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="97">
-        <v>12</v>
-      </c>
-      <c r="B335" s="145">
-        <f t="shared" si="48"/>
-        <v>2.4</v>
-      </c>
-      <c r="C335" s="9">
-        <f>(B335/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A335)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A335)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>6724.2928890104567</v>
-      </c>
-      <c r="D335" s="6">
-        <f>C335*1000/secondsPerBlock/avgTrSize</f>
-        <v>23.594010136878794</v>
-      </c>
-      <c r="E335" s="150">
-        <f>avgHops*(C335*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.2836587763745899</v>
-      </c>
-      <c r="F335" s="149">
-        <f>avgHops*C335*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A335)*mbToGB*KBperGB)</f>
-        <v>8.2868494782897095E-2</v>
-      </c>
-      <c r="G335" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A335)))/1000</f>
-        <v>1.0334727288425127</v>
-      </c>
-      <c r="H335" s="192">
-        <f t="shared" si="47"/>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="97">
-        <v>13</v>
-      </c>
-      <c r="B336" s="145">
-        <f t="shared" si="48"/>
-        <v>2.4</v>
-      </c>
-      <c r="C336" s="9">
-        <f>(B336/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A336)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A336)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>6928.4292073318838</v>
-      </c>
-      <c r="D336" s="6">
-        <f>C336*1000/secondsPerBlock/avgTrSize</f>
-        <v>24.310277920462752</v>
-      </c>
-      <c r="E336" s="150">
-        <f>avgHops*(C336*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.3226281343301827</v>
-      </c>
-      <c r="F336" s="149">
-        <f>avgHops*C336*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A336)*mbToGB*KBperGB)</f>
-        <v>6.8307375552874888E-2</v>
-      </c>
-      <c r="G336" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A336)))/1000</f>
-        <v>1.0090644901169419</v>
-      </c>
-      <c r="H336" s="192">
-        <f t="shared" si="47"/>
-        <v>2.3999999999999995</v>
       </c>
     </row>
     <row r="337" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="97">
         <v>14</v>
       </c>
-      <c r="B337" s="145">
+      <c r="B337" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C337" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A337))))/1000</f>
+        <v>1.008369428868052</v>
+      </c>
+      <c r="D337" s="9">
+        <f>(B337 - C337)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A337)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>20817.115645883892</v>
+      </c>
+      <c r="E337" s="9">
+        <f>(B337 - C337)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A337))/missingTransactionRate/1000</f>
+        <v>11908.296253069115</v>
+      </c>
+      <c r="F337" s="9">
+        <f t="shared" si="47"/>
+        <v>11908.296253069115</v>
+      </c>
+      <c r="G337" s="6">
+        <f>F337*1000/secondsPerBlock/avgTrSize</f>
+        <v>41.783495624803912</v>
+      </c>
+      <c r="H337" s="146">
+        <f>F337*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A337)*mbToGB*KBperGB)</f>
+        <v>0.7960732599928525</v>
+      </c>
+      <c r="I337" s="147">
+        <f>(F337*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A337))</f>
+        <v>1.3916305711319481</v>
+      </c>
+      <c r="J337" s="196">
         <f t="shared" si="48"/>
-        <v>2.4</v>
-      </c>
-      <c r="C337" s="9">
-        <f>(B337/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A337)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A337)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>7116.2567478962983</v>
-      </c>
-      <c r="D337" s="6">
-        <f>C337*1000/secondsPerBlock/avgTrSize</f>
-        <v>24.96932192244315</v>
-      </c>
-      <c r="E337" s="150">
-        <f>avgHops*(C337*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.3584841678001716</v>
-      </c>
-      <c r="F337" s="149">
-        <f>avgHops*C337*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A337)*mbToGB*KBperGB)</f>
-        <v>5.6127333646689641E-2</v>
-      </c>
-      <c r="G337" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A337)))/1000</f>
-        <v>0.98538849855313859</v>
-      </c>
-      <c r="H337" s="192">
-        <f t="shared" si="47"/>
-        <v>2.4</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="338" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="97">
         <v>15</v>
       </c>
-      <c r="B338" s="145">
+      <c r="B338" s="143">
+        <f t="shared" si="49"/>
+        <v>2.4</v>
+      </c>
+      <c r="C338" s="187">
+        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A338))))/1000</f>
+        <v>0.98179262821413504</v>
+      </c>
+      <c r="D338" s="9">
+        <f>(B338 - C338)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A338)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>26518.340679575525</v>
+      </c>
+      <c r="E338" s="9">
+        <f>(B338 - C338)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A338))/missingTransactionRate/1000</f>
+        <v>14198.787840509616</v>
+      </c>
+      <c r="F338" s="9">
+        <f t="shared" si="47"/>
+        <v>14198.787840509616</v>
+      </c>
+      <c r="G338" s="6">
+        <f>F338*1000/secondsPerBlock/avgTrSize</f>
+        <v>49.820308212314444</v>
+      </c>
+      <c r="H338" s="146">
+        <f>F338*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A338)*mbToGB*KBperGB)</f>
+        <v>0.75935466057812795</v>
+      </c>
+      <c r="I338" s="147">
+        <f>(F338*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A338))</f>
+        <v>1.4182073717858652</v>
+      </c>
+      <c r="J338" s="196">
         <f t="shared" si="48"/>
-        <v>2.4</v>
-      </c>
-      <c r="C338" s="9">
-        <f>(B338/avgHops-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A338)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A338)*mbToGB*KBperGB)+(1/(averageRelayTps*$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>7289.632568254302</v>
-      </c>
-      <c r="D338" s="6">
-        <f>C338*1000/secondsPerBlock/avgTrSize</f>
-        <v>25.577658134225619</v>
-      </c>
-      <c r="E338" s="150">
-        <f>avgHops*(C338*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.3915813866582942</v>
-      </c>
-      <c r="F338" s="149">
-        <f>avgHops*C338*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A338)*mbToGB*KBperGB)</f>
-        <v>4.5995826605456439E-2</v>
-      </c>
-      <c r="G338" s="192">
-        <f>avgHops*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A338)))/1000</f>
-        <v>0.96242278673624937</v>
-      </c>
-      <c r="H338" s="192">
-        <f t="shared" si="47"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="339" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="145"/>
+      <c r="B339" s="143"/>
       <c r="C339" s="9"/>
-      <c r="D339" s="150"/>
-      <c r="E339" s="149"/>
-      <c r="F339" s="149"/>
-      <c r="G339" s="151"/>
+      <c r="D339" s="147"/>
+      <c r="E339" s="146"/>
+      <c r="F339" s="146"/>
+      <c r="G339" s="148"/>
     </row>
     <row r="340" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340"/>
-      <c r="B340" s="163"/>
-      <c r="C340" s="164" t="s">
-        <v>163</v>
+      <c r="B340" s="157"/>
+      <c r="C340" s="158" t="s">
+        <v>154</v>
       </c>
       <c r="D340" s="98"/>
-      <c r="E340" s="163"/>
-      <c r="F340" s="171"/>
-      <c r="G340" s="164" t="s">
-        <v>153</v>
+      <c r="E340" s="157"/>
+      <c r="F340" s="165"/>
+      <c r="G340" s="158" t="s">
+        <v>145</v>
       </c>
       <c r="H340" s="98"/>
-      <c r="I340" s="163"/>
-      <c r="J340" s="173" t="s">
-        <v>153</v>
+      <c r="I340" s="157"/>
+      <c r="J340" s="167" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="341" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341"/>
-      <c r="B341" s="165" t="s">
-        <v>140</v>
-      </c>
-      <c r="C341" s="166" t="s">
-        <v>140</v>
+      <c r="B341" s="159" t="s">
+        <v>134</v>
+      </c>
+      <c r="C341" s="160" t="s">
+        <v>134</v>
       </c>
       <c r="D341" s="98"/>
-      <c r="E341" s="165" t="s">
+      <c r="E341" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="F341" s="172" t="s">
-        <v>104</v>
-      </c>
-      <c r="G341" s="166" t="s">
-        <v>154</v>
+      <c r="F341" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="G341" s="160" t="s">
+        <v>146</v>
       </c>
       <c r="H341" s="98"/>
-      <c r="I341" s="165" t="s">
+      <c r="I341" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="J341" s="166" t="s">
-        <v>155</v>
+      <c r="J341" s="160" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="342" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342"/>
-      <c r="B342" s="167">
+      <c r="B342" s="161">
         <v>40</v>
       </c>
-      <c r="C342" s="168">
-        <f t="shared" ref="C342:C352" si="49">avgHops*3*B342/1000</f>
-        <v>0.58630605686265325</v>
+      <c r="C342" s="162">
+        <f>(avgHops-1+3)*B342/1000</f>
+        <v>0.24660286329995304</v>
       </c>
       <c r="D342"/>
-      <c r="E342" s="174">
+      <c r="E342" s="168">
         <v>2000</v>
       </c>
-      <c r="F342" s="176">
+      <c r="F342" s="170">
         <v>1000</v>
       </c>
-      <c r="G342" s="168">
-        <f t="shared" ref="G342:G352" si="50">avgHops*(E342*missingTransactionRate*1000/avgTrSize)/(F342*0.1)</f>
-        <v>2.0572142346058011</v>
+      <c r="G342" s="162">
+        <f>(E342*missingTransactionRate*1000/avgTrSize)/(F342*ongoingResourcePercent90thP1)</f>
+        <v>0.4210526315789474</v>
       </c>
       <c r="H342"/>
-      <c r="I342" s="174">
+      <c r="I342" s="168">
         <v>1000</v>
       </c>
-      <c r="J342" s="168">
-        <f t="shared" ref="J342:J352" si="51">avgHops*I342*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>8.966707214329403E-2</v>
+      <c r="J342" s="162">
+        <f>I342*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>1.52</v>
       </c>
     </row>
     <row r="343" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343"/>
-      <c r="B343" s="167">
+      <c r="B343" s="161">
         <v>50</v>
       </c>
-      <c r="C343" s="168">
-        <f t="shared" si="49"/>
-        <v>0.73288257107831656</v>
+      <c r="C343" s="162">
+        <f>(avgHops-1+3)*B343/1000</f>
+        <v>0.30825357912494133</v>
       </c>
       <c r="D343"/>
-      <c r="E343" s="174">
+      <c r="E343" s="168">
         <v>2000</v>
       </c>
-      <c r="F343" s="176">
+      <c r="F343" s="170">
         <v>2000</v>
       </c>
-      <c r="G343" s="168">
-        <f t="shared" si="50"/>
-        <v>1.0286071173029006</v>
+      <c r="G343" s="162">
+        <f>(E343*missingTransactionRate*1000/avgTrSize)/(F343*ongoingResourcePercent90thP1)</f>
+        <v>0.2105263157894737</v>
       </c>
       <c r="H343"/>
-      <c r="I343" s="174">
+      <c r="I343" s="168">
         <v>2000</v>
       </c>
-      <c r="J343" s="168">
-        <f t="shared" si="51"/>
-        <v>0.17933414428658806</v>
+      <c r="J343" s="162">
+        <f>I343*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>3.04</v>
       </c>
     </row>
     <row r="344" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344"/>
-      <c r="B344" s="167">
+      <c r="B344" s="161">
         <v>60</v>
       </c>
-      <c r="C344" s="168">
-        <f t="shared" si="49"/>
-        <v>0.87945908529397987</v>
+      <c r="C344" s="162">
+        <f>(avgHops-1+3)*B344/1000</f>
+        <v>0.3699042949499296</v>
       </c>
       <c r="D344"/>
-      <c r="E344" s="174">
+      <c r="E344" s="168">
         <v>2000</v>
       </c>
-      <c r="F344" s="176">
+      <c r="F344" s="170">
         <v>3000</v>
       </c>
-      <c r="G344" s="168">
-        <f t="shared" si="50"/>
-        <v>0.68573807820193367</v>
+      <c r="G344" s="162">
+        <f>(E344*missingTransactionRate*1000/avgTrSize)/(F344*ongoingResourcePercent90thP1)</f>
+        <v>0.14035087719298248</v>
       </c>
       <c r="H344"/>
-      <c r="I344" s="174">
+      <c r="I344" s="168">
         <v>3000</v>
       </c>
-      <c r="J344" s="168">
-        <f t="shared" si="51"/>
-        <v>0.26900121642988206</v>
+      <c r="J344" s="162">
+        <f>I344*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="345" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345"/>
-      <c r="B345" s="167">
+      <c r="B345" s="161">
         <v>70</v>
       </c>
-      <c r="C345" s="168">
-        <f t="shared" si="49"/>
-        <v>1.0260355995096431</v>
+      <c r="C345" s="162">
+        <f>(avgHops-1+3)*B345/1000</f>
+        <v>0.43155501077491781</v>
       </c>
       <c r="D345"/>
-      <c r="E345" s="174">
+      <c r="E345" s="168">
         <v>2000</v>
       </c>
-      <c r="F345" s="176">
+      <c r="F345" s="170">
         <v>4000</v>
       </c>
-      <c r="G345" s="168">
-        <f t="shared" si="50"/>
-        <v>0.51430355865145028</v>
+      <c r="G345" s="162">
+        <f>(E345*missingTransactionRate*1000/avgTrSize)/(F345*ongoingResourcePercent90thP1)</f>
+        <v>0.10526315789473685</v>
       </c>
       <c r="H345"/>
-      <c r="I345" s="174">
+      <c r="I345" s="168">
         <v>4000</v>
       </c>
-      <c r="J345" s="168">
-        <f t="shared" si="51"/>
-        <v>0.35866828857317612</v>
+      <c r="J345" s="162">
+        <f>I345*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>6.08</v>
       </c>
     </row>
     <row r="346" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346"/>
-      <c r="B346" s="167">
+      <c r="B346" s="161">
         <v>80</v>
       </c>
-      <c r="C346" s="168">
-        <f t="shared" si="49"/>
-        <v>1.1726121137253065</v>
+      <c r="C346" s="162">
+        <f>(avgHops-1+3)*B346/1000</f>
+        <v>0.49320572659990608</v>
       </c>
       <c r="D346"/>
-      <c r="E346" s="174">
+      <c r="E346" s="168">
         <v>2000</v>
       </c>
-      <c r="F346" s="176">
+      <c r="F346" s="170">
         <v>5000</v>
       </c>
-      <c r="G346" s="168">
-        <f t="shared" si="50"/>
-        <v>0.41144284692116018</v>
+      <c r="G346" s="162">
+        <f>(E346*missingTransactionRate*1000/avgTrSize)/(F346*ongoingResourcePercent90thP1)</f>
+        <v>8.4210526315789486E-2</v>
       </c>
       <c r="H346"/>
-      <c r="I346" s="174">
+      <c r="I346" s="168">
         <v>5000</v>
       </c>
-      <c r="J346" s="168">
-        <f t="shared" si="51"/>
-        <v>0.44833536071647012</v>
+      <c r="J346" s="162">
+        <f>I346*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>7.6</v>
       </c>
     </row>
     <row r="347" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347"/>
-      <c r="B347" s="167">
+      <c r="B347" s="161">
         <v>90</v>
       </c>
-      <c r="C347" s="168">
-        <f t="shared" si="49"/>
-        <v>1.3191886279409699</v>
+      <c r="C347" s="162">
+        <f>(avgHops-1+3)*B347/1000</f>
+        <v>0.55485644242489429</v>
       </c>
       <c r="D347"/>
-      <c r="E347" s="174">
+      <c r="E347" s="168">
         <v>2000</v>
       </c>
-      <c r="F347" s="176">
+      <c r="F347" s="170">
         <v>6000</v>
       </c>
-      <c r="G347" s="168">
-        <f t="shared" si="50"/>
-        <v>0.34286903910096683</v>
+      <c r="G347" s="162">
+        <f>(E347*missingTransactionRate*1000/avgTrSize)/(F347*ongoingResourcePercent90thP1)</f>
+        <v>7.0175438596491238E-2</v>
       </c>
       <c r="H347"/>
-      <c r="I347" s="174">
+      <c r="I347" s="168">
         <v>6000</v>
       </c>
-      <c r="J347" s="168">
-        <f t="shared" si="51"/>
-        <v>0.53800243285976412</v>
+      <c r="J347" s="162">
+        <f>I347*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="348" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348"/>
-      <c r="B348" s="167">
+      <c r="B348" s="161">
         <v>100</v>
       </c>
-      <c r="C348" s="168">
-        <f t="shared" si="49"/>
-        <v>1.4657651421566331</v>
+      <c r="C348" s="162">
+        <f>(avgHops-1+3)*B348/1000</f>
+        <v>0.61650715824988267</v>
       </c>
       <c r="D348"/>
-      <c r="E348" s="174">
+      <c r="E348" s="168">
         <v>2000</v>
       </c>
-      <c r="F348" s="176">
+      <c r="F348" s="170">
         <v>7000</v>
       </c>
-      <c r="G348" s="168">
-        <f t="shared" si="50"/>
-        <v>0.29388774780082871</v>
+      <c r="G348" s="162">
+        <f>(E348*missingTransactionRate*1000/avgTrSize)/(F348*ongoingResourcePercent90thP1)</f>
+        <v>6.0150375939849628E-2</v>
       </c>
       <c r="H348"/>
-      <c r="I348" s="174">
+      <c r="I348" s="168">
         <v>7000</v>
       </c>
-      <c r="J348" s="168">
-        <f t="shared" si="51"/>
-        <v>0.62766950500305829</v>
+      <c r="J348" s="162">
+        <f>I348*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>10.64</v>
       </c>
     </row>
     <row r="349" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349"/>
-      <c r="B349" s="167">
+      <c r="B349" s="161">
         <v>110</v>
       </c>
-      <c r="C349" s="168">
-        <f t="shared" si="49"/>
-        <v>1.6123416563722965</v>
+      <c r="C349" s="162">
+        <f>(avgHops-1+3)*B349/1000</f>
+        <v>0.67815787407487083</v>
       </c>
       <c r="D349"/>
-      <c r="E349" s="174">
+      <c r="E349" s="168">
         <v>2000</v>
       </c>
-      <c r="F349" s="176">
+      <c r="F349" s="170">
         <v>8000</v>
       </c>
-      <c r="G349" s="168">
-        <f t="shared" si="50"/>
-        <v>0.25715177932572514</v>
+      <c r="G349" s="162">
+        <f>(E349*missingTransactionRate*1000/avgTrSize)/(F349*ongoingResourcePercent90thP1)</f>
+        <v>5.2631578947368425E-2</v>
       </c>
       <c r="H349"/>
-      <c r="I349" s="174">
+      <c r="I349" s="168">
         <v>8000</v>
       </c>
-      <c r="J349" s="168">
-        <f t="shared" si="51"/>
-        <v>0.71733657714635224</v>
+      <c r="J349" s="162">
+        <f>I349*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>12.16</v>
       </c>
     </row>
     <row r="350" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350"/>
-      <c r="B350" s="167">
+      <c r="B350" s="161">
         <v>120</v>
       </c>
-      <c r="C350" s="168">
-        <f t="shared" si="49"/>
-        <v>1.7589181705879597</v>
+      <c r="C350" s="162">
+        <f>(avgHops-1+3)*B350/1000</f>
+        <v>0.7398085898998592</v>
       </c>
       <c r="D350"/>
-      <c r="E350" s="174">
+      <c r="E350" s="168">
         <v>2000</v>
       </c>
-      <c r="F350" s="176">
+      <c r="F350" s="170">
         <v>9000</v>
       </c>
-      <c r="G350" s="168">
-        <f t="shared" si="50"/>
-        <v>0.22857935940064456</v>
+      <c r="G350" s="162">
+        <f>(E350*missingTransactionRate*1000/avgTrSize)/(F350*ongoingResourcePercent90thP1)</f>
+        <v>4.6783625730994156E-2</v>
       </c>
       <c r="H350"/>
-      <c r="I350" s="174">
+      <c r="I350" s="168">
         <v>9000</v>
       </c>
-      <c r="J350" s="168">
-        <f t="shared" si="51"/>
-        <v>0.8070036492896463</v>
+      <c r="J350" s="162">
+        <f>I350*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>13.68</v>
       </c>
     </row>
     <row r="351" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351"/>
-      <c r="B351" s="167">
+      <c r="B351" s="161">
         <v>130</v>
       </c>
-      <c r="C351" s="168">
-        <f t="shared" si="49"/>
-        <v>1.9054946848036232</v>
+      <c r="C351" s="162">
+        <f>(avgHops-1+3)*B351/1000</f>
+        <v>0.80145930572484747</v>
       </c>
       <c r="D351"/>
-      <c r="E351" s="174">
+      <c r="E351" s="168">
         <v>2000</v>
       </c>
-      <c r="F351" s="176">
+      <c r="F351" s="170">
         <v>10000</v>
       </c>
-      <c r="G351" s="168">
-        <f t="shared" si="50"/>
-        <v>0.20572142346058009</v>
+      <c r="G351" s="162">
+        <f>(E351*missingTransactionRate*1000/avgTrSize)/(F351*ongoingResourcePercent90thP1)</f>
+        <v>4.2105263157894743E-2</v>
       </c>
       <c r="H351"/>
-      <c r="I351" s="174">
+      <c r="I351" s="168">
         <v>10000</v>
       </c>
-      <c r="J351" s="168">
-        <f t="shared" si="51"/>
-        <v>0.89667072143294024</v>
+      <c r="J351" s="162">
+        <f>I351*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>15.2</v>
       </c>
     </row>
     <row r="352" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352"/>
-      <c r="B352" s="169">
+      <c r="B352" s="163">
         <v>140</v>
       </c>
-      <c r="C352" s="170">
-        <f t="shared" si="49"/>
-        <v>2.0520711990192861</v>
+      <c r="C352" s="164">
+        <f>(avgHops-1+3)*B352/1000</f>
+        <v>0.86311002154983563</v>
       </c>
       <c r="D352"/>
-      <c r="E352" s="175">
+      <c r="E352" s="169">
         <v>2000</v>
       </c>
-      <c r="F352" s="177">
+      <c r="F352" s="171">
         <v>11000</v>
       </c>
-      <c r="G352" s="170">
-        <f t="shared" si="50"/>
-        <v>0.18701947587325463</v>
+      <c r="G352" s="164">
+        <f>(E352*missingTransactionRate*1000/avgTrSize)/(F352*ongoingResourcePercent90thP1)</f>
+        <v>3.8277511961722493E-2</v>
       </c>
       <c r="H352"/>
-      <c r="I352" s="175">
+      <c r="I352" s="169">
         <v>11000</v>
       </c>
-      <c r="J352" s="170">
-        <f t="shared" si="51"/>
-        <v>0.98633779357623441</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J352" s="164">
+        <f>I352*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B353" s="39"/>
       <c r="C353" s="7"/>
       <c r="D353" s="93"/>
       <c r="E353" s="39"/>
     </row>
-    <row r="354" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B354" s="39"/>
       <c r="C354" s="7"/>
       <c r="D354" s="93"/>
       <c r="E354" s="39"/>
     </row>
-    <row r="355" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="187"/>
-      <c r="B355" s="187"/>
-      <c r="C355" s="187"/>
+    <row r="355" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="181"/>
+      <c r="B355" s="181"/>
+      <c r="C355" s="181"/>
       <c r="F355" s="98"/>
       <c r="H355" s="98"/>
     </row>
-    <row r="356" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="98" t="s">
-        <v>174</v>
-      </c>
-      <c r="B356" s="179" t="s">
-        <v>143</v>
+        <v>165</v>
+      </c>
+      <c r="B356" s="173" t="s">
+        <v>186</v>
       </c>
       <c r="C356" s="98" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D356"/>
       <c r="E356"/>
@@ -13017,33 +13099,33 @@
       <c r="G356"/>
       <c r="H356"/>
     </row>
-    <row r="357" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="137" t="s">
-        <v>175</v>
-      </c>
-      <c r="B357" s="179" t="s">
+        <v>166</v>
+      </c>
+      <c r="B357" s="173" t="s">
         <v>57</v>
       </c>
       <c r="C357" s="98" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D357"/>
-      <c r="E357"/>
+      <c r="E357" s="189"/>
       <c r="F357"/>
       <c r="G357"/>
       <c r="H357"/>
     </row>
-    <row r="358" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="104">
         <v>0.5</v>
       </c>
-      <c r="B358" s="185">
-        <f>(1-sybilPercenta)*(A318*(privateConnections1stb+publicConnections1stb)+B318*(privateConnections10thb+publicConnections10thb)+C318*(privateConnections90thb+publicConnections90thb))</f>
-        <v>25.176470588235297</v>
-      </c>
-      <c r="C358" s="186">
+      <c r="B358" s="179">
+        <f>(1-sybilPercenta)*(privateConnections10thb+publicConnections10thb)</f>
+        <v>44</v>
+      </c>
+      <c r="C358" s="197">
         <f>LOG(curUsers*1000*1000)/LOG(B358/2)</f>
-        <v>6.2230152424863494</v>
+        <v>5.0990631622983127</v>
       </c>
       <c r="D358"/>
       <c r="E358"/>
@@ -13051,293 +13133,372 @@
       <c r="G358"/>
       <c r="H358"/>
     </row>
-    <row r="359" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C359" s="7"/>
       <c r="D359" s="93"/>
       <c r="E359" s="39"/>
     </row>
-    <row r="360" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B360" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C360" s="7"/>
-      <c r="E360" s="93"/>
-      <c r="F360" s="39"/>
-    </row>
-    <row r="361" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="C361" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="D361" s="179" t="s">
-        <v>179</v>
-      </c>
-      <c r="E361" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="F361" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="G361" s="137" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="161" t="s">
+        <v>155</v>
+      </c>
+      <c r="D360" s="173" t="s">
+        <v>144</v>
+      </c>
+      <c r="E360" s="173" t="s">
+        <v>144</v>
+      </c>
+      <c r="H360" s="93"/>
+      <c r="I360" s="39"/>
+      <c r="J360" s="106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B361" s="173" t="s">
+        <v>156</v>
+      </c>
+      <c r="C361" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="D361" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="E361" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="F361" s="173" t="s">
+        <v>144</v>
+      </c>
+      <c r="G361" s="173" t="s">
+        <v>30</v>
+      </c>
+      <c r="H361" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="I361" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="J361" s="106" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B362" s="98" t="s">
-        <v>166</v>
-      </c>
-      <c r="C362" s="98" t="s">
+      <c r="B362" s="173" t="s">
+        <v>157</v>
+      </c>
+      <c r="C362" s="173" t="s">
+        <v>148</v>
+      </c>
+      <c r="D362" s="173" t="s">
+        <v>177</v>
+      </c>
+      <c r="E362" s="173" t="s">
+        <v>178</v>
+      </c>
+      <c r="F362" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="D362" s="179" t="s">
-        <v>104</v>
-      </c>
-      <c r="E362" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="F362" s="98" t="s">
-        <v>155</v>
-      </c>
-      <c r="G362" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="H362" s="137" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G362" s="173" t="s">
+        <v>68</v>
+      </c>
+      <c r="H362" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="I362" s="173" t="s">
+        <v>146</v>
+      </c>
+      <c r="J362" s="195" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="97">
         <v>0</v>
       </c>
-      <c r="B363" s="145">
+      <c r="B363" s="143">
         <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C363" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A363)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A363)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>1328.4562644330354</v>
-      </c>
-      <c r="D363" s="6">
-        <f>C363*1000/secondsPerBlock/avgTrSize</f>
-        <v>4.661250050642229</v>
-      </c>
-      <c r="E363" s="150">
-        <f>avgHops19*(C363*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.32300404712304143</v>
-      </c>
-      <c r="F363" s="192">
-        <f>avgHops19*C363*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A363)*mbToGB*KBperGB)</f>
-        <v>0.30343660876834905</v>
-      </c>
-      <c r="G363" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A363)))/1000</f>
-        <v>1.7735593441086097</v>
-      </c>
-      <c r="H363" s="192">
-        <f t="shared" ref="H363" si="52">E363+F363+G363</f>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C363" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A363))))/1000</f>
+        <v>1.5471820792666275</v>
+      </c>
+      <c r="D363" s="9">
+        <f>(B363 - C363)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A363)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>561.06442153511341</v>
+      </c>
+      <c r="E363" s="9">
+        <f>(B363 - C363)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A363))/missingTransactionRate/1000</f>
+        <v>810.1770246967036</v>
+      </c>
+      <c r="F363" s="9">
+        <f>MIN(D363,E363)</f>
+        <v>561.06442153511341</v>
+      </c>
+      <c r="G363" s="6">
+        <f>F363*1000/secondsPerBlock/avgTrSize</f>
+        <v>1.9686470931056608</v>
+      </c>
+      <c r="H363" s="146">
+        <f>F363*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A363)*mbToGB*KBperGB)</f>
+        <v>0.85281792073337248</v>
+      </c>
+      <c r="I363" s="147">
+        <f>(F363*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A363))</f>
+        <v>0.5905941279316983</v>
+      </c>
+      <c r="J363" s="196">
+        <f>MAX(H363,I363)+C363</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="97">
         <v>1</v>
       </c>
-      <c r="B364" s="145">
+      <c r="B364" s="143">
         <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C364" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A364)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A364)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>1576.1664768054166</v>
-      </c>
-      <c r="D364" s="6">
-        <f>C364*1000/secondsPerBlock/avgTrSize</f>
-        <v>5.5304086905453218</v>
-      </c>
-      <c r="E364" s="150">
-        <f>avgHops19*(C364*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.38323290316606284</v>
-      </c>
-      <c r="F364" s="192">
-        <f>avgHops19*C364*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A364)*mbToGB*KBperGB)</f>
-        <v>0.2880134624712295</v>
-      </c>
-      <c r="G364" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A364)))/1000</f>
-        <v>1.7287536343627079</v>
-      </c>
-      <c r="H364" s="192">
-        <f t="shared" ref="H364:H378" si="53">E364+F364+G364</f>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C364" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A364))))/1000</f>
+        <v>1.5048611953116631</v>
+      </c>
+      <c r="D364" s="9">
+        <f>(B364 - C364)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A364)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>736.13388543448752</v>
+      </c>
+      <c r="E364" s="9">
+        <f>(B364 - C364)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A364))/missingTransactionRate/1000</f>
+        <v>994.94678141108636</v>
+      </c>
+      <c r="F364" s="9">
+        <f t="shared" ref="F364:F378" si="50">MIN(D364,E364)</f>
+        <v>736.13388543448752</v>
+      </c>
+      <c r="G364" s="6">
+        <f>F364*1000/secondsPerBlock/avgTrSize</f>
+        <v>2.5829259138052194</v>
+      </c>
+      <c r="H364" s="146">
+        <f>F364*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A364)*mbToGB*KBperGB)</f>
+        <v>0.89513880468833684</v>
+      </c>
+      <c r="I364" s="147">
+        <f>(F364*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A364))</f>
+        <v>0.66228869584749217</v>
+      </c>
+      <c r="J364" s="196">
+        <f t="shared" ref="J364:J378" si="51">MAX(H364,I364)+C364</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="97">
         <v>2</v>
       </c>
-      <c r="B365" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B365" s="143">
+        <f t="shared" ref="B365:B378" si="52">secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C365" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A365)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A365)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>1835.7536929631276</v>
-      </c>
-      <c r="D365" s="6">
-        <f>C365*1000/secondsPerBlock/avgTrSize</f>
-        <v>6.4412410279407979</v>
-      </c>
-      <c r="E365" s="150">
-        <f>avgHops19*(C365*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.44634956243834173</v>
-      </c>
-      <c r="F365" s="192">
-        <f>avgHops19*C365*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A365)*mbToGB*KBperGB)</f>
-        <v>0.2683583416524748</v>
-      </c>
-      <c r="G365" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A365)))/1000</f>
-        <v>1.6852920959091833</v>
-      </c>
-      <c r="H365" s="192">
-        <f t="shared" si="53"/>
+      <c r="C365" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A365))))/1000</f>
+        <v>1.4638099378753473</v>
+      </c>
+      <c r="D365" s="9">
+        <f>(B365 - C365)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A365)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>962.36642899326955</v>
+      </c>
+      <c r="E365" s="9">
+        <f>(B365 - C365)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A365))/missingTransactionRate/1000</f>
+        <v>1217.4730472403151</v>
+      </c>
+      <c r="F365" s="9">
+        <f t="shared" si="50"/>
+        <v>962.36642899326955</v>
+      </c>
+      <c r="G365" s="6">
+        <f>F365*1000/secondsPerBlock/avgTrSize</f>
+        <v>3.3767243122570862</v>
+      </c>
+      <c r="H365" s="146">
+        <f>F365*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A365)*mbToGB*KBperGB)</f>
+        <v>0.93619006212465261</v>
+      </c>
+      <c r="I365" s="147">
+        <f>(F365*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A365))</f>
+        <v>0.74002286045520205</v>
+      </c>
+      <c r="J365" s="196">
+        <f t="shared" si="51"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="366" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="97">
         <v>3</v>
       </c>
-      <c r="B366" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B366" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C366" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A366)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A366)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>2101.8799552689093</v>
-      </c>
-      <c r="D366" s="6">
-        <f>C366*1000/secondsPerBlock/avgTrSize</f>
-        <v>7.3750173869084534</v>
-      </c>
-      <c r="E366" s="150">
-        <f>avgHops19*(C366*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.51105614109803288</v>
-      </c>
-      <c r="F366" s="192">
-        <f>avgHops19*C366*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A366)*mbToGB*KBperGB)</f>
-        <v>0.24580945529270279</v>
-      </c>
-      <c r="G366" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A366)))/1000</f>
-        <v>1.6431344036092643</v>
-      </c>
-      <c r="H366" s="192">
-        <f t="shared" si="53"/>
+      <c r="C366" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A366))))/1000</f>
+        <v>1.4239902181621211</v>
+      </c>
+      <c r="D366" s="9">
+        <f>(B366 - C366)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A366)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>1254.124411284281</v>
+      </c>
+      <c r="E366" s="9">
+        <f>(B366 - C366)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A366))/missingTransactionRate/1000</f>
+        <v>1485.0304569827747</v>
+      </c>
+      <c r="F366" s="9">
+        <f t="shared" si="50"/>
+        <v>1254.124411284281</v>
+      </c>
+      <c r="G366" s="6">
+        <f>F366*1000/secondsPerBlock/avgTrSize</f>
+        <v>4.4004365308220379</v>
+      </c>
+      <c r="H366" s="146">
+        <f>F366*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A366)*mbToGB*KBperGB)</f>
+        <v>0.97600978183787879</v>
+      </c>
+      <c r="I366" s="147">
+        <f>(F366*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A366))</f>
+        <v>0.82425090158896797</v>
+      </c>
+      <c r="J366" s="196">
+        <f t="shared" si="51"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="367" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="97">
         <v>4</v>
       </c>
-      <c r="B367" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B367" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C367" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A367)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A367)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>2369.3428611521513</v>
-      </c>
-      <c r="D367" s="6">
-        <f>C367*1000/secondsPerBlock/avgTrSize</f>
-        <v>8.313483723340882</v>
-      </c>
-      <c r="E367" s="150">
-        <f>avgHops19*(C367*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.5760877144878026</v>
-      </c>
-      <c r="F367" s="192">
-        <f>avgHops19*C367*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A367)*mbToGB*KBperGB)</f>
-        <v>0.22167084343385446</v>
-      </c>
-      <c r="G367" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A367)))/1000</f>
-        <v>1.6022414420783431</v>
-      </c>
-      <c r="H367" s="192">
-        <f t="shared" si="53"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C367" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A367))))/1000</f>
+        <v>1.3853650900402918</v>
+      </c>
+      <c r="D367" s="9">
+        <f>(B367 - C367)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A367)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>1629.6947438446175</v>
+      </c>
+      <c r="E367" s="9">
+        <f>(B367 - C367)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A367))/missingTransactionRate/1000</f>
+        <v>1806.2458115633481</v>
+      </c>
+      <c r="F367" s="9">
+        <f t="shared" si="50"/>
+        <v>1629.6947438446175</v>
+      </c>
+      <c r="G367" s="6">
+        <f>F367*1000/secondsPerBlock/avgTrSize</f>
+        <v>5.7182271713846218</v>
+      </c>
+      <c r="H367" s="146">
+        <f>F367*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A367)*mbToGB*KBperGB)</f>
+        <v>1.0146349099597081</v>
+      </c>
+      <c r="I367" s="147">
+        <f>(F367*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A367))</f>
+        <v>0.91545966174526971</v>
+      </c>
+      <c r="J367" s="196">
+        <f t="shared" si="51"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="97">
         <v>5</v>
       </c>
-      <c r="B368" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B368" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C368" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A368)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A368)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>2633.504218293308</v>
-      </c>
-      <c r="D368" s="6">
-        <f>C368*1000/secondsPerBlock/avgTrSize</f>
-        <v>9.2403656782221315</v>
-      </c>
-      <c r="E368" s="150">
-        <f>avgHops19*(C368*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.64031654138601013</v>
-      </c>
-      <c r="F368" s="192">
-        <f>avgHops19*C368*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A368)*mbToGB*KBperGB)</f>
-        <v>0.19710818922064086</v>
-      </c>
-      <c r="G368" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A368)))/1000</f>
-        <v>1.5625752693933495</v>
-      </c>
-      <c r="H368" s="192">
-        <f t="shared" si="53"/>
-        <v>2.4000000000000004</v>
+      <c r="C368" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A368))))/1000</f>
+        <v>1.347898715762117</v>
+      </c>
+      <c r="D368" s="9">
+        <f>(B368 - C368)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A368)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>2112.3409958646334</v>
+      </c>
+      <c r="E368" s="9">
+        <f>(B368 - C368)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A368))/missingTransactionRate/1000</f>
+        <v>2191.3435242855535</v>
+      </c>
+      <c r="F368" s="9">
+        <f t="shared" si="50"/>
+        <v>2112.3409958646334</v>
+      </c>
+      <c r="G368" s="6">
+        <f>F368*1000/secondsPerBlock/avgTrSize</f>
+        <v>7.4117227925074864</v>
+      </c>
+      <c r="H368" s="146">
+        <f>F368*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A368)*mbToGB*KBperGB)</f>
+        <v>1.052101284237883</v>
+      </c>
+      <c r="I368" s="147">
+        <f>(F368*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A368))</f>
+        <v>1.0141708271057501</v>
+      </c>
+      <c r="J368" s="196">
+        <f t="shared" si="51"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="369" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="97">
         <v>6</v>
       </c>
-      <c r="B369" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B369" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C369" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A369)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A369)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>2890.5762190310143</v>
-      </c>
-      <c r="D369" s="6">
-        <f>C369*1000/secondsPerBlock/avgTrSize</f>
-        <v>10.142372698354436</v>
-      </c>
-      <c r="E369" s="150">
-        <f>avgHops19*(C369*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.70282164513945189</v>
-      </c>
-      <c r="F369" s="192">
-        <f>avgHops19*C369*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A369)*mbToGB*KBperGB)</f>
-        <v>0.17307927297164263</v>
-      </c>
-      <c r="G369" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A369)))/1000</f>
-        <v>1.5240990818889053</v>
-      </c>
-      <c r="H369" s="192">
-        <f t="shared" si="53"/>
+      <c r="C369" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A369))))/1000</f>
+        <v>1.3115563327122879</v>
+      </c>
+      <c r="D369" s="9">
+        <f>(B369 - C369)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A369)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>2731.6336061771599</v>
+      </c>
+      <c r="E369" s="9">
+        <f>(B369 - C369)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A369))/missingTransactionRate/1000</f>
+        <v>2652.4348944201752</v>
+      </c>
+      <c r="F369" s="9">
+        <f t="shared" si="50"/>
+        <v>2652.4348944201752</v>
+      </c>
+      <c r="G369" s="6">
+        <f>F369*1000/secondsPerBlock/avgTrSize</f>
+        <v>9.3067891032286862</v>
+      </c>
+      <c r="H369" s="146">
+        <f>F369*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A369)*mbToGB*KBperGB)</f>
+        <v>1.0568862373035812</v>
+      </c>
+      <c r="I369" s="147">
+        <f>(F369*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A369))</f>
+        <v>1.088443667287712</v>
+      </c>
+      <c r="J369" s="196">
+        <f t="shared" si="51"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13345,32 +13506,40 @@
       <c r="A370" s="97">
         <v>7</v>
       </c>
-      <c r="B370" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B370" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C370" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A370)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A370)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>3137.747572869037</v>
-      </c>
-      <c r="D370" s="6">
-        <f>C370*1000/secondsPerBlock/avgTrSize</f>
-        <v>11.009640606558023</v>
-      </c>
-      <c r="E370" s="150">
-        <f>avgHops19*(C370*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.76291948182407632</v>
-      </c>
-      <c r="F370" s="192">
-        <f>avgHops19*C370*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A370)*mbToGB*KBperGB)</f>
-        <v>0.15030333816632907</v>
-      </c>
-      <c r="G370" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A370)))/1000</f>
-        <v>1.4867771800095946</v>
-      </c>
-      <c r="H370" s="192">
-        <f t="shared" si="53"/>
+      <c r="C370" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A370))))/1000</f>
+        <v>1.2763042211539535</v>
+      </c>
+      <c r="D370" s="9">
+        <f>(B370 - C370)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A370)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>3525.1309333539211</v>
+      </c>
+      <c r="E370" s="9">
+        <f>(B370 - C370)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A370))/missingTransactionRate/1000</f>
+        <v>3203.8589422664036</v>
+      </c>
+      <c r="F370" s="9">
+        <f t="shared" si="50"/>
+        <v>3203.8589422664036</v>
+      </c>
+      <c r="G370" s="6">
+        <f>F370*1000/secondsPerBlock/avgTrSize</f>
+        <v>11.241610323741769</v>
+      </c>
+      <c r="H370" s="146">
+        <f>F370*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A370)*mbToGB*KBperGB)</f>
+        <v>1.0212848366507645</v>
+      </c>
+      <c r="I370" s="147">
+        <f>(F370*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A370))</f>
+        <v>1.1236957788460464</v>
+      </c>
+      <c r="J370" s="196">
+        <f t="shared" si="51"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13378,98 +13547,122 @@
       <c r="A371" s="97">
         <v>8</v>
       </c>
-      <c r="B371" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B371" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C371" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A371)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A371)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>3373.1701305225115</v>
-      </c>
-      <c r="D371" s="6">
-        <f>C371*1000/secondsPerBlock/avgTrSize</f>
-        <v>11.83568466850004</v>
-      </c>
-      <c r="E371" s="150">
-        <f>avgHops19*(C371*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.82016068798345498</v>
-      </c>
-      <c r="F371" s="192">
-        <f>avgHops19*C371*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A371)*mbToGB*KBperGB)</f>
-        <v>0.12926437682988118</v>
-      </c>
-      <c r="G371" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A371)))/1000</f>
-        <v>1.4505749351866637</v>
-      </c>
-      <c r="H371" s="192">
-        <f t="shared" si="53"/>
-        <v>2.4</v>
+      <c r="C371" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A371))))/1000</f>
+        <v>1.2421096729423691</v>
+      </c>
+      <c r="D371" s="9">
+        <f>(B371 - C371)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A371)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>4540.5027390217738</v>
+      </c>
+      <c r="E371" s="9">
+        <f>(B371 - C371)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A371))/missingTransactionRate/1000</f>
+        <v>3862.5838928672088</v>
+      </c>
+      <c r="F371" s="9">
+        <f t="shared" si="50"/>
+        <v>3862.5838928672088</v>
+      </c>
+      <c r="G371" s="6">
+        <f>F371*1000/secondsPerBlock/avgTrSize</f>
+        <v>13.552925939884943</v>
+      </c>
+      <c r="H371" s="146">
+        <f>F371*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A371)*mbToGB*KBperGB)</f>
+        <v>0.98501174518906121</v>
+      </c>
+      <c r="I371" s="147">
+        <f>(F371*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A371))</f>
+        <v>1.1578903270576306</v>
+      </c>
+      <c r="J371" s="196">
+        <f t="shared" si="51"/>
+        <v>2.3999999999999995</v>
       </c>
     </row>
     <row r="372" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="97">
         <v>9</v>
       </c>
-      <c r="B372" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B372" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C372" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A372)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A372)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>3595.8478922505155</v>
-      </c>
-      <c r="D372" s="6">
-        <f>C372*1000/secondsPerBlock/avgTrSize</f>
-        <v>12.617010148247424</v>
-      </c>
-      <c r="E372" s="150">
-        <f>avgHops19*(C372*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.87430309384816196</v>
-      </c>
-      <c r="F372" s="192">
-        <f>avgHops19*C372*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A372)*mbToGB*KBperGB)</f>
-        <v>0.11023814844341784</v>
-      </c>
-      <c r="G372" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A372)))/1000</f>
-        <v>1.4154587577084201</v>
-      </c>
-      <c r="H372" s="192">
-        <f t="shared" si="53"/>
-        <v>2.4</v>
+      <c r="C372" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A372))))/1000</f>
+        <v>1.2089409611771322</v>
+      </c>
+      <c r="D372" s="9">
+        <f>(B372 - C372)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A372)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>5838.2114239765806</v>
+      </c>
+      <c r="E372" s="9">
+        <f>(B372 - C372)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A372))/missingTransactionRate/1000</f>
+        <v>4648.6799837832032</v>
+      </c>
+      <c r="F372" s="9">
+        <f t="shared" si="50"/>
+        <v>4648.6799837832032</v>
+      </c>
+      <c r="G372" s="6">
+        <f>F372*1000/secondsPerBlock/avgTrSize</f>
+        <v>16.3111578378358</v>
+      </c>
+      <c r="H372" s="146">
+        <f>F372*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A372)*mbToGB*KBperGB)</f>
+        <v>0.94838160374613678</v>
+      </c>
+      <c r="I372" s="147">
+        <f>(F372*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A372))</f>
+        <v>1.1910590388228675</v>
+      </c>
+      <c r="J372" s="196">
+        <f t="shared" si="51"/>
+        <v>2.3999999999999995</v>
       </c>
     </row>
     <row r="373" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="97">
         <v>10</v>
       </c>
-      <c r="B373" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B373" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C373" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A373)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A373)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>3805.4744080935684</v>
-      </c>
-      <c r="D373" s="6">
-        <f>C373*1000/secondsPerBlock/avgTrSize</f>
-        <v>13.352541782784451</v>
-      </c>
-      <c r="E373" s="150">
-        <f>avgHops19*(C373*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.9252721884389471</v>
-      </c>
-      <c r="F373" s="192">
-        <f>avgHops19*C373*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A373)*mbToGB*KBperGB)</f>
-        <v>9.3331746006528812E-2</v>
-      </c>
-      <c r="G373" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A373)))/1000</f>
-        <v>1.3813960655545241</v>
-      </c>
-      <c r="H373" s="192">
-        <f t="shared" si="53"/>
+      <c r="C373" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A373))))/1000</f>
+        <v>1.1767673107648524</v>
+      </c>
+      <c r="D373" s="9">
+        <f>(B373 - C373)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A373)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>7494.8961677124544</v>
+      </c>
+      <c r="E373" s="9">
+        <f>(B373 - C373)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A373))/missingTransactionRate/1000</f>
+        <v>5585.876136404363</v>
+      </c>
+      <c r="F373" s="9">
+        <f t="shared" si="50"/>
+        <v>5585.876136404363</v>
+      </c>
+      <c r="G373" s="6">
+        <f>F373*1000/secondsPerBlock/avgTrSize</f>
+        <v>19.599565390892504</v>
+      </c>
+      <c r="H373" s="146">
+        <f>F373*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A373)*mbToGB*KBperGB)</f>
+        <v>0.91166390236381578</v>
+      </c>
+      <c r="I373" s="147">
+        <f>(F373*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A373))</f>
+        <v>1.2232326892351475</v>
+      </c>
+      <c r="J373" s="196">
+        <f t="shared" si="51"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13477,32 +13670,40 @@
       <c r="A374" s="97">
         <v>11</v>
       </c>
-      <c r="B374" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B374" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C374" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A374)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A374)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>4002.2569665715614</v>
-      </c>
-      <c r="D374" s="6">
-        <f>C374*1000/secondsPerBlock/avgTrSize</f>
-        <v>14.043006900251093</v>
-      </c>
-      <c r="E374" s="150">
-        <f>avgHops19*(C374*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>0.97311837238444976</v>
-      </c>
-      <c r="F374" s="192">
-        <f>avgHops19*C374*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A374)*mbToGB*KBperGB)</f>
-        <v>7.8526373450305026E-2</v>
-      </c>
-      <c r="G374" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A374)))/1000</f>
-        <v>1.348355254165245</v>
-      </c>
-      <c r="H374" s="192">
-        <f t="shared" si="53"/>
+      <c r="C374" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A374))))/1000</f>
+        <v>1.1455588698649413</v>
+      </c>
+      <c r="D374" s="9">
+        <f>(B374 - C374)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A374)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>9607.6426235274121</v>
+      </c>
+      <c r="E374" s="9">
+        <f>(B374 - C374)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A374))/missingTransactionRate/1000</f>
+        <v>6702.2152178916122</v>
+      </c>
+      <c r="F374" s="9">
+        <f t="shared" si="50"/>
+        <v>6702.2152178916122</v>
+      </c>
+      <c r="G374" s="6">
+        <f>F374*1000/secondsPerBlock/avgTrSize</f>
+        <v>23.516544624181098</v>
+      </c>
+      <c r="H374" s="146">
+        <f>F374*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A374)*mbToGB*KBperGB)</f>
+        <v>0.87508817321657884</v>
+      </c>
+      <c r="I374" s="147">
+        <f>(F374*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A374))</f>
+        <v>1.2544411301350586</v>
+      </c>
+      <c r="J374" s="196">
+        <f t="shared" si="51"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13510,98 +13711,122 @@
       <c r="A375" s="97">
         <v>12</v>
       </c>
-      <c r="B375" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B375" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C375" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A375)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A375)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>4186.7534872669521</v>
-      </c>
-      <c r="D375" s="6">
-        <f>C375*1000/secondsPerBlock/avgTrSize</f>
-        <v>14.690363113217375</v>
-      </c>
-      <c r="E375" s="150">
-        <f>avgHops19*(C375*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.017977299592087</v>
-      </c>
-      <c r="F375" s="192">
-        <f>avgHops19*C375*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A375)*mbToGB*KBperGB)</f>
-        <v>6.571703329026872E-2</v>
-      </c>
-      <c r="G375" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A375)))/1000</f>
-        <v>1.3163056671176441</v>
-      </c>
-      <c r="H375" s="192">
-        <f t="shared" si="53"/>
-        <v>2.4</v>
+      <c r="C375" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A375))))/1000</f>
+        <v>1.1152866821920273</v>
+      </c>
+      <c r="D375" s="9">
+        <f>(B375 - C375)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A375)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>12299.367956247066</v>
+      </c>
+      <c r="E375" s="9">
+        <f>(B375 - C375)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A375))/missingTransactionRate/1000</f>
+        <v>8030.8251878881592</v>
+      </c>
+      <c r="F375" s="9">
+        <f t="shared" si="50"/>
+        <v>8030.8251878881592</v>
+      </c>
+      <c r="G375" s="6">
+        <f>F375*1000/secondsPerBlock/avgTrSize</f>
+        <v>28.17833399259003</v>
+      </c>
+      <c r="H375" s="146">
+        <f>F375*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A375)*mbToGB*KBperGB)</f>
+        <v>0.83884863909834406</v>
+      </c>
+      <c r="I375" s="147">
+        <f>(F375*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A375))</f>
+        <v>1.2847133178079724</v>
+      </c>
+      <c r="J375" s="196">
+        <f t="shared" si="51"/>
+        <v>2.3999999999999995</v>
       </c>
     </row>
     <row r="376" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="97">
         <v>13</v>
       </c>
-      <c r="B376" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B376" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C376" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A376)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A376)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>4359.7358348141188</v>
-      </c>
-      <c r="D376" s="6">
-        <f>C376*1000/secondsPerBlock/avgTrSize</f>
-        <v>15.297318718646032</v>
-      </c>
-      <c r="E376" s="150">
-        <f>avgHops19*(C376*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.0600366430831019</v>
-      </c>
-      <c r="F376" s="192">
-        <f>avgHops19*C376*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A376)*mbToGB*KBperGB)</f>
-        <v>5.4745789235426993E-2</v>
-      </c>
-      <c r="G376" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A376)))/1000</f>
-        <v>1.2852175676814712</v>
-      </c>
-      <c r="H376" s="192">
-        <f t="shared" si="53"/>
-        <v>2.4000000000000004</v>
+      <c r="C376" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A376))))/1000</f>
+        <v>1.0859226601493006</v>
+      </c>
+      <c r="D376" s="9">
+        <f>(B376 - C376)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A376)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>15725.610240974665</v>
+      </c>
+      <c r="E376" s="9">
+        <f>(B376 - C376)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A376))/missingTransactionRate/1000</f>
+        <v>9610.8264361447527</v>
+      </c>
+      <c r="F376" s="9">
+        <f t="shared" si="50"/>
+        <v>9610.8264361447527</v>
+      </c>
+      <c r="G376" s="6">
+        <f>F376*1000/secondsPerBlock/avgTrSize</f>
+        <v>33.722198021560537</v>
+      </c>
+      <c r="H376" s="146">
+        <f>F376*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A376)*mbToGB*KBperGB)</f>
+        <v>0.80310837184993789</v>
+      </c>
+      <c r="I376" s="147">
+        <f>(F376*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A376))</f>
+        <v>1.3140773398506993</v>
+      </c>
+      <c r="J376" s="196">
+        <f t="shared" si="51"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="377" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="97">
         <v>14</v>
       </c>
-      <c r="B377" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B377" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C377" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A377)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A377)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>4522.0839575652526</v>
-      </c>
-      <c r="D377" s="6">
-        <f>C377*1000/secondsPerBlock/avgTrSize</f>
-        <v>15.866961254614921</v>
-      </c>
-      <c r="E377" s="150">
-        <f>avgHops19*(C377*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.099510355613506</v>
-      </c>
-      <c r="F377" s="192">
-        <f>avgHops19*C377*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A377)*mbToGB*KBperGB)</f>
-        <v>4.5427533158109899E-2</v>
-      </c>
-      <c r="G377" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A377)))/1000</f>
-        <v>1.255062111228384</v>
-      </c>
-      <c r="H377" s="192">
-        <f t="shared" si="53"/>
+      <c r="C377" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A377))))/1000</f>
+        <v>1.0574395587678558</v>
+      </c>
+      <c r="D377" s="9">
+        <f>(B377 - C377)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A377)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>20083.085659713157</v>
+      </c>
+      <c r="E377" s="9">
+        <f>(B377 - C377)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A377))/missingTransactionRate/1000</f>
+        <v>11488.399150960939</v>
+      </c>
+      <c r="F377" s="9">
+        <f t="shared" si="50"/>
+        <v>11488.399150960939</v>
+      </c>
+      <c r="G377" s="6">
+        <f>F377*1000/secondsPerBlock/avgTrSize</f>
+        <v>40.310172459512067</v>
+      </c>
+      <c r="H377" s="146">
+        <f>F377*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A377)*mbToGB*KBperGB)</f>
+        <v>0.7680030098216194</v>
+      </c>
+      <c r="I377" s="147">
+        <f>(F377*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A377))</f>
+        <v>1.3425604412321441</v>
+      </c>
+      <c r="J377" s="196">
+        <f t="shared" si="51"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13609,370 +13834,384 @@
       <c r="A378" s="97">
         <v>15</v>
       </c>
-      <c r="B378" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+      <c r="B378" s="143">
+        <f t="shared" si="52"/>
         <v>2.4</v>
       </c>
-      <c r="C378" s="9">
-        <f>((maximumMinerAdvantage*secondsPerBlock/targetMinerPercentHashpower)/avgHops19-3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A378)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*0.1*POWER(1+bandwidthGrowth,A378)*mbToGB*KBperGB)+(1/(averageRelayTps*0.1))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>4674.7093930486653</v>
-      </c>
-      <c r="D378" s="6">
-        <f>C378*1000/secondsPerBlock/avgTrSize</f>
-        <v>16.402489098416371</v>
-      </c>
-      <c r="E378" s="150">
-        <f>avgHops19*(C378*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$K$312)</f>
-        <v>1.1366200706074723</v>
-      </c>
-      <c r="F378" s="192">
-        <f>avgHops19*C378*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$K$312*POWER(1+bandwidthGrowth,A378)*mbToGB*KBperGB)</f>
-        <v>3.7568610923638612E-2</v>
-      </c>
-      <c r="G378" s="192">
-        <f>avgHops19*3*(avgLatencyPerHop-(avgLatencyPerHop-$H$11)*(1-POWER(1+latencyGrowth,A378)))/1000</f>
-        <v>1.2258113184688888</v>
-      </c>
-      <c r="H378" s="192">
-        <f t="shared" si="53"/>
-        <v>2.3999999999999995</v>
+      <c r="C378" s="187">
+        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A378))))/1000</f>
+        <v>1.0298109504278543</v>
+      </c>
+      <c r="D378" s="9">
+        <f>(B378 - C378)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A378)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>25620.470415566419</v>
+      </c>
+      <c r="E378" s="9">
+        <f>(B378 - C378)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A378))/missingTransactionRate/1000</f>
+        <v>13718.038703864471</v>
+      </c>
+      <c r="F378" s="9">
+        <f t="shared" si="50"/>
+        <v>13718.038703864471</v>
+      </c>
+      <c r="G378" s="6">
+        <f>F378*1000/secondsPerBlock/avgTrSize</f>
+        <v>48.133469136366564</v>
+      </c>
+      <c r="H378" s="146">
+        <f>F378*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A378)*mbToGB*KBperGB)</f>
+        <v>0.73364407869036463</v>
+      </c>
+      <c r="I378" s="147">
+        <f>(F378*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A378))</f>
+        <v>1.3701890495721456</v>
+      </c>
+      <c r="J378" s="196">
+        <f t="shared" si="51"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="379" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="145"/>
+      <c r="B379" s="143"/>
       <c r="C379" s="9"/>
-      <c r="D379" s="150"/>
-      <c r="E379" s="149"/>
-      <c r="F379" s="149"/>
-      <c r="G379" s="151"/>
+      <c r="D379" s="147"/>
+      <c r="E379" s="146"/>
+      <c r="F379" s="146"/>
+      <c r="G379" s="148"/>
     </row>
     <row r="380" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B380" s="163"/>
-      <c r="C380" s="164" t="s">
-        <v>163</v>
-      </c>
-      <c r="D380" s="98"/>
-      <c r="E380" s="163"/>
-      <c r="F380" s="171"/>
-      <c r="G380" s="164" t="s">
-        <v>153</v>
-      </c>
-      <c r="H380" s="98"/>
-      <c r="I380" s="163"/>
-      <c r="J380" s="173" t="s">
-        <v>153</v>
+      <c r="B380" s="157"/>
+      <c r="C380" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="D380" s="173"/>
+      <c r="E380" s="157"/>
+      <c r="F380" s="165"/>
+      <c r="G380" s="158" t="s">
+        <v>145</v>
+      </c>
+      <c r="H380" s="173"/>
+      <c r="I380" s="157"/>
+      <c r="J380" s="167" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="381" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B381" s="165" t="s">
+      <c r="B381" s="159" t="s">
+        <v>134</v>
+      </c>
+      <c r="C381" s="160" t="s">
+        <v>134</v>
+      </c>
+      <c r="D381" s="173"/>
+      <c r="E381" s="159" t="s">
+        <v>32</v>
+      </c>
+      <c r="F381" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="G381" s="160" t="s">
+        <v>146</v>
+      </c>
+      <c r="H381" s="173"/>
+      <c r="I381" s="159" t="s">
+        <v>32</v>
+      </c>
+      <c r="J381" s="160" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B382" s="161">
+        <v>40</v>
+      </c>
+      <c r="C382" s="162">
+        <f>(avgHops19-1+3)*B382/1000</f>
+        <v>0.28396252649193254</v>
+      </c>
+      <c r="E382" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F382" s="170">
+        <v>1000</v>
+      </c>
+      <c r="G382" s="162">
+        <f>(E382*missingTransactionRate*1000/avgTrSize)/(F382*ongoingResourcePercent90thP1)</f>
+        <v>0.4210526315789474</v>
+      </c>
+      <c r="I382" s="168">
+        <v>1000</v>
+      </c>
+      <c r="J382" s="162">
+        <f>I382*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="161">
+        <v>50</v>
+      </c>
+      <c r="C383" s="162">
+        <f>(avgHops19-1+3)*B383/1000</f>
+        <v>0.35495315811491568</v>
+      </c>
+      <c r="E383" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F383" s="170">
+        <v>2000</v>
+      </c>
+      <c r="G383" s="162">
+        <f>(E383*missingTransactionRate*1000/avgTrSize)/(F383*ongoingResourcePercent90thP1)</f>
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="I383" s="168">
+        <v>2000</v>
+      </c>
+      <c r="J383" s="162">
+        <f>I383*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="161">
+        <v>60</v>
+      </c>
+      <c r="C384" s="162">
+        <f>(avgHops19-1+3)*B384/1000</f>
+        <v>0.42594378973789876</v>
+      </c>
+      <c r="E384" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F384" s="170">
+        <v>3000</v>
+      </c>
+      <c r="G384" s="162">
+        <f>(E384*missingTransactionRate*1000/avgTrSize)/(F384*ongoingResourcePercent90thP1)</f>
+        <v>0.14035087719298248</v>
+      </c>
+      <c r="I384" s="168">
+        <v>3000</v>
+      </c>
+      <c r="J384" s="162">
+        <f>I384*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B385" s="161">
+        <v>70</v>
+      </c>
+      <c r="C385" s="162">
+        <f>(avgHops19-1+3)*B385/1000</f>
+        <v>0.49693442136088189</v>
+      </c>
+      <c r="E385" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F385" s="170">
+        <v>4000</v>
+      </c>
+      <c r="G385" s="162">
+        <f>(E385*missingTransactionRate*1000/avgTrSize)/(F385*ongoingResourcePercent90thP1)</f>
+        <v>0.10526315789473685</v>
+      </c>
+      <c r="I385" s="168">
+        <v>4000</v>
+      </c>
+      <c r="J385" s="162">
+        <f>I385*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B386" s="161">
+        <v>80</v>
+      </c>
+      <c r="C386" s="162">
+        <f>(avgHops19-1+3)*B386/1000</f>
+        <v>0.56792505298386509</v>
+      </c>
+      <c r="E386" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F386" s="170">
+        <v>5000</v>
+      </c>
+      <c r="G386" s="162">
+        <f>(E386*missingTransactionRate*1000/avgTrSize)/(F386*ongoingResourcePercent90thP1)</f>
+        <v>8.4210526315789486E-2</v>
+      </c>
+      <c r="I386" s="168">
+        <v>5000</v>
+      </c>
+      <c r="J386" s="162">
+        <f>I386*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B387" s="161">
+        <v>90</v>
+      </c>
+      <c r="C387" s="162">
+        <f>(avgHops19-1+3)*B387/1000</f>
+        <v>0.63891568460684811</v>
+      </c>
+      <c r="E387" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F387" s="170">
+        <v>6000</v>
+      </c>
+      <c r="G387" s="162">
+        <f>(E387*missingTransactionRate*1000/avgTrSize)/(F387*ongoingResourcePercent90thP1)</f>
+        <v>7.0175438596491238E-2</v>
+      </c>
+      <c r="I387" s="168">
+        <v>6000</v>
+      </c>
+      <c r="J387" s="162">
+        <f>I387*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B388" s="161">
+        <v>100</v>
+      </c>
+      <c r="C388" s="162">
+        <f>(avgHops19-1+3)*B388/1000</f>
+        <v>0.70990631622983136</v>
+      </c>
+      <c r="E388" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F388" s="170">
+        <v>7000</v>
+      </c>
+      <c r="G388" s="162">
+        <f>(E388*missingTransactionRate*1000/avgTrSize)/(F388*ongoingResourcePercent90thP1)</f>
+        <v>6.0150375939849628E-2</v>
+      </c>
+      <c r="I388" s="168">
+        <v>7000</v>
+      </c>
+      <c r="J388" s="162">
+        <f>I388*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B389" s="161">
+        <v>110</v>
+      </c>
+      <c r="C389" s="162">
+        <f>(avgHops19-1+3)*B389/1000</f>
+        <v>0.78089694785281438</v>
+      </c>
+      <c r="E389" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F389" s="170">
+        <v>8000</v>
+      </c>
+      <c r="G389" s="162">
+        <f>(E389*missingTransactionRate*1000/avgTrSize)/(F389*ongoingResourcePercent90thP1)</f>
+        <v>5.2631578947368425E-2</v>
+      </c>
+      <c r="I389" s="168">
+        <v>8000</v>
+      </c>
+      <c r="J389" s="162">
+        <f>I389*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B390" s="161">
+        <v>120</v>
+      </c>
+      <c r="C390" s="162">
+        <f>(avgHops19-1+3)*B390/1000</f>
+        <v>0.85188757947579752</v>
+      </c>
+      <c r="E390" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F390" s="170">
+        <v>9000</v>
+      </c>
+      <c r="G390" s="162">
+        <f>(E390*missingTransactionRate*1000/avgTrSize)/(F390*ongoingResourcePercent90thP1)</f>
+        <v>4.6783625730994156E-2</v>
+      </c>
+      <c r="I390" s="168">
+        <v>9000</v>
+      </c>
+      <c r="J390" s="162">
+        <f>I390*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B391" s="161">
+        <v>130</v>
+      </c>
+      <c r="C391" s="162">
+        <f>(avgHops19-1+3)*B391/1000</f>
+        <v>0.92287821109878065</v>
+      </c>
+      <c r="E391" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F391" s="170">
+        <v>10000</v>
+      </c>
+      <c r="G391" s="162">
+        <f>(E391*missingTransactionRate*1000/avgTrSize)/(F391*ongoingResourcePercent90thP1)</f>
+        <v>4.2105263157894743E-2</v>
+      </c>
+      <c r="I391" s="168">
+        <v>10000</v>
+      </c>
+      <c r="J391" s="162">
+        <f>I391*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B392" s="163">
         <v>140</v>
       </c>
-      <c r="C381" s="166" t="s">
-        <v>140</v>
-      </c>
-      <c r="D381" s="98"/>
-      <c r="E381" s="165" t="s">
-        <v>32</v>
-      </c>
-      <c r="F381" s="172" t="s">
-        <v>104</v>
-      </c>
-      <c r="G381" s="166" t="s">
-        <v>154</v>
-      </c>
-      <c r="H381" s="98"/>
-      <c r="I381" s="165" t="s">
-        <v>32</v>
-      </c>
-      <c r="J381" s="166" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B382" s="167">
-        <v>40</v>
-      </c>
-      <c r="C382" s="168">
-        <f>avgHops19*3*B382/1000</f>
-        <v>0.74676182909836197</v>
-      </c>
-      <c r="E382" s="174">
+      <c r="C392" s="164">
+        <f>(avgHops19-1+3)*B392/1000</f>
+        <v>0.99386884272176379</v>
+      </c>
+      <c r="E392" s="169">
         <v>2000</v>
       </c>
-      <c r="F382" s="176">
-        <v>1000</v>
-      </c>
-      <c r="G382" s="168">
-        <f>avgHops19*(E382*missingTransactionRate*1000/avgTrSize)/(F382*0.1)</f>
-        <v>2.6202169442047789</v>
-      </c>
-      <c r="I382" s="174">
-        <v>1000</v>
-      </c>
-      <c r="J382" s="168">
-        <f>avgHops19*I382*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.1142064729160847</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="167">
-        <v>50</v>
-      </c>
-      <c r="C383" s="168">
-        <f>avgHops19*3*B383/1000</f>
-        <v>0.93345228637295252</v>
-      </c>
-      <c r="E383" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F383" s="176">
-        <v>2000</v>
-      </c>
-      <c r="G383" s="168">
-        <f>avgHops19*(E383*missingTransactionRate*1000/avgTrSize)/(F383*0.1)</f>
-        <v>1.3101084721023895</v>
-      </c>
-      <c r="I383" s="174">
-        <v>2000</v>
-      </c>
-      <c r="J383" s="168">
-        <f>avgHops19*I383*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.2284129458321694</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="167">
-        <v>60</v>
-      </c>
-      <c r="C384" s="168">
-        <f>avgHops19*3*B384/1000</f>
-        <v>1.1201427436475431</v>
-      </c>
-      <c r="E384" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F384" s="176">
-        <v>3000</v>
-      </c>
-      <c r="G384" s="168">
-        <f>avgHops19*(E384*missingTransactionRate*1000/avgTrSize)/(F384*0.1)</f>
-        <v>0.87340564806825971</v>
-      </c>
-      <c r="I384" s="174">
-        <v>3000</v>
-      </c>
-      <c r="J384" s="168">
-        <f>avgHops19*I384*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.34261941874825413</v>
-      </c>
-    </row>
-    <row r="385" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B385" s="167">
-        <v>70</v>
-      </c>
-      <c r="C385" s="168">
-        <f>avgHops19*3*B385/1000</f>
-        <v>1.3068332009221335</v>
-      </c>
-      <c r="E385" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F385" s="176">
-        <v>4000</v>
-      </c>
-      <c r="G385" s="168">
-        <f>avgHops19*(E385*missingTransactionRate*1000/avgTrSize)/(F385*0.1)</f>
-        <v>0.65505423605119473</v>
-      </c>
-      <c r="I385" s="174">
-        <v>4000</v>
-      </c>
-      <c r="J385" s="168">
-        <f>avgHops19*I385*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.45682589166433879</v>
-      </c>
-    </row>
-    <row r="386" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B386" s="167">
-        <v>80</v>
-      </c>
-      <c r="C386" s="168">
-        <f>avgHops19*3*B386/1000</f>
-        <v>1.4935236581967239</v>
-      </c>
-      <c r="E386" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F386" s="176">
-        <v>5000</v>
-      </c>
-      <c r="G386" s="168">
-        <f>avgHops19*(E386*missingTransactionRate*1000/avgTrSize)/(F386*0.1)</f>
-        <v>0.5240433888409558</v>
-      </c>
-      <c r="I386" s="174">
-        <v>5000</v>
-      </c>
-      <c r="J386" s="168">
-        <f>avgHops19*I386*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.5710323645804235</v>
-      </c>
-    </row>
-    <row r="387" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B387" s="167">
-        <v>90</v>
-      </c>
-      <c r="C387" s="168">
-        <f>avgHops19*3*B387/1000</f>
-        <v>1.6802141154713144</v>
-      </c>
-      <c r="E387" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F387" s="176">
-        <v>6000</v>
-      </c>
-      <c r="G387" s="168">
-        <f>avgHops19*(E387*missingTransactionRate*1000/avgTrSize)/(F387*0.1)</f>
-        <v>0.43670282403412986</v>
-      </c>
-      <c r="I387" s="174">
-        <v>6000</v>
-      </c>
-      <c r="J387" s="168">
-        <f>avgHops19*I387*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.68523883749650827</v>
-      </c>
-    </row>
-    <row r="388" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B388" s="167">
-        <v>100</v>
-      </c>
-      <c r="C388" s="168">
-        <f>avgHops19*3*B388/1000</f>
-        <v>1.866904572745905</v>
-      </c>
-      <c r="E388" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F388" s="176">
-        <v>7000</v>
-      </c>
-      <c r="G388" s="168">
-        <f>avgHops19*(E388*missingTransactionRate*1000/avgTrSize)/(F388*0.1)</f>
-        <v>0.37431670631496844</v>
-      </c>
-      <c r="I388" s="174">
-        <v>7000</v>
-      </c>
-      <c r="J388" s="168">
-        <f>avgHops19*I388*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.79944531041259304</v>
-      </c>
-    </row>
-    <row r="389" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B389" s="167">
-        <v>110</v>
-      </c>
-      <c r="C389" s="168">
-        <f>avgHops19*3*B389/1000</f>
-        <v>2.0535950300204955</v>
-      </c>
-      <c r="E389" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F389" s="176">
-        <v>8000</v>
-      </c>
-      <c r="G389" s="168">
-        <f>avgHops19*(E389*missingTransactionRate*1000/avgTrSize)/(F389*0.1)</f>
-        <v>0.32752711802559736</v>
-      </c>
-      <c r="I389" s="174">
-        <v>8000</v>
-      </c>
-      <c r="J389" s="168">
-        <f>avgHops19*I389*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.91365178332867758</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B390" s="167">
-        <v>120</v>
-      </c>
-      <c r="C390" s="168">
-        <f>avgHops19*3*B390/1000</f>
-        <v>2.2402854872950861</v>
-      </c>
-      <c r="E390" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F390" s="176">
-        <v>9000</v>
-      </c>
-      <c r="G390" s="168">
-        <f>avgHops19*(E390*missingTransactionRate*1000/avgTrSize)/(F390*0.1)</f>
-        <v>0.29113521602275322</v>
-      </c>
-      <c r="I390" s="174">
-        <v>9000</v>
-      </c>
-      <c r="J390" s="168">
-        <f>avgHops19*I390*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>1.0278582562447625</v>
-      </c>
-    </row>
-    <row r="391" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="167">
-        <v>130</v>
-      </c>
-      <c r="C391" s="168">
-        <f>avgHops19*3*B391/1000</f>
-        <v>2.4269759445696764</v>
-      </c>
-      <c r="E391" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F391" s="176">
-        <v>10000</v>
-      </c>
-      <c r="G391" s="168">
-        <f>avgHops19*(E391*missingTransactionRate*1000/avgTrSize)/(F391*0.1)</f>
-        <v>0.2620216944204779</v>
-      </c>
-      <c r="I391" s="174">
-        <v>10000</v>
-      </c>
-      <c r="J391" s="168">
-        <f>avgHops19*I391*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>1.142064729160847</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B392" s="169">
-        <v>140</v>
-      </c>
-      <c r="C392" s="170">
-        <f>avgHops19*3*B392/1000</f>
-        <v>2.613666401844267</v>
-      </c>
-      <c r="E392" s="175">
-        <v>2000</v>
-      </c>
-      <c r="F392" s="177">
+      <c r="F392" s="171">
         <v>11000</v>
       </c>
-      <c r="G392" s="170">
-        <f>avgHops19*(E392*missingTransactionRate*1000/avgTrSize)/(F392*0.1)</f>
-        <v>0.23820154038225264</v>
-      </c>
-      <c r="I392" s="175">
+      <c r="G392" s="164">
+        <f>(E392*missingTransactionRate*1000/avgTrSize)/(F392*ongoingResourcePercent90thP1)</f>
+        <v>3.8277511961722493E-2</v>
+      </c>
+      <c r="I392" s="169">
         <v>11000</v>
       </c>
-      <c r="J392" s="170">
-        <f>avgHops19*I392*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>1.2562712020769318</v>
-      </c>
+      <c r="J392" s="164">
+        <f>I392*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B393" s="39"/>
+      <c r="C393" s="7"/>
+      <c r="D393" s="93"/>
+      <c r="E393" s="39"/>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
@@ -13980,9 +14219,9 @@
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A395" s="182"/>
-      <c r="B395" s="182"/>
-      <c r="C395" s="182"/>
+      <c r="A395" s="176"/>
+      <c r="B395" s="176"/>
+      <c r="C395" s="176"/>
       <c r="D395" s="5" t="s">
         <v>67</v>
       </c>
@@ -14000,11 +14239,11 @@
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A396" s="184" t="s">
+      <c r="A396" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B396" s="184"/>
-      <c r="C396" s="184"/>
+      <c r="B396" s="178"/>
+      <c r="C396" s="178"/>
       <c r="D396" s="49" t="str">
         <f>A77</f>
         <v>90th %ile</v>
@@ -14024,11 +14263,11 @@
       <c r="H396" s="120"/>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A397" s="183" t="s">
+      <c r="A397" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="B397" s="183"/>
-      <c r="C397" s="183"/>
+      <c r="B397" s="177"/>
+      <c r="C397" s="177"/>
       <c r="D397" s="2" t="str">
         <f>A53</f>
         <v>90th %ile</v>
@@ -14048,73 +14287,73 @@
       <c r="H397" s="116"/>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A398" s="183" t="s">
+      <c r="A398" s="172"/>
+      <c r="B398" s="172"/>
+      <c r="C398" s="172" t="s">
+        <v>169</v>
+      </c>
+      <c r="D398" s="188" t="s">
+        <v>170</v>
+      </c>
+      <c r="E398" s="57">
+        <f>G363</f>
+        <v>1.9686470931056608</v>
+      </c>
+      <c r="F398" s="190">
+        <f>F363</f>
+        <v>561.06442153511341</v>
+      </c>
+      <c r="G398" s="55"/>
+      <c r="H398" s="191"/>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="B398" s="183"/>
-      <c r="C398" s="183"/>
-      <c r="D398" s="2" t="str">
+      <c r="B399" s="177"/>
+      <c r="C399" s="177"/>
+      <c r="D399" s="2" t="str">
         <f>A261</f>
         <v>10th %ile</v>
       </c>
-      <c r="E398" s="44">
+      <c r="E399" s="44">
         <f>F266</f>
         <v>3.2377366551843845</v>
       </c>
-      <c r="F398" s="13">
+      <c r="F399" s="13">
         <f>E266</f>
         <v>922.75494672754951</v>
       </c>
-      <c r="G398" s="35">
+      <c r="G399" s="35">
         <f>C265</f>
         <v>197</v>
       </c>
-      <c r="H398" s="116"/>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A399" s="183" t="s">
+      <c r="H399" s="116"/>
+    </row>
+    <row r="400" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="B399" s="183"/>
-      <c r="C399" s="183"/>
-      <c r="D399" s="2" t="str">
+      <c r="B400" s="177"/>
+      <c r="C400" s="177"/>
+      <c r="D400" s="2" t="str">
         <f>A286</f>
         <v>90th %ile</v>
       </c>
-      <c r="E399" s="57"/>
-      <c r="F399" s="56"/>
-      <c r="G399" s="55"/>
-      <c r="H399" s="53">
+      <c r="E400" s="57"/>
+      <c r="F400" s="56"/>
+      <c r="G400" s="55"/>
+      <c r="H400" s="53">
         <f>C291</f>
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="400" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="178"/>
-      <c r="B400" s="178"/>
-      <c r="C400" s="178" t="s">
-        <v>177</v>
-      </c>
-      <c r="D400" s="193" t="s">
-        <v>178</v>
-      </c>
-      <c r="E400" s="57">
-        <f>D363</f>
-        <v>4.661250050642229</v>
-      </c>
-      <c r="F400" s="194">
-        <f>C363</f>
-        <v>1328.4562644330354</v>
-      </c>
-      <c r="G400" s="55"/>
-      <c r="H400" s="195"/>
-    </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A401" s="183" t="s">
+      <c r="A401" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="B401" s="183"/>
-      <c r="C401" s="183"/>
+      <c r="B401" s="177"/>
+      <c r="C401" s="177"/>
       <c r="D401" s="2" t="str">
         <f>A101</f>
         <v>90th %ile</v>
@@ -14134,11 +14373,11 @@
       <c r="H401" s="116"/>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A402" s="183" t="s">
+      <c r="A402" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="B402" s="183"/>
-      <c r="C402" s="183"/>
+      <c r="B402" s="177"/>
+      <c r="C402" s="177"/>
       <c r="D402" s="2" t="str">
         <f>A165</f>
         <v>90th %ile</v>
@@ -14155,11 +14394,11 @@
       <c r="H402" s="116"/>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A403" s="183" t="s">
+      <c r="A403" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="B403" s="183"/>
-      <c r="C403" s="183"/>
+      <c r="B403" s="177"/>
+      <c r="C403" s="177"/>
       <c r="D403" s="2" t="str">
         <f>A213</f>
         <v>90th %ile</v>
@@ -14176,11 +14415,11 @@
       <c r="H403" s="116"/>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A404" s="183" t="s">
+      <c r="A404" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="B404" s="183"/>
-      <c r="C404" s="183"/>
+      <c r="B404" s="177"/>
+      <c r="C404" s="177"/>
       <c r="D404" s="2" t="str">
         <f>A237</f>
         <v>90th %ile</v>
@@ -14194,13 +14433,13 @@
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A405" s="183" t="s">
+      <c r="A405" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="B405" s="183"/>
-      <c r="C405" s="183"/>
+      <c r="B405" s="177"/>
+      <c r="C405" s="177"/>
       <c r="D405" s="99" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E405" s="45">
         <f>D193</f>
@@ -14214,9 +14453,8 @@
       <c r="H405" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A315:C315"/>
     <mergeCell ref="A395:C395"/>
     <mergeCell ref="A404:C404"/>
     <mergeCell ref="A405:C405"/>
@@ -14224,8 +14462,8 @@
     <mergeCell ref="A396:C396"/>
     <mergeCell ref="A401:C401"/>
     <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A400:C400"/>
     <mergeCell ref="A399:C399"/>
-    <mergeCell ref="A398:C398"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="H8:K8"/>
   </mergeCells>
@@ -14253,23 +14491,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F396:F398 F400:F403">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="F401:F403 F396:F399">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>$C$19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E396:E398 E400:E403">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
-      <formula>$C$19*1000/$C$10/$F$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G396:G398 G401">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="G401 G396:G397 G399">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>$B$19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H404 H399">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="H404 H400">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>$D$19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14321,6 +14554,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E401:E403 E396:E399">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="lessThan">
+      <formula>$C$19*1000/$C$10/$A$15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -14330,10 +14568,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L261"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="G265" sqref="G265"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="J210" sqref="J210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14362,10 +14600,10 @@
         <v>75</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J1" s="71" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>15</v>
@@ -14376,7 +14614,7 @@
     </row>
     <row r="2" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>1</v>
@@ -14390,8 +14628,8 @@
       <c r="E2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="179" t="s">
-        <v>140</v>
+      <c r="F2" s="173" t="s">
+        <v>134</v>
       </c>
       <c r="G2" s="68" t="s">
         <v>57</v>
@@ -14414,7 +14652,7 @@
     </row>
     <row r="3" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="74">
         <v>1000</v>
@@ -14428,7 +14666,7 @@
       <c r="E3" s="76">
         <v>50000</v>
       </c>
-      <c r="F3" s="146">
+      <c r="F3" s="144">
         <v>90</v>
       </c>
       <c r="G3" s="79">
@@ -14453,7 +14691,7 @@
     </row>
     <row r="4" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="74">
         <v>50</v>
@@ -14467,7 +14705,7 @@
       <c r="E4" s="76">
         <v>5000</v>
       </c>
-      <c r="F4" s="146">
+      <c r="F4" s="144">
         <v>130</v>
       </c>
       <c r="G4" s="79">
@@ -14493,7 +14731,7 @@
     </row>
     <row r="5" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="74">
         <v>1</v>
@@ -14507,7 +14745,7 @@
       <c r="E5" s="76">
         <v>200</v>
       </c>
-      <c r="F5" s="146">
+      <c r="F5" s="144">
         <v>250</v>
       </c>
       <c r="G5" s="79">
@@ -14545,14 +14783,14 @@
       <c r="E6" s="78">
         <v>0.17</v>
       </c>
-      <c r="F6" s="190">
+      <c r="F6" s="184">
         <v>-0.03</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -14597,7 +14835,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" s="130">
         <f>$B$5</f>
@@ -14615,7 +14853,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F12" s="147">
+      <c r="F12" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -14681,7 +14919,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15" s="86" t="s">
         <v>35</v>
@@ -15196,7 +15434,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="71" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
@@ -15243,7 +15481,7 @@
     </row>
     <row r="36" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B36" s="130">
         <f>$B$5</f>
@@ -15261,7 +15499,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F36" s="147">
+      <c r="F36" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -15296,13 +15534,13 @@
     <row r="38" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="71"/>
       <c r="B38" s="68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D38" s="98" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E38" s="98" t="s">
         <v>31</v>
@@ -15731,7 +15969,7 @@
     <row r="56" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="71" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
@@ -15764,7 +16002,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="97"/>
-      <c r="F59" s="196"/>
+      <c r="F59" s="192"/>
       <c r="G59" s="106" t="s">
         <v>57</v>
       </c>
@@ -15778,7 +16016,7 @@
     </row>
     <row r="60" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B60" s="130">
         <f>$B$5</f>
@@ -15796,7 +16034,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F60" s="147">
+      <c r="F60" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -15827,14 +16065,14 @@
     </row>
     <row r="61" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="71"/>
-      <c r="F61" s="188"/>
+      <c r="F61" s="182"/>
     </row>
     <row r="62" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="86" t="s">
         <v>31</v>
       </c>
       <c r="C62" s="86" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
@@ -16195,7 +16433,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="71" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -16242,7 +16480,7 @@
     </row>
     <row r="84" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B84" s="130">
         <f>$B$5</f>
@@ -16260,7 +16498,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F84" s="147">
+      <c r="F84" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -16295,10 +16533,10 @@
         <v>31</v>
       </c>
       <c r="C86" s="86" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D86" s="98" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F86" s="86" t="s">
         <v>31</v>
@@ -16726,7 +16964,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="102" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B105" s="97"/>
       <c r="C105" s="97"/>
@@ -16757,20 +16995,20 @@
         <v>32</v>
       </c>
       <c r="G107" s="98" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H107" s="98" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="184" t="s">
+      <c r="A108" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="184"/>
-      <c r="C108" s="184"/>
+      <c r="B108" s="178"/>
+      <c r="C108" s="178"/>
       <c r="D108" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E108" s="111">
         <v>0.8446313225664035</v>
@@ -16784,13 +17022,13 @@
       <c r="H108" s="116"/>
     </row>
     <row r="109" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="184" t="s">
+      <c r="A109" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="B109" s="184"/>
-      <c r="C109" s="184"/>
+      <c r="B109" s="178"/>
+      <c r="C109" s="178"/>
       <c r="D109" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E109" s="111">
         <v>4.9000000000000004</v>
@@ -16804,13 +17042,13 @@
       <c r="H109" s="116"/>
     </row>
     <row r="110" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="183" t="s">
-        <v>101</v>
-      </c>
-      <c r="B110" s="183"/>
-      <c r="C110" s="183"/>
+      <c r="A110" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" s="177"/>
+      <c r="C110" s="177"/>
       <c r="D110" s="95" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E110" s="107">
         <f>F40</f>
@@ -16827,13 +17065,13 @@
       <c r="H110" s="116"/>
     </row>
     <row r="111" spans="1:8" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="183" t="s">
-        <v>100</v>
-      </c>
-      <c r="B111" s="183"/>
-      <c r="C111" s="183"/>
+      <c r="A111" s="177" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111" s="177"/>
+      <c r="C111" s="177"/>
       <c r="D111" s="95" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E111" s="107">
         <f>E64</f>
@@ -16849,13 +17087,13 @@
       <c r="H111" s="116"/>
     </row>
     <row r="112" spans="1:8" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="183" t="s">
-        <v>95</v>
-      </c>
-      <c r="B112" s="183"/>
-      <c r="C112" s="183"/>
+      <c r="A112" s="177" t="s">
+        <v>92</v>
+      </c>
+      <c r="B112" s="177"/>
+      <c r="C112" s="177"/>
       <c r="D112" s="95" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E112" s="107">
         <f>F16</f>
@@ -16871,13 +17109,13 @@
       <c r="H112" s="116"/>
     </row>
     <row r="113" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="183" t="s">
-        <v>99</v>
-      </c>
-      <c r="B113" s="183"/>
-      <c r="C113" s="183"/>
+      <c r="A113" s="177" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" s="177"/>
+      <c r="C113" s="177"/>
       <c r="D113" s="95" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E113" s="107">
         <f>E88</f>
@@ -16904,7 +17142,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="102" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -16917,7 +17155,7 @@
     </row>
     <row r="120" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="99" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B120" s="130">
         <f>$B$4</f>
@@ -16935,7 +17173,7 @@
         <f>$E$4</f>
         <v>5000</v>
       </c>
-      <c r="F120" s="147">
+      <c r="F120" s="145">
         <f>$F$4</f>
         <v>130</v>
       </c>
@@ -16967,52 +17205,52 @@
     <row r="121" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G122" s="98" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="98" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B123" s="98" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C123" s="98"/>
       <c r="D123" s="98" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E123" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="F123" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="G123" s="98" t="s">
         <v>115</v>
-      </c>
-      <c r="F123" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="G123" s="98" t="s">
-        <v>118</v>
       </c>
       <c r="H123" s="98"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="98" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B124" s="98" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C124" s="98" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D124" s="98" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E124" s="98" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F124" s="98" t="s">
         <v>57</v>
       </c>
       <c r="G124" s="98" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H124" s="98"/>
     </row>
@@ -17044,7 +17282,7 @@
     </row>
     <row r="127" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="102" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -17064,7 +17302,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="98" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C129" s="98" t="s">
         <v>35</v>
@@ -17482,21 +17720,21 @@
     <row r="146" spans="1:6" s="97" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="147" spans="1:6" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="102" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="97" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="98" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C150" s="98" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D150" s="98" t="s">
         <v>31</v>
@@ -17510,16 +17748,16 @@
         <v>7</v>
       </c>
       <c r="B151" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C151" s="98" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D151" s="98" t="s">
         <v>32</v>
       </c>
       <c r="E151" s="98" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -17560,7 +17798,7 @@
         <v>234.375</v>
       </c>
       <c r="E153" s="100">
-        <f t="shared" ref="E152:E167" si="28">D153*1000*1000/secondsPerBlock/(2*(endGameTransactionSize+C153))</f>
+        <f t="shared" ref="E153:E167" si="28">D153*1000*1000/secondsPerBlock/(2*(endGameTransactionSize+C153))</f>
         <v>169.89052687530844</v>
       </c>
     </row>
@@ -17860,13 +18098,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="102" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="97"/>
       <c r="B171" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C171" s="97"/>
       <c r="D171" s="97"/>
@@ -17875,10 +18113,10 @@
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="97"/>
       <c r="B172" s="98" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C172" s="98" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D172" s="98" t="s">
         <v>31</v>
@@ -17892,16 +18130,16 @@
         <v>7</v>
       </c>
       <c r="B173" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C173" s="98" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D173" s="98" t="s">
         <v>32</v>
       </c>
       <c r="E173" s="98" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -17967,7 +18205,7 @@
         <v>1592.7236894560167</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="97">
         <v>3</v>
       </c>
@@ -17988,7 +18226,7 @@
         <v>2108.2715131855939</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="97">
         <v>4</v>
       </c>
@@ -18009,7 +18247,7 @@
         <v>2635.3393914819922</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="97">
         <v>5</v>
       </c>
@@ -18030,7 +18268,7 @@
         <v>3294.1742393524901</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="97">
         <v>6</v>
       </c>
@@ -18051,7 +18289,7 @@
         <v>4117.7177991906128</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="97">
         <v>7</v>
       </c>
@@ -18072,7 +18310,7 @@
         <v>5147.1472489882663</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="97">
         <v>8</v>
       </c>
@@ -18092,8 +18330,11 @@
         <f t="shared" si="32"/>
         <v>6836.984877957053</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="97">
         <v>9</v>
       </c>
@@ -18114,7 +18355,7 @@
         <v>8546.2310974463162</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="97">
         <v>10</v>
       </c>
@@ -18135,7 +18376,7 @@
         <v>10682.788871807896</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="97">
         <v>11</v>
       </c>
@@ -18156,7 +18397,7 @@
         <v>13353.48608975987</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="97">
         <v>12</v>
       </c>
@@ -18177,7 +18418,7 @@
         <v>16691.857612199838</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="97">
         <v>13</v>
       </c>
@@ -18198,7 +18439,7 @@
         <v>22259.241905843781</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="97">
         <v>14</v>
       </c>
@@ -18219,7 +18460,7 @@
         <v>27824.052382304726</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="97">
         <v>15</v>
       </c>
@@ -18240,21 +18481,21 @@
         <v>34780.065477880904</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C190" s="124"/>
       <c r="D190" s="113"/>
       <c r="E190" s="100"/>
     </row>
-    <row r="191" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B191" s="39"/>
       <c r="C191" s="7"/>
       <c r="D191" s="93"/>
       <c r="E191" s="39"/>
     </row>
-    <row r="192" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="G192" s="106" t="s">
         <v>76</v>
@@ -18265,7 +18506,7 @@
     </row>
     <row r="193" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="99" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C193" s="106" t="s">
         <v>2</v>
@@ -18274,7 +18515,7 @@
         <v>3</v>
       </c>
       <c r="F193" s="106" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G193" s="106" t="s">
         <v>57</v>
@@ -18304,7 +18545,7 @@
         <f>$E$3</f>
         <v>50000</v>
       </c>
-      <c r="F194" s="147">
+      <c r="F194" s="145">
         <f>$F$3</f>
         <v>90</v>
       </c>
@@ -18335,7 +18576,7 @@
     </row>
     <row r="195" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="99" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B195" s="130">
         <f>$B$4</f>
@@ -18353,7 +18594,7 @@
         <f>$E$4</f>
         <v>5000</v>
       </c>
-      <c r="F195" s="147">
+      <c r="F195" s="145">
         <f>$F$4</f>
         <v>130</v>
       </c>
@@ -18403,7 +18644,7 @@
         <f>$E$5</f>
         <v>200</v>
       </c>
-      <c r="F196" s="147">
+      <c r="F196" s="145">
         <f>$F$5</f>
         <v>250</v>
       </c>
@@ -18439,1449 +18680,1515 @@
       <c r="E197" s="39"/>
     </row>
     <row r="198" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="181" t="s">
+      <c r="A198"/>
+      <c r="B198"/>
+      <c r="D198" s="173" t="s">
+        <v>138</v>
+      </c>
+      <c r="G198" s="173" t="s">
+        <v>136</v>
+      </c>
+      <c r="H198" s="173" t="s">
+        <v>183</v>
+      </c>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+    </row>
+    <row r="199" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B199"/>
+      <c r="C199" s="173" t="s">
+        <v>142</v>
+      </c>
+      <c r="D199" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="E199" s="173" t="s">
+        <v>186</v>
+      </c>
+      <c r="F199" s="173" t="s">
+        <v>136</v>
+      </c>
+      <c r="G199" s="173" t="s">
+        <v>176</v>
+      </c>
+      <c r="H199" s="173" t="s">
+        <v>184</v>
+      </c>
+      <c r="I199" s="173" t="s">
+        <v>165</v>
+      </c>
+      <c r="J199" s="173" t="s">
+        <v>173</v>
+      </c>
+      <c r="K199"/>
+    </row>
+    <row r="200" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200"/>
+      <c r="C200" s="173" t="s">
+        <v>46</v>
+      </c>
+      <c r="D200" s="173" t="s">
+        <v>141</v>
+      </c>
+      <c r="E200" s="173" t="s">
+        <v>57</v>
+      </c>
+      <c r="F200" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="B198" s="181"/>
-      <c r="C198" s="181"/>
-      <c r="E198" s="179" t="s">
-        <v>143</v>
-      </c>
-      <c r="F198" s="179" t="s">
-        <v>183</v>
-      </c>
-      <c r="G198" s="179" t="s">
+      <c r="G200" s="173" t="s">
+        <v>1</v>
+      </c>
+      <c r="H200" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="I200" s="137" t="s">
+        <v>166</v>
+      </c>
+      <c r="J200" s="173" t="s">
+        <v>104</v>
+      </c>
+      <c r="K200"/>
+    </row>
+    <row r="201" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201"/>
+      <c r="C201" s="139">
+        <v>0.25</v>
+      </c>
+      <c r="D201" s="142">
+        <v>1E-3</v>
+      </c>
+      <c r="E201" s="179">
+        <f>(1-sybilPercentb)*(privateConnections10thc+publicConnections10thc)</f>
+        <v>77</v>
+      </c>
+      <c r="F201" s="180">
+        <f>LOG(futureUsers*1000*1000*1000)/LOG(E201/2)</f>
+        <v>6.2461906515098251</v>
+      </c>
+      <c r="G201" s="140">
+        <f>B195</f>
+        <v>50</v>
+      </c>
+      <c r="H201" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="I201" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="J201" s="193">
+        <v>8</v>
+      </c>
+      <c r="K201"/>
+    </row>
+    <row r="202" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C202" s="7"/>
+      <c r="D202" s="93"/>
+      <c r="E202" s="39"/>
+    </row>
+    <row r="203" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="D203" s="173" t="s">
+        <v>144</v>
+      </c>
+      <c r="E203" s="173" t="s">
+        <v>144</v>
+      </c>
+      <c r="H203" s="93"/>
+      <c r="I203" s="39"/>
+      <c r="J203" s="106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="173" t="s">
+        <v>156</v>
+      </c>
+      <c r="C204" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="D204" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="E204" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="F204" s="173" t="s">
+        <v>144</v>
+      </c>
+      <c r="G204" s="173" t="s">
+        <v>30</v>
+      </c>
+      <c r="H204" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="I204" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="J204" s="106" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="173" t="s">
+        <v>157</v>
+      </c>
+      <c r="C205" s="173" t="s">
+        <v>148</v>
+      </c>
+      <c r="D205" s="173" t="s">
+        <v>177</v>
+      </c>
+      <c r="E205" s="173" t="s">
+        <v>178</v>
+      </c>
+      <c r="F205" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="G205" s="173" t="s">
+        <v>68</v>
+      </c>
+      <c r="H205" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="I205" s="173" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="138" t="s">
-        <v>141</v>
-      </c>
-      <c r="B199" s="137" t="s">
-        <v>137</v>
-      </c>
-      <c r="C199" s="160" t="str">
-        <f>$A$5</f>
-        <v>90th %ile</v>
-      </c>
-      <c r="D199" s="179" t="s">
-        <v>143</v>
-      </c>
-      <c r="E199" s="179" t="s">
-        <v>140</v>
-      </c>
-      <c r="F199" s="179" t="s">
-        <v>184</v>
-      </c>
-      <c r="G199" s="179" t="s">
-        <v>148</v>
-      </c>
-      <c r="H199" s="179" t="s">
-        <v>182</v>
-      </c>
-      <c r="I199" s="179" t="s">
-        <v>143</v>
-      </c>
-      <c r="J199" s="179" t="s">
-        <v>143</v>
-      </c>
-      <c r="K199" s="179" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B200" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="C200" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="D200" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E200" s="179" t="s">
-        <v>144</v>
-      </c>
-      <c r="F200" s="179" t="s">
-        <v>46</v>
-      </c>
-      <c r="G200" s="179" t="s">
-        <v>149</v>
-      </c>
-      <c r="H200" s="179" t="s">
-        <v>107</v>
-      </c>
-      <c r="I200" s="179" t="s">
-        <v>57</v>
-      </c>
-      <c r="J200" s="179" t="s">
-        <v>147</v>
-      </c>
-      <c r="K200" s="179" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="140">
-        <f>1/17</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="B201" s="140">
-        <f>8/17</f>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="C201" s="140">
-        <f>8/17</f>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="D201" s="162">
-        <f>E194*A201+E195*B201+E196*C201</f>
-        <v>5388.2352941176468</v>
-      </c>
-      <c r="E201" s="142">
-        <v>95</v>
-      </c>
-      <c r="F201" s="140">
-        <v>0.25</v>
-      </c>
-      <c r="G201" s="144">
-        <v>1E-3</v>
-      </c>
-      <c r="H201" s="197">
-        <v>8</v>
-      </c>
-      <c r="I201" s="185">
-        <f>(1-sybilPercentb)*(A201*(privateConnections1stc+publicConnections1stc)+B201*(privateConnections10thc+publicConnections10thc)+C201*(privateConnections90thc+publicConnections90thc))</f>
-        <v>44.058823529411768</v>
-      </c>
-      <c r="J201" s="186">
-        <f>LOG(futureUsers*1000*1000*1000)/LOG(I201/2)</f>
-        <v>7.3738411005261213</v>
-      </c>
-      <c r="K201" s="141">
-        <f>B194*A201+B195*B201+B196*C201</f>
-        <v>82.823529411764696</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202"/>
-      <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
-      <c r="K202"/>
-    </row>
-    <row r="203" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="179" t="s">
-        <v>174</v>
-      </c>
-      <c r="B203"/>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
-      <c r="H203"/>
-      <c r="I203"/>
-      <c r="J203"/>
-      <c r="K203"/>
-    </row>
-    <row r="204" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="137" t="s">
-        <v>175</v>
-      </c>
-      <c r="B204"/>
-      <c r="C204"/>
-      <c r="D204"/>
-      <c r="E204"/>
-      <c r="F204"/>
-      <c r="G204"/>
-      <c r="H204"/>
-      <c r="I204"/>
-      <c r="J204"/>
-      <c r="K204"/>
-    </row>
-    <row r="205" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="104">
-        <v>0.5</v>
-      </c>
-      <c r="B205"/>
-      <c r="C205"/>
-      <c r="D205"/>
-      <c r="E205"/>
-      <c r="F205"/>
-      <c r="G205"/>
-      <c r="H205"/>
-      <c r="I205"/>
-      <c r="J205"/>
-      <c r="K205"/>
+      <c r="J205" s="195" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="206" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C206" s="7"/>
-      <c r="D206" s="93"/>
-      <c r="E206" s="39"/>
-    </row>
-    <row r="207" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C207" s="7"/>
-      <c r="E207" s="93"/>
-      <c r="F207" s="39"/>
-    </row>
-    <row r="208" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="179" t="s">
-        <v>165</v>
-      </c>
-      <c r="C208" s="179" t="s">
-        <v>152</v>
-      </c>
-      <c r="D208" s="179" t="s">
-        <v>179</v>
-      </c>
-      <c r="E208" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="F208" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="G208" s="137" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B209" s="179" t="s">
-        <v>166</v>
-      </c>
-      <c r="C209" s="179" t="s">
-        <v>32</v>
-      </c>
-      <c r="D209" s="179" t="s">
-        <v>104</v>
-      </c>
-      <c r="E209" s="179" t="s">
-        <v>154</v>
-      </c>
-      <c r="F209" s="179" t="s">
-        <v>155</v>
-      </c>
-      <c r="G209" s="179" t="s">
-        <v>156</v>
-      </c>
-      <c r="H209" s="137" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="97">
+      <c r="A206" s="97">
         <v>0</v>
       </c>
-      <c r="B210" s="145">
+      <c r="B206" s="143">
         <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
         <v>2.4</v>
       </c>
-      <c r="C210" s="9">
-        <f>(B210/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A210)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A210)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>3041.5276972549073</v>
-      </c>
-      <c r="D210" s="6">
-        <f>C210*1000/secondsPerBlock/avgTrSize</f>
-        <v>10.672027007911955</v>
-      </c>
-      <c r="E210" s="150">
-        <f>avgHops20*(C210*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>0.87628502188213209</v>
-      </c>
-      <c r="F210" s="149">
-        <f>avgHops20*C210*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A210)*mbToGB*KBperGB)</f>
-        <v>0.82320007356788616</v>
-      </c>
-      <c r="G210" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A210)))/1000</f>
-        <v>0.70051490454998155</v>
-      </c>
-      <c r="H210" s="192">
-        <f t="shared" ref="H210" si="33">E210+F210+G210</f>
+      <c r="C206" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A206))))/1000</f>
+        <v>0.39042500920426587</v>
+      </c>
+      <c r="D206" s="9">
+        <f>(B206 - C206)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A206)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>66104.440486701787</v>
+      </c>
+      <c r="E206" s="9">
+        <f>(B206 - C206)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A206))/missingTransactionRate/1000</f>
+        <v>47727.406031398685</v>
+      </c>
+      <c r="F206" s="9">
+        <f>MIN(D206,E206)</f>
+        <v>47727.406031398685</v>
+      </c>
+      <c r="G206" s="6">
+        <f>F206*1000/secondsPerBlock/avgTrSize</f>
+        <v>167.46458256631118</v>
+      </c>
+      <c r="H206" s="146">
+        <f>F206*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A206)*mbToGB*KBperGB)</f>
+        <v>1.4509131433545199</v>
+      </c>
+      <c r="I206" s="147">
+        <f>(F206*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A206))</f>
+        <v>2.0095749907957341</v>
+      </c>
+      <c r="J206" s="196">
+        <f>MAX(H206,I206)+C206</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="97">
+        <v>1</v>
+      </c>
+      <c r="B207" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <v>2.4</v>
+      </c>
+      <c r="C207" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A207))))/1000</f>
+        <v>0.38107304472131726</v>
+      </c>
+      <c r="D207" s="9">
+        <f>(B207 - C207)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A207)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>83015.088621656367</v>
+      </c>
+      <c r="E207" s="9">
+        <f>(B207 - C207)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A207))/missingTransactionRate/1000</f>
+        <v>56100.932769806401</v>
+      </c>
+      <c r="F207" s="9">
+        <f t="shared" ref="F207:F221" si="33">MIN(D207,E207)</f>
+        <v>56100.932769806401</v>
+      </c>
+      <c r="G207" s="6">
+        <f>F207*1000/secondsPerBlock/avgTrSize</f>
+        <v>196.8453781396716</v>
+      </c>
+      <c r="H207" s="146">
+        <f>F207*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A207)*mbToGB*KBperGB)</f>
+        <v>1.3643746849616916</v>
+      </c>
+      <c r="I207" s="147">
+        <f>(F207*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A207))</f>
+        <v>2.0189269552786828</v>
+      </c>
+      <c r="J207" s="196">
+        <f t="shared" ref="J207:J221" si="34">MAX(H207,I207)+C207</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="97">
+        <v>2</v>
+      </c>
+      <c r="B208" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <v>2.4</v>
+      </c>
+      <c r="C208" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A208))))/1000</f>
+        <v>0.37200163917285717</v>
+      </c>
+      <c r="D208" s="9">
+        <f>(B208 - C208)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A208)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>104235.1131181714</v>
+      </c>
+      <c r="E208" s="9">
+        <f>(B208 - C208)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A208))/missingTransactionRate/1000</f>
+        <v>65933.015208236538</v>
+      </c>
+      <c r="F208" s="9">
+        <f t="shared" si="33"/>
+        <v>65933.015208236538</v>
+      </c>
+      <c r="G208" s="6">
+        <f>F208*1000/secondsPerBlock/avgTrSize</f>
+        <v>231.34391301135628</v>
+      </c>
+      <c r="H208" s="146">
+        <f>F208*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A208)*mbToGB*KBperGB)</f>
+        <v>1.2827927438914501</v>
+      </c>
+      <c r="I208" s="147">
+        <f>(F208*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A208))</f>
+        <v>2.027998360827143</v>
+      </c>
+      <c r="J208" s="196">
+        <f t="shared" si="34"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="97">
+        <v>3</v>
+      </c>
+      <c r="B209" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <v>2.4</v>
+      </c>
+      <c r="C209" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A209))))/1000</f>
+        <v>0.36320237579085085</v>
+      </c>
+      <c r="D209" s="9">
+        <f>(B209 - C209)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A209)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>130859.22236129917</v>
+      </c>
+      <c r="E209" s="9">
+        <f>(B209 - C209)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A209))/missingTransactionRate/1000</f>
+        <v>77476.336890934093</v>
+      </c>
+      <c r="F209" s="9">
+        <f t="shared" si="33"/>
+        <v>77476.336890934093</v>
+      </c>
+      <c r="G209" s="6">
+        <f>F209*1000/secondsPerBlock/avgTrSize</f>
+        <v>271.84679610854067</v>
+      </c>
+      <c r="H209" s="146">
+        <f>F209*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A209)*mbToGB*KBperGB)</f>
+        <v>1.2059036884400109</v>
+      </c>
+      <c r="I209" s="147">
+        <f>(F209*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A209))</f>
+        <v>2.0367976242091497</v>
+      </c>
+      <c r="J209" s="196">
+        <f t="shared" si="34"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="97">
+        <v>4</v>
+      </c>
+      <c r="B210" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <v>2.4</v>
+      </c>
+      <c r="C210" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A210))))/1000</f>
+        <v>0.35466709031030474</v>
+      </c>
+      <c r="D210" s="9">
+        <f>(B210 - C210)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A210)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>164259.49174497064</v>
+      </c>
+      <c r="E210" s="9">
+        <f>(B210 - C210)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A210))/missingTransactionRate/1000</f>
+        <v>91027.175516915595</v>
+      </c>
+      <c r="F210" s="9">
+        <f t="shared" si="33"/>
+        <v>91027.175516915595</v>
+      </c>
+      <c r="G210" s="6">
+        <f>F210*1000/secondsPerBlock/avgTrSize</f>
+        <v>319.39359830496699</v>
+      </c>
+      <c r="H210" s="146">
+        <f>F210*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A210)*mbToGB*KBperGB)</f>
+        <v>1.1334558251885503</v>
+      </c>
+      <c r="I210" s="147">
+        <f>(F210*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A210))</f>
+        <v>2.0453329096896957</v>
+      </c>
+      <c r="J210" s="196">
+        <f t="shared" si="34"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="97">
-        <v>1</v>
-      </c>
-      <c r="B211" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+        <v>5</v>
+      </c>
+      <c r="B211" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
         <v>2.4</v>
       </c>
-      <c r="C211" s="9">
-        <f>(B211/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A211)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A211)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>3402.8565065595435</v>
-      </c>
-      <c r="D211" s="6">
-        <f>C211*1000/secondsPerBlock/avgTrSize</f>
-        <v>11.939847391436993</v>
-      </c>
-      <c r="E211" s="150">
-        <f>avgHops20*(C211*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>0.98038633381623863</v>
-      </c>
-      <c r="F211" s="149">
-        <f>avgHops20*C211*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A211)*mbToGB*KBperGB)</f>
-        <v>0.73679598027504212</v>
-      </c>
-      <c r="G211" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A211)))/1000</f>
-        <v>0.68281768590871872</v>
-      </c>
-      <c r="H211" s="192">
-        <f t="shared" ref="H211:H225" si="34">E211+F211+G211</f>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="97">
-        <v>2</v>
-      </c>
-      <c r="B212" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
-        <v>2.4</v>
-      </c>
-      <c r="C212" s="9">
-        <f>(B212/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A212)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A212)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>3759.4932864605112</v>
-      </c>
-      <c r="D212" s="6">
-        <f>C212*1000/secondsPerBlock/avgTrSize</f>
-        <v>13.191204513896531</v>
-      </c>
-      <c r="E212" s="150">
-        <f>avgHops20*(C212*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.0831358398495223</v>
-      </c>
-      <c r="F212" s="149">
-        <f>avgHops20*C212*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A212)*mbToGB*KBperGB)</f>
-        <v>0.65121277632378305</v>
-      </c>
-      <c r="G212" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A212)))/1000</f>
-        <v>0.66565138382669398</v>
-      </c>
-      <c r="H212" s="192">
+      <c r="C211" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A211))))/1000</f>
+        <v>0.34638786339417504</v>
+      </c>
+      <c r="D211" s="9">
+        <f>(B211 - C211)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A211)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>206155.48953064615</v>
+      </c>
+      <c r="E211" s="9">
+        <f>(B211 - C211)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A211))/missingTransactionRate/1000</f>
+        <v>106932.90000603907</v>
+      </c>
+      <c r="F211" s="9">
+        <f t="shared" si="33"/>
+        <v>106932.90000603907</v>
+      </c>
+      <c r="G211" s="6">
+        <f>F211*1000/secondsPerBlock/avgTrSize</f>
+        <v>375.20315791592657</v>
+      </c>
+      <c r="H211" s="146">
+        <f>F211*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A211)*mbToGB*KBperGB)</f>
+        <v>1.0652090892889579</v>
+      </c>
+      <c r="I211" s="147">
+        <f>(F211*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A211))</f>
+        <v>2.0536121366058246</v>
+      </c>
+      <c r="J211" s="196">
         <f t="shared" si="34"/>
         <v>2.3999999999999995</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="97">
-        <v>3</v>
-      </c>
-      <c r="B213" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+    <row r="212" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="97">
+        <v>6</v>
+      </c>
+      <c r="B212" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
         <v>2.4</v>
       </c>
-      <c r="C213" s="9">
-        <f>(B213/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A213)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A213)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>4103.7638587718775</v>
-      </c>
-      <c r="D213" s="6">
-        <f>C213*1000/secondsPerBlock/avgTrSize</f>
-        <v>14.399171434287288</v>
-      </c>
-      <c r="E213" s="150">
-        <f>avgHops20*(C213*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.1823225565325615</v>
-      </c>
-      <c r="F213" s="149">
-        <f>avgHops20*C213*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A213)*mbToGB*KBperGB)</f>
-        <v>0.56867737266030749</v>
-      </c>
-      <c r="G213" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A213)))/1000</f>
-        <v>0.64900007080712996</v>
-      </c>
-      <c r="H213" s="192">
-        <f t="shared" si="34"/>
-        <v>2.399999999999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="97">
-        <v>4</v>
-      </c>
-      <c r="B214" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
-        <v>2.4</v>
-      </c>
-      <c r="C214" s="9">
-        <f>(B214/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A214)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A214)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>4429.3231129297728</v>
-      </c>
-      <c r="D214" s="6">
-        <f>C214*1000/secondsPerBlock/avgTrSize</f>
-        <v>15.541484606771132</v>
-      </c>
-      <c r="E214" s="150">
-        <f>avgHops20*(C214*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.276118413927239</v>
-      </c>
-      <c r="F214" s="149">
-        <f>avgHops20*C214*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A214)*mbToGB*KBperGB)</f>
-        <v>0.49103328889460796</v>
-      </c>
-      <c r="G214" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A214)))/1000</f>
-        <v>0.63284829717815283</v>
-      </c>
-      <c r="H214" s="192">
+      <c r="C212" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A212))))/1000</f>
+        <v>0.3383570132855292</v>
+      </c>
+      <c r="D212" s="9">
+        <f>(B212 - C212)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A212)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>258702.10079324504</v>
+      </c>
+      <c r="E212" s="9">
+        <f>(B212 - C212)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A212))/missingTransactionRate/1000</f>
+        <v>125600.75367576689</v>
+      </c>
+      <c r="F212" s="9">
+        <f t="shared" si="33"/>
+        <v>125600.75367576689</v>
+      </c>
+      <c r="G212" s="6">
+        <f>F212*1000/secondsPerBlock/avgTrSize</f>
+        <v>440.70439886233999</v>
+      </c>
+      <c r="H212" s="146">
+        <f>F212*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A212)*mbToGB*KBperGB)</f>
+        <v>1.0009347127360391</v>
+      </c>
+      <c r="I212" s="147">
+        <f>(F212*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A212))</f>
+        <v>2.0616429867144705</v>
+      </c>
+      <c r="J212" s="196">
         <f t="shared" si="34"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="97">
-        <v>5</v>
-      </c>
-      <c r="B215" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+    <row r="213" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="97">
+        <v>7</v>
+      </c>
+      <c r="B213" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
         <v>2.4</v>
       </c>
-      <c r="C215" s="9">
-        <f>(B215/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A215)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A215)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>4731.5404940017415</v>
-      </c>
-      <c r="D215" s="6">
-        <f>C215*1000/secondsPerBlock/avgTrSize</f>
-        <v>16.601896470181547</v>
-      </c>
-      <c r="E215" s="150">
-        <f>avgHops20*(C215*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.3631893173501564</v>
-      </c>
-      <c r="F215" s="149">
-        <f>avgHops20*C215*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A215)*mbToGB*KBperGB)</f>
-        <v>0.41962960589179854</v>
-      </c>
-      <c r="G215" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A215)))/1000</f>
-        <v>0.6171810767580449</v>
-      </c>
-      <c r="H215" s="192">
+      <c r="C213" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A213))))/1000</f>
+        <v>0.33056708868014278</v>
+      </c>
+      <c r="D213" s="9">
+        <f>(B213 - C213)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A213)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>324599.50938348036</v>
+      </c>
+      <c r="E213" s="9">
+        <f>(B213 - C213)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A213))/missingTransactionRate/1000</f>
+        <v>147508.14373355624</v>
+      </c>
+      <c r="F213" s="9">
+        <f t="shared" si="33"/>
+        <v>147508.14373355624</v>
+      </c>
+      <c r="G213" s="6">
+        <f>F213*1000/secondsPerBlock/avgTrSize</f>
+        <v>517.57243415282892</v>
+      </c>
+      <c r="H213" s="146">
+        <f>F213*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A213)*mbToGB*KBperGB)</f>
+        <v>0.94041487588722927</v>
+      </c>
+      <c r="I213" s="147">
+        <f>(F213*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A213))</f>
+        <v>2.0694329113198573</v>
+      </c>
+      <c r="J213" s="196">
         <f t="shared" si="34"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="97">
-        <v>6</v>
-      </c>
-      <c r="B216" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+    <row r="214" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="97">
+        <v>8</v>
+      </c>
+      <c r="B214" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
         <v>2.4</v>
       </c>
-      <c r="C216" s="9">
-        <f>(B216/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A216)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A216)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>5007.6056018060144</v>
-      </c>
-      <c r="D216" s="6">
-        <f>C216*1000/secondsPerBlock/avgTrSize</f>
-        <v>17.570545971249174</v>
-      </c>
-      <c r="E216" s="150">
-        <f>avgHops20*(C216*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.4427255712042621</v>
-      </c>
-      <c r="F216" s="149">
-        <f>avgHops20*C216*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A216)*mbToGB*KBperGB)</f>
-        <v>0.35529055584519681</v>
-      </c>
-      <c r="G216" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A216)))/1000</f>
-        <v>0.60198387295054034</v>
-      </c>
-      <c r="H216" s="192">
+      <c r="C214" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A214))))/1000</f>
+        <v>0.32301086181291788</v>
+      </c>
+      <c r="D214" s="9">
+        <f>(B214 - C214)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A214)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>407230.92034205835</v>
+      </c>
+      <c r="E214" s="9">
+        <f>(B214 - C214)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A214))/missingTransactionRate/1000</f>
+        <v>173214.69493591916</v>
+      </c>
+      <c r="F214" s="9">
+        <f t="shared" si="33"/>
+        <v>173214.69493591916</v>
+      </c>
+      <c r="G214" s="6">
+        <f>F214*1000/secondsPerBlock/avgTrSize</f>
+        <v>607.77085942427777</v>
+      </c>
+      <c r="H214" s="146">
+        <f>F214*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A214)*mbToGB*KBperGB)</f>
+        <v>0.88344234679946265</v>
+      </c>
+      <c r="I214" s="147">
+        <f>(F214*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A214))</f>
+        <v>2.0769891381870815</v>
+      </c>
+      <c r="J214" s="196">
         <f t="shared" si="34"/>
         <v>2.3999999999999995</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="97">
-        <v>7</v>
-      </c>
-      <c r="B217" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+    <row r="215" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="97">
+        <v>9</v>
+      </c>
+      <c r="B215" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
         <v>2.4</v>
       </c>
-      <c r="C217" s="9">
-        <f>(B217/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A217)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A217)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>5256.3954081728452</v>
-      </c>
-      <c r="D217" s="6">
-        <f>C217*1000/secondsPerBlock/avgTrSize</f>
-        <v>18.443492660255597</v>
-      </c>
-      <c r="E217" s="150">
-        <f>avgHops20*(C217*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.5144036233597535</v>
-      </c>
-      <c r="F217" s="149">
-        <f>avgHops20*C217*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A217)*mbToGB*KBperGB)</f>
-        <v>0.29835379138298451</v>
-      </c>
-      <c r="G217" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A217)))/1000</f>
-        <v>0.58724258525726092</v>
-      </c>
-      <c r="H217" s="192">
-        <f t="shared" si="34"/>
-        <v>2.399999999999999</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="97">
-        <v>8</v>
-      </c>
-      <c r="B218" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
-        <v>2.4</v>
-      </c>
-      <c r="C218" s="9">
-        <f>(B218/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A218)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A218)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>5478.1839627810523</v>
-      </c>
-      <c r="D218" s="6">
-        <f>C218*1000/secondsPerBlock/avgTrSize</f>
-        <v>19.221698115021237</v>
-      </c>
-      <c r="E218" s="150">
-        <f>avgHops20*(C218*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.5783024294115509</v>
-      </c>
-      <c r="F218" s="149">
-        <f>avgHops20*C218*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A218)*mbToGB*KBperGB)</f>
-        <v>0.24875403439366903</v>
-      </c>
-      <c r="G218" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A218)))/1000</f>
-        <v>0.57294353619477989</v>
-      </c>
-      <c r="H218" s="192">
-        <f t="shared" si="34"/>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="97">
-        <v>9</v>
-      </c>
-      <c r="B219" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
-        <v>2.4</v>
-      </c>
-      <c r="C219" s="9">
-        <f>(B219/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A219)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A219)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>5674.2824265650479</v>
-      </c>
-      <c r="D219" s="6">
-        <f>C219*1000/secondsPerBlock/avgTrSize</f>
-        <v>19.909762900228241</v>
-      </c>
-      <c r="E219" s="150">
-        <f>avgHops20*(C219*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.6347997438312423</v>
-      </c>
-      <c r="F219" s="149">
-        <f>avgHops20*C219*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A219)*mbToGB*KBperGB)</f>
-        <v>0.20612679756458438</v>
-      </c>
-      <c r="G219" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A219)))/1000</f>
-        <v>0.55907345860417312</v>
-      </c>
-      <c r="H219" s="192">
+      <c r="C215" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A215))))/1000</f>
+        <v>0.31568132175170976</v>
+      </c>
+      <c r="D215" s="9">
+        <f>(B215 - C215)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A215)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>510835.00993298128</v>
+      </c>
+      <c r="E215" s="9">
+        <f>(B215 - C215)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A215))/missingTransactionRate/1000</f>
+        <v>203376.36933964089</v>
+      </c>
+      <c r="F215" s="9">
+        <f t="shared" si="33"/>
+        <v>203376.36933964089</v>
+      </c>
+      <c r="G215" s="6">
+        <f>F215*1000/secondsPerBlock/avgTrSize</f>
+        <v>713.60129592856458</v>
+      </c>
+      <c r="H215" s="146">
+        <f>F215*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A215)*mbToGB*KBperGB)</f>
+        <v>0.82982011233832598</v>
+      </c>
+      <c r="I215" s="147">
+        <f>(F215*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A215))</f>
+        <v>2.0843186782482901</v>
+      </c>
+      <c r="J215" s="196">
         <f t="shared" si="34"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="97">
+        <v>10</v>
+      </c>
+      <c r="B216" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <v>2.4</v>
+      </c>
+      <c r="C216" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A216))))/1000</f>
+        <v>0.30857166789233792</v>
+      </c>
+      <c r="D216" s="9">
+        <f>(B216 - C216)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A216)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>640721.84831653407</v>
+      </c>
+      <c r="E216" s="9">
+        <f>(B216 - C216)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A216))/missingTransactionRate/1000</f>
+        <v>238762.00567009201</v>
+      </c>
+      <c r="F216" s="9">
+        <f t="shared" si="33"/>
+        <v>238762.00567009201</v>
+      </c>
+      <c r="G216" s="6">
+        <f>F216*1000/secondsPerBlock/avgTrSize</f>
+        <v>837.7614234038316</v>
+      </c>
+      <c r="H216" s="146">
+        <f>F216*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A216)*mbToGB*KBperGB)</f>
+        <v>0.77936100446911294</v>
+      </c>
+      <c r="I216" s="147">
+        <f>(F216*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A216))</f>
+        <v>2.0914283321076619</v>
+      </c>
+      <c r="J216" s="196">
+        <f t="shared" si="34"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="97">
+        <v>11</v>
+      </c>
+      <c r="B217" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <v>2.4</v>
+      </c>
+      <c r="C217" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A217))))/1000</f>
+        <v>0.30167530364874717</v>
+      </c>
+      <c r="D217" s="9">
+        <f>(B217 - C217)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A217)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>803543.23954979074</v>
+      </c>
+      <c r="E217" s="9">
+        <f>(B217 - C217)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A217))/missingTransactionRate/1000</f>
+        <v>280272.69223963172</v>
+      </c>
+      <c r="F217" s="9">
+        <f t="shared" si="33"/>
+        <v>280272.69223963172</v>
+      </c>
+      <c r="G217" s="6">
+        <f>F217*1000/secondsPerBlock/avgTrSize</f>
+        <v>983.41295522677797</v>
+      </c>
+      <c r="H217" s="146">
+        <f>F217*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A217)*mbToGB*KBperGB)</f>
+        <v>0.7318873246557035</v>
+      </c>
+      <c r="I217" s="147">
+        <f>(F217*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A217))</f>
+        <v>2.098324696351253</v>
+      </c>
+      <c r="J217" s="196">
+        <f t="shared" si="34"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="97">
+        <v>12</v>
+      </c>
+      <c r="B218" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <v>2.4</v>
+      </c>
+      <c r="C218" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A218))))/1000</f>
+        <v>0.29498583033246417</v>
+      </c>
+      <c r="D218" s="9">
+        <f>(B218 - C218)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A218)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>1007631.1760366124</v>
+      </c>
+      <c r="E218" s="9">
+        <f>(B218 - C218)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A218))/missingTransactionRate/1000</f>
+        <v>328964.45806819171</v>
+      </c>
+      <c r="F218" s="9">
+        <f t="shared" si="33"/>
+        <v>328964.45806819171</v>
+      </c>
+      <c r="G218" s="6">
+        <f>F218*1000/secondsPerBlock/avgTrSize</f>
+        <v>1154.2612563796199</v>
+      </c>
+      <c r="H218" s="146">
+        <f>F218*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A218)*mbToGB*KBperGB)</f>
+        <v>0.68723046886491357</v>
+      </c>
+      <c r="I218" s="147">
+        <f>(F218*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A218))</f>
+        <v>2.1050141696675357</v>
+      </c>
+      <c r="J218" s="196">
+        <f t="shared" si="34"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="97">
+        <v>13</v>
+      </c>
+      <c r="B219" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <v>2.4</v>
+      </c>
+      <c r="C219" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A219))))/1000</f>
+        <v>0.28849704121566971</v>
+      </c>
+      <c r="D219" s="9">
+        <f>(B219 - C219)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A219)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>1263421.5485475066</v>
+      </c>
+      <c r="E219" s="9">
+        <f>(B219 - C219)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A219))/missingTransactionRate/1000</f>
+        <v>386074.84964674822</v>
+      </c>
+      <c r="F219" s="9">
+        <f t="shared" si="33"/>
+        <v>386074.84964674822</v>
+      </c>
+      <c r="G219" s="6">
+        <f>F219*1000/secondsPerBlock/avgTrSize</f>
+        <v>1354.6485952517482</v>
+      </c>
+      <c r="H219" s="146">
+        <f>F219*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A219)*mbToGB*KBperGB)</f>
+        <v>0.64523055529527529</v>
+      </c>
+      <c r="I219" s="147">
+        <f>(F219*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A219))</f>
+        <v>2.1115029587843304</v>
+      </c>
+      <c r="J219" s="196">
+        <f t="shared" si="34"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="97">
-        <v>10</v>
-      </c>
-      <c r="B220" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+        <v>14</v>
+      </c>
+      <c r="B220" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
         <v>2.4</v>
       </c>
-      <c r="C220" s="9">
-        <f>(B220/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A220)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A220)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>5846.6810400337608</v>
-      </c>
-      <c r="D220" s="6">
-        <f>C220*1000/secondsPerBlock/avgTrSize</f>
-        <v>20.514670315907935</v>
-      </c>
-      <c r="E220" s="150">
-        <f>avgHops20*(C220*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.6844689685804453</v>
-      </c>
-      <c r="F220" s="149">
-        <f>avgHops20*C220*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A220)*mbToGB*KBperGB)</f>
-        <v>0.16991154807826939</v>
-      </c>
-      <c r="G220" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A220)))/1000</f>
-        <v>0.54561948334128474</v>
-      </c>
-      <c r="H220" s="192">
+      <c r="C220" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A220))))/1000</f>
+        <v>0.28220291577237899</v>
+      </c>
+      <c r="D220" s="9">
+        <f>(B220 - C220)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A220)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>1583984.5621177442</v>
+      </c>
+      <c r="E220" s="9">
+        <f>(B220 - C220)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A220))/missingTransactionRate/1000</f>
+        <v>453054.05770072888</v>
+      </c>
+      <c r="F220" s="9">
+        <f t="shared" si="33"/>
+        <v>453054.05770072888</v>
+      </c>
+      <c r="G220" s="6">
+        <f>F220*1000/secondsPerBlock/avgTrSize</f>
+        <v>1589.6633603534347</v>
+      </c>
+      <c r="H220" s="146">
+        <f>F220*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A220)*mbToGB*KBperGB)</f>
+        <v>0.60573605661490904</v>
+      </c>
+      <c r="I220" s="147">
+        <f>(F220*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A220))</f>
+        <v>2.1177970842276208</v>
+      </c>
+      <c r="J220" s="196">
         <f t="shared" si="34"/>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="97">
-        <v>11</v>
-      </c>
-      <c r="B221" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+        <v>15</v>
+      </c>
+      <c r="B221" s="143">
+        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
         <v>2.4</v>
       </c>
-      <c r="C221" s="9">
-        <f>(B221/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A221)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A221)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>5997.7386456074346</v>
-      </c>
-      <c r="D221" s="6">
-        <f>C221*1000/secondsPerBlock/avgTrSize</f>
-        <v>21.04469700213135</v>
-      </c>
-      <c r="E221" s="150">
-        <f>avgHops20*(C221*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.727989702363359</v>
-      </c>
-      <c r="F221" s="149">
-        <f>avgHops20*C221*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A221)*mbToGB*KBperGB)</f>
-        <v>0.13944117030035727</v>
-      </c>
-      <c r="G221" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A221)))/1000</f>
-        <v>0.53256912733628303</v>
-      </c>
-      <c r="H221" s="192">
+      <c r="C221" s="187">
+        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A221))))/1000</f>
+        <v>0.27609761409238709</v>
+      </c>
+      <c r="D221" s="9">
+        <f>(B221 - C221)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A221)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <v>1985688.6996976307</v>
+      </c>
+      <c r="E221" s="9">
+        <f>(B221 - C221)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A221))/missingTransactionRate/1000</f>
+        <v>531601.37176341913</v>
+      </c>
+      <c r="F221" s="9">
+        <f t="shared" si="33"/>
+        <v>531601.37176341913</v>
+      </c>
+      <c r="G221" s="6">
+        <f>F221*1000/secondsPerBlock/avgTrSize</f>
+        <v>1865.2679710997163</v>
+      </c>
+      <c r="H221" s="146">
+        <f>F221*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A221)*mbToGB*KBperGB)</f>
+        <v>0.56860343819855252</v>
+      </c>
+      <c r="I221" s="147">
+        <f>(F221*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A221))</f>
+        <v>2.1239023859076127</v>
+      </c>
+      <c r="J221" s="196">
         <f t="shared" si="34"/>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="97">
-        <v>12</v>
-      </c>
-      <c r="B222" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C222" s="9">
-        <f>(B222/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A222)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A222)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>6129.9404113561577</v>
-      </c>
-      <c r="D222" s="6">
-        <f>C222*1000/secondsPerBlock/avgTrSize</f>
-        <v>21.508562846863711</v>
-      </c>
-      <c r="E222" s="150">
-        <f>avgHops20*(C222*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.7660779391716352</v>
-      </c>
-      <c r="F222" s="149">
-        <f>avgHops20*C222*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A222)*mbToGB*KBperGB)</f>
-        <v>0.11401177881693278</v>
-      </c>
-      <c r="G222" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A222)))/1000</f>
-        <v>0.51991028201143119</v>
-      </c>
-      <c r="H222" s="192">
-        <f t="shared" si="34"/>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="97">
-        <v>13</v>
-      </c>
-      <c r="B223" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
-        <v>2.4</v>
-      </c>
-      <c r="C223" s="9">
-        <f>(B223/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A223)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A223)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>6245.726000023943</v>
-      </c>
-      <c r="D223" s="6">
-        <f>C223*1000/secondsPerBlock/avgTrSize</f>
-        <v>21.91482807025945</v>
-      </c>
-      <c r="E223" s="150">
-        <f>avgHops20*(C223*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.7994365625999074</v>
-      </c>
-      <c r="F223" s="149">
-        <f>avgHops20*C223*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A223)*mbToGB*KBperGB)</f>
-        <v>9.2932235353766851E-2</v>
-      </c>
-      <c r="G223" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A223)))/1000</f>
-        <v>0.50763120204632495</v>
-      </c>
-      <c r="H223" s="192">
-        <f t="shared" si="34"/>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="97">
-        <v>14</v>
-      </c>
-      <c r="B224" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
-        <v>2.4</v>
-      </c>
-      <c r="C224" s="9">
-        <f>(B224/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A224)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A224)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>6347.3796801072913</v>
-      </c>
-      <c r="D224" s="6">
-        <f>C224*1000/secondsPerBlock/avgTrSize</f>
-        <v>22.271507649499267</v>
-      </c>
-      <c r="E224" s="150">
-        <f>avgHops20*(C224*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.8287236860926943</v>
-      </c>
-      <c r="F224" s="149">
-        <f>avgHops20*C224*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A224)*mbToGB*KBperGB)</f>
-        <v>7.5555819427132978E-2</v>
-      </c>
-      <c r="G224" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A224)))/1000</f>
-        <v>0.49572049448017197</v>
-      </c>
-      <c r="H224" s="192">
-        <f t="shared" si="34"/>
-        <v>2.3999999999999995</v>
+    </row>
+    <row r="222" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="143"/>
+      <c r="C222" s="9"/>
+      <c r="D222" s="147"/>
+      <c r="E222" s="146"/>
+      <c r="F222" s="146"/>
+      <c r="G222" s="148"/>
+    </row>
+    <row r="223" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="157"/>
+      <c r="C223" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="D223" s="173"/>
+      <c r="E223" s="157"/>
+      <c r="F223" s="165"/>
+      <c r="G223" s="158" t="s">
+        <v>145</v>
+      </c>
+      <c r="H223" s="173"/>
+      <c r="I223" s="157"/>
+      <c r="J223" s="167" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="159" t="s">
+        <v>134</v>
+      </c>
+      <c r="C224" s="160" t="s">
+        <v>134</v>
+      </c>
+      <c r="D224" s="173"/>
+      <c r="E224" s="159" t="s">
+        <v>32</v>
+      </c>
+      <c r="F224" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="G224" s="160" t="s">
+        <v>146</v>
+      </c>
+      <c r="H224" s="173"/>
+      <c r="I224" s="159" t="s">
+        <v>32</v>
+      </c>
+      <c r="J224" s="160" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="225" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="97">
-        <v>15</v>
-      </c>
-      <c r="B225" s="145">
-        <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
-        <v>2.4</v>
-      </c>
-      <c r="C225" s="9">
-        <f>(B225/avgHops20-(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A225)))/1000)/((2*(compactBlockCompactedness+missingTransactionRate))/(avgRelayBandwidth*'Current Bitcoin'!$K$312*POWER(1+bandwidthGrowth,A225)*mbToGB*KBperGB)+(1/(averageRelayTps*'Current Bitcoin'!$K$312))*missingTransactionRate/(avgTrSize/1000))</f>
-        <v>6436.9693797358441</v>
-      </c>
-      <c r="D225" s="6">
-        <f>C225*1000/secondsPerBlock/avgTrSize</f>
-        <v>22.585857472757347</v>
-      </c>
-      <c r="E225" s="150">
-        <f>avgHops20*(C225*missingTransactionRate*1000/avgTrSize)/(averageRelayTps*$L$195)</f>
-        <v>1.854535093948777</v>
-      </c>
-      <c r="F225" s="149">
-        <f>avgHops20*C225*2*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*$L$195*POWER(1+bandwidthGrowth,A225)*mbToGB*KBperGB)</f>
-        <v>6.1297797910218568E-2</v>
-      </c>
-      <c r="G225" s="192">
-        <f>avgHops20*(avgLatencyPerHop-(avgLatencyPerHop-'Current Bitcoin'!$H$11)*(1-POWER(1+latencyGrowth,A225)))/1000</f>
-        <v>0.48416710814100367</v>
-      </c>
-      <c r="H225" s="192">
-        <f t="shared" si="34"/>
-        <v>2.399999999999999</v>
+      <c r="B225" s="161">
+        <v>40</v>
+      </c>
+      <c r="C225" s="162">
+        <f>(avgHops19-1+3)*B225/1000</f>
+        <v>0.28396252649193254</v>
+      </c>
+      <c r="E225" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F225" s="170">
+        <v>1000</v>
+      </c>
+      <c r="G225" s="162">
+        <f>(E225*missingTransactionRate*1000/avgTrSize)/(F225*ongoingResourcePercent90thP1)</f>
+        <v>0.4210526315789474</v>
+      </c>
+      <c r="I225" s="168">
+        <v>1000</v>
+      </c>
+      <c r="J225" s="162">
+        <f>I225*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>1.52</v>
       </c>
     </row>
     <row r="226" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="145"/>
-      <c r="C226" s="9"/>
-      <c r="D226" s="150"/>
-      <c r="E226" s="149"/>
-      <c r="F226" s="149"/>
-      <c r="G226" s="151"/>
+      <c r="B226" s="161">
+        <v>50</v>
+      </c>
+      <c r="C226" s="162">
+        <f>(avgHops19-1+3)*B226/1000</f>
+        <v>0.35495315811491568</v>
+      </c>
+      <c r="E226" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F226" s="170">
+        <v>2000</v>
+      </c>
+      <c r="G226" s="162">
+        <f>(E226*missingTransactionRate*1000/avgTrSize)/(F226*ongoingResourcePercent90thP1)</f>
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="I226" s="168">
+        <v>2000</v>
+      </c>
+      <c r="J226" s="162">
+        <f>I226*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>3.04</v>
+      </c>
     </row>
     <row r="227" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="163"/>
-      <c r="C227" s="164" t="s">
-        <v>163</v>
-      </c>
-      <c r="D227" s="179"/>
-      <c r="E227" s="163"/>
-      <c r="F227" s="171"/>
-      <c r="G227" s="164" t="s">
-        <v>153</v>
-      </c>
-      <c r="H227" s="179"/>
-      <c r="I227" s="163"/>
-      <c r="J227" s="173" t="s">
-        <v>153</v>
+      <c r="B227" s="161">
+        <v>60</v>
+      </c>
+      <c r="C227" s="162">
+        <f>(avgHops19-1+3)*B227/1000</f>
+        <v>0.42594378973789876</v>
+      </c>
+      <c r="E227" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F227" s="170">
+        <v>3000</v>
+      </c>
+      <c r="G227" s="162">
+        <f>(E227*missingTransactionRate*1000/avgTrSize)/(F227*ongoingResourcePercent90thP1)</f>
+        <v>0.14035087719298248</v>
+      </c>
+      <c r="I227" s="168">
+        <v>3000</v>
+      </c>
+      <c r="J227" s="162">
+        <f>I227*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="228" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="165" t="s">
+      <c r="B228" s="161">
+        <v>70</v>
+      </c>
+      <c r="C228" s="162">
+        <f>(avgHops19-1+3)*B228/1000</f>
+        <v>0.49693442136088189</v>
+      </c>
+      <c r="E228" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F228" s="170">
+        <v>4000</v>
+      </c>
+      <c r="G228" s="162">
+        <f>(E228*missingTransactionRate*1000/avgTrSize)/(F228*ongoingResourcePercent90thP1)</f>
+        <v>0.10526315789473685</v>
+      </c>
+      <c r="I228" s="168">
+        <v>4000</v>
+      </c>
+      <c r="J228" s="162">
+        <f>I228*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="161">
+        <v>80</v>
+      </c>
+      <c r="C229" s="162">
+        <f>(avgHops19-1+3)*B229/1000</f>
+        <v>0.56792505298386509</v>
+      </c>
+      <c r="E229" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F229" s="170">
+        <v>5000</v>
+      </c>
+      <c r="G229" s="162">
+        <f>(E229*missingTransactionRate*1000/avgTrSize)/(F229*ongoingResourcePercent90thP1)</f>
+        <v>8.4210526315789486E-2</v>
+      </c>
+      <c r="I229" s="168">
+        <v>5000</v>
+      </c>
+      <c r="J229" s="162">
+        <f>I229*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="161">
+        <v>90</v>
+      </c>
+      <c r="C230" s="162">
+        <f>(avgHops19-1+3)*B230/1000</f>
+        <v>0.63891568460684811</v>
+      </c>
+      <c r="E230" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F230" s="170">
+        <v>6000</v>
+      </c>
+      <c r="G230" s="162">
+        <f>(E230*missingTransactionRate*1000/avgTrSize)/(F230*ongoingResourcePercent90thP1)</f>
+        <v>7.0175438596491238E-2</v>
+      </c>
+      <c r="I230" s="168">
+        <v>6000</v>
+      </c>
+      <c r="J230" s="162">
+        <f>I230*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="161">
+        <v>100</v>
+      </c>
+      <c r="C231" s="162">
+        <f>(avgHops19-1+3)*B231/1000</f>
+        <v>0.70990631622983136</v>
+      </c>
+      <c r="E231" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F231" s="170">
+        <v>7000</v>
+      </c>
+      <c r="G231" s="162">
+        <f>(E231*missingTransactionRate*1000/avgTrSize)/(F231*ongoingResourcePercent90thP1)</f>
+        <v>6.0150375939849628E-2</v>
+      </c>
+      <c r="I231" s="168">
+        <v>7000</v>
+      </c>
+      <c r="J231" s="162">
+        <f>I231*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="161">
+        <v>110</v>
+      </c>
+      <c r="C232" s="162">
+        <f>(avgHops19-1+3)*B232/1000</f>
+        <v>0.78089694785281438</v>
+      </c>
+      <c r="E232" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F232" s="170">
+        <v>8000</v>
+      </c>
+      <c r="G232" s="162">
+        <f>(E232*missingTransactionRate*1000/avgTrSize)/(F232*ongoingResourcePercent90thP1)</f>
+        <v>5.2631578947368425E-2</v>
+      </c>
+      <c r="I232" s="168">
+        <v>8000</v>
+      </c>
+      <c r="J232" s="162">
+        <f>I232*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="161">
+        <v>120</v>
+      </c>
+      <c r="C233" s="162">
+        <f>(avgHops19-1+3)*B233/1000</f>
+        <v>0.85188757947579752</v>
+      </c>
+      <c r="E233" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F233" s="170">
+        <v>9000</v>
+      </c>
+      <c r="G233" s="162">
+        <f>(E233*missingTransactionRate*1000/avgTrSize)/(F233*ongoingResourcePercent90thP1)</f>
+        <v>4.6783625730994156E-2</v>
+      </c>
+      <c r="I233" s="168">
+        <v>9000</v>
+      </c>
+      <c r="J233" s="162">
+        <f>I233*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="161">
+        <v>130</v>
+      </c>
+      <c r="C234" s="162">
+        <f>(avgHops19-1+3)*B234/1000</f>
+        <v>0.92287821109878065</v>
+      </c>
+      <c r="E234" s="168">
+        <v>2000</v>
+      </c>
+      <c r="F234" s="170">
+        <v>10000</v>
+      </c>
+      <c r="G234" s="162">
+        <f>(E234*missingTransactionRate*1000/avgTrSize)/(F234*ongoingResourcePercent90thP1)</f>
+        <v>4.2105263157894743E-2</v>
+      </c>
+      <c r="I234" s="168">
+        <v>10000</v>
+      </c>
+      <c r="J234" s="162">
+        <f>I234*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="163">
         <v>140</v>
       </c>
-      <c r="C228" s="166" t="s">
-        <v>140</v>
-      </c>
-      <c r="D228" s="179"/>
-      <c r="E228" s="165" t="s">
+      <c r="C235" s="164">
+        <f>(avgHops19-1+3)*B235/1000</f>
+        <v>0.99386884272176379</v>
+      </c>
+      <c r="E235" s="169">
+        <v>2000</v>
+      </c>
+      <c r="F235" s="171">
+        <v>11000</v>
+      </c>
+      <c r="G235" s="164">
+        <f>(E235*missingTransactionRate*1000/avgTrSize)/(F235*ongoingResourcePercent90thP1)</f>
+        <v>3.8277511961722493E-2</v>
+      </c>
+      <c r="I235" s="169">
+        <v>11000</v>
+      </c>
+      <c r="J235" s="164">
+        <f>I235*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B239" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C239" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="D239" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B240" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C240" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="D240" s="98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="105">
+        <v>3</v>
+      </c>
+      <c r="C241" s="23">
+        <v>30</v>
+      </c>
+      <c r="D241" s="127">
+        <f>(endGameUsers*1000*1000*1000)*(B241/2)/(C241*24*60*60)</f>
+        <v>4629.6296296296296</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D244" s="98"/>
+      <c r="E244" s="98"/>
+      <c r="F244" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="G244" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="H244" s="98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D245" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E245" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="F245" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="F228" s="172" t="s">
-        <v>104</v>
-      </c>
-      <c r="G228" s="166" t="s">
-        <v>154</v>
-      </c>
-      <c r="H228" s="179"/>
-      <c r="I228" s="165" t="s">
-        <v>32</v>
-      </c>
-      <c r="J228" s="166" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="167">
-        <v>40</v>
-      </c>
-      <c r="C229" s="168">
-        <f>avgHops20*B229/1000</f>
-        <v>0.29495364402104485</v>
-      </c>
-      <c r="E229" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F229" s="176">
-        <v>1000</v>
-      </c>
-      <c r="G229" s="168">
-        <f>avgHops20*(E229*missingTransactionRate*1000/avgTrSize)/(F229*0.1)</f>
-        <v>3.1047752002215248</v>
-      </c>
-      <c r="I229" s="174">
-        <v>1000</v>
-      </c>
-      <c r="J229" s="168">
-        <f>avgHops20*I229*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.13532674292442823</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="167">
-        <v>50</v>
-      </c>
-      <c r="C230" s="168">
-        <f>avgHops20*B230/1000</f>
-        <v>0.36869205502630609</v>
-      </c>
-      <c r="E230" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F230" s="176">
-        <v>2000</v>
-      </c>
-      <c r="G230" s="168">
-        <f>avgHops20*(E230*missingTransactionRate*1000/avgTrSize)/(F230*0.1)</f>
-        <v>1.5523876001107624</v>
-      </c>
-      <c r="I230" s="174">
-        <v>2000</v>
-      </c>
-      <c r="J230" s="168">
-        <f>avgHops20*I230*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.27065348584885646</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="167">
-        <v>60</v>
-      </c>
-      <c r="C231" s="168">
-        <f>avgHops20*B231/1000</f>
-        <v>0.44243046603156727</v>
-      </c>
-      <c r="E231" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F231" s="176">
-        <v>3000</v>
-      </c>
-      <c r="G231" s="168">
-        <f>avgHops20*(E231*missingTransactionRate*1000/avgTrSize)/(F231*0.1)</f>
-        <v>1.0349250667405083</v>
-      </c>
-      <c r="I231" s="174">
-        <v>3000</v>
-      </c>
-      <c r="J231" s="168">
-        <f>avgHops20*I231*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.40598022877328471</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="167">
-        <v>70</v>
-      </c>
-      <c r="C232" s="168">
-        <f>avgHops20*B232/1000</f>
-        <v>0.51616887703682846</v>
-      </c>
-      <c r="E232" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F232" s="176">
-        <v>4000</v>
-      </c>
-      <c r="G232" s="168">
-        <f>avgHops20*(E232*missingTransactionRate*1000/avgTrSize)/(F232*0.1)</f>
-        <v>0.77619380005538119</v>
-      </c>
-      <c r="I232" s="174">
-        <v>4000</v>
-      </c>
-      <c r="J232" s="168">
-        <f>avgHops20*I232*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.54130697169771291</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="167">
-        <v>80</v>
-      </c>
-      <c r="C233" s="168">
-        <f>avgHops20*B233/1000</f>
-        <v>0.58990728804208969</v>
-      </c>
-      <c r="E233" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F233" s="176">
-        <v>5000</v>
-      </c>
-      <c r="G233" s="168">
-        <f>avgHops20*(E233*missingTransactionRate*1000/avgTrSize)/(F233*0.1)</f>
-        <v>0.62095504004430491</v>
-      </c>
-      <c r="I233" s="174">
-        <v>5000</v>
-      </c>
-      <c r="J233" s="168">
-        <f>avgHops20*I233*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.67663371462214117</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="167">
-        <v>90</v>
-      </c>
-      <c r="C234" s="168">
-        <f>avgHops20*B234/1000</f>
-        <v>0.66364569904735093</v>
-      </c>
-      <c r="E234" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F234" s="176">
-        <v>6000</v>
-      </c>
-      <c r="G234" s="168">
-        <f>avgHops20*(E234*missingTransactionRate*1000/avgTrSize)/(F234*0.1)</f>
-        <v>0.51746253337025416</v>
-      </c>
-      <c r="I234" s="174">
-        <v>6000</v>
-      </c>
-      <c r="J234" s="168">
-        <f>avgHops20*I234*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.81196045754656943</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="167">
-        <v>100</v>
-      </c>
-      <c r="C235" s="168">
-        <f>avgHops20*B235/1000</f>
-        <v>0.73738411005261217</v>
-      </c>
-      <c r="E235" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F235" s="176">
-        <v>7000</v>
-      </c>
-      <c r="G235" s="168">
-        <f>avgHops20*(E235*missingTransactionRate*1000/avgTrSize)/(F235*0.1)</f>
-        <v>0.44353931431736066</v>
-      </c>
-      <c r="I235" s="174">
-        <v>7000</v>
-      </c>
-      <c r="J235" s="168">
-        <f>avgHops20*I235*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>0.94728720047099779</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="167">
-        <v>110</v>
-      </c>
-      <c r="C236" s="168">
-        <f>avgHops20*B236/1000</f>
-        <v>0.8111225210578733</v>
-      </c>
-      <c r="E236" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F236" s="176">
-        <v>8000</v>
-      </c>
-      <c r="G236" s="168">
-        <f>avgHops20*(E236*missingTransactionRate*1000/avgTrSize)/(F236*0.1)</f>
-        <v>0.38809690002769059</v>
-      </c>
-      <c r="I236" s="174">
-        <v>8000</v>
-      </c>
-      <c r="J236" s="168">
-        <f>avgHops20*I236*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>1.0826139433954258</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="167">
-        <v>120</v>
-      </c>
-      <c r="C237" s="168">
-        <f>avgHops20*B237/1000</f>
-        <v>0.88486093206313454</v>
-      </c>
-      <c r="E237" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F237" s="176">
-        <v>9000</v>
-      </c>
-      <c r="G237" s="168">
-        <f>avgHops20*(E237*missingTransactionRate*1000/avgTrSize)/(F237*0.1)</f>
-        <v>0.34497502224683607</v>
-      </c>
-      <c r="I237" s="174">
-        <v>9000</v>
-      </c>
-      <c r="J237" s="168">
-        <f>avgHops20*I237*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>1.2179406863198543</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="167">
-        <v>130</v>
-      </c>
-      <c r="C238" s="168">
-        <f>avgHops20*B238/1000</f>
-        <v>0.95859934306839578</v>
-      </c>
-      <c r="E238" s="174">
-        <v>2000</v>
-      </c>
-      <c r="F238" s="176">
-        <v>10000</v>
-      </c>
-      <c r="G238" s="168">
-        <f>avgHops20*(E238*missingTransactionRate*1000/avgTrSize)/(F238*0.1)</f>
-        <v>0.31047752002215245</v>
-      </c>
-      <c r="I238" s="174">
-        <v>10000</v>
-      </c>
-      <c r="J238" s="168">
-        <f>avgHops20*I238*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>1.3532674292442823</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="169">
-        <v>140</v>
-      </c>
-      <c r="C239" s="170">
-        <f>avgHops20*B239/1000</f>
-        <v>1.0323377540736569</v>
-      </c>
-      <c r="E239" s="175">
-        <v>2000</v>
-      </c>
-      <c r="F239" s="177">
-        <v>11000</v>
-      </c>
-      <c r="G239" s="170">
-        <f>avgHops20*(E239*missingTransactionRate*1000/avgTrSize)/(F239*0.1)</f>
-        <v>0.28225229092922954</v>
-      </c>
-      <c r="I239" s="175">
-        <v>11000</v>
-      </c>
-      <c r="J239" s="170">
-        <f>avgHops20*I239*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>1.4885941721687108</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B243" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="C243" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="D243" s="98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B244" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C244" s="98" t="s">
+      <c r="G245" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="H245" s="98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="177" t="s">
         <v>126</v>
       </c>
-      <c r="D244" s="98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B245" s="105">
-        <v>3</v>
-      </c>
-      <c r="C245" s="23">
-        <v>30</v>
-      </c>
-      <c r="D245" s="127">
-        <f>(endGameUsers*1000*1000*1000)*(B245/2)/(C245*24*60*60)</f>
-        <v>4629.6296296296296</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D248" s="98"/>
-      <c r="E248" s="98"/>
-      <c r="F248" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="G248" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="H248" s="98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D249" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E249" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="F249" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="G249" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="H249" s="98" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="183" t="s">
-        <v>185</v>
-      </c>
-      <c r="B250" s="183"/>
-      <c r="C250" s="183"/>
-      <c r="D250" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="E250" s="100">
-        <f>D210</f>
-        <v>10.672027007911955</v>
-      </c>
-      <c r="F250" s="113">
-        <f>C210/1000</f>
-        <v>3.0415276972549075</v>
-      </c>
-      <c r="G250" s="118" t="s">
+      <c r="B246" s="177"/>
+      <c r="C246" s="177"/>
+      <c r="D246" s="95" t="str">
+        <f>$A$120</f>
+        <v>10th %ile</v>
+      </c>
+      <c r="E246" s="100">
+        <f>E152</f>
+        <v>135.91242150024675</v>
+      </c>
+      <c r="F246" s="117">
+        <f>D152</f>
+        <v>187.5</v>
+      </c>
+      <c r="G246" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H250" s="198">
+      <c r="H246" s="194">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="183" t="s">
-        <v>129</v>
-      </c>
-      <c r="B251" s="183"/>
-      <c r="C251" s="183"/>
-      <c r="D251" s="95" t="str">
+    <row r="247" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="177" t="s">
+        <v>174</v>
+      </c>
+      <c r="B247" s="177"/>
+      <c r="C247" s="177"/>
+      <c r="D247" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="E247" s="100">
+        <f>G206</f>
+        <v>167.46458256631118</v>
+      </c>
+      <c r="F247" s="113">
+        <f>F206/1000</f>
+        <v>47.727406031398687</v>
+      </c>
+      <c r="G247" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="H247" s="194">
+        <f>endGameUsers*utxosPerUserEndGame</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="B248" s="177"/>
+      <c r="C248" s="177"/>
+      <c r="D248" s="95" t="str">
         <f>$A$120</f>
         <v>10th %ile</v>
       </c>
-      <c r="E251" s="100">
-        <f>E152</f>
-        <v>135.91242150024675</v>
-      </c>
-      <c r="F251" s="117">
-        <f>D152</f>
-        <v>187.5</v>
-      </c>
-      <c r="G251" s="118" t="s">
+      <c r="E248" s="45">
+        <f>F130</f>
+        <v>218.95015316067949</v>
+      </c>
+      <c r="F248" s="117">
+        <f>E130</f>
+        <v>62.400793650793652</v>
+      </c>
+      <c r="G248" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H251" s="198">
+      <c r="H248" s="194">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="183" t="s">
-        <v>130</v>
-      </c>
-      <c r="B252" s="183"/>
-      <c r="C252" s="183"/>
-      <c r="D252" s="95" t="str">
+    <row r="249" spans="1:8" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="B249" s="177"/>
+      <c r="C249" s="177"/>
+      <c r="D249" s="95" t="str">
         <f>$A$120</f>
         <v>10th %ile</v>
       </c>
-      <c r="E252" s="45">
-        <f>F130</f>
-        <v>218.95015316067949</v>
-      </c>
-      <c r="F252" s="117">
-        <f>E130</f>
-        <v>62.400793650793652</v>
-      </c>
-      <c r="G252" s="118" t="s">
+      <c r="E249" s="100">
+        <f>E174</f>
+        <v>1019.3431612518506</v>
+      </c>
+      <c r="F249" s="117">
+        <f>D174</f>
+        <v>1406.25</v>
+      </c>
+      <c r="G249" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H252" s="198">
+      <c r="H249" s="194">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="183" t="s">
-        <v>116</v>
-      </c>
-      <c r="B253" s="183"/>
-      <c r="C253" s="183"/>
-      <c r="D253" s="95" t="str">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="B251" s="97"/>
+      <c r="C251" s="97"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="97"/>
+      <c r="B252" s="97"/>
+      <c r="C252" s="97"/>
+      <c r="D252" s="98"/>
+      <c r="E252" s="98"/>
+      <c r="F252" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="G252" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="H252" s="98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D253" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E253" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="F253" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="G253" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="H253" s="98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="177" t="s">
+        <v>174</v>
+      </c>
+      <c r="B254" s="177"/>
+      <c r="C254" s="177"/>
+      <c r="D254" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="E254" s="100">
+        <f>G216</f>
+        <v>837.7614234038316</v>
+      </c>
+      <c r="F254" s="113">
+        <f>F216/1000</f>
+        <v>238.76200567009201</v>
+      </c>
+      <c r="G254" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="H254" s="194">
+        <f>endGameUsers*utxosPerUserEndGame</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="177" t="s">
+        <v>126</v>
+      </c>
+      <c r="B255" s="177"/>
+      <c r="C255" s="177"/>
+      <c r="D255" s="95" t="str">
         <f>$A$120</f>
         <v>10th %ile</v>
       </c>
-      <c r="E253" s="100">
-        <f>E174</f>
-        <v>1019.3431612518506</v>
-      </c>
-      <c r="F253" s="117">
-        <f>D174</f>
-        <v>1406.25</v>
-      </c>
-      <c r="G253" s="118" t="s">
+      <c r="E255" s="100">
+        <f>E162</f>
+        <v>1424.371849574386</v>
+      </c>
+      <c r="F255" s="117">
+        <f>D162</f>
+        <v>1746.2298274040222</v>
+      </c>
+      <c r="G255" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H253" s="198">
+      <c r="H255" s="194">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="102" t="s">
-        <v>133</v>
-      </c>
-      <c r="B255" s="97"/>
-      <c r="C255" s="97"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="97"/>
-      <c r="B256" s="97"/>
-      <c r="C256" s="97"/>
-      <c r="D256" s="98"/>
-      <c r="E256" s="98"/>
-      <c r="F256" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="G256" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="H256" s="98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D257" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E257" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="F257" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="G257" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="H257" s="98" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="183" t="s">
-        <v>185</v>
-      </c>
-      <c r="B258" s="183"/>
-      <c r="C258" s="183"/>
-      <c r="D258" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="E258" s="100">
-        <f>D220</f>
-        <v>20.514670315907935</v>
-      </c>
-      <c r="F258" s="113">
-        <f>C220/1000</f>
-        <v>5.8466810400337605</v>
-      </c>
-      <c r="G258" s="118" t="s">
+    <row r="256" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="B256" s="177"/>
+      <c r="C256" s="177"/>
+      <c r="D256" s="95" t="str">
+        <f>$A$120</f>
+        <v>10th %ile</v>
+      </c>
+      <c r="E256" s="45">
+        <f>F140</f>
+        <v>2022.3013022190946</v>
+      </c>
+      <c r="F256" s="117">
+        <f>E140</f>
+        <v>576.35587113244208</v>
+      </c>
+      <c r="G256" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H258" s="198">
+      <c r="H256" s="194">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="183" t="s">
-        <v>129</v>
-      </c>
-      <c r="B259" s="183"/>
-      <c r="C259" s="183"/>
-      <c r="D259" s="95" t="str">
+    <row r="257" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="B257" s="177"/>
+      <c r="C257" s="177"/>
+      <c r="D257" s="95" t="str">
         <f>$A$120</f>
         <v>10th %ile</v>
       </c>
-      <c r="E259" s="100">
-        <f>E162</f>
-        <v>1424.371849574386</v>
-      </c>
-      <c r="F259" s="117">
-        <f>D162</f>
-        <v>1746.2298274040222</v>
-      </c>
-      <c r="G259" s="118" t="s">
+      <c r="E257" s="100">
+        <f>E184</f>
+        <v>10682.788871807896</v>
+      </c>
+      <c r="F257" s="117">
+        <f>D184</f>
+        <v>13096.723705530167</v>
+      </c>
+      <c r="G257" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H259" s="198">
+      <c r="H257" s="194">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="183" t="s">
-        <v>130</v>
-      </c>
-      <c r="B260" s="183"/>
-      <c r="C260" s="183"/>
-      <c r="D260" s="95" t="str">
-        <f>$A$120</f>
-        <v>10th %ile</v>
-      </c>
-      <c r="E260" s="45">
-        <f>F140</f>
-        <v>2022.3013022190946</v>
-      </c>
-      <c r="F260" s="117">
-        <f>E140</f>
-        <v>576.35587113244208</v>
-      </c>
-      <c r="G260" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="H260" s="198">
-        <f>endGameUsers*utxosPerUserEndGame</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="183" t="s">
-        <v>116</v>
-      </c>
-      <c r="B261" s="183"/>
-      <c r="C261" s="183"/>
-      <c r="D261" s="95" t="str">
-        <f>$A$120</f>
-        <v>10th %ile</v>
-      </c>
-      <c r="E261" s="100">
-        <f>E184</f>
-        <v>10682.788871807896</v>
-      </c>
-      <c r="F261" s="117">
-        <f>D184</f>
-        <v>13096.723705530167</v>
-      </c>
-      <c r="G261" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="H261" s="198">
-        <f>endGameUsers*utxosPerUserEndGame</f>
-        <v>800</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A258:C258"/>
+  <mergeCells count="14">
+    <mergeCell ref="A254:C254"/>
     <mergeCell ref="A108:C108"/>
     <mergeCell ref="A112:C112"/>
     <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A256:C256"/>
     <mergeCell ref="A110:C110"/>
     <mergeCell ref="A111:C111"/>
     <mergeCell ref="A113:C113"/>
@@ -19910,19 +20217,6 @@
           <xm:sqref>F108:F109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="lessThan" id="{A26EE87F-1C32-41E6-AC03-91370DB0C051}">
-            <xm:f>'Current Bitcoin'!$C$19*1000/'Current Bitcoin'!$C$10/'Current Bitcoin'!$F$10</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E108:E113 E253 E251 E261 E259</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="13" operator="lessThan" id="{E16F959B-687E-48F0-9CC9-FF6B850AFA7F}">
             <xm:f>'Current Bitcoin'!$B$19</xm:f>
             <x14:dxf>
@@ -19949,23 +20243,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F110:F113</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="lessThan" id="{8FB7B753-C1D7-4AB1-8C28-AF407E639D08}">
-            <xm:f>'Current Bitcoin'!$C$19/1000</xm:f>
-            <x14:dxf>
-              <font>
-                <color auto="1"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFBD1D7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F251:F253</xm:sqref>
+          <xm:sqref>F110:F113 F248:F249 F246</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="lessThan" id="{3D4FB6AB-EB61-4230-B3E1-02B34DEC6588}">
@@ -19981,11 +20259,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F259:F261</xm:sqref>
+          <xm:sqref>F255:F257</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{99185354-F458-419D-A3D6-8B39909C108D}">
-            <xm:f>'Current Bitcoin'!$C$19*1000/'Current Bitcoin'!$C$10/'Current Bitcoin'!$F$10</xm:f>
+          <x14:cfRule type="cellIs" priority="18" operator="lessThan" id="{A26EE87F-1C32-41E6-AC03-91370DB0C051}">
+            <xm:f>'Current Bitcoin'!$C$19*1000/'Current Bitcoin'!$C$10/'Current Bitcoin'!$A$15</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -19994,20 +20272,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E258</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{B1AA7045-39BA-4223-846C-776DD8F18D66}">
-            <xm:f>'Current Bitcoin'!$C$19*1000/'Current Bitcoin'!$C$10/'Current Bitcoin'!$F$10</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E250</xm:sqref>
+          <xm:sqref>E108:E113 E249 E257 E254:E255 E246:E247</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/bottlenecks.xlsx
+++ b/bottlenecks.xlsx
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="186">
   <si>
     <t>User Type</t>
   </si>
@@ -711,9 +711,6 @@
     <t>Latency-based Miner Centralization (With Sybil)</t>
   </si>
   <si>
-    <t>power(.1</t>
-  </si>
-  <si>
     <t>Slowest-link</t>
   </si>
   <si>
@@ -782,20 +779,20 @@
     <numFmt numFmtId="190" formatCode="#\ &quot;Billion&quot;"/>
     <numFmt numFmtId="191" formatCode="#\ &quot; million&quot;"/>
     <numFmt numFmtId="192" formatCode="#,###.0\ &quot;Mbps&quot;"/>
-    <numFmt numFmtId="194" formatCode="#.0\ &quot;s&quot;"/>
-    <numFmt numFmtId="195" formatCode="#\ &quot;ms&quot;"/>
-    <numFmt numFmtId="196" formatCode="#.000\ &quot;s&quot;"/>
-    <numFmt numFmtId="197" formatCode="#,###.00\ &quot;s&quot;"/>
-    <numFmt numFmtId="198" formatCode="#,##0.000&quot; s&quot;"/>
-    <numFmt numFmtId="199" formatCode="#\ &quot;km&quot;"/>
-    <numFmt numFmtId="200" formatCode="#&quot; ms&quot;"/>
-    <numFmt numFmtId="201" formatCode="0.00\ &quot;s&quot;"/>
-    <numFmt numFmtId="219" formatCode="0%&quot;/yr&quot;"/>
-    <numFmt numFmtId="222" formatCode="#.00\ &quot;s&quot;"/>
-    <numFmt numFmtId="227" formatCode="0.0000000"/>
-    <numFmt numFmtId="234" formatCode="#\ &quot; Billion&quot;"/>
-    <numFmt numFmtId="235" formatCode="&quot;&gt;&quot;#\ &quot;Billion&quot;"/>
-    <numFmt numFmtId="239" formatCode="#.#"/>
+    <numFmt numFmtId="193" formatCode="#.0\ &quot;s&quot;"/>
+    <numFmt numFmtId="194" formatCode="#\ &quot;ms&quot;"/>
+    <numFmt numFmtId="195" formatCode="#.000\ &quot;s&quot;"/>
+    <numFmt numFmtId="196" formatCode="#,###.00\ &quot;s&quot;"/>
+    <numFmt numFmtId="197" formatCode="#,##0.000&quot; s&quot;"/>
+    <numFmt numFmtId="198" formatCode="#\ &quot;km&quot;"/>
+    <numFmt numFmtId="199" formatCode="#&quot; ms&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00\ &quot;s&quot;"/>
+    <numFmt numFmtId="201" formatCode="0%&quot;/yr&quot;"/>
+    <numFmt numFmtId="202" formatCode="#.00\ &quot;s&quot;"/>
+    <numFmt numFmtId="203" formatCode="0.0000000"/>
+    <numFmt numFmtId="204" formatCode="#\ &quot; Billion&quot;"/>
+    <numFmt numFmtId="205" formatCode="&quot;&gt;&quot;#\ &quot;Billion&quot;"/>
+    <numFmt numFmtId="206" formatCode="#.#"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1259,25 +1256,25 @@
     <xf numFmtId="192" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="195" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="200" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="199" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="200" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="198" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="199" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="200" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="198" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="199" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="198" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1292,9 +1289,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="201" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="201" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1314,10 +1311,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="201" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="201" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="194" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="202" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="203" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="204" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="205" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="206" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1329,33 +1350,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="219" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="219" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="222" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="227" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="234" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="235" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="239" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1627,8 +1624,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142108544"/>
-        <c:axId val="142114816"/>
+        <c:axId val="146785792"/>
+        <c:axId val="146787712"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1776,11 +1773,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142117888"/>
-        <c:axId val="142116352"/>
+        <c:axId val="146799232"/>
+        <c:axId val="146797696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142108544"/>
+        <c:axId val="146785792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1806,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142114816"/>
+        <c:crossAx val="146787712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1817,7 +1814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142114816"/>
+        <c:axId val="146787712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,12 +1839,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142108544"/>
+        <c:crossAx val="146785792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142116352"/>
+        <c:axId val="146797696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,12 +1870,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142117888"/>
+        <c:crossAx val="146799232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="142117888"/>
+        <c:axId val="146799232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142116352"/>
+        <c:crossAx val="146797696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2095,8 +2092,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164049664"/>
-        <c:axId val="164051584"/>
+        <c:axId val="140198272"/>
+        <c:axId val="140200192"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2244,11 +2241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164063104"/>
-        <c:axId val="164061568"/>
+        <c:axId val="140207616"/>
+        <c:axId val="140206080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164049664"/>
+        <c:axId val="140198272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2274,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164051584"/>
+        <c:crossAx val="140200192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2285,7 +2282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164051584"/>
+        <c:axId val="140200192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,12 +2307,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164049664"/>
+        <c:crossAx val="140198272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164061568"/>
+        <c:axId val="140206080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,12 +2338,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164063104"/>
+        <c:crossAx val="140207616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="164063104"/>
+        <c:axId val="140207616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,7 +2353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164061568"/>
+        <c:crossAx val="140206080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2563,8 +2560,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164085120"/>
-        <c:axId val="164095488"/>
+        <c:axId val="140241920"/>
+        <c:axId val="140326016"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2712,11 +2709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164496128"/>
-        <c:axId val="164097024"/>
+        <c:axId val="140345728"/>
+        <c:axId val="140327552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164085120"/>
+        <c:axId val="140241920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2742,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164095488"/>
+        <c:crossAx val="140326016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2753,7 +2750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164095488"/>
+        <c:axId val="140326016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,12 +2775,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164085120"/>
+        <c:crossAx val="140241920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164097024"/>
+        <c:axId val="140327552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,12 +2806,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164496128"/>
+        <c:crossAx val="140345728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="164496128"/>
+        <c:axId val="140345728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,7 +2821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164097024"/>
+        <c:crossAx val="140327552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3032,8 +3029,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164531200"/>
-        <c:axId val="164541568"/>
+        <c:axId val="162482816"/>
+        <c:axId val="162493184"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3181,11 +3178,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164544896"/>
-        <c:axId val="164543104"/>
+        <c:axId val="162504704"/>
+        <c:axId val="162494720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164531200"/>
+        <c:axId val="162482816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,7 +3211,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164541568"/>
+        <c:crossAx val="162493184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3222,7 +3219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164541568"/>
+        <c:axId val="162493184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,12 +3244,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164531200"/>
+        <c:crossAx val="162482816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164543104"/>
+        <c:axId val="162494720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3278,12 +3275,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164544896"/>
+        <c:crossAx val="162504704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="164544896"/>
+        <c:axId val="162504704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3293,7 +3290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164543104"/>
+        <c:crossAx val="162494720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3648,11 +3645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164587008"/>
-        <c:axId val="164588928"/>
+        <c:axId val="162521856"/>
+        <c:axId val="162523776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164587008"/>
+        <c:axId val="162521856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3681,7 +3678,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164588928"/>
+        <c:crossAx val="162523776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3689,7 +3686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164588928"/>
+        <c:axId val="162523776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3714,7 +3711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164587008"/>
+        <c:crossAx val="162521856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3919,8 +3916,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164611200"/>
-        <c:axId val="164613120"/>
+        <c:axId val="162568448"/>
+        <c:axId val="162582912"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4068,11 +4065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164632832"/>
-        <c:axId val="164631296"/>
+        <c:axId val="162585984"/>
+        <c:axId val="162584448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164611200"/>
+        <c:axId val="162568448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4101,7 +4098,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164613120"/>
+        <c:crossAx val="162582912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4109,7 +4106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164613120"/>
+        <c:axId val="162582912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4134,12 +4131,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164611200"/>
+        <c:crossAx val="162568448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164631296"/>
+        <c:axId val="162584448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,12 +4162,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164632832"/>
+        <c:crossAx val="162585984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="164632832"/>
+        <c:axId val="162585984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4180,7 +4177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164631296"/>
+        <c:crossAx val="162584448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4534,11 +4531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164649600"/>
-        <c:axId val="164655872"/>
+        <c:axId val="162611200"/>
+        <c:axId val="162613120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164649600"/>
+        <c:axId val="162611200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,7 +4564,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164655872"/>
+        <c:crossAx val="162613120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4575,7 +4572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164655872"/>
+        <c:axId val="162613120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4600,7 +4597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164649600"/>
+        <c:crossAx val="162611200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4805,11 +4802,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164701312"/>
-        <c:axId val="164703232"/>
+        <c:axId val="162165504"/>
+        <c:axId val="162167424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164701312"/>
+        <c:axId val="162165504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,14 +4828,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164703232"/>
+        <c:crossAx val="162167424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4846,7 +4842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164703232"/>
+        <c:axId val="162167424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4873,7 +4869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164701312"/>
+        <c:crossAx val="162165504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5776,8 +5772,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L405"/>
   <sheetViews>
-    <sheetView topLeftCell="B313" workbookViewId="0">
-      <selection activeCell="K333" sqref="K333"/>
+    <sheetView topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5958,37 +5954,37 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="183">
+      <c r="B6" s="178">
         <v>0.25</v>
       </c>
-      <c r="C6" s="183">
+      <c r="C6" s="178">
         <v>0.25</v>
       </c>
-      <c r="D6" s="183">
+      <c r="D6" s="178">
         <v>0.15</v>
       </c>
-      <c r="E6" s="183">
+      <c r="E6" s="178">
         <v>0.17</v>
       </c>
-      <c r="F6" s="184">
+      <c r="F6" s="179">
         <v>-0.03</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="174" t="s">
+      <c r="H7" s="193" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H8" s="175" t="s">
+      <c r="H8" s="197" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6130,7 +6126,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -6222,7 +6218,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>51</v>
@@ -6482,10 +6478,10 @@
       <c r="D24" s="104">
         <v>0.01</v>
       </c>
-      <c r="E24" s="186">
+      <c r="E24" s="181">
         <v>15</v>
       </c>
-      <c r="F24" s="185">
+      <c r="F24" s="180">
         <f>(10000/299792)*1000</f>
         <v>33.356460479265621</v>
       </c>
@@ -11888,7 +11884,7 @@
         <v>136</v>
       </c>
       <c r="G315" s="173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="316" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -11903,10 +11899,10 @@
         <v>136</v>
       </c>
       <c r="F316" s="173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G316" s="173" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="317" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -11926,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="G317" s="173" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="318" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -11936,11 +11932,11 @@
       <c r="C318" s="142">
         <v>1E-3</v>
       </c>
-      <c r="D318" s="179">
+      <c r="D318" s="174">
         <f>(privateConnections10thb+publicConnections10thb)</f>
         <v>88</v>
       </c>
-      <c r="E318" s="180">
+      <c r="E318" s="175">
         <f>LOG(curUsers*1000*1000)/LOG(D318/2)</f>
         <v>4.1650715824988263</v>
       </c>
@@ -11999,7 +11995,7 @@
         <v>145</v>
       </c>
       <c r="J321" s="106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="322" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -12013,10 +12009,10 @@
         <v>148</v>
       </c>
       <c r="D322" s="173" t="s">
+        <v>176</v>
+      </c>
+      <c r="E322" s="173" t="s">
         <v>177</v>
-      </c>
-      <c r="E322" s="173" t="s">
-        <v>178</v>
       </c>
       <c r="F322" s="173" t="s">
         <v>32</v>
@@ -12030,8 +12026,8 @@
       <c r="I322" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J322" s="195" t="s">
-        <v>181</v>
+      <c r="J322" s="190" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="323" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -12042,16 +12038,16 @@
         <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C323" s="187">
+      <c r="C323" s="182">
         <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A323))))/1000</f>
         <v>1.4794676897311649</v>
       </c>
       <c r="D323" s="9">
-        <f>(B323 - C323)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A323)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" ref="D323:D338" si="47">(B323 - C323)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A323)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
         <v>605.61336201897041</v>
       </c>
       <c r="E323" s="9">
-        <f>(B323 - C323)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A323))/missingTransactionRate/1000</f>
+        <f t="shared" ref="E323:E338" si="48">(B323 - C323)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A323))/missingTransactionRate/1000</f>
         <v>874.50569475539316</v>
       </c>
       <c r="F323" s="9">
@@ -12059,18 +12055,18 @@
         <v>605.61336201897041</v>
       </c>
       <c r="G323" s="6">
-        <f>F323*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" ref="G323:G338" si="49">F323*1000/secondsPerBlock/avgTrSize</f>
         <v>2.1249591649788435</v>
       </c>
       <c r="H323" s="146">
-        <f>F323*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A323)*mbToGB*KBperGB)</f>
+        <f t="shared" ref="H323:H338" si="50">F323*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A323)*mbToGB*KBperGB)</f>
         <v>0.92053231026883497</v>
       </c>
       <c r="I323" s="147">
-        <f>(F323*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A323))</f>
+        <f t="shared" ref="I323:I338" si="51">(F323*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A323))</f>
         <v>0.63748774949365306</v>
       </c>
-      <c r="J323" s="196">
+      <c r="J323" s="191">
         <f>MAX(H323,I323)+C323</f>
         <v>2.4</v>
       </c>
@@ -12083,36 +12079,36 @@
         <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C324" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A324))))/1000</f>
+      <c r="C324" s="182">
+        <f t="shared" ref="C323:C338" si="52">(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A324))))/1000</f>
         <v>1.4387579412513545</v>
       </c>
       <c r="D324" s="9">
-        <f>(B324 - C324)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A324)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="47"/>
         <v>790.49511410250443</v>
       </c>
       <c r="E324" s="9">
-        <f>(B324 - C324)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A324))/missingTransactionRate/1000</f>
+        <f t="shared" si="48"/>
         <v>1068.4205482991194</v>
       </c>
       <c r="F324" s="9">
-        <f t="shared" ref="F324:F338" si="47">MIN(D324,E324)</f>
+        <f t="shared" ref="F324:F338" si="53">MIN(D324,E324)</f>
         <v>790.49511410250443</v>
       </c>
       <c r="G324" s="6">
-        <f>F324*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="49"/>
         <v>2.7736670670263313</v>
       </c>
       <c r="H324" s="146">
-        <f>F324*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A324)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>0.96124205874864532</v>
       </c>
       <c r="I324" s="147">
-        <f>(F324*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A324))</f>
+        <f t="shared" si="51"/>
         <v>0.71119668385290558</v>
       </c>
-      <c r="J324" s="196">
-        <f t="shared" ref="J324:J338" si="48">MAX(H324,I324)+C324</f>
+      <c r="J324" s="191">
+        <f t="shared" ref="J324:J338" si="54">MAX(H324,I324)+C324</f>
         <v>2.4</v>
       </c>
     </row>
@@ -12121,39 +12117,39 @@
         <v>2</v>
       </c>
       <c r="B325" s="143">
-        <f t="shared" ref="B325:B338" si="49">secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+        <f t="shared" ref="B325:B338" si="55">secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C325" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A325))))/1000</f>
+      <c r="C325" s="182">
+        <f t="shared" si="52"/>
         <v>1.3992694852259382</v>
       </c>
       <c r="D325" s="9">
-        <f>(B325 - C325)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A325)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>1028.7114666674154</v>
-      </c>
-      <c r="E325" s="9">
-        <f>(B325 - C325)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A325))/missingTransactionRate/1000</f>
-        <v>1301.4050015905023</v>
-      </c>
-      <c r="F325" s="9">
         <f t="shared" si="47"/>
         <v>1028.7114666674154</v>
       </c>
+      <c r="E325" s="9">
+        <f t="shared" si="48"/>
+        <v>1301.4050015905023</v>
+      </c>
+      <c r="F325" s="9">
+        <f t="shared" si="53"/>
+        <v>1028.7114666674154</v>
+      </c>
       <c r="G325" s="6">
-        <f>F325*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="49"/>
         <v>3.6095139181312819</v>
       </c>
       <c r="H325" s="146">
-        <f>F325*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A325)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>1.0007305147740617</v>
       </c>
       <c r="I325" s="147">
-        <f>(F325*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A325))</f>
+        <f t="shared" si="51"/>
         <v>0.79103964894395862</v>
       </c>
-      <c r="J325" s="196">
-        <f t="shared" si="48"/>
+      <c r="J325" s="191">
+        <f t="shared" si="54"/>
         <v>2.4</v>
       </c>
     </row>
@@ -12162,39 +12158,39 @@
         <v>3</v>
       </c>
       <c r="B326" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2.4</v>
       </c>
-      <c r="C326" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A326))))/1000</f>
+      <c r="C326" s="182">
+        <f t="shared" si="52"/>
         <v>1.3609656828812844</v>
       </c>
       <c r="D326" s="9">
-        <f>(B326 - C326)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A326)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>1335.1078293569021</v>
-      </c>
-      <c r="E326" s="9">
-        <f>(B326 - C326)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A326))/missingTransactionRate/1000</f>
-        <v>1580.9243262562841</v>
-      </c>
-      <c r="F326" s="9">
         <f t="shared" si="47"/>
         <v>1335.1078293569021</v>
       </c>
+      <c r="E326" s="9">
+        <f t="shared" si="48"/>
+        <v>1580.9243262562841</v>
+      </c>
+      <c r="F326" s="9">
+        <f t="shared" si="53"/>
+        <v>1335.1078293569021</v>
+      </c>
       <c r="G326" s="6">
-        <f>F326*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="49"/>
         <v>4.6845888749364981</v>
       </c>
       <c r="H326" s="146">
-        <f>F326*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A326)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>1.0390343171187155</v>
       </c>
       <c r="I326" s="147">
-        <f>(F326*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A326))</f>
+        <f t="shared" si="51"/>
         <v>0.87747580875089659</v>
       </c>
-      <c r="J326" s="196">
-        <f t="shared" si="48"/>
+      <c r="J326" s="191">
+        <f t="shared" si="54"/>
         <v>2.4</v>
       </c>
     </row>
@@ -12203,39 +12199,39 @@
         <v>4</v>
       </c>
       <c r="B327" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2.4</v>
       </c>
-      <c r="C327" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A327))))/1000</f>
+      <c r="C327" s="182">
+        <f t="shared" si="52"/>
         <v>1.3238109946069705</v>
       </c>
       <c r="D327" s="9">
-        <f>(B327 - C327)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A327)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>1728.5622131235696</v>
-      </c>
-      <c r="E327" s="9">
-        <f>(B327 - C327)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A327))/missingTransactionRate/1000</f>
-        <v>1915.8239721111872</v>
-      </c>
-      <c r="F327" s="9">
         <f t="shared" si="47"/>
         <v>1728.5622131235696</v>
       </c>
+      <c r="E327" s="9">
+        <f t="shared" si="48"/>
+        <v>1915.8239721111872</v>
+      </c>
+      <c r="F327" s="9">
+        <f t="shared" si="53"/>
+        <v>1728.5622131235696</v>
+      </c>
       <c r="G327" s="6">
-        <f>F327*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="49"/>
         <v>6.0651305723634019</v>
       </c>
       <c r="H327" s="146">
-        <f>F327*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A327)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>1.0761890053930294</v>
       </c>
       <c r="I327" s="147">
-        <f>(F327*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A327))</f>
+        <f t="shared" si="51"/>
         <v>0.97099716674464143</v>
       </c>
-      <c r="J327" s="196">
-        <f t="shared" si="48"/>
+      <c r="J327" s="191">
+        <f t="shared" si="54"/>
         <v>2.4</v>
       </c>
     </row>
@@ -12244,39 +12240,39 @@
         <v>5</v>
       </c>
       <c r="B328" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2.4</v>
       </c>
-      <c r="C328" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A328))))/1000</f>
+      <c r="C328" s="182">
+        <f t="shared" si="52"/>
         <v>1.2877709469808858</v>
       </c>
       <c r="D328" s="9">
-        <f>(B328 - C328)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A328)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>2233.061645947736</v>
-      </c>
-      <c r="E328" s="9">
-        <f>(B328 - C328)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A328))/missingTransactionRate/1000</f>
-        <v>2316.5791824132161</v>
-      </c>
-      <c r="F328" s="9">
         <f t="shared" si="47"/>
         <v>2233.061645947736</v>
       </c>
+      <c r="E328" s="9">
+        <f t="shared" si="48"/>
+        <v>2316.5791824132161</v>
+      </c>
+      <c r="F328" s="9">
+        <f t="shared" si="53"/>
+        <v>2233.061645947736</v>
+      </c>
       <c r="G328" s="6">
-        <f>F328*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="49"/>
         <v>7.8353040208692493</v>
       </c>
       <c r="H328" s="146">
-        <f>F328*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A328)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>1.1122290530191141</v>
       </c>
       <c r="I328" s="147">
-        <f>(F328*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A328))</f>
+        <f t="shared" si="51"/>
         <v>1.0721308637585492</v>
       </c>
-      <c r="J328" s="196">
-        <f t="shared" si="48"/>
+      <c r="J328" s="191">
+        <f t="shared" si="54"/>
         <v>2.4</v>
       </c>
     </row>
@@ -12285,39 +12281,39 @@
         <v>6</v>
       </c>
       <c r="B329" s="143">
+        <f t="shared" si="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="C329" s="182">
+        <f t="shared" si="52"/>
+        <v>1.2528121007835837</v>
+      </c>
+      <c r="D329" s="9">
+        <f t="shared" si="47"/>
+        <v>2879.0621988808889</v>
+      </c>
+      <c r="E329" s="9">
+        <f t="shared" si="48"/>
+        <v>2795.5890651839063</v>
+      </c>
+      <c r="F329" s="9">
+        <f t="shared" si="53"/>
+        <v>2795.5890651839063</v>
+      </c>
+      <c r="G329" s="6">
         <f t="shared" si="49"/>
-        <v>2.4</v>
-      </c>
-      <c r="C329" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A329))))/1000</f>
-        <v>1.2528121007835837</v>
-      </c>
-      <c r="D329" s="9">
-        <f>(B329 - C329)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A329)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>2879.0621988808889</v>
-      </c>
-      <c r="E329" s="9">
-        <f>(B329 - C329)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A329))/missingTransactionRate/1000</f>
-        <v>2795.5890651839063</v>
-      </c>
-      <c r="F329" s="9">
-        <f t="shared" si="47"/>
-        <v>2795.5890651839063</v>
-      </c>
-      <c r="G329" s="6">
-        <f>F329*1000/secondsPerBlock/avgTrSize</f>
         <v>9.8090844392417758</v>
       </c>
       <c r="H329" s="146">
-        <f>F329*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A329)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>1.1139272878534263</v>
       </c>
       <c r="I329" s="147">
-        <f>(F329*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A329))</f>
+        <f t="shared" si="51"/>
         <v>1.147187899216416</v>
       </c>
-      <c r="J329" s="196">
-        <f t="shared" si="48"/>
+      <c r="J329" s="191">
+        <f t="shared" si="54"/>
         <v>2.3999999999999995</v>
       </c>
     </row>
@@ -12326,39 +12322,39 @@
         <v>7</v>
       </c>
       <c r="B330" s="143">
+        <f t="shared" si="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="C330" s="182">
+        <f t="shared" si="52"/>
+        <v>1.2189020199722007</v>
+      </c>
+      <c r="D330" s="9">
+        <f t="shared" si="47"/>
+        <v>3705.2066076046517</v>
+      </c>
+      <c r="E330" s="9">
+        <f t="shared" si="48"/>
+        <v>3367.5229508210982</v>
+      </c>
+      <c r="F330" s="9">
+        <f t="shared" si="53"/>
+        <v>3367.5229508210982</v>
+      </c>
+      <c r="G330" s="6">
         <f t="shared" si="49"/>
-        <v>2.4</v>
-      </c>
-      <c r="C330" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A330))))/1000</f>
-        <v>1.2189020199722007</v>
-      </c>
-      <c r="D330" s="9">
-        <f>(B330 - C330)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A330)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>3705.2066076046517</v>
-      </c>
-      <c r="E330" s="9">
-        <f>(B330 - C330)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A330))/missingTransactionRate/1000</f>
-        <v>3367.5229508210982</v>
-      </c>
-      <c r="F330" s="9">
-        <f t="shared" si="47"/>
-        <v>3367.5229508210982</v>
-      </c>
-      <c r="G330" s="6">
-        <f>F330*1000/secondsPerBlock/avgTrSize</f>
         <v>11.815870002881047</v>
       </c>
       <c r="H330" s="146">
-        <f>F330*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A330)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>1.0734555386867759</v>
       </c>
       <c r="I330" s="147">
-        <f>(F330*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A330))</f>
+        <f t="shared" si="51"/>
         <v>1.1810979800277992</v>
       </c>
-      <c r="J330" s="196">
-        <f t="shared" si="48"/>
+      <c r="J330" s="191">
+        <f t="shared" si="54"/>
         <v>2.4</v>
       </c>
     </row>
@@ -12367,39 +12363,39 @@
         <v>8</v>
       </c>
       <c r="B331" s="143">
+        <f t="shared" si="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="C331" s="182">
+        <f t="shared" si="52"/>
+        <v>1.1860092415851591</v>
+      </c>
+      <c r="D331" s="9">
+        <f t="shared" si="47"/>
+        <v>4760.4926260476086</v>
+      </c>
+      <c r="E331" s="9">
+        <f t="shared" si="48"/>
+        <v>4049.7282341572077</v>
+      </c>
+      <c r="F331" s="9">
+        <f t="shared" si="53"/>
+        <v>4049.7282341572077</v>
+      </c>
+      <c r="G331" s="6">
         <f t="shared" si="49"/>
-        <v>2.4</v>
-      </c>
-      <c r="C331" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A331))))/1000</f>
-        <v>1.1860092415851591</v>
-      </c>
-      <c r="D331" s="9">
-        <f>(B331 - C331)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A331)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>4760.4926260476086</v>
-      </c>
-      <c r="E331" s="9">
-        <f>(B331 - C331)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A331))/missingTransactionRate/1000</f>
-        <v>4049.7282341572077</v>
-      </c>
-      <c r="F331" s="9">
-        <f t="shared" si="47"/>
-        <v>4049.7282341572077</v>
-      </c>
-      <c r="G331" s="6">
-        <f>F331*1000/secondsPerBlock/avgTrSize</f>
         <v>14.2095727514288</v>
       </c>
       <c r="H331" s="146">
-        <f>F331*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A331)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>1.0327361129514616</v>
       </c>
       <c r="I331" s="147">
-        <f>(F331*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A331))</f>
+        <f t="shared" si="51"/>
         <v>1.2139907584148408</v>
       </c>
-      <c r="J331" s="196">
-        <f t="shared" si="48"/>
+      <c r="J331" s="191">
+        <f t="shared" si="54"/>
         <v>2.4</v>
       </c>
     </row>
@@ -12408,39 +12404,39 @@
         <v>9</v>
       </c>
       <c r="B332" s="143">
+        <f t="shared" si="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="C332" s="182">
+        <f t="shared" si="52"/>
+        <v>1.1541032465497287</v>
+      </c>
+      <c r="D332" s="9">
+        <f t="shared" si="47"/>
+        <v>6107.009326991435</v>
+      </c>
+      <c r="E332" s="9">
+        <f t="shared" si="48"/>
+        <v>4862.7105045513163</v>
+      </c>
+      <c r="F332" s="9">
+        <f t="shared" si="53"/>
+        <v>4862.7105045513163</v>
+      </c>
+      <c r="G332" s="6">
         <f t="shared" si="49"/>
-        <v>2.4</v>
-      </c>
-      <c r="C332" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A332))))/1000</f>
-        <v>1.1541032465497287</v>
-      </c>
-      <c r="D332" s="9">
-        <f>(B332 - C332)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A332)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>6107.009326991435</v>
-      </c>
-      <c r="E332" s="9">
-        <f>(B332 - C332)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A332))/missingTransactionRate/1000</f>
-        <v>4862.7105045513163</v>
-      </c>
-      <c r="F332" s="9">
-        <f t="shared" si="47"/>
-        <v>4862.7105045513163</v>
-      </c>
-      <c r="G332" s="6">
-        <f>F332*1000/secondsPerBlock/avgTrSize</f>
         <v>17.062142121232689</v>
       </c>
       <c r="H332" s="146">
-        <f>F332*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A332)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>0.99204617288076924</v>
       </c>
       <c r="I332" s="147">
-        <f>(F332*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A332))</f>
+        <f t="shared" si="51"/>
         <v>1.2458967534502712</v>
       </c>
-      <c r="J332" s="196">
-        <f t="shared" si="48"/>
+      <c r="J332" s="191">
+        <f t="shared" si="54"/>
         <v>2.4</v>
       </c>
     </row>
@@ -12449,39 +12445,39 @@
         <v>10</v>
       </c>
       <c r="B333" s="143">
+        <f t="shared" si="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="C333" s="182">
+        <f t="shared" si="52"/>
+        <v>1.1231544313653614</v>
+      </c>
+      <c r="D333" s="9">
+        <f t="shared" si="47"/>
+        <v>7823.3888313630014</v>
+      </c>
+      <c r="E333" s="9">
+        <f t="shared" si="48"/>
+        <v>5830.6986515946619</v>
+      </c>
+      <c r="F333" s="9">
+        <f t="shared" si="53"/>
+        <v>5830.6986515946619</v>
+      </c>
+      <c r="G333" s="6">
         <f t="shared" si="49"/>
-        <v>2.4</v>
-      </c>
-      <c r="C333" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A333))))/1000</f>
-        <v>1.1231544313653614</v>
-      </c>
-      <c r="D333" s="9">
-        <f>(B333 - C333)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A333)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>7823.3888313630014</v>
-      </c>
-      <c r="E333" s="9">
-        <f>(B333 - C333)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A333))/missingTransactionRate/1000</f>
-        <v>5830.6986515946619</v>
-      </c>
-      <c r="F333" s="9">
-        <f t="shared" si="47"/>
-        <v>5830.6986515946619</v>
-      </c>
-      <c r="G333" s="6">
-        <f>F333*1000/secondsPerBlock/avgTrSize</f>
         <v>20.458591759981271</v>
       </c>
       <c r="H333" s="146">
-        <f>F333*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A333)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>0.95162108081435415</v>
       </c>
       <c r="I333" s="147">
-        <f>(F333*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A333))</f>
+        <f t="shared" si="51"/>
         <v>1.2768455686346385</v>
       </c>
-      <c r="J333" s="196">
-        <f t="shared" si="48"/>
+      <c r="J333" s="191">
+        <f t="shared" si="54"/>
         <v>2.4</v>
       </c>
     </row>
@@ -12490,39 +12486,39 @@
         <v>11</v>
       </c>
       <c r="B334" s="143">
+        <f t="shared" si="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="C334" s="182">
+        <f t="shared" si="52"/>
+        <v>1.0931340806365248</v>
+      </c>
+      <c r="D334" s="9">
+        <f t="shared" si="47"/>
+        <v>10009.158986009999</v>
+      </c>
+      <c r="E334" s="9">
+        <f t="shared" si="48"/>
+        <v>6982.309844670649</v>
+      </c>
+      <c r="F334" s="9">
+        <f t="shared" si="53"/>
+        <v>6982.309844670649</v>
+      </c>
+      <c r="G334" s="6">
         <f t="shared" si="49"/>
-        <v>2.4</v>
-      </c>
-      <c r="C334" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A334))))/1000</f>
-        <v>1.0931340806365248</v>
-      </c>
-      <c r="D334" s="9">
-        <f>(B334 - C334)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A334)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>10009.158986009999</v>
-      </c>
-      <c r="E334" s="9">
-        <f>(B334 - C334)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A334))/missingTransactionRate/1000</f>
-        <v>6982.309844670649</v>
-      </c>
-      <c r="F334" s="9">
-        <f t="shared" si="47"/>
-        <v>6982.309844670649</v>
-      </c>
-      <c r="G334" s="6">
-        <f>F334*1000/secondsPerBlock/avgTrSize</f>
         <v>24.499332788318064</v>
       </c>
       <c r="H334" s="146">
-        <f>F334*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A334)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>0.91165928997533807</v>
       </c>
       <c r="I334" s="147">
-        <f>(F334*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A334))</f>
+        <f t="shared" si="51"/>
         <v>1.3068659193634753</v>
       </c>
-      <c r="J334" s="196">
-        <f t="shared" si="48"/>
+      <c r="J334" s="191">
+        <f t="shared" si="54"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -12531,39 +12527,39 @@
         <v>12</v>
       </c>
       <c r="B335" s="143">
+        <f t="shared" si="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="C335" s="182">
+        <f t="shared" si="52"/>
+        <v>1.0640143404295537</v>
+      </c>
+      <c r="D335" s="9">
+        <f t="shared" si="47"/>
+        <v>12790.230305515071</v>
+      </c>
+      <c r="E335" s="9">
+        <f t="shared" si="48"/>
+        <v>8351.3318783384802</v>
+      </c>
+      <c r="F335" s="9">
+        <f t="shared" si="53"/>
+        <v>8351.3318783384802</v>
+      </c>
+      <c r="G335" s="6">
         <f t="shared" si="49"/>
-        <v>2.4</v>
-      </c>
-      <c r="C335" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A335))))/1000</f>
-        <v>1.0640143404295537</v>
-      </c>
-      <c r="D335" s="9">
-        <f>(B335 - C335)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A335)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>12790.230305515071</v>
-      </c>
-      <c r="E335" s="9">
-        <f>(B335 - C335)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A335))/missingTransactionRate/1000</f>
-        <v>8351.3318783384802</v>
-      </c>
-      <c r="F335" s="9">
-        <f t="shared" si="47"/>
-        <v>8351.3318783384802</v>
-      </c>
-      <c r="G335" s="6">
-        <f>F335*1000/secondsPerBlock/avgTrSize</f>
         <v>29.302918871363087</v>
       </c>
       <c r="H335" s="146">
-        <f>F335*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A335)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>0.87232671822670638</v>
       </c>
       <c r="I335" s="147">
-        <f>(F335*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A335))</f>
+        <f t="shared" si="51"/>
         <v>1.3359856595704462</v>
       </c>
-      <c r="J335" s="196">
-        <f t="shared" si="48"/>
+      <c r="J335" s="191">
+        <f t="shared" si="54"/>
         <v>2.4</v>
       </c>
     </row>
@@ -12572,39 +12568,39 @@
         <v>13</v>
       </c>
       <c r="B336" s="143">
+        <f t="shared" si="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="C336" s="182">
+        <f t="shared" si="52"/>
+        <v>1.0357681924287916</v>
+      </c>
+      <c r="D336" s="9">
+        <f t="shared" si="47"/>
+        <v>16325.81053915946</v>
+      </c>
+      <c r="E336" s="9">
+        <f t="shared" si="48"/>
+        <v>9977.6434184038044</v>
+      </c>
+      <c r="F336" s="9">
+        <f t="shared" si="53"/>
+        <v>9977.6434184038044</v>
+      </c>
+      <c r="G336" s="6">
         <f t="shared" si="49"/>
-        <v>2.4</v>
-      </c>
-      <c r="C336" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A336))))/1000</f>
-        <v>1.0357681924287916</v>
-      </c>
-      <c r="D336" s="9">
-        <f>(B336 - C336)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A336)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>16325.81053915946</v>
-      </c>
-      <c r="E336" s="9">
-        <f>(B336 - C336)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A336))/missingTransactionRate/1000</f>
-        <v>9977.6434184038044</v>
-      </c>
-      <c r="F336" s="9">
-        <f t="shared" si="47"/>
-        <v>9977.6434184038044</v>
-      </c>
-      <c r="G336" s="6">
-        <f>F336*1000/secondsPerBlock/avgTrSize</f>
         <v>35.009275152294045</v>
       </c>
       <c r="H336" s="146">
-        <f>F336*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A336)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>0.8337606566816621</v>
       </c>
       <c r="I336" s="147">
-        <f>(F336*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A336))</f>
+        <f t="shared" si="51"/>
         <v>1.3642318075712083</v>
       </c>
-      <c r="J336" s="196">
-        <f t="shared" si="48"/>
+      <c r="J336" s="191">
+        <f t="shared" si="54"/>
         <v>2.4</v>
       </c>
     </row>
@@ -12613,39 +12609,39 @@
         <v>14</v>
       </c>
       <c r="B337" s="143">
+        <f t="shared" si="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="C337" s="182">
+        <f t="shared" si="52"/>
+        <v>1.008369428868052</v>
+      </c>
+      <c r="D337" s="9">
+        <f t="shared" si="47"/>
+        <v>20817.115645883892</v>
+      </c>
+      <c r="E337" s="9">
+        <f t="shared" si="48"/>
+        <v>11908.296253069115</v>
+      </c>
+      <c r="F337" s="9">
+        <f t="shared" si="53"/>
+        <v>11908.296253069115</v>
+      </c>
+      <c r="G337" s="6">
         <f t="shared" si="49"/>
-        <v>2.4</v>
-      </c>
-      <c r="C337" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A337))))/1000</f>
-        <v>1.008369428868052</v>
-      </c>
-      <c r="D337" s="9">
-        <f>(B337 - C337)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A337)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>20817.115645883892</v>
-      </c>
-      <c r="E337" s="9">
-        <f>(B337 - C337)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A337))/missingTransactionRate/1000</f>
-        <v>11908.296253069115</v>
-      </c>
-      <c r="F337" s="9">
-        <f t="shared" si="47"/>
-        <v>11908.296253069115</v>
-      </c>
-      <c r="G337" s="6">
-        <f>F337*1000/secondsPerBlock/avgTrSize</f>
         <v>41.783495624803912</v>
       </c>
       <c r="H337" s="146">
-        <f>F337*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A337)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>0.7960732599928525</v>
       </c>
       <c r="I337" s="147">
-        <f>(F337*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A337))</f>
+        <f t="shared" si="51"/>
         <v>1.3916305711319481</v>
       </c>
-      <c r="J337" s="196">
-        <f t="shared" si="48"/>
+      <c r="J337" s="191">
+        <f t="shared" si="54"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -12654,39 +12650,39 @@
         <v>15</v>
       </c>
       <c r="B338" s="143">
+        <f t="shared" si="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="C338" s="182">
+        <f t="shared" si="52"/>
+        <v>0.98179262821413504</v>
+      </c>
+      <c r="D338" s="9">
+        <f t="shared" si="47"/>
+        <v>26518.340679575525</v>
+      </c>
+      <c r="E338" s="9">
+        <f t="shared" si="48"/>
+        <v>14198.787840509616</v>
+      </c>
+      <c r="F338" s="9">
+        <f t="shared" si="53"/>
+        <v>14198.787840509616</v>
+      </c>
+      <c r="G338" s="6">
         <f t="shared" si="49"/>
-        <v>2.4</v>
-      </c>
-      <c r="C338" s="187">
-        <f>(((avgHops-1+5)*minLastMileLatency) + ((avgHops-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A338))))/1000</f>
-        <v>0.98179262821413504</v>
-      </c>
-      <c r="D338" s="9">
-        <f>(B338 - C338)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A338)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
-        <v>26518.340679575525</v>
-      </c>
-      <c r="E338" s="9">
-        <f>(B338 - C338)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A338))/missingTransactionRate/1000</f>
-        <v>14198.787840509616</v>
-      </c>
-      <c r="F338" s="9">
-        <f t="shared" si="47"/>
-        <v>14198.787840509616</v>
-      </c>
-      <c r="G338" s="6">
-        <f>F338*1000/secondsPerBlock/avgTrSize</f>
         <v>49.820308212314444</v>
       </c>
       <c r="H338" s="146">
-        <f>F338*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A338)*mbToGB*KBperGB)</f>
+        <f t="shared" si="50"/>
         <v>0.75935466057812795</v>
       </c>
       <c r="I338" s="147">
-        <f>(F338*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A338))</f>
+        <f t="shared" si="51"/>
         <v>1.4182073717858652</v>
       </c>
-      <c r="J338" s="196">
-        <f t="shared" si="48"/>
+      <c r="J338" s="191">
+        <f t="shared" si="54"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -12748,317 +12744,317 @@
         <v>40</v>
       </c>
       <c r="C342" s="162">
-        <f>(avgHops-1+3)*B342/1000</f>
-        <v>0.24660286329995304</v>
+        <f>(avgHops-1+5)*B342/1000</f>
+        <v>0.32660286329995303</v>
       </c>
       <c r="D342"/>
       <c r="E342" s="168">
         <v>2000</v>
       </c>
       <c r="F342" s="170">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G342" s="162">
-        <f>(E342*missingTransactionRate*1000/avgTrSize)/(F342*ongoingResourcePercent90thP1)</f>
-        <v>0.4210526315789474</v>
+        <f t="shared" ref="G342:G352" si="56">(E342*missingTransactionRate*1000/avgTrSize)/(F342*ongoingResourcePercent90thP1)</f>
+        <v>4.2105263157894743</v>
       </c>
       <c r="H342"/>
       <c r="I342" s="168">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J342" s="162">
-        <f>I342*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>1.52</v>
+        <f t="shared" ref="J342:J352" si="57">I342*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>0.76</v>
       </c>
     </row>
     <row r="343" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343"/>
       <c r="B343" s="161">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C343" s="162">
-        <f>(avgHops-1+3)*B343/1000</f>
-        <v>0.30825357912494133</v>
+        <f>(avgHops-1+5)*B343/1000</f>
+        <v>0.48990429494992954</v>
       </c>
       <c r="D343"/>
       <c r="E343" s="168">
         <v>2000</v>
       </c>
       <c r="F343" s="170">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G343" s="162">
-        <f>(E343*missingTransactionRate*1000/avgTrSize)/(F343*ongoingResourcePercent90thP1)</f>
-        <v>0.2105263157894737</v>
+        <f t="shared" si="56"/>
+        <v>2.1052631578947372</v>
       </c>
       <c r="H343"/>
       <c r="I343" s="168">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J343" s="162">
-        <f>I343*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>3.04</v>
+        <f t="shared" si="57"/>
+        <v>1.52</v>
       </c>
     </row>
     <row r="344" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344"/>
       <c r="B344" s="161">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C344" s="162">
-        <f>(avgHops-1+3)*B344/1000</f>
-        <v>0.3699042949499296</v>
+        <f>(avgHops-1+5)*B344/1000</f>
+        <v>0.65320572659990606</v>
       </c>
       <c r="D344"/>
       <c r="E344" s="168">
         <v>2000</v>
       </c>
       <c r="F344" s="170">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G344" s="162">
-        <f>(E344*missingTransactionRate*1000/avgTrSize)/(F344*ongoingResourcePercent90thP1)</f>
-        <v>0.14035087719298248</v>
+        <f t="shared" si="56"/>
+        <v>0.8421052631578948</v>
       </c>
       <c r="H344"/>
       <c r="I344" s="168">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="J344" s="162">
-        <f>I344*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>4.5599999999999996</v>
+        <f t="shared" si="57"/>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="345" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345"/>
       <c r="B345" s="161">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C345" s="162">
-        <f>(avgHops-1+3)*B345/1000</f>
-        <v>0.43155501077491781</v>
+        <f>(avgHops-1+5)*B345/1000</f>
+        <v>0.81650715824988251</v>
       </c>
       <c r="D345"/>
       <c r="E345" s="168">
         <v>2000</v>
       </c>
       <c r="F345" s="170">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G345" s="162">
-        <f>(E345*missingTransactionRate*1000/avgTrSize)/(F345*ongoingResourcePercent90thP1)</f>
-        <v>0.10526315789473685</v>
+        <f t="shared" si="56"/>
+        <v>0.4210526315789474</v>
       </c>
       <c r="H345"/>
       <c r="I345" s="168">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J345" s="162">
-        <f>I345*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>6.08</v>
+        <f t="shared" si="57"/>
+        <v>3.04</v>
       </c>
     </row>
     <row r="346" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346"/>
       <c r="B346" s="161">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C346" s="162">
-        <f>(avgHops-1+3)*B346/1000</f>
-        <v>0.49320572659990608</v>
+        <f>(avgHops-1+5)*B346/1000</f>
+        <v>0.97980858989985908</v>
       </c>
       <c r="D346"/>
       <c r="E346" s="168">
         <v>2000</v>
       </c>
       <c r="F346" s="170">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G346" s="162">
-        <f>(E346*missingTransactionRate*1000/avgTrSize)/(F346*ongoingResourcePercent90thP1)</f>
-        <v>8.4210526315789486E-2</v>
+        <f t="shared" si="56"/>
+        <v>0.2105263157894737</v>
       </c>
       <c r="H346"/>
       <c r="I346" s="168">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="J346" s="162">
-        <f>I346*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>7.6</v>
+        <f t="shared" si="57"/>
+        <v>3.8</v>
       </c>
     </row>
     <row r="347" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347"/>
       <c r="B347" s="161">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C347" s="162">
-        <f>(avgHops-1+3)*B347/1000</f>
-        <v>0.55485644242489429</v>
+        <f>(avgHops-1+5)*B347/1000</f>
+        <v>1.1431100215498355</v>
       </c>
       <c r="D347"/>
       <c r="E347" s="168">
         <v>2000</v>
       </c>
       <c r="F347" s="170">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G347" s="162">
-        <f>(E347*missingTransactionRate*1000/avgTrSize)/(F347*ongoingResourcePercent90thP1)</f>
-        <v>7.0175438596491238E-2</v>
+        <f t="shared" si="56"/>
+        <v>8.4210526315789486E-2</v>
       </c>
       <c r="H347"/>
       <c r="I347" s="168">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="J347" s="162">
-        <f>I347*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>9.1199999999999992</v>
+        <f t="shared" si="57"/>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="348" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348"/>
       <c r="B348" s="161">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C348" s="162">
-        <f>(avgHops-1+3)*B348/1000</f>
-        <v>0.61650715824988267</v>
+        <f>(avgHops-1+5)*B348/1000</f>
+        <v>1.3064114531998121</v>
       </c>
       <c r="D348"/>
       <c r="E348" s="168">
         <v>2000</v>
       </c>
       <c r="F348" s="170">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G348" s="162">
-        <f>(E348*missingTransactionRate*1000/avgTrSize)/(F348*ongoingResourcePercent90thP1)</f>
-        <v>6.0150375939849628E-2</v>
+        <f t="shared" si="56"/>
+        <v>4.2105263157894743E-2</v>
       </c>
       <c r="H348"/>
       <c r="I348" s="168">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="J348" s="162">
-        <f>I348*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>10.64</v>
+        <f t="shared" si="57"/>
+        <v>5.32</v>
       </c>
     </row>
     <row r="349" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349"/>
       <c r="B349" s="161">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C349" s="162">
-        <f>(avgHops-1+3)*B349/1000</f>
-        <v>0.67815787407487083</v>
+        <f>(avgHops-1+5)*B349/1000</f>
+        <v>1.4697128848497887</v>
       </c>
       <c r="D349"/>
       <c r="E349" s="168">
         <v>2000</v>
       </c>
       <c r="F349" s="170">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="G349" s="162">
-        <f>(E349*missingTransactionRate*1000/avgTrSize)/(F349*ongoingResourcePercent90thP1)</f>
-        <v>5.2631578947368425E-2</v>
+        <f t="shared" si="56"/>
+        <v>2.1052631578947371E-2</v>
       </c>
       <c r="H349"/>
       <c r="I349" s="168">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="J349" s="162">
-        <f>I349*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>12.16</v>
+        <f t="shared" si="57"/>
+        <v>6.08</v>
       </c>
     </row>
     <row r="350" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350"/>
       <c r="B350" s="161">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C350" s="162">
-        <f>(avgHops-1+3)*B350/1000</f>
-        <v>0.7398085898998592</v>
+        <f>(avgHops-1+5)*B350/1000</f>
+        <v>1.633014316499765</v>
       </c>
       <c r="D350"/>
       <c r="E350" s="168">
         <v>2000</v>
       </c>
       <c r="F350" s="170">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="G350" s="162">
-        <f>(E350*missingTransactionRate*1000/avgTrSize)/(F350*ongoingResourcePercent90thP1)</f>
-        <v>4.6783625730994156E-2</v>
+        <f t="shared" si="56"/>
+        <v>8.4210526315789472E-3</v>
       </c>
       <c r="H350"/>
       <c r="I350" s="168">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="J350" s="162">
-        <f>I350*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>13.68</v>
+        <f t="shared" si="57"/>
+        <v>6.84</v>
       </c>
     </row>
     <row r="351" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351"/>
       <c r="B351" s="161">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="C351" s="162">
-        <f>(avgHops-1+3)*B351/1000</f>
-        <v>0.80145930572484747</v>
+        <f>(avgHops-1+5)*B351/1000</f>
+        <v>1.7963157481497414</v>
       </c>
       <c r="D351"/>
       <c r="E351" s="168">
         <v>2000</v>
       </c>
       <c r="F351" s="170">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G351" s="162">
-        <f>(E351*missingTransactionRate*1000/avgTrSize)/(F351*ongoingResourcePercent90thP1)</f>
-        <v>4.2105263157894743E-2</v>
+        <f t="shared" si="56"/>
+        <v>4.2105263157894736E-3</v>
       </c>
       <c r="H351"/>
       <c r="I351" s="168">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J351" s="162">
-        <f>I351*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>15.2</v>
+        <f t="shared" si="57"/>
+        <v>7.6</v>
       </c>
     </row>
     <row r="352" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352"/>
       <c r="B352" s="163">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="C352" s="164">
-        <f>(avgHops-1+3)*B352/1000</f>
-        <v>0.86311002154983563</v>
+        <f>(avgHops-1+5)*B352/1000</f>
+        <v>1.9596171797997182</v>
       </c>
       <c r="D352"/>
       <c r="E352" s="169">
         <v>2000</v>
       </c>
       <c r="F352" s="171">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="G352" s="164">
-        <f>(E352*missingTransactionRate*1000/avgTrSize)/(F352*ongoingResourcePercent90thP1)</f>
-        <v>3.8277511961722493E-2</v>
+        <f t="shared" si="56"/>
+        <v>2.1052631578947368E-3</v>
       </c>
       <c r="H352"/>
       <c r="I352" s="169">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="J352" s="164">
-        <f>I352*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>16.72</v>
+        <f t="shared" si="57"/>
+        <v>8.36</v>
       </c>
     </row>
     <row r="353" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -13077,9 +13073,9 @@
       <c r="E354" s="39"/>
     </row>
     <row r="355" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="181"/>
-      <c r="B355" s="181"/>
-      <c r="C355" s="181"/>
+      <c r="A355" s="176"/>
+      <c r="B355" s="176"/>
+      <c r="C355" s="176"/>
       <c r="F355" s="98"/>
       <c r="H355" s="98"/>
     </row>
@@ -13088,7 +13084,7 @@
         <v>165</v>
       </c>
       <c r="B356" s="173" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C356" s="98" t="s">
         <v>136</v>
@@ -13110,7 +13106,7 @@
         <v>139</v>
       </c>
       <c r="D357"/>
-      <c r="E357" s="189"/>
+      <c r="E357" s="184"/>
       <c r="F357"/>
       <c r="G357"/>
       <c r="H357"/>
@@ -13119,11 +13115,11 @@
       <c r="A358" s="104">
         <v>0.5</v>
       </c>
-      <c r="B358" s="179">
+      <c r="B358" s="174">
         <f>(1-sybilPercenta)*(privateConnections10thb+publicConnections10thb)</f>
         <v>44</v>
       </c>
-      <c r="C358" s="197">
+      <c r="C358" s="192">
         <f>LOG(curUsers*1000*1000)/LOG(B358/2)</f>
         <v>5.0990631622983127</v>
       </c>
@@ -13180,7 +13176,7 @@
         <v>145</v>
       </c>
       <c r="J361" s="106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="362" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -13194,10 +13190,10 @@
         <v>148</v>
       </c>
       <c r="D362" s="173" t="s">
+        <v>176</v>
+      </c>
+      <c r="E362" s="173" t="s">
         <v>177</v>
-      </c>
-      <c r="E362" s="173" t="s">
-        <v>178</v>
       </c>
       <c r="F362" s="173" t="s">
         <v>32</v>
@@ -13211,8 +13207,8 @@
       <c r="I362" s="173" t="s">
         <v>146</v>
       </c>
-      <c r="J362" s="195" t="s">
-        <v>181</v>
+      <c r="J362" s="190" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="363" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -13223,16 +13219,16 @@
         <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C363" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A363))))/1000</f>
+      <c r="C363" s="182">
+        <f t="shared" ref="C363:C378" si="58">(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A363))))/1000</f>
         <v>1.5471820792666275</v>
       </c>
       <c r="D363" s="9">
-        <f>(B363 - C363)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A363)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" ref="D363:D378" si="59">(B363 - C363)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A363)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
         <v>561.06442153511341</v>
       </c>
       <c r="E363" s="9">
-        <f>(B363 - C363)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A363))/missingTransactionRate/1000</f>
+        <f t="shared" ref="E363:E378" si="60">(B363 - C363)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A363))/missingTransactionRate/1000</f>
         <v>810.1770246967036</v>
       </c>
       <c r="F363" s="9">
@@ -13240,18 +13236,18 @@
         <v>561.06442153511341</v>
       </c>
       <c r="G363" s="6">
-        <f>F363*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" ref="G363:G378" si="61">F363*1000/secondsPerBlock/avgTrSize</f>
         <v>1.9686470931056608</v>
       </c>
       <c r="H363" s="146">
-        <f>F363*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A363)*mbToGB*KBperGB)</f>
+        <f t="shared" ref="H363:H378" si="62">F363*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A363)*mbToGB*KBperGB)</f>
         <v>0.85281792073337248</v>
       </c>
       <c r="I363" s="147">
-        <f>(F363*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A363))</f>
+        <f t="shared" ref="I363:I378" si="63">(F363*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A363))</f>
         <v>0.5905941279316983</v>
       </c>
-      <c r="J363" s="196">
+      <c r="J363" s="191">
         <f>MAX(H363,I363)+C363</f>
         <v>2.4</v>
       </c>
@@ -13264,36 +13260,36 @@
         <f>secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C364" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A364))))/1000</f>
+      <c r="C364" s="182">
+        <f t="shared" si="58"/>
         <v>1.5048611953116631</v>
       </c>
       <c r="D364" s="9">
-        <f>(B364 - C364)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A364)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>736.13388543448752</v>
       </c>
       <c r="E364" s="9">
-        <f>(B364 - C364)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A364))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>994.94678141108636</v>
       </c>
       <c r="F364" s="9">
-        <f t="shared" ref="F364:F378" si="50">MIN(D364,E364)</f>
+        <f t="shared" ref="F364:F378" si="64">MIN(D364,E364)</f>
         <v>736.13388543448752</v>
       </c>
       <c r="G364" s="6">
-        <f>F364*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>2.5829259138052194</v>
       </c>
       <c r="H364" s="146">
-        <f>F364*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A364)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>0.89513880468833684</v>
       </c>
       <c r="I364" s="147">
-        <f>(F364*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A364))</f>
+        <f t="shared" si="63"/>
         <v>0.66228869584749217</v>
       </c>
-      <c r="J364" s="196">
-        <f t="shared" ref="J364:J378" si="51">MAX(H364,I364)+C364</f>
+      <c r="J364" s="191">
+        <f t="shared" ref="J364:J378" si="65">MAX(H364,I364)+C364</f>
         <v>2.4</v>
       </c>
     </row>
@@ -13302,39 +13298,39 @@
         <v>2</v>
       </c>
       <c r="B365" s="143">
-        <f t="shared" ref="B365:B378" si="52">secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
+        <f t="shared" ref="B365:B378" si="66">secondsPerBlock*maximumMinerAdvantage/targetMinerPercentHashpower</f>
         <v>2.4</v>
       </c>
-      <c r="C365" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A365))))/1000</f>
+      <c r="C365" s="182">
+        <f t="shared" si="58"/>
         <v>1.4638099378753473</v>
       </c>
       <c r="D365" s="9">
-        <f>(B365 - C365)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A365)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>962.36642899326955</v>
       </c>
       <c r="E365" s="9">
-        <f>(B365 - C365)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A365))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>1217.4730472403151</v>
       </c>
       <c r="F365" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>962.36642899326955</v>
       </c>
       <c r="G365" s="6">
-        <f>F365*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>3.3767243122570862</v>
       </c>
       <c r="H365" s="146">
-        <f>F365*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A365)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>0.93619006212465261</v>
       </c>
       <c r="I365" s="147">
-        <f>(F365*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A365))</f>
+        <f t="shared" si="63"/>
         <v>0.74002286045520205</v>
       </c>
-      <c r="J365" s="196">
-        <f t="shared" si="51"/>
+      <c r="J365" s="191">
+        <f t="shared" si="65"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13343,39 +13339,39 @@
         <v>3</v>
       </c>
       <c r="B366" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C366" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A366))))/1000</f>
+      <c r="C366" s="182">
+        <f t="shared" si="58"/>
         <v>1.4239902181621211</v>
       </c>
       <c r="D366" s="9">
-        <f>(B366 - C366)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A366)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>1254.124411284281</v>
       </c>
       <c r="E366" s="9">
-        <f>(B366 - C366)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A366))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>1485.0304569827747</v>
       </c>
       <c r="F366" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>1254.124411284281</v>
       </c>
       <c r="G366" s="6">
-        <f>F366*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>4.4004365308220379</v>
       </c>
       <c r="H366" s="146">
-        <f>F366*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A366)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>0.97600978183787879</v>
       </c>
       <c r="I366" s="147">
-        <f>(F366*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A366))</f>
+        <f t="shared" si="63"/>
         <v>0.82425090158896797</v>
       </c>
-      <c r="J366" s="196">
-        <f t="shared" si="51"/>
+      <c r="J366" s="191">
+        <f t="shared" si="65"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13384,39 +13380,39 @@
         <v>4</v>
       </c>
       <c r="B367" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C367" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A367))))/1000</f>
+      <c r="C367" s="182">
+        <f t="shared" si="58"/>
         <v>1.3853650900402918</v>
       </c>
       <c r="D367" s="9">
-        <f>(B367 - C367)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A367)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>1629.6947438446175</v>
       </c>
       <c r="E367" s="9">
-        <f>(B367 - C367)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A367))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>1806.2458115633481</v>
       </c>
       <c r="F367" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>1629.6947438446175</v>
       </c>
       <c r="G367" s="6">
-        <f>F367*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>5.7182271713846218</v>
       </c>
       <c r="H367" s="146">
-        <f>F367*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A367)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>1.0146349099597081</v>
       </c>
       <c r="I367" s="147">
-        <f>(F367*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A367))</f>
+        <f t="shared" si="63"/>
         <v>0.91545966174526971</v>
       </c>
-      <c r="J367" s="196">
-        <f t="shared" si="51"/>
+      <c r="J367" s="191">
+        <f t="shared" si="65"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13425,39 +13421,39 @@
         <v>5</v>
       </c>
       <c r="B368" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C368" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A368))))/1000</f>
+      <c r="C368" s="182">
+        <f t="shared" si="58"/>
         <v>1.347898715762117</v>
       </c>
       <c r="D368" s="9">
-        <f>(B368 - C368)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A368)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>2112.3409958646334</v>
       </c>
       <c r="E368" s="9">
-        <f>(B368 - C368)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A368))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>2191.3435242855535</v>
       </c>
       <c r="F368" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>2112.3409958646334</v>
       </c>
       <c r="G368" s="6">
-        <f>F368*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>7.4117227925074864</v>
       </c>
       <c r="H368" s="146">
-        <f>F368*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A368)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>1.052101284237883</v>
       </c>
       <c r="I368" s="147">
-        <f>(F368*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A368))</f>
+        <f t="shared" si="63"/>
         <v>1.0141708271057501</v>
       </c>
-      <c r="J368" s="196">
-        <f t="shared" si="51"/>
+      <c r="J368" s="191">
+        <f t="shared" si="65"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13466,39 +13462,39 @@
         <v>6</v>
       </c>
       <c r="B369" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C369" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A369))))/1000</f>
+      <c r="C369" s="182">
+        <f t="shared" si="58"/>
         <v>1.3115563327122879</v>
       </c>
       <c r="D369" s="9">
-        <f>(B369 - C369)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A369)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>2731.6336061771599</v>
       </c>
       <c r="E369" s="9">
-        <f>(B369 - C369)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A369))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>2652.4348944201752</v>
       </c>
       <c r="F369" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>2652.4348944201752</v>
       </c>
       <c r="G369" s="6">
-        <f>F369*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>9.3067891032286862</v>
       </c>
       <c r="H369" s="146">
-        <f>F369*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A369)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>1.0568862373035812</v>
       </c>
       <c r="I369" s="147">
-        <f>(F369*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A369))</f>
+        <f t="shared" si="63"/>
         <v>1.088443667287712</v>
       </c>
-      <c r="J369" s="196">
-        <f t="shared" si="51"/>
+      <c r="J369" s="191">
+        <f t="shared" si="65"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13507,39 +13503,39 @@
         <v>7</v>
       </c>
       <c r="B370" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C370" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A370))))/1000</f>
+      <c r="C370" s="182">
+        <f t="shared" si="58"/>
         <v>1.2763042211539535</v>
       </c>
       <c r="D370" s="9">
-        <f>(B370 - C370)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A370)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>3525.1309333539211</v>
       </c>
       <c r="E370" s="9">
-        <f>(B370 - C370)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A370))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>3203.8589422664036</v>
       </c>
       <c r="F370" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>3203.8589422664036</v>
       </c>
       <c r="G370" s="6">
-        <f>F370*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>11.241610323741769</v>
       </c>
       <c r="H370" s="146">
-        <f>F370*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A370)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>1.0212848366507645</v>
       </c>
       <c r="I370" s="147">
-        <f>(F370*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A370))</f>
+        <f t="shared" si="63"/>
         <v>1.1236957788460464</v>
       </c>
-      <c r="J370" s="196">
-        <f t="shared" si="51"/>
+      <c r="J370" s="191">
+        <f t="shared" si="65"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13548,39 +13544,39 @@
         <v>8</v>
       </c>
       <c r="B371" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C371" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A371))))/1000</f>
+      <c r="C371" s="182">
+        <f t="shared" si="58"/>
         <v>1.2421096729423691</v>
       </c>
       <c r="D371" s="9">
-        <f>(B371 - C371)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A371)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>4540.5027390217738</v>
       </c>
       <c r="E371" s="9">
-        <f>(B371 - C371)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A371))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>3862.5838928672088</v>
       </c>
       <c r="F371" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>3862.5838928672088</v>
       </c>
       <c r="G371" s="6">
-        <f>F371*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>13.552925939884943</v>
       </c>
       <c r="H371" s="146">
-        <f>F371*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A371)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>0.98501174518906121</v>
       </c>
       <c r="I371" s="147">
-        <f>(F371*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A371))</f>
+        <f t="shared" si="63"/>
         <v>1.1578903270576306</v>
       </c>
-      <c r="J371" s="196">
-        <f t="shared" si="51"/>
+      <c r="J371" s="191">
+        <f t="shared" si="65"/>
         <v>2.3999999999999995</v>
       </c>
     </row>
@@ -13589,39 +13585,39 @@
         <v>9</v>
       </c>
       <c r="B372" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C372" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A372))))/1000</f>
+      <c r="C372" s="182">
+        <f t="shared" si="58"/>
         <v>1.2089409611771322</v>
       </c>
       <c r="D372" s="9">
-        <f>(B372 - C372)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A372)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>5838.2114239765806</v>
       </c>
       <c r="E372" s="9">
-        <f>(B372 - C372)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A372))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>4648.6799837832032</v>
       </c>
       <c r="F372" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>4648.6799837832032</v>
       </c>
       <c r="G372" s="6">
-        <f>F372*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>16.3111578378358</v>
       </c>
       <c r="H372" s="146">
-        <f>F372*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A372)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>0.94838160374613678</v>
       </c>
       <c r="I372" s="147">
-        <f>(F372*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A372))</f>
+        <f t="shared" si="63"/>
         <v>1.1910590388228675</v>
       </c>
-      <c r="J372" s="196">
-        <f t="shared" si="51"/>
+      <c r="J372" s="191">
+        <f t="shared" si="65"/>
         <v>2.3999999999999995</v>
       </c>
     </row>
@@ -13630,39 +13626,39 @@
         <v>10</v>
       </c>
       <c r="B373" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C373" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A373))))/1000</f>
+      <c r="C373" s="182">
+        <f t="shared" si="58"/>
         <v>1.1767673107648524</v>
       </c>
       <c r="D373" s="9">
-        <f>(B373 - C373)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A373)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>7494.8961677124544</v>
       </c>
       <c r="E373" s="9">
-        <f>(B373 - C373)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A373))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>5585.876136404363</v>
       </c>
       <c r="F373" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>5585.876136404363</v>
       </c>
       <c r="G373" s="6">
-        <f>F373*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>19.599565390892504</v>
       </c>
       <c r="H373" s="146">
-        <f>F373*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A373)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>0.91166390236381578</v>
       </c>
       <c r="I373" s="147">
-        <f>(F373*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A373))</f>
+        <f t="shared" si="63"/>
         <v>1.2232326892351475</v>
       </c>
-      <c r="J373" s="196">
-        <f t="shared" si="51"/>
+      <c r="J373" s="191">
+        <f t="shared" si="65"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13671,39 +13667,39 @@
         <v>11</v>
       </c>
       <c r="B374" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C374" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A374))))/1000</f>
+      <c r="C374" s="182">
+        <f t="shared" si="58"/>
         <v>1.1455588698649413</v>
       </c>
       <c r="D374" s="9">
-        <f>(B374 - C374)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A374)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>9607.6426235274121</v>
       </c>
       <c r="E374" s="9">
-        <f>(B374 - C374)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A374))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>6702.2152178916122</v>
       </c>
       <c r="F374" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>6702.2152178916122</v>
       </c>
       <c r="G374" s="6">
-        <f>F374*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>23.516544624181098</v>
       </c>
       <c r="H374" s="146">
-        <f>F374*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A374)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>0.87508817321657884</v>
       </c>
       <c r="I374" s="147">
-        <f>(F374*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A374))</f>
+        <f t="shared" si="63"/>
         <v>1.2544411301350586</v>
       </c>
-      <c r="J374" s="196">
-        <f t="shared" si="51"/>
+      <c r="J374" s="191">
+        <f t="shared" si="65"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13712,39 +13708,39 @@
         <v>12</v>
       </c>
       <c r="B375" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C375" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A375))))/1000</f>
+      <c r="C375" s="182">
+        <f t="shared" si="58"/>
         <v>1.1152866821920273</v>
       </c>
       <c r="D375" s="9">
-        <f>(B375 - C375)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A375)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>12299.367956247066</v>
       </c>
       <c r="E375" s="9">
-        <f>(B375 - C375)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A375))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>8030.8251878881592</v>
       </c>
       <c r="F375" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>8030.8251878881592</v>
       </c>
       <c r="G375" s="6">
-        <f>F375*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>28.17833399259003</v>
       </c>
       <c r="H375" s="146">
-        <f>F375*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A375)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>0.83884863909834406</v>
       </c>
       <c r="I375" s="147">
-        <f>(F375*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A375))</f>
+        <f t="shared" si="63"/>
         <v>1.2847133178079724</v>
       </c>
-      <c r="J375" s="196">
-        <f t="shared" si="51"/>
+      <c r="J375" s="191">
+        <f t="shared" si="65"/>
         <v>2.3999999999999995</v>
       </c>
     </row>
@@ -13753,39 +13749,39 @@
         <v>13</v>
       </c>
       <c r="B376" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C376" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A376))))/1000</f>
+      <c r="C376" s="182">
+        <f t="shared" si="58"/>
         <v>1.0859226601493006</v>
       </c>
       <c r="D376" s="9">
-        <f>(B376 - C376)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A376)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>15725.610240974665</v>
       </c>
       <c r="E376" s="9">
-        <f>(B376 - C376)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A376))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>9610.8264361447527</v>
       </c>
       <c r="F376" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>9610.8264361447527</v>
       </c>
       <c r="G376" s="6">
-        <f>F376*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>33.722198021560537</v>
       </c>
       <c r="H376" s="146">
-        <f>F376*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A376)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>0.80310837184993789</v>
       </c>
       <c r="I376" s="147">
-        <f>(F376*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A376))</f>
+        <f t="shared" si="63"/>
         <v>1.3140773398506993</v>
       </c>
-      <c r="J376" s="196">
-        <f t="shared" si="51"/>
+      <c r="J376" s="191">
+        <f t="shared" si="65"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13794,39 +13790,39 @@
         <v>14</v>
       </c>
       <c r="B377" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C377" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A377))))/1000</f>
+      <c r="C377" s="182">
+        <f t="shared" si="58"/>
         <v>1.0574395587678558</v>
       </c>
       <c r="D377" s="9">
-        <f>(B377 - C377)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A377)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>20083.085659713157</v>
       </c>
       <c r="E377" s="9">
-        <f>(B377 - C377)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A377))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>11488.399150960939</v>
       </c>
       <c r="F377" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>11488.399150960939</v>
       </c>
       <c r="G377" s="6">
-        <f>F377*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>40.310172459512067</v>
       </c>
       <c r="H377" s="146">
-        <f>F377*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A377)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>0.7680030098216194</v>
       </c>
       <c r="I377" s="147">
-        <f>(F377*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A377))</f>
+        <f t="shared" si="63"/>
         <v>1.3425604412321441</v>
       </c>
-      <c r="J377" s="196">
-        <f t="shared" si="51"/>
+      <c r="J377" s="191">
+        <f t="shared" si="65"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13835,39 +13831,39 @@
         <v>15</v>
       </c>
       <c r="B378" s="143">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
-      <c r="C378" s="187">
-        <f>(((avgHops19-1+5)*minLastMileLatency) + ((avgHops19-1)*proximityFavoringFactor*(Latency10thP1-minLastMileLatency)+5*(Latency90thP1-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A378))))/1000</f>
+      <c r="C378" s="182">
+        <f t="shared" si="58"/>
         <v>1.0298109504278543</v>
       </c>
       <c r="D378" s="9">
-        <f>(B378 - C378)*(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A378)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="59"/>
         <v>25620.470415566419</v>
       </c>
       <c r="E378" s="9">
-        <f>(B378 - C378)*avgTrSize*(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A378))/missingTransactionRate/1000</f>
+        <f t="shared" si="60"/>
         <v>13718.038703864471</v>
       </c>
       <c r="F378" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>13718.038703864471</v>
       </c>
       <c r="G378" s="6">
-        <f>F378*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>48.133469136366564</v>
       </c>
       <c r="H378" s="146">
-        <f>F378*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth90thP1*ongoingResourcePercent90thP1*POWER(1+bandwidthGrowth,A378)*mbToGB*KBperGB)</f>
+        <f t="shared" si="62"/>
         <v>0.73364407869036463</v>
       </c>
       <c r="I378" s="147">
-        <f>(F378*missingTransactionRate*1000/avgTrSize)/(Throughput90thP1*ongoingResourcePercent90thP1*POWER(1+cpuGrowth,A378))</f>
+        <f t="shared" si="63"/>
         <v>1.3701890495721456</v>
       </c>
-      <c r="J378" s="196">
-        <f t="shared" si="51"/>
+      <c r="J378" s="191">
+        <f t="shared" si="65"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13926,285 +13922,285 @@
         <v>40</v>
       </c>
       <c r="C382" s="162">
-        <f>(avgHops19-1+3)*B382/1000</f>
-        <v>0.28396252649193254</v>
+        <f>(avgHops19-1+5)*B382/1000</f>
+        <v>0.3639625264919325</v>
       </c>
       <c r="E382" s="168">
         <v>2000</v>
       </c>
       <c r="F382" s="170">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G382" s="162">
-        <f>(E382*missingTransactionRate*1000/avgTrSize)/(F382*ongoingResourcePercent90thP1)</f>
-        <v>0.4210526315789474</v>
+        <f t="shared" ref="G382:G392" si="67">(E382*missingTransactionRate*1000/avgTrSize)/(F382*ongoingResourcePercent90thP1)</f>
+        <v>4.2105263157894743</v>
       </c>
       <c r="I382" s="168">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J382" s="162">
-        <f>I382*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>1.52</v>
+        <f t="shared" ref="J382:J392" si="68">I382*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
+        <v>0.76</v>
       </c>
     </row>
     <row r="383" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B383" s="161">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C383" s="162">
-        <f>(avgHops19-1+3)*B383/1000</f>
-        <v>0.35495315811491568</v>
+        <f>(avgHops19-1+5)*B383/1000</f>
+        <v>0.54594378973789881</v>
       </c>
       <c r="E383" s="168">
         <v>2000</v>
       </c>
       <c r="F383" s="170">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G383" s="162">
-        <f>(E383*missingTransactionRate*1000/avgTrSize)/(F383*ongoingResourcePercent90thP1)</f>
-        <v>0.2105263157894737</v>
+        <f t="shared" si="67"/>
+        <v>2.1052631578947372</v>
       </c>
       <c r="I383" s="168">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J383" s="162">
-        <f>I383*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>3.04</v>
+        <f t="shared" si="68"/>
+        <v>1.52</v>
       </c>
     </row>
     <row r="384" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B384" s="161">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C384" s="162">
-        <f>(avgHops19-1+3)*B384/1000</f>
-        <v>0.42594378973789876</v>
+        <f>(avgHops19-1+5)*B384/1000</f>
+        <v>0.72792505298386501</v>
       </c>
       <c r="E384" s="168">
         <v>2000</v>
       </c>
       <c r="F384" s="170">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G384" s="162">
-        <f>(E384*missingTransactionRate*1000/avgTrSize)/(F384*ongoingResourcePercent90thP1)</f>
-        <v>0.14035087719298248</v>
+        <f t="shared" si="67"/>
+        <v>0.8421052631578948</v>
       </c>
       <c r="I384" s="168">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="J384" s="162">
-        <f>I384*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>4.5599999999999996</v>
+        <f t="shared" si="68"/>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="385" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B385" s="161">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C385" s="162">
-        <f>(avgHops19-1+3)*B385/1000</f>
-        <v>0.49693442136088189</v>
+        <f>(avgHops19-1+5)*B385/1000</f>
+        <v>0.90990631622983131</v>
       </c>
       <c r="E385" s="168">
         <v>2000</v>
       </c>
       <c r="F385" s="170">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G385" s="162">
-        <f>(E385*missingTransactionRate*1000/avgTrSize)/(F385*ongoingResourcePercent90thP1)</f>
-        <v>0.10526315789473685</v>
+        <f t="shared" si="67"/>
+        <v>0.4210526315789474</v>
       </c>
       <c r="I385" s="168">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J385" s="162">
-        <f>I385*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>6.08</v>
+        <f t="shared" si="68"/>
+        <v>3.04</v>
       </c>
     </row>
     <row r="386" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B386" s="161">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C386" s="162">
-        <f>(avgHops19-1+3)*B386/1000</f>
-        <v>0.56792505298386509</v>
+        <f>(avgHops19-1+5)*B386/1000</f>
+        <v>1.0918875794757976</v>
       </c>
       <c r="E386" s="168">
         <v>2000</v>
       </c>
       <c r="F386" s="170">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G386" s="162">
-        <f>(E386*missingTransactionRate*1000/avgTrSize)/(F386*ongoingResourcePercent90thP1)</f>
-        <v>8.4210526315789486E-2</v>
+        <f t="shared" si="67"/>
+        <v>0.2105263157894737</v>
       </c>
       <c r="I386" s="168">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="J386" s="162">
-        <f>I386*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>7.6</v>
+        <f t="shared" si="68"/>
+        <v>3.8</v>
       </c>
     </row>
     <row r="387" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B387" s="161">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C387" s="162">
-        <f>(avgHops19-1+3)*B387/1000</f>
-        <v>0.63891568460684811</v>
+        <f>(avgHops19-1+5)*B387/1000</f>
+        <v>1.2738688427217637</v>
       </c>
       <c r="E387" s="168">
         <v>2000</v>
       </c>
       <c r="F387" s="170">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G387" s="162">
-        <f>(E387*missingTransactionRate*1000/avgTrSize)/(F387*ongoingResourcePercent90thP1)</f>
-        <v>7.0175438596491238E-2</v>
+        <f t="shared" si="67"/>
+        <v>8.4210526315789486E-2</v>
       </c>
       <c r="I387" s="168">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="J387" s="162">
-        <f>I387*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>9.1199999999999992</v>
+        <f t="shared" si="68"/>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="388" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B388" s="161">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C388" s="162">
-        <f>(avgHops19-1+3)*B388/1000</f>
-        <v>0.70990631622983136</v>
+        <f>(avgHops19-1+5)*B388/1000</f>
+        <v>1.45585010596773</v>
       </c>
       <c r="E388" s="168">
         <v>2000</v>
       </c>
       <c r="F388" s="170">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G388" s="162">
-        <f>(E388*missingTransactionRate*1000/avgTrSize)/(F388*ongoingResourcePercent90thP1)</f>
-        <v>6.0150375939849628E-2</v>
+        <f t="shared" si="67"/>
+        <v>4.2105263157894743E-2</v>
       </c>
       <c r="I388" s="168">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="J388" s="162">
-        <f>I388*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>10.64</v>
+        <f t="shared" si="68"/>
+        <v>5.32</v>
       </c>
     </row>
     <row r="389" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B389" s="161">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C389" s="162">
-        <f>(avgHops19-1+3)*B389/1000</f>
-        <v>0.78089694785281438</v>
+        <f>(avgHops19-1+5)*B389/1000</f>
+        <v>1.6378313692136963</v>
       </c>
       <c r="E389" s="168">
         <v>2000</v>
       </c>
       <c r="F389" s="170">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="G389" s="162">
-        <f>(E389*missingTransactionRate*1000/avgTrSize)/(F389*ongoingResourcePercent90thP1)</f>
-        <v>5.2631578947368425E-2</v>
+        <f t="shared" si="67"/>
+        <v>2.1052631578947371E-2</v>
       </c>
       <c r="I389" s="168">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="J389" s="162">
-        <f>I389*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>12.16</v>
+        <f t="shared" si="68"/>
+        <v>6.08</v>
       </c>
     </row>
     <row r="390" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B390" s="161">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C390" s="162">
-        <f>(avgHops19-1+3)*B390/1000</f>
-        <v>0.85188757947579752</v>
+        <f>(avgHops19-1+5)*B390/1000</f>
+        <v>1.8198126324596626</v>
       </c>
       <c r="E390" s="168">
         <v>2000</v>
       </c>
       <c r="F390" s="170">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="G390" s="162">
-        <f>(E390*missingTransactionRate*1000/avgTrSize)/(F390*ongoingResourcePercent90thP1)</f>
-        <v>4.6783625730994156E-2</v>
+        <f t="shared" si="67"/>
+        <v>8.4210526315789472E-3</v>
       </c>
       <c r="I390" s="168">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="J390" s="162">
-        <f>I390*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>13.68</v>
+        <f t="shared" si="68"/>
+        <v>6.84</v>
       </c>
     </row>
     <row r="391" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B391" s="161">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="C391" s="162">
-        <f>(avgHops19-1+3)*B391/1000</f>
-        <v>0.92287821109878065</v>
+        <f>(avgHops19-1+5)*B391/1000</f>
+        <v>2.0017938957056289</v>
       </c>
       <c r="E391" s="168">
         <v>2000</v>
       </c>
       <c r="F391" s="170">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G391" s="162">
-        <f>(E391*missingTransactionRate*1000/avgTrSize)/(F391*ongoingResourcePercent90thP1)</f>
-        <v>4.2105263157894743E-2</v>
+        <f t="shared" si="67"/>
+        <v>4.2105263157894736E-3</v>
       </c>
       <c r="I391" s="168">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J391" s="162">
-        <f>I391*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>15.2</v>
+        <f t="shared" si="68"/>
+        <v>7.6</v>
       </c>
     </row>
     <row r="392" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B392" s="163">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="C392" s="164">
-        <f>(avgHops19-1+3)*B392/1000</f>
-        <v>0.99386884272176379</v>
+        <f>(avgHops19-1+5)*B392/1000</f>
+        <v>2.1837751589515952</v>
       </c>
       <c r="E392" s="169">
         <v>2000</v>
       </c>
       <c r="F392" s="171">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="G392" s="164">
-        <f>(E392*missingTransactionRate*1000/avgTrSize)/(F392*ongoingResourcePercent90thP1)</f>
-        <v>3.8277511961722493E-2</v>
+        <f t="shared" si="67"/>
+        <v>2.1052631578947368E-3</v>
       </c>
       <c r="I392" s="169">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="J392" s="164">
-        <f>I392*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>16.72</v>
+        <f t="shared" si="68"/>
+        <v>8.36</v>
       </c>
     </row>
     <row r="393" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -14219,9 +14215,9 @@
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A395" s="176"/>
-      <c r="B395" s="176"/>
-      <c r="C395" s="176"/>
+      <c r="A395" s="194"/>
+      <c r="B395" s="194"/>
+      <c r="C395" s="194"/>
       <c r="D395" s="5" t="s">
         <v>67</v>
       </c>
@@ -14239,11 +14235,11 @@
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A396" s="178" t="s">
+      <c r="A396" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="B396" s="178"/>
-      <c r="C396" s="178"/>
+      <c r="B396" s="196"/>
+      <c r="C396" s="196"/>
       <c r="D396" s="49" t="str">
         <f>A77</f>
         <v>90th %ile</v>
@@ -14263,11 +14259,11 @@
       <c r="H396" s="120"/>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A397" s="177" t="s">
+      <c r="A397" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B397" s="177"/>
-      <c r="C397" s="177"/>
+      <c r="B397" s="195"/>
+      <c r="C397" s="195"/>
       <c r="D397" s="2" t="str">
         <f>A53</f>
         <v>90th %ile</v>
@@ -14292,26 +14288,26 @@
       <c r="C398" s="172" t="s">
         <v>169</v>
       </c>
-      <c r="D398" s="188" t="s">
+      <c r="D398" s="183" t="s">
         <v>170</v>
       </c>
       <c r="E398" s="57">
         <f>G363</f>
         <v>1.9686470931056608</v>
       </c>
-      <c r="F398" s="190">
+      <c r="F398" s="185">
         <f>F363</f>
         <v>561.06442153511341</v>
       </c>
       <c r="G398" s="55"/>
-      <c r="H398" s="191"/>
+      <c r="H398" s="186"/>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A399" s="177" t="s">
+      <c r="A399" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="B399" s="177"/>
-      <c r="C399" s="177"/>
+      <c r="B399" s="195"/>
+      <c r="C399" s="195"/>
       <c r="D399" s="2" t="str">
         <f>A261</f>
         <v>10th %ile</v>
@@ -14331,11 +14327,11 @@
       <c r="H399" s="116"/>
     </row>
     <row r="400" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="177" t="s">
+      <c r="A400" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="B400" s="177"/>
-      <c r="C400" s="177"/>
+      <c r="B400" s="195"/>
+      <c r="C400" s="195"/>
       <c r="D400" s="2" t="str">
         <f>A286</f>
         <v>90th %ile</v>
@@ -14349,11 +14345,11 @@
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A401" s="177" t="s">
+      <c r="A401" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="B401" s="177"/>
-      <c r="C401" s="177"/>
+      <c r="B401" s="195"/>
+      <c r="C401" s="195"/>
       <c r="D401" s="2" t="str">
         <f>A101</f>
         <v>90th %ile</v>
@@ -14373,11 +14369,11 @@
       <c r="H401" s="116"/>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A402" s="177" t="s">
+      <c r="A402" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="B402" s="177"/>
-      <c r="C402" s="177"/>
+      <c r="B402" s="195"/>
+      <c r="C402" s="195"/>
       <c r="D402" s="2" t="str">
         <f>A165</f>
         <v>90th %ile</v>
@@ -14394,11 +14390,11 @@
       <c r="H402" s="116"/>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A403" s="177" t="s">
+      <c r="A403" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="B403" s="177"/>
-      <c r="C403" s="177"/>
+      <c r="B403" s="195"/>
+      <c r="C403" s="195"/>
       <c r="D403" s="2" t="str">
         <f>A213</f>
         <v>90th %ile</v>
@@ -14415,11 +14411,11 @@
       <c r="H403" s="116"/>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A404" s="177" t="s">
+      <c r="A404" s="195" t="s">
         <v>47</v>
       </c>
-      <c r="B404" s="177"/>
-      <c r="C404" s="177"/>
+      <c r="B404" s="195"/>
+      <c r="C404" s="195"/>
       <c r="D404" s="2" t="str">
         <f>A237</f>
         <v>90th %ile</v>
@@ -14433,11 +14429,11 @@
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A405" s="177" t="s">
+      <c r="A405" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="B405" s="177"/>
-      <c r="C405" s="177"/>
+      <c r="B405" s="195"/>
+      <c r="C405" s="195"/>
       <c r="D405" s="99" t="s">
         <v>81</v>
       </c>
@@ -14570,8 +14566,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="J210" sqref="J210"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="E247" sqref="E247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14783,7 +14779,7 @@
       <c r="E6" s="78">
         <v>0.17</v>
       </c>
-      <c r="F6" s="184">
+      <c r="F6" s="179">
         <v>-0.03</v>
       </c>
     </row>
@@ -16002,7 +15998,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="97"/>
-      <c r="F59" s="192"/>
+      <c r="F59" s="187"/>
       <c r="G59" s="106" t="s">
         <v>57</v>
       </c>
@@ -16065,7 +16061,7 @@
     </row>
     <row r="61" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="71"/>
-      <c r="F61" s="182"/>
+      <c r="F61" s="177"/>
     </row>
     <row r="62" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="86" t="s">
@@ -17002,11 +16998,11 @@
       </c>
     </row>
     <row r="108" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="178" t="s">
+      <c r="A108" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="178"/>
-      <c r="C108" s="178"/>
+      <c r="B108" s="196"/>
+      <c r="C108" s="196"/>
       <c r="D108" s="110" t="s">
         <v>80</v>
       </c>
@@ -17022,11 +17018,11 @@
       <c r="H108" s="116"/>
     </row>
     <row r="109" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="178" t="s">
+      <c r="A109" s="196" t="s">
         <v>71</v>
       </c>
-      <c r="B109" s="178"/>
-      <c r="C109" s="178"/>
+      <c r="B109" s="196"/>
+      <c r="C109" s="196"/>
       <c r="D109" s="110" t="s">
         <v>80</v>
       </c>
@@ -17042,11 +17038,11 @@
       <c r="H109" s="116"/>
     </row>
     <row r="110" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="177" t="s">
+      <c r="A110" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="177"/>
-      <c r="C110" s="177"/>
+      <c r="B110" s="195"/>
+      <c r="C110" s="195"/>
       <c r="D110" s="95" t="s">
         <v>80</v>
       </c>
@@ -17065,11 +17061,11 @@
       <c r="H110" s="116"/>
     </row>
     <row r="111" spans="1:8" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="177" t="s">
+      <c r="A111" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="B111" s="177"/>
-      <c r="C111" s="177"/>
+      <c r="B111" s="195"/>
+      <c r="C111" s="195"/>
       <c r="D111" s="95" t="s">
         <v>80</v>
       </c>
@@ -17087,11 +17083,11 @@
       <c r="H111" s="116"/>
     </row>
     <row r="112" spans="1:8" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="177" t="s">
+      <c r="A112" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="B112" s="177"/>
-      <c r="C112" s="177"/>
+      <c r="B112" s="195"/>
+      <c r="C112" s="195"/>
       <c r="D112" s="95" t="s">
         <v>80</v>
       </c>
@@ -17109,11 +17105,11 @@
       <c r="H112" s="116"/>
     </row>
     <row r="113" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="177" t="s">
+      <c r="A113" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="B113" s="177"/>
-      <c r="C113" s="177"/>
+      <c r="B113" s="195"/>
+      <c r="C113" s="195"/>
       <c r="D113" s="95" t="s">
         <v>80</v>
       </c>
@@ -18205,7 +18201,7 @@
         <v>1592.7236894560167</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="97">
         <v>3</v>
       </c>
@@ -18226,7 +18222,7 @@
         <v>2108.2715131855939</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="97">
         <v>4</v>
       </c>
@@ -18247,7 +18243,7 @@
         <v>2635.3393914819922</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="97">
         <v>5</v>
       </c>
@@ -18268,7 +18264,7 @@
         <v>3294.1742393524901</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="97">
         <v>6</v>
       </c>
@@ -18289,7 +18285,7 @@
         <v>4117.7177991906128</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="97">
         <v>7</v>
       </c>
@@ -18310,7 +18306,7 @@
         <v>5147.1472489882663</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="97">
         <v>8</v>
       </c>
@@ -18330,11 +18326,8 @@
         <f t="shared" si="32"/>
         <v>6836.984877957053</v>
       </c>
-      <c r="I182" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="97">
         <v>9</v>
       </c>
@@ -18355,7 +18348,7 @@
         <v>8546.2310974463162</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="97">
         <v>10</v>
       </c>
@@ -18376,7 +18369,7 @@
         <v>10682.788871807896</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="97">
         <v>11</v>
       </c>
@@ -18397,7 +18390,7 @@
         <v>13353.48608975987</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="97">
         <v>12</v>
       </c>
@@ -18418,7 +18411,7 @@
         <v>16691.857612199838</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="97">
         <v>13</v>
       </c>
@@ -18439,7 +18432,7 @@
         <v>22259.241905843781</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="97">
         <v>14</v>
       </c>
@@ -18460,7 +18453,7 @@
         <v>27824.052382304726</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="97">
         <v>15</v>
       </c>
@@ -18481,12 +18474,12 @@
         <v>34780.065477880904</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C190" s="124"/>
       <c r="D190" s="113"/>
       <c r="E190" s="100"/>
     </row>
-    <row r="191" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
         <v>171</v>
       </c>
@@ -18495,7 +18488,7 @@
       <c r="D191" s="93"/>
       <c r="E191" s="39"/>
     </row>
-    <row r="192" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="G192" s="106" t="s">
         <v>76</v>
@@ -18689,7 +18682,7 @@
         <v>136</v>
       </c>
       <c r="H198" s="173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I198"/>
       <c r="J198"/>
@@ -18704,16 +18697,16 @@
         <v>140</v>
       </c>
       <c r="E199" s="173" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F199" s="173" t="s">
         <v>136</v>
       </c>
       <c r="G199" s="173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H199" s="173" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I199" s="173" t="s">
         <v>165</v>
@@ -18741,7 +18734,7 @@
         <v>1</v>
       </c>
       <c r="H200" s="173" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I200" s="137" t="s">
         <v>166</v>
@@ -18759,11 +18752,11 @@
       <c r="D201" s="142">
         <v>1E-3</v>
       </c>
-      <c r="E201" s="179">
+      <c r="E201" s="174">
         <f>(1-sybilPercentb)*(privateConnections10thc+publicConnections10thc)</f>
         <v>77</v>
       </c>
-      <c r="F201" s="180">
+      <c r="F201" s="175">
         <f>LOG(futureUsers*1000*1000*1000)/LOG(E201/2)</f>
         <v>6.2461906515098251</v>
       </c>
@@ -18777,7 +18770,7 @@
       <c r="I201" s="104">
         <v>0.5</v>
       </c>
-      <c r="J201" s="193">
+      <c r="J201" s="188">
         <v>8</v>
       </c>
       <c r="K201"/>
@@ -18829,7 +18822,7 @@
         <v>145</v>
       </c>
       <c r="J204" s="106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -18843,10 +18836,10 @@
         <v>148</v>
       </c>
       <c r="D205" s="173" t="s">
+        <v>176</v>
+      </c>
+      <c r="E205" s="173" t="s">
         <v>177</v>
-      </c>
-      <c r="E205" s="173" t="s">
-        <v>178</v>
       </c>
       <c r="F205" s="173" t="s">
         <v>32</v>
@@ -18860,8 +18853,8 @@
       <c r="I205" s="173" t="s">
         <v>146</v>
       </c>
-      <c r="J205" s="195" t="s">
-        <v>181</v>
+      <c r="J205" s="190" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="206" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -18869,19 +18862,19 @@
         <v>0</v>
       </c>
       <c r="B206" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" ref="B206:B221" si="33">secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
         <v>2.4</v>
       </c>
-      <c r="C206" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A206))))/1000</f>
+      <c r="C206" s="182">
+        <f t="shared" ref="C206:C221" si="34">(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A206))))/1000</f>
         <v>0.39042500920426587</v>
       </c>
       <c r="D206" s="9">
-        <f>(B206 - C206)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A206)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" ref="D206:D221" si="35">(B206 - C206)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A206)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
         <v>66104.440486701787</v>
       </c>
       <c r="E206" s="9">
-        <f>(B206 - C206)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A206))/missingTransactionRate/1000</f>
+        <f t="shared" ref="E206:E221" si="36">(B206 - C206)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A206))/missingTransactionRate/1000</f>
         <v>47727.406031398685</v>
       </c>
       <c r="F206" s="9">
@@ -18889,18 +18882,18 @@
         <v>47727.406031398685</v>
       </c>
       <c r="G206" s="6">
-        <f>F206*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" ref="G206:G221" si="37">F206*1000/secondsPerBlock/avgTrSize</f>
         <v>167.46458256631118</v>
       </c>
       <c r="H206" s="146">
-        <f>F206*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A206)*mbToGB*KBperGB)</f>
+        <f t="shared" ref="H206:H221" si="38">F206*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A206)*mbToGB*KBperGB)</f>
         <v>1.4509131433545199</v>
       </c>
       <c r="I206" s="147">
-        <f>(F206*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A206))</f>
+        <f t="shared" ref="I206:I221" si="39">(F206*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A206))</f>
         <v>2.0095749907957341</v>
       </c>
-      <c r="J206" s="196">
+      <c r="J206" s="191">
         <f>MAX(H206,I206)+C206</f>
         <v>2.4</v>
       </c>
@@ -18910,39 +18903,39 @@
         <v>1</v>
       </c>
       <c r="B207" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C207" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A207))))/1000</f>
+      <c r="C207" s="182">
+        <f t="shared" si="34"/>
         <v>0.38107304472131726</v>
       </c>
       <c r="D207" s="9">
-        <f>(B207 - C207)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A207)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>83015.088621656367</v>
       </c>
       <c r="E207" s="9">
-        <f>(B207 - C207)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A207))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>56100.932769806401</v>
       </c>
       <c r="F207" s="9">
-        <f t="shared" ref="F207:F221" si="33">MIN(D207,E207)</f>
+        <f t="shared" ref="F207:F221" si="40">MIN(D207,E207)</f>
         <v>56100.932769806401</v>
       </c>
       <c r="G207" s="6">
-        <f>F207*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>196.8453781396716</v>
       </c>
       <c r="H207" s="146">
-        <f>F207*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A207)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>1.3643746849616916</v>
       </c>
       <c r="I207" s="147">
-        <f>(F207*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A207))</f>
+        <f t="shared" si="39"/>
         <v>2.0189269552786828</v>
       </c>
-      <c r="J207" s="196">
-        <f t="shared" ref="J207:J221" si="34">MAX(H207,I207)+C207</f>
+      <c r="J207" s="191">
+        <f t="shared" ref="J207:J221" si="41">MAX(H207,I207)+C207</f>
         <v>2.4</v>
       </c>
     </row>
@@ -18951,39 +18944,39 @@
         <v>2</v>
       </c>
       <c r="B208" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C208" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A208))))/1000</f>
+      <c r="C208" s="182">
+        <f t="shared" si="34"/>
         <v>0.37200163917285717</v>
       </c>
       <c r="D208" s="9">
-        <f>(B208 - C208)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A208)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>104235.1131181714</v>
       </c>
       <c r="E208" s="9">
-        <f>(B208 - C208)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A208))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>65933.015208236538</v>
       </c>
       <c r="F208" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>65933.015208236538</v>
       </c>
       <c r="G208" s="6">
-        <f>F208*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>231.34391301135628</v>
       </c>
       <c r="H208" s="146">
-        <f>F208*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A208)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>1.2827927438914501</v>
       </c>
       <c r="I208" s="147">
-        <f>(F208*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A208))</f>
+        <f t="shared" si="39"/>
         <v>2.027998360827143</v>
       </c>
-      <c r="J208" s="196">
-        <f t="shared" si="34"/>
+      <c r="J208" s="191">
+        <f t="shared" si="41"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -18992,39 +18985,39 @@
         <v>3</v>
       </c>
       <c r="B209" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C209" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A209))))/1000</f>
+      <c r="C209" s="182">
+        <f t="shared" si="34"/>
         <v>0.36320237579085085</v>
       </c>
       <c r="D209" s="9">
-        <f>(B209 - C209)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A209)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>130859.22236129917</v>
       </c>
       <c r="E209" s="9">
-        <f>(B209 - C209)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A209))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>77476.336890934093</v>
       </c>
       <c r="F209" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>77476.336890934093</v>
       </c>
       <c r="G209" s="6">
-        <f>F209*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>271.84679610854067</v>
       </c>
       <c r="H209" s="146">
-        <f>F209*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A209)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>1.2059036884400109</v>
       </c>
       <c r="I209" s="147">
-        <f>(F209*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A209))</f>
+        <f t="shared" si="39"/>
         <v>2.0367976242091497</v>
       </c>
-      <c r="J209" s="196">
-        <f t="shared" si="34"/>
+      <c r="J209" s="191">
+        <f t="shared" si="41"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -19033,39 +19026,39 @@
         <v>4</v>
       </c>
       <c r="B210" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C210" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A210))))/1000</f>
+      <c r="C210" s="182">
+        <f t="shared" si="34"/>
         <v>0.35466709031030474</v>
       </c>
       <c r="D210" s="9">
-        <f>(B210 - C210)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A210)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>164259.49174497064</v>
       </c>
       <c r="E210" s="9">
-        <f>(B210 - C210)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A210))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>91027.175516915595</v>
       </c>
       <c r="F210" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>91027.175516915595</v>
       </c>
       <c r="G210" s="6">
-        <f>F210*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>319.39359830496699</v>
       </c>
       <c r="H210" s="146">
-        <f>F210*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A210)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>1.1334558251885503</v>
       </c>
       <c r="I210" s="147">
-        <f>(F210*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A210))</f>
+        <f t="shared" si="39"/>
         <v>2.0453329096896957</v>
       </c>
-      <c r="J210" s="196">
-        <f t="shared" si="34"/>
+      <c r="J210" s="191">
+        <f t="shared" si="41"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -19074,39 +19067,39 @@
         <v>5</v>
       </c>
       <c r="B211" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C211" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A211))))/1000</f>
+      <c r="C211" s="182">
+        <f t="shared" si="34"/>
         <v>0.34638786339417504</v>
       </c>
       <c r="D211" s="9">
-        <f>(B211 - C211)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A211)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>206155.48953064615</v>
       </c>
       <c r="E211" s="9">
-        <f>(B211 - C211)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A211))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>106932.90000603907</v>
       </c>
       <c r="F211" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>106932.90000603907</v>
       </c>
       <c r="G211" s="6">
-        <f>F211*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>375.20315791592657</v>
       </c>
       <c r="H211" s="146">
-        <f>F211*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A211)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>1.0652090892889579</v>
       </c>
       <c r="I211" s="147">
-        <f>(F211*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A211))</f>
+        <f t="shared" si="39"/>
         <v>2.0536121366058246</v>
       </c>
-      <c r="J211" s="196">
-        <f t="shared" si="34"/>
+      <c r="J211" s="191">
+        <f t="shared" si="41"/>
         <v>2.3999999999999995</v>
       </c>
     </row>
@@ -19115,39 +19108,39 @@
         <v>6</v>
       </c>
       <c r="B212" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C212" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A212))))/1000</f>
+      <c r="C212" s="182">
+        <f t="shared" si="34"/>
         <v>0.3383570132855292</v>
       </c>
       <c r="D212" s="9">
-        <f>(B212 - C212)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A212)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>258702.10079324504</v>
       </c>
       <c r="E212" s="9">
-        <f>(B212 - C212)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A212))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>125600.75367576689</v>
       </c>
       <c r="F212" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>125600.75367576689</v>
       </c>
       <c r="G212" s="6">
-        <f>F212*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>440.70439886233999</v>
       </c>
       <c r="H212" s="146">
-        <f>F212*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A212)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>1.0009347127360391</v>
       </c>
       <c r="I212" s="147">
-        <f>(F212*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A212))</f>
+        <f t="shared" si="39"/>
         <v>2.0616429867144705</v>
       </c>
-      <c r="J212" s="196">
-        <f t="shared" si="34"/>
+      <c r="J212" s="191">
+        <f t="shared" si="41"/>
         <v>2.4</v>
       </c>
     </row>
@@ -19156,39 +19149,39 @@
         <v>7</v>
       </c>
       <c r="B213" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C213" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A213))))/1000</f>
+      <c r="C213" s="182">
+        <f t="shared" si="34"/>
         <v>0.33056708868014278</v>
       </c>
       <c r="D213" s="9">
-        <f>(B213 - C213)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A213)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>324599.50938348036</v>
       </c>
       <c r="E213" s="9">
-        <f>(B213 - C213)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A213))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>147508.14373355624</v>
       </c>
       <c r="F213" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>147508.14373355624</v>
       </c>
       <c r="G213" s="6">
-        <f>F213*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>517.57243415282892</v>
       </c>
       <c r="H213" s="146">
-        <f>F213*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A213)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>0.94041487588722927</v>
       </c>
       <c r="I213" s="147">
-        <f>(F213*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A213))</f>
+        <f t="shared" si="39"/>
         <v>2.0694329113198573</v>
       </c>
-      <c r="J213" s="196">
-        <f t="shared" si="34"/>
+      <c r="J213" s="191">
+        <f t="shared" si="41"/>
         <v>2.4</v>
       </c>
     </row>
@@ -19197,39 +19190,39 @@
         <v>8</v>
       </c>
       <c r="B214" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C214" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A214))))/1000</f>
+      <c r="C214" s="182">
+        <f t="shared" si="34"/>
         <v>0.32301086181291788</v>
       </c>
       <c r="D214" s="9">
-        <f>(B214 - C214)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A214)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>407230.92034205835</v>
       </c>
       <c r="E214" s="9">
-        <f>(B214 - C214)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A214))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>173214.69493591916</v>
       </c>
       <c r="F214" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>173214.69493591916</v>
       </c>
       <c r="G214" s="6">
-        <f>F214*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>607.77085942427777</v>
       </c>
       <c r="H214" s="146">
-        <f>F214*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A214)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>0.88344234679946265</v>
       </c>
       <c r="I214" s="147">
-        <f>(F214*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A214))</f>
+        <f t="shared" si="39"/>
         <v>2.0769891381870815</v>
       </c>
-      <c r="J214" s="196">
-        <f t="shared" si="34"/>
+      <c r="J214" s="191">
+        <f t="shared" si="41"/>
         <v>2.3999999999999995</v>
       </c>
     </row>
@@ -19238,39 +19231,39 @@
         <v>9</v>
       </c>
       <c r="B215" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C215" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A215))))/1000</f>
+      <c r="C215" s="182">
+        <f t="shared" si="34"/>
         <v>0.31568132175170976</v>
       </c>
       <c r="D215" s="9">
-        <f>(B215 - C215)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A215)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>510835.00993298128</v>
       </c>
       <c r="E215" s="9">
-        <f>(B215 - C215)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A215))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>203376.36933964089</v>
       </c>
       <c r="F215" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>203376.36933964089</v>
       </c>
       <c r="G215" s="6">
-        <f>F215*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>713.60129592856458</v>
       </c>
       <c r="H215" s="146">
-        <f>F215*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A215)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>0.82982011233832598</v>
       </c>
       <c r="I215" s="147">
-        <f>(F215*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A215))</f>
+        <f t="shared" si="39"/>
         <v>2.0843186782482901</v>
       </c>
-      <c r="J215" s="196">
-        <f t="shared" si="34"/>
+      <c r="J215" s="191">
+        <f t="shared" si="41"/>
         <v>2.4</v>
       </c>
     </row>
@@ -19279,39 +19272,39 @@
         <v>10</v>
       </c>
       <c r="B216" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C216" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A216))))/1000</f>
+      <c r="C216" s="182">
+        <f t="shared" si="34"/>
         <v>0.30857166789233792</v>
       </c>
       <c r="D216" s="9">
-        <f>(B216 - C216)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A216)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>640721.84831653407</v>
       </c>
       <c r="E216" s="9">
-        <f>(B216 - C216)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A216))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>238762.00567009201</v>
       </c>
       <c r="F216" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>238762.00567009201</v>
       </c>
       <c r="G216" s="6">
-        <f>F216*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>837.7614234038316</v>
       </c>
       <c r="H216" s="146">
-        <f>F216*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A216)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>0.77936100446911294</v>
       </c>
       <c r="I216" s="147">
-        <f>(F216*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A216))</f>
+        <f t="shared" si="39"/>
         <v>2.0914283321076619</v>
       </c>
-      <c r="J216" s="196">
-        <f t="shared" si="34"/>
+      <c r="J216" s="191">
+        <f t="shared" si="41"/>
         <v>2.4</v>
       </c>
     </row>
@@ -19320,39 +19313,39 @@
         <v>11</v>
       </c>
       <c r="B217" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C217" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A217))))/1000</f>
+      <c r="C217" s="182">
+        <f t="shared" si="34"/>
         <v>0.30167530364874717</v>
       </c>
       <c r="D217" s="9">
-        <f>(B217 - C217)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A217)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>803543.23954979074</v>
       </c>
       <c r="E217" s="9">
-        <f>(B217 - C217)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A217))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>280272.69223963172</v>
       </c>
       <c r="F217" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>280272.69223963172</v>
       </c>
       <c r="G217" s="6">
-        <f>F217*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>983.41295522677797</v>
       </c>
       <c r="H217" s="146">
-        <f>F217*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A217)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>0.7318873246557035</v>
       </c>
       <c r="I217" s="147">
-        <f>(F217*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A217))</f>
+        <f t="shared" si="39"/>
         <v>2.098324696351253</v>
       </c>
-      <c r="J217" s="196">
-        <f t="shared" si="34"/>
+      <c r="J217" s="191">
+        <f t="shared" si="41"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -19361,39 +19354,39 @@
         <v>12</v>
       </c>
       <c r="B218" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C218" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A218))))/1000</f>
+      <c r="C218" s="182">
+        <f t="shared" si="34"/>
         <v>0.29498583033246417</v>
       </c>
       <c r="D218" s="9">
-        <f>(B218 - C218)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A218)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>1007631.1760366124</v>
       </c>
       <c r="E218" s="9">
-        <f>(B218 - C218)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A218))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>328964.45806819171</v>
       </c>
       <c r="F218" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>328964.45806819171</v>
       </c>
       <c r="G218" s="6">
-        <f>F218*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>1154.2612563796199</v>
       </c>
       <c r="H218" s="146">
-        <f>F218*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A218)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>0.68723046886491357</v>
       </c>
       <c r="I218" s="147">
-        <f>(F218*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A218))</f>
+        <f t="shared" si="39"/>
         <v>2.1050141696675357</v>
       </c>
-      <c r="J218" s="196">
-        <f t="shared" si="34"/>
+      <c r="J218" s="191">
+        <f t="shared" si="41"/>
         <v>2.4</v>
       </c>
     </row>
@@ -19402,39 +19395,39 @@
         <v>13</v>
       </c>
       <c r="B219" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C219" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A219))))/1000</f>
+      <c r="C219" s="182">
+        <f t="shared" si="34"/>
         <v>0.28849704121566971</v>
       </c>
       <c r="D219" s="9">
-        <f>(B219 - C219)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A219)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>1263421.5485475066</v>
       </c>
       <c r="E219" s="9">
-        <f>(B219 - C219)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A219))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>386074.84964674822</v>
       </c>
       <c r="F219" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>386074.84964674822</v>
       </c>
       <c r="G219" s="6">
-        <f>F219*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>1354.6485952517482</v>
       </c>
       <c r="H219" s="146">
-        <f>F219*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A219)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>0.64523055529527529</v>
       </c>
       <c r="I219" s="147">
-        <f>(F219*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A219))</f>
+        <f t="shared" si="39"/>
         <v>2.1115029587843304</v>
       </c>
-      <c r="J219" s="196">
-        <f t="shared" si="34"/>
+      <c r="J219" s="191">
+        <f t="shared" si="41"/>
         <v>2.4</v>
       </c>
     </row>
@@ -19443,39 +19436,39 @@
         <v>14</v>
       </c>
       <c r="B220" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C220" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A220))))/1000</f>
+      <c r="C220" s="182">
+        <f t="shared" si="34"/>
         <v>0.28220291577237899</v>
       </c>
       <c r="D220" s="9">
-        <f>(B220 - C220)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A220)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>1583984.5621177442</v>
       </c>
       <c r="E220" s="9">
-        <f>(B220 - C220)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A220))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>453054.05770072888</v>
       </c>
       <c r="F220" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>453054.05770072888</v>
       </c>
       <c r="G220" s="6">
-        <f>F220*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>1589.6633603534347</v>
       </c>
       <c r="H220" s="146">
-        <f>F220*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A220)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>0.60573605661490904</v>
       </c>
       <c r="I220" s="147">
-        <f>(F220*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A220))</f>
+        <f t="shared" si="39"/>
         <v>2.1177970842276208</v>
       </c>
-      <c r="J220" s="196">
-        <f t="shared" si="34"/>
+      <c r="J220" s="191">
+        <f t="shared" si="41"/>
         <v>2.4</v>
       </c>
     </row>
@@ -19484,39 +19477,39 @@
         <v>15</v>
       </c>
       <c r="B221" s="143">
-        <f>secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" si="33"/>
         <v>2.4</v>
       </c>
-      <c r="C221" s="187">
-        <f>(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A221))))/1000</f>
+      <c r="C221" s="182">
+        <f t="shared" si="34"/>
         <v>0.27609761409238709</v>
       </c>
       <c r="D221" s="9">
-        <f>(B221 - C221)*(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A221)*mbToGB*KBperGB)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" si="35"/>
         <v>1985688.6996976307</v>
       </c>
       <c r="E221" s="9">
-        <f>(B221 - C221)*avgTrSize*(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A221))/missingTransactionRate/1000</f>
+        <f t="shared" si="36"/>
         <v>531601.37176341913</v>
       </c>
       <c r="F221" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>531601.37176341913</v>
       </c>
       <c r="G221" s="6">
-        <f>F221*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="37"/>
         <v>1865.2679710997163</v>
       </c>
       <c r="H221" s="146">
-        <f>F221*(missingTransactionRate+compactBlockCompactedness)/(Bandwidth10thP2*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A221)*mbToGB*KBperGB)</f>
+        <f t="shared" si="38"/>
         <v>0.56860343819855252</v>
       </c>
       <c r="I221" s="147">
-        <f>(F221*missingTransactionRate*1000/avgTrSize)/(Throughput10thP2*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A221))</f>
+        <f t="shared" si="39"/>
         <v>2.1239023859076127</v>
       </c>
-      <c r="J221" s="196">
-        <f t="shared" si="34"/>
+      <c r="J221" s="191">
+        <f t="shared" si="41"/>
         <v>2.4</v>
       </c>
     </row>
@@ -19575,285 +19568,285 @@
         <v>40</v>
       </c>
       <c r="C225" s="162">
-        <f>(avgHops19-1+3)*B225/1000</f>
-        <v>0.28396252649193254</v>
+        <f>(avgHops19)*B225/1000</f>
+        <v>0.20396252649193253</v>
       </c>
       <c r="E225" s="168">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F225" s="170">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G225" s="162">
-        <f>(E225*missingTransactionRate*1000/avgTrSize)/(F225*ongoingResourcePercent90thP1)</f>
-        <v>0.4210526315789474</v>
+        <f>(E225*missingTransactionRate*1000/avgTrSize)/(F225*ongoingResourcePercent10thP2)</f>
+        <v>10.526315789473683</v>
       </c>
       <c r="I225" s="168">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J225" s="162">
-        <f>I225*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>1.52</v>
+        <f>I225*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <v>0.76</v>
       </c>
     </row>
     <row r="226" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B226" s="161">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C226" s="162">
-        <f>(avgHops19-1+3)*B226/1000</f>
-        <v>0.35495315811491568</v>
+        <f>(avgHops19)*B226/1000</f>
+        <v>0.30594378973789876</v>
       </c>
       <c r="E226" s="168">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F226" s="170">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G226" s="162">
-        <f>(E226*missingTransactionRate*1000/avgTrSize)/(F226*ongoingResourcePercent90thP1)</f>
-        <v>0.2105263157894737</v>
+        <f>(E226*missingTransactionRate*1000/avgTrSize)/(F226*ongoingResourcePercent10thP2)</f>
+        <v>5.2631578947368416</v>
       </c>
       <c r="I226" s="168">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J226" s="162">
-        <f>I226*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>3.04</v>
+        <f>I226*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <v>1.52</v>
       </c>
     </row>
     <row r="227" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B227" s="161">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C227" s="162">
-        <f>(avgHops19-1+3)*B227/1000</f>
-        <v>0.42594378973789876</v>
+        <f>(avgHops19)*B227/1000</f>
+        <v>0.40792505298386506</v>
       </c>
       <c r="E227" s="168">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F227" s="170">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G227" s="162">
-        <f>(E227*missingTransactionRate*1000/avgTrSize)/(F227*ongoingResourcePercent90thP1)</f>
-        <v>0.14035087719298248</v>
+        <f>(E227*missingTransactionRate*1000/avgTrSize)/(F227*ongoingResourcePercent10thP2)</f>
+        <v>2.1052631578947367</v>
       </c>
       <c r="I227" s="168">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="J227" s="162">
-        <f>I227*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>4.5599999999999996</v>
+        <f>I227*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="228" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B228" s="161">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C228" s="162">
-        <f>(avgHops19-1+3)*B228/1000</f>
-        <v>0.49693442136088189</v>
+        <f>(avgHops19)*B228/1000</f>
+        <v>0.50990631622983129</v>
       </c>
       <c r="E228" s="168">
+        <v>5000</v>
+      </c>
+      <c r="F228" s="170">
+        <v>1000</v>
+      </c>
+      <c r="G228" s="162">
+        <f>(E228*missingTransactionRate*1000/avgTrSize)/(F228*ongoingResourcePercent10thP2)</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="I228" s="168">
         <v>2000</v>
       </c>
-      <c r="F228" s="170">
-        <v>4000</v>
-      </c>
-      <c r="G228" s="162">
-        <f>(E228*missingTransactionRate*1000/avgTrSize)/(F228*ongoingResourcePercent90thP1)</f>
-        <v>0.10526315789473685</v>
-      </c>
-      <c r="I228" s="168">
-        <v>4000</v>
-      </c>
       <c r="J228" s="162">
-        <f>I228*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>6.08</v>
+        <f>I228*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <v>3.04</v>
       </c>
     </row>
     <row r="229" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B229" s="161">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C229" s="162">
-        <f>(avgHops19-1+3)*B229/1000</f>
-        <v>0.56792505298386509</v>
+        <f>(avgHops19)*B229/1000</f>
+        <v>0.61188757947579753</v>
       </c>
       <c r="E229" s="168">
+        <v>5000</v>
+      </c>
+      <c r="F229" s="170">
         <v>2000</v>
       </c>
-      <c r="F229" s="170">
-        <v>5000</v>
-      </c>
       <c r="G229" s="162">
-        <f>(E229*missingTransactionRate*1000/avgTrSize)/(F229*ongoingResourcePercent90thP1)</f>
-        <v>8.4210526315789486E-2</v>
+        <f>(E229*missingTransactionRate*1000/avgTrSize)/(F229*ongoingResourcePercent10thP2)</f>
+        <v>0.52631578947368418</v>
       </c>
       <c r="I229" s="168">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="J229" s="162">
-        <f>I229*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>7.6</v>
+        <f>I229*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <v>3.8</v>
       </c>
     </row>
     <row r="230" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B230" s="161">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C230" s="162">
-        <f>(avgHops19-1+3)*B230/1000</f>
-        <v>0.63891568460684811</v>
+        <f>(avgHops19)*B230/1000</f>
+        <v>0.71386884272176387</v>
       </c>
       <c r="E230" s="168">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F230" s="170">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G230" s="162">
-        <f>(E230*missingTransactionRate*1000/avgTrSize)/(F230*ongoingResourcePercent90thP1)</f>
-        <v>7.0175438596491238E-2</v>
+        <f>(E230*missingTransactionRate*1000/avgTrSize)/(F230*ongoingResourcePercent10thP2)</f>
+        <v>0.21052631578947367</v>
       </c>
       <c r="I230" s="168">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="J230" s="162">
-        <f>I230*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>9.1199999999999992</v>
+        <f>I230*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="231" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B231" s="161">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C231" s="162">
-        <f>(avgHops19-1+3)*B231/1000</f>
-        <v>0.70990631622983136</v>
+        <f>(avgHops19)*B231/1000</f>
+        <v>0.81585010596773011</v>
       </c>
       <c r="E231" s="168">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F231" s="170">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G231" s="162">
-        <f>(E231*missingTransactionRate*1000/avgTrSize)/(F231*ongoingResourcePercent90thP1)</f>
-        <v>6.0150375939849628E-2</v>
+        <f>(E231*missingTransactionRate*1000/avgTrSize)/(F231*ongoingResourcePercent10thP2)</f>
+        <v>0.10526315789473684</v>
       </c>
       <c r="I231" s="168">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="J231" s="162">
-        <f>I231*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>10.64</v>
+        <f>I231*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <v>5.32</v>
       </c>
     </row>
     <row r="232" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B232" s="161">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C232" s="162">
-        <f>(avgHops19-1+3)*B232/1000</f>
-        <v>0.78089694785281438</v>
+        <f>(avgHops19)*B232/1000</f>
+        <v>0.91783136921369624</v>
       </c>
       <c r="E232" s="168">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F232" s="170">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="G232" s="162">
-        <f>(E232*missingTransactionRate*1000/avgTrSize)/(F232*ongoingResourcePercent90thP1)</f>
-        <v>5.2631578947368425E-2</v>
+        <f>(E232*missingTransactionRate*1000/avgTrSize)/(F232*ongoingResourcePercent10thP2)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="I232" s="168">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="J232" s="162">
-        <f>I232*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>12.16</v>
+        <f>I232*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <v>6.08</v>
       </c>
     </row>
     <row r="233" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="161">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C233" s="162">
-        <f>(avgHops19-1+3)*B233/1000</f>
-        <v>0.85188757947579752</v>
+        <f>(avgHops19)*B233/1000</f>
+        <v>1.0198126324596626</v>
       </c>
       <c r="E233" s="168">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F233" s="170">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="G233" s="162">
-        <f>(E233*missingTransactionRate*1000/avgTrSize)/(F233*ongoingResourcePercent90thP1)</f>
-        <v>4.6783625730994156E-2</v>
+        <f>(E233*missingTransactionRate*1000/avgTrSize)/(F233*ongoingResourcePercent10thP2)</f>
+        <v>2.1052631578947368E-2</v>
       </c>
       <c r="I233" s="168">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="J233" s="162">
-        <f>I233*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>13.68</v>
+        <f>I233*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <v>6.84</v>
       </c>
     </row>
     <row r="234" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B234" s="161">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="C234" s="162">
-        <f>(avgHops19-1+3)*B234/1000</f>
-        <v>0.92287821109878065</v>
+        <f>(avgHops19)*B234/1000</f>
+        <v>1.1217938957056288</v>
       </c>
       <c r="E234" s="168">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F234" s="170">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G234" s="162">
-        <f>(E234*missingTransactionRate*1000/avgTrSize)/(F234*ongoingResourcePercent90thP1)</f>
-        <v>4.2105263157894743E-2</v>
+        <f>(E234*missingTransactionRate*1000/avgTrSize)/(F234*ongoingResourcePercent10thP2)</f>
+        <v>1.0526315789473684E-2</v>
       </c>
       <c r="I234" s="168">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J234" s="162">
-        <f>I234*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>15.2</v>
+        <f>I234*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <v>7.6</v>
       </c>
     </row>
     <row r="235" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B235" s="163">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="C235" s="164">
-        <f>(avgHops19-1+3)*B235/1000</f>
-        <v>0.99386884272176379</v>
+        <f>(avgHops19)*B235/1000</f>
+        <v>1.2237751589515951</v>
       </c>
       <c r="E235" s="169">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F235" s="171">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="G235" s="164">
-        <f>(E235*missingTransactionRate*1000/avgTrSize)/(F235*ongoingResourcePercent90thP1)</f>
-        <v>3.8277511961722493E-2</v>
+        <f>(E235*missingTransactionRate*1000/avgTrSize)/(F235*ongoingResourcePercent10thP2)</f>
+        <v>5.263157894736842E-3</v>
       </c>
       <c r="I235" s="169">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="J235" s="164">
-        <f>I235*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*0.1*mbToGB*KBperGB)</f>
-        <v>16.72</v>
+        <f>I235*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <v>8.36</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -19931,11 +19924,11 @@
       </c>
     </row>
     <row r="246" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="177" t="s">
+      <c r="A246" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="B246" s="177"/>
-      <c r="C246" s="177"/>
+      <c r="B246" s="195"/>
+      <c r="C246" s="195"/>
       <c r="D246" s="95" t="str">
         <f>$A$120</f>
         <v>10th %ile</v>
@@ -19951,17 +19944,17 @@
       <c r="G246" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H246" s="194">
+      <c r="H246" s="189">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="177" t="s">
+      <c r="A247" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="B247" s="177"/>
-      <c r="C247" s="177"/>
+      <c r="B247" s="195"/>
+      <c r="C247" s="195"/>
       <c r="D247" s="95" t="s">
         <v>170</v>
       </c>
@@ -19976,17 +19969,17 @@
       <c r="G247" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H247" s="194">
+      <c r="H247" s="189">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
     <row r="248" spans="1:8" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="177" t="s">
+      <c r="A248" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="B248" s="177"/>
-      <c r="C248" s="177"/>
+      <c r="B248" s="195"/>
+      <c r="C248" s="195"/>
       <c r="D248" s="95" t="str">
         <f>$A$120</f>
         <v>10th %ile</v>
@@ -20002,17 +19995,17 @@
       <c r="G248" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H248" s="194">
+      <c r="H248" s="189">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
     <row r="249" spans="1:8" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="177" t="s">
+      <c r="A249" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="B249" s="177"/>
-      <c r="C249" s="177"/>
+      <c r="B249" s="195"/>
+      <c r="C249" s="195"/>
       <c r="D249" s="95" t="str">
         <f>$A$120</f>
         <v>10th %ile</v>
@@ -20028,7 +20021,7 @@
       <c r="G249" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H249" s="194">
+      <c r="H249" s="189">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
@@ -20074,11 +20067,11 @@
       </c>
     </row>
     <row r="254" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="177" t="s">
+      <c r="A254" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="B254" s="177"/>
-      <c r="C254" s="177"/>
+      <c r="B254" s="195"/>
+      <c r="C254" s="195"/>
       <c r="D254" s="95" t="s">
         <v>170</v>
       </c>
@@ -20093,17 +20086,17 @@
       <c r="G254" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H254" s="194">
+      <c r="H254" s="189">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="177" t="s">
+      <c r="A255" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="B255" s="177"/>
-      <c r="C255" s="177"/>
+      <c r="B255" s="195"/>
+      <c r="C255" s="195"/>
       <c r="D255" s="95" t="str">
         <f>$A$120</f>
         <v>10th %ile</v>
@@ -20119,17 +20112,17 @@
       <c r="G255" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H255" s="194">
+      <c r="H255" s="189">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="177" t="s">
+      <c r="A256" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="B256" s="177"/>
-      <c r="C256" s="177"/>
+      <c r="B256" s="195"/>
+      <c r="C256" s="195"/>
       <c r="D256" s="95" t="str">
         <f>$A$120</f>
         <v>10th %ile</v>
@@ -20145,17 +20138,17 @@
       <c r="G256" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H256" s="194">
+      <c r="H256" s="189">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="177" t="s">
+      <c r="A257" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="B257" s="177"/>
-      <c r="C257" s="177"/>
+      <c r="B257" s="195"/>
+      <c r="C257" s="195"/>
       <c r="D257" s="95" t="str">
         <f>$A$120</f>
         <v>10th %ile</v>
@@ -20171,13 +20164,18 @@
       <c r="G257" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H257" s="194">
+      <c r="H257" s="189">
         <f>endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A113:C113"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A108:C108"/>
     <mergeCell ref="A112:C112"/>
@@ -20187,11 +20185,6 @@
     <mergeCell ref="A248:C248"/>
     <mergeCell ref="A249:C249"/>
     <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A113:C113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bottlenecks.xlsx
+++ b/bottlenecks.xlsx
@@ -5883,7 +5883,7 @@
   <dimension ref="A1:L402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14685,8 +14685,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C331" sqref="C331"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I313" sqref="I313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bottlenecks.xlsx
+++ b/bottlenecks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15315" windowHeight="11880" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="2910" windowWidth="15315" windowHeight="11880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Current Bitcoin" sheetId="1" r:id="rId1"/>
@@ -1426,6 +1426,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="188" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1441,7 +1442,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1451,7 +1451,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBD1D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1466,16 +1476,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBD1D7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1537,17 +1537,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFB7B7"/>
+      <color rgb="FFF3C3C3"/>
+      <color rgb="FFEEA8A8"/>
       <color rgb="FFFF9F9F"/>
       <color rgb="FFFBD1D7"/>
     </mruColors>
@@ -1733,8 +1729,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52568064"/>
-        <c:axId val="52732672"/>
+        <c:axId val="142776192"/>
+        <c:axId val="142778368"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1882,11 +1878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52978048"/>
-        <c:axId val="52734592"/>
+        <c:axId val="142781440"/>
+        <c:axId val="142779904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52568064"/>
+        <c:axId val="142776192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +1911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52732672"/>
+        <c:crossAx val="142778368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1923,7 +1919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52732672"/>
+        <c:axId val="142778368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,12 +1944,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52568064"/>
+        <c:crossAx val="142776192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52734592"/>
+        <c:axId val="142779904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,12 +1975,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52978048"/>
+        <c:crossAx val="142781440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="52978048"/>
+        <c:axId val="142781440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52734592"/>
+        <c:crossAx val="142779904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2201,8 +2197,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53009792"/>
-        <c:axId val="57104256"/>
+        <c:axId val="159011584"/>
+        <c:axId val="159013504"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2350,11 +2346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70955008"/>
-        <c:axId val="57105792"/>
+        <c:axId val="159020928"/>
+        <c:axId val="159019392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53009792"/>
+        <c:axId val="159011584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2379,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57104256"/>
+        <c:crossAx val="159013504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2391,7 +2387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57104256"/>
+        <c:axId val="159013504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,12 +2412,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53009792"/>
+        <c:crossAx val="159011584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57105792"/>
+        <c:axId val="159019392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,12 +2443,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70955008"/>
+        <c:crossAx val="159020928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="70955008"/>
+        <c:axId val="159020928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,7 +2458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57105792"/>
+        <c:crossAx val="159019392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2669,8 +2665,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87526400"/>
-        <c:axId val="87536768"/>
+        <c:axId val="159047040"/>
+        <c:axId val="159053312"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2818,11 +2814,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88974848"/>
-        <c:axId val="87538304"/>
+        <c:axId val="159056640"/>
+        <c:axId val="159054848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87526400"/>
+        <c:axId val="159047040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +2847,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87536768"/>
+        <c:crossAx val="159053312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2859,7 +2855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87536768"/>
+        <c:axId val="159053312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,12 +2880,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87526400"/>
+        <c:crossAx val="159047040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87538304"/>
+        <c:axId val="159054848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2915,12 +2911,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88974848"/>
+        <c:crossAx val="159056640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="88974848"/>
+        <c:axId val="159056640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87538304"/>
+        <c:crossAx val="159054848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3138,8 +3134,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91772416"/>
-        <c:axId val="91813760"/>
+        <c:axId val="159087616"/>
+        <c:axId val="159093888"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3287,11 +3283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92697728"/>
-        <c:axId val="91815296"/>
+        <c:axId val="159109504"/>
+        <c:axId val="159095424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91772416"/>
+        <c:axId val="159087616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,7 +3316,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91813760"/>
+        <c:crossAx val="159093888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3328,7 +3324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91813760"/>
+        <c:axId val="159093888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,12 +3349,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91772416"/>
+        <c:crossAx val="159087616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91815296"/>
+        <c:axId val="159095424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3384,12 +3380,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92697728"/>
+        <c:crossAx val="159109504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="92697728"/>
+        <c:axId val="159109504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,7 +3395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91815296"/>
+        <c:crossAx val="159095424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3754,11 +3750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50874240"/>
-        <c:axId val="50876416"/>
+        <c:axId val="159138944"/>
+        <c:axId val="159140864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50874240"/>
+        <c:axId val="159138944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3787,7 +3783,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50876416"/>
+        <c:crossAx val="159140864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3795,7 +3791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50876416"/>
+        <c:axId val="159140864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,7 +3816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50874240"/>
+        <c:crossAx val="159138944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4025,8 +4021,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50903296"/>
-        <c:axId val="50913664"/>
+        <c:axId val="159175808"/>
+        <c:axId val="159177728"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4174,11 +4170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50916736"/>
-        <c:axId val="50915200"/>
+        <c:axId val="159193344"/>
+        <c:axId val="159191808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50903296"/>
+        <c:axId val="159175808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4207,7 +4203,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50913664"/>
+        <c:crossAx val="159177728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4215,7 +4211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50913664"/>
+        <c:axId val="159177728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,12 +4236,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50903296"/>
+        <c:crossAx val="159175808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50915200"/>
+        <c:axId val="159191808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,12 +4267,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50916736"/>
+        <c:crossAx val="159193344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="50916736"/>
+        <c:axId val="159193344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4286,7 +4282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50915200"/>
+        <c:crossAx val="159191808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4640,11 +4636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51933184"/>
-        <c:axId val="51935104"/>
+        <c:axId val="159222400"/>
+        <c:axId val="159224576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51933184"/>
+        <c:axId val="159222400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4669,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51935104"/>
+        <c:crossAx val="159224576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4681,7 +4677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51935104"/>
+        <c:axId val="159224576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4706,7 +4702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51933184"/>
+        <c:crossAx val="159222400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4911,11 +4907,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52041600"/>
-        <c:axId val="52314112"/>
+        <c:axId val="142615680"/>
+        <c:axId val="142617600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52041600"/>
+        <c:axId val="142615680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4937,14 +4933,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52314112"/>
+        <c:crossAx val="142617600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4952,7 +4947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52314112"/>
+        <c:axId val="142617600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4979,7 +4974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52041600"/>
+        <c:crossAx val="142615680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5883,7 +5878,7 @@
   <dimension ref="A1:L402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6081,20 +6076,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="199" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="198"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="199"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H8" s="202" t="s">
+      <c r="H8" s="203" t="s">
         <v>159</v>
       </c>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -14148,13 +14143,13 @@
         <f t="shared" si="68"/>
         <v>1.0918875794757976</v>
       </c>
-      <c r="E383" s="158">
+      <c r="E383" s="159">
         <v>2000</v>
       </c>
-      <c r="F383" s="160">
+      <c r="F383" s="161">
         <v>2000</v>
       </c>
-      <c r="G383" s="152">
+      <c r="G383" s="154">
         <f t="shared" si="69"/>
         <v>0.2105263157894737</v>
       </c>
@@ -14175,14 +14170,14 @@
         <v>1.2738688427217637</v>
       </c>
       <c r="E384" s="158">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F384" s="160">
         <v>5000</v>
       </c>
       <c r="G384" s="152">
         <f t="shared" si="69"/>
-        <v>8.4210526315789486E-2</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="I384" s="158">
         <v>3000</v>
@@ -14201,14 +14196,14 @@
         <v>1.45585010596773</v>
       </c>
       <c r="E385" s="158">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F385" s="160">
         <v>10000</v>
       </c>
       <c r="G385" s="152">
         <f t="shared" si="69"/>
-        <v>4.2105263157894743E-2</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="I385" s="158">
         <v>3500</v>
@@ -14227,14 +14222,14 @@
         <v>1.6378313692136963</v>
       </c>
       <c r="E386" s="158">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F386" s="160">
         <v>20000</v>
       </c>
       <c r="G386" s="152">
         <f t="shared" si="69"/>
-        <v>2.1052631578947371E-2</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="I386" s="158">
         <v>4000</v>
@@ -14253,14 +14248,14 @@
         <v>1.8198126324596626</v>
       </c>
       <c r="E387" s="158">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F387" s="160">
         <v>50000</v>
       </c>
       <c r="G387" s="152">
         <f t="shared" si="69"/>
-        <v>8.4210526315789472E-3</v>
+        <v>8.4210526315789472E-2</v>
       </c>
       <c r="I387" s="158">
         <v>4500</v>
@@ -14279,14 +14274,14 @@
         <v>2.0017938957056289</v>
       </c>
       <c r="E388" s="158">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F388" s="160">
         <v>100000</v>
       </c>
       <c r="G388" s="152">
         <f t="shared" si="69"/>
-        <v>4.2105263157894736E-3</v>
+        <v>4.2105263157894736E-2</v>
       </c>
       <c r="I388" s="158">
         <v>5000</v>
@@ -14305,14 +14300,14 @@
         <v>2.1837751589515952</v>
       </c>
       <c r="E389" s="159">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F389" s="161">
         <v>200000</v>
       </c>
       <c r="G389" s="154">
         <f t="shared" si="69"/>
-        <v>2.1052631578947368E-3</v>
+        <v>2.1052631578947368E-2</v>
       </c>
       <c r="I389" s="159">
         <v>5500</v>
@@ -14334,9 +14329,9 @@
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A392" s="199"/>
-      <c r="B392" s="199"/>
-      <c r="C392" s="199"/>
+      <c r="A392" s="200"/>
+      <c r="B392" s="200"/>
+      <c r="C392" s="200"/>
       <c r="D392" s="5" t="s">
         <v>67</v>
       </c>
@@ -14354,11 +14349,11 @@
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A393" s="201" t="s">
+      <c r="A393" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="B393" s="201"/>
-      <c r="C393" s="201"/>
+      <c r="B393" s="202"/>
+      <c r="C393" s="202"/>
       <c r="D393" s="48" t="str">
         <f>A74</f>
         <v>90th %ile</v>
@@ -14378,11 +14373,11 @@
       <c r="H393" s="112"/>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A394" s="200" t="s">
+      <c r="A394" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B394" s="200"/>
-      <c r="C394" s="200"/>
+      <c r="B394" s="201"/>
+      <c r="C394" s="201"/>
       <c r="D394" s="2" t="str">
         <f>A50</f>
         <v>90th %ile</v>
@@ -14402,11 +14397,11 @@
       <c r="H394" s="109"/>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A395" s="200" t="s">
+      <c r="A395" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B395" s="200"/>
-      <c r="C395" s="200"/>
+      <c r="B395" s="201"/>
+      <c r="C395" s="201"/>
       <c r="D395" s="2" t="str">
         <f>A258</f>
         <v>10th %ile</v>
@@ -14426,11 +14421,11 @@
       <c r="H395" s="109"/>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A396" s="200" t="s">
+      <c r="A396" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="B396" s="200"/>
-      <c r="C396" s="200"/>
+      <c r="B396" s="201"/>
+      <c r="C396" s="201"/>
       <c r="D396" s="2" t="str">
         <f>A283</f>
         <v>90th %ile</v>
@@ -14444,11 +14439,11 @@
       </c>
     </row>
     <row r="397" spans="1:10" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="200" t="s">
+      <c r="A397" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="B397" s="200"/>
-      <c r="C397" s="200"/>
+      <c r="B397" s="201"/>
+      <c r="C397" s="201"/>
       <c r="D397" s="2" t="str">
         <f>A98</f>
         <v>90th %ile</v>
@@ -14468,11 +14463,11 @@
       <c r="H397" s="109"/>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A398" s="200" t="s">
+      <c r="A398" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="B398" s="200"/>
-      <c r="C398" s="200"/>
+      <c r="B398" s="201"/>
+      <c r="C398" s="201"/>
       <c r="D398" s="2" t="str">
         <f>A162</f>
         <v>90th %ile</v>
@@ -14489,11 +14484,11 @@
       <c r="H398" s="109"/>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A399" s="200" t="s">
+      <c r="A399" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="B399" s="200"/>
-      <c r="C399" s="200"/>
+      <c r="B399" s="201"/>
+      <c r="C399" s="201"/>
       <c r="D399" s="2" t="str">
         <f>A210</f>
         <v>90th %ile</v>
@@ -14510,11 +14505,11 @@
       <c r="H399" s="109"/>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A400" s="200" t="s">
+      <c r="A400" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="B400" s="200"/>
-      <c r="C400" s="200"/>
+      <c r="B400" s="201"/>
+      <c r="C400" s="201"/>
       <c r="D400" s="2" t="str">
         <f>A234</f>
         <v>90th %ile</v>
@@ -14548,11 +14543,11 @@
       <c r="H401" s="175"/>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A402" s="200" t="s">
+      <c r="A402" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="B402" s="200"/>
-      <c r="C402" s="200"/>
+      <c r="B402" s="201"/>
+      <c r="C402" s="201"/>
       <c r="D402" s="95" t="s">
         <v>81</v>
       </c>
@@ -14685,8 +14680,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I313" sqref="I313"/>
+    <sheetView tabSelected="1" topLeftCell="A290" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17069,19 +17064,19 @@
       </c>
     </row>
     <row r="108" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="201" t="s">
+      <c r="A108" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="201"/>
-      <c r="C108" s="201"/>
+      <c r="B108" s="202"/>
+      <c r="C108" s="202"/>
       <c r="D108" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="E108" s="105">
+      <c r="E108" s="198">
         <f>'Current Bitcoin'!E394</f>
         <v>0.8446313225664035</v>
       </c>
-      <c r="F108" s="203">
+      <c r="F108" s="198">
         <f>'Current Bitcoin'!F394/1000</f>
         <v>0.24071992693142499</v>
       </c>
@@ -17092,11 +17087,11 @@
       <c r="H108" s="109"/>
     </row>
     <row r="109" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="200" t="s">
+      <c r="A109" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="B109" s="200"/>
-      <c r="C109" s="200"/>
+      <c r="B109" s="201"/>
+      <c r="C109" s="201"/>
       <c r="D109" s="92" t="s">
         <v>80</v>
       </c>
@@ -17115,11 +17110,11 @@
       <c r="H109" s="109"/>
     </row>
     <row r="110" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="201" t="s">
+      <c r="A110" s="202" t="s">
         <v>71</v>
       </c>
-      <c r="B110" s="201"/>
-      <c r="C110" s="201"/>
+      <c r="B110" s="202"/>
+      <c r="C110" s="202"/>
       <c r="D110" s="104" t="s">
         <v>80</v>
       </c>
@@ -17127,7 +17122,7 @@
         <f>'Current Bitcoin'!E397</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="F110" s="203">
+      <c r="F110" s="198">
         <f>'Current Bitcoin'!F397/1000</f>
         <v>1.3965000000000001</v>
       </c>
@@ -17138,11 +17133,11 @@
       <c r="H110" s="109"/>
     </row>
     <row r="111" spans="1:8" s="93" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="200" t="s">
+      <c r="A111" s="201" t="s">
         <v>97</v>
       </c>
-      <c r="B111" s="200"/>
-      <c r="C111" s="200"/>
+      <c r="B111" s="201"/>
+      <c r="C111" s="201"/>
       <c r="D111" s="92" t="s">
         <v>80</v>
       </c>
@@ -17160,11 +17155,11 @@
       <c r="H111" s="109"/>
     </row>
     <row r="112" spans="1:8" s="93" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="200" t="s">
+      <c r="A112" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="B112" s="200"/>
-      <c r="C112" s="200"/>
+      <c r="B112" s="201"/>
+      <c r="C112" s="201"/>
       <c r="D112" s="92" t="s">
         <v>80</v>
       </c>
@@ -17182,11 +17177,11 @@
       <c r="H112" s="109"/>
     </row>
     <row r="113" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="200" t="s">
+      <c r="A113" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="B113" s="200"/>
-      <c r="C113" s="200"/>
+      <c r="B113" s="201"/>
+      <c r="C113" s="201"/>
       <c r="D113" s="92" t="s">
         <v>80</v>
       </c>
@@ -21012,38 +21007,38 @@
         <v>0</v>
       </c>
       <c r="B260" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A260)*secondsPerBlock</f>
+        <f t="shared" ref="B260:B275" si="58">bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A260)*secondsPerBlock</f>
         <v>7.5</v>
       </c>
       <c r="C260" s="106">
-        <f>D260/(avgTrSize/(avgTrSize+D234))</f>
+        <f t="shared" ref="C260:C275" si="59">D260/(avgTrSize/(avgTrSize+D234))</f>
         <v>2420.289218527796</v>
       </c>
       <c r="D260" s="106">
-        <f>B260/neutrinoFilterRatio</f>
+        <f t="shared" ref="D260:D275" si="60">B260/neutrinoFilterRatio</f>
         <v>1000</v>
       </c>
       <c r="E260" s="87">
-        <f>D260*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" ref="E260:E275" si="61">D260*1000*1000/secondsPerBlock/avgTrSize</f>
         <v>3508.7719298245615</v>
       </c>
       <c r="G260" s="93">
         <v>0</v>
       </c>
       <c r="H260" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G260)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" ref="H260:H275" si="62">bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G260)*secondsPerYear*recentSyncTime16/365</f>
         <v>7560</v>
       </c>
       <c r="I260" s="106">
-        <f>J260/(avgTrSize/(avgTrSize+D234))</f>
+        <f t="shared" ref="I260:I275" si="63">J260/(avgTrSize/(avgTrSize+D234))</f>
         <v>80.676307284259877</v>
       </c>
       <c r="J260" s="106">
-        <f>secondsPerBlock*H260/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" ref="J260:J275" si="64">secondsPerBlock*H260/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
         <v>33.333333333333336</v>
       </c>
       <c r="K260" s="87">
-        <f>J260*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" ref="K260:K275" si="65">J260*1000*1000/secondsPerBlock/avgTrSize</f>
         <v>116.95906432748539</v>
       </c>
     </row>
@@ -21052,38 +21047,38 @@
         <v>1</v>
       </c>
       <c r="B261" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A261)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>9.375</v>
       </c>
       <c r="C261" s="106">
-        <f>D261/(avgTrSize/(avgTrSize+D235))</f>
+        <f t="shared" si="59"/>
         <v>3025.361523159745</v>
       </c>
       <c r="D261" s="106">
-        <f>B261/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>1250</v>
       </c>
       <c r="E261" s="87">
-        <f>D261*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>4385.9649122807014</v>
       </c>
       <c r="G261" s="93">
         <v>1</v>
       </c>
       <c r="H261" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G261)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>9450</v>
       </c>
       <c r="I261" s="106">
-        <f>J261/(avgTrSize/(avgTrSize+D235))</f>
+        <f t="shared" si="63"/>
         <v>100.84538410532484</v>
       </c>
       <c r="J261" s="106">
-        <f>secondsPerBlock*H261/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>41.666666666666671</v>
       </c>
       <c r="K261" s="87">
-        <f>J261*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>146.19883040935673</v>
       </c>
     </row>
@@ -21092,38 +21087,38 @@
         <v>2</v>
       </c>
       <c r="B262" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A262)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>11.71875</v>
       </c>
       <c r="C262" s="106">
-        <f>D262/(avgTrSize/(avgTrSize+D236))</f>
+        <f t="shared" si="59"/>
         <v>3781.7019039496813</v>
       </c>
       <c r="D262" s="106">
-        <f>B262/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>1562.5</v>
       </c>
       <c r="E262" s="87">
-        <f>D262*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>5482.4561403508769</v>
       </c>
       <c r="G262" s="93">
         <v>2</v>
       </c>
       <c r="H262" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G262)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>11812.5</v>
       </c>
       <c r="I262" s="106">
-        <f>J262/(avgTrSize/(avgTrSize+D236))</f>
+        <f t="shared" si="63"/>
         <v>126.05673013165605</v>
       </c>
       <c r="J262" s="106">
-        <f>secondsPerBlock*H262/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>52.083333333333336</v>
       </c>
       <c r="K262" s="87">
-        <f>J262*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>182.74853801169593</v>
       </c>
     </row>
@@ -21132,38 +21127,38 @@
         <v>3</v>
       </c>
       <c r="B263" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A263)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>14.6484375</v>
       </c>
       <c r="C263" s="106">
-        <f>D263/(avgTrSize/(avgTrSize+D237))</f>
+        <f t="shared" si="59"/>
         <v>4463.9694852002594</v>
       </c>
       <c r="D263" s="106">
-        <f>B263/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>1953.125</v>
       </c>
       <c r="E263" s="87">
-        <f>D263*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>6853.0701754385964</v>
       </c>
       <c r="G263" s="93">
         <v>3</v>
       </c>
       <c r="H263" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G263)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>14765.625</v>
       </c>
       <c r="I263" s="106">
-        <f>J263/(avgTrSize/(avgTrSize+D237))</f>
+        <f t="shared" si="63"/>
         <v>148.79898284000865</v>
       </c>
       <c r="J263" s="106">
-        <f>secondsPerBlock*H263/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>65.104166666666671</v>
       </c>
       <c r="K263" s="87">
-        <f>J263*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>228.43567251461991</v>
       </c>
     </row>
@@ -21172,38 +21167,38 @@
         <v>4</v>
       </c>
       <c r="B264" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A264)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>18.310546875</v>
       </c>
       <c r="C264" s="106">
-        <f>D264/(avgTrSize/(avgTrSize+D238))</f>
+        <f t="shared" si="59"/>
         <v>5579.9618565003238</v>
       </c>
       <c r="D264" s="106">
-        <f>B264/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>2441.40625</v>
       </c>
       <c r="E264" s="87">
-        <f>D264*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>8566.3377192982462</v>
       </c>
       <c r="G264" s="93">
         <v>4</v>
       </c>
       <c r="H264" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G264)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>18457.03125</v>
       </c>
       <c r="I264" s="106">
-        <f>J264/(avgTrSize/(avgTrSize+D238))</f>
+        <f t="shared" si="63"/>
         <v>185.99872855001084</v>
       </c>
       <c r="J264" s="106">
-        <f>secondsPerBlock*H264/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>81.380208333333343</v>
       </c>
       <c r="K264" s="87">
-        <f>J264*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>285.54459064327489</v>
       </c>
     </row>
@@ -21212,38 +21207,38 @@
         <v>5</v>
       </c>
       <c r="B265" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A265)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>22.88818359375</v>
       </c>
       <c r="C265" s="106">
-        <f>D265/(avgTrSize/(avgTrSize+D239))</f>
+        <f t="shared" si="59"/>
         <v>6974.9523206254053</v>
       </c>
       <c r="D265" s="106">
-        <f>B265/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>3051.7578125</v>
       </c>
       <c r="E265" s="87">
-        <f>D265*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>10707.922149122807</v>
       </c>
       <c r="G265" s="93">
         <v>5</v>
       </c>
       <c r="H265" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G265)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>23071.2890625</v>
       </c>
       <c r="I265" s="106">
-        <f>J265/(avgTrSize/(avgTrSize+D239))</f>
+        <f t="shared" si="63"/>
         <v>232.49841068751351</v>
       </c>
       <c r="J265" s="106">
-        <f>secondsPerBlock*H265/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>101.72526041666667</v>
       </c>
       <c r="K265" s="87">
-        <f>J265*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>356.93073830409361</v>
       </c>
     </row>
@@ -21252,38 +21247,38 @@
         <v>6</v>
       </c>
       <c r="B266" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A266)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>28.6102294921875</v>
       </c>
       <c r="C266" s="106">
-        <f>D266/(avgTrSize/(avgTrSize+D240))</f>
+        <f t="shared" si="59"/>
         <v>8718.6904007817575</v>
       </c>
       <c r="D266" s="106">
-        <f>B266/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>3814.697265625</v>
       </c>
       <c r="E266" s="87">
-        <f>D266*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>13384.90268640351</v>
       </c>
       <c r="G266" s="93">
         <v>6</v>
       </c>
       <c r="H266" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G266)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>28839.111328125</v>
       </c>
       <c r="I266" s="106">
-        <f>J266/(avgTrSize/(avgTrSize+D240))</f>
+        <f t="shared" si="63"/>
         <v>290.6230133593919</v>
       </c>
       <c r="J266" s="106">
-        <f>secondsPerBlock*H266/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>127.15657552083334</v>
       </c>
       <c r="K266" s="87">
-        <f>J266*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>446.16342288011697</v>
       </c>
     </row>
@@ -21292,38 +21287,38 @@
         <v>7</v>
       </c>
       <c r="B267" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A267)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>35.762786865234375</v>
       </c>
       <c r="C267" s="106">
-        <f>D267/(avgTrSize/(avgTrSize+D241))</f>
+        <f t="shared" si="59"/>
         <v>10898.363000977195</v>
       </c>
       <c r="D267" s="106">
-        <f>B267/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>4768.37158203125</v>
       </c>
       <c r="E267" s="87">
-        <f>D267*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>16731.128358004386</v>
       </c>
       <c r="G267" s="93">
         <v>7</v>
       </c>
       <c r="H267" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G267)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>36048.88916015625</v>
       </c>
       <c r="I267" s="106">
-        <f>J267/(avgTrSize/(avgTrSize+D241))</f>
+        <f t="shared" si="63"/>
         <v>363.2787666992399</v>
       </c>
       <c r="J267" s="106">
-        <f>secondsPerBlock*H267/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>158.94571940104169</v>
       </c>
       <c r="K267" s="87">
-        <f>J267*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>557.70427860014627</v>
       </c>
     </row>
@@ -21332,38 +21327,38 @@
         <v>8</v>
       </c>
       <c r="B268" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A268)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>44.703483581542969</v>
       </c>
       <c r="C268" s="106">
-        <f>D268/(avgTrSize/(avgTrSize+D242))</f>
+        <f t="shared" si="59"/>
         <v>12819.859590037284</v>
       </c>
       <c r="D268" s="106">
-        <f>B268/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>5960.4644775390625</v>
       </c>
       <c r="E268" s="87">
-        <f>D268*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>20913.910447505481</v>
       </c>
       <c r="G268" s="93">
         <v>8</v>
       </c>
       <c r="H268" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G268)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>45061.111450195313</v>
       </c>
       <c r="I268" s="106">
-        <f>J268/(avgTrSize/(avgTrSize+D242))</f>
+        <f t="shared" si="63"/>
         <v>427.32865300124286</v>
       </c>
       <c r="J268" s="106">
-        <f>secondsPerBlock*H268/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>198.68214925130209</v>
       </c>
       <c r="K268" s="87">
-        <f>J268*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>697.13034825018281</v>
       </c>
     </row>
@@ -21372,38 +21367,38 @@
         <v>9</v>
       </c>
       <c r="B269" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A269)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>55.879354476928711</v>
       </c>
       <c r="C269" s="106">
-        <f>D269/(avgTrSize/(avgTrSize+D243))</f>
+        <f t="shared" si="59"/>
         <v>16024.824487546606</v>
       </c>
       <c r="D269" s="106">
-        <f>B269/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>7450.5805969238281</v>
       </c>
       <c r="E269" s="87">
-        <f>D269*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>26142.388059381854</v>
       </c>
       <c r="G269" s="93">
         <v>9</v>
       </c>
       <c r="H269" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G269)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>56326.389312744141</v>
       </c>
       <c r="I269" s="106">
-        <f>J269/(avgTrSize/(avgTrSize+D243))</f>
+        <f t="shared" si="63"/>
         <v>534.16081625155357</v>
       </c>
       <c r="J269" s="106">
-        <f>secondsPerBlock*H269/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>248.35268656412762</v>
       </c>
       <c r="K269" s="87">
-        <f>J269*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>871.41293531272856</v>
       </c>
     </row>
@@ -21412,38 +21407,38 @@
         <v>10</v>
       </c>
       <c r="B270" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A270)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>69.849193096160889</v>
       </c>
       <c r="C270" s="106">
-        <f>D270/(avgTrSize/(avgTrSize+D244))</f>
+        <f t="shared" si="59"/>
         <v>20031.030609433255</v>
       </c>
       <c r="D270" s="106">
-        <f>B270/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>9313.2257461547852</v>
       </c>
       <c r="E270" s="87">
-        <f>D270*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>32677.985074227316</v>
       </c>
       <c r="G270" s="93">
         <v>10</v>
       </c>
       <c r="H270" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G270)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>70407.986640930176</v>
       </c>
       <c r="I270" s="106">
-        <f>J270/(avgTrSize/(avgTrSize+D244))</f>
+        <f t="shared" si="63"/>
         <v>667.70102031444196</v>
       </c>
       <c r="J270" s="106">
-        <f>secondsPerBlock*H270/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>310.44085820515954</v>
       </c>
       <c r="K270" s="87">
-        <f>J270*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>1089.2661691409107</v>
       </c>
     </row>
@@ -21452,38 +21447,38 @@
         <v>11</v>
       </c>
       <c r="B271" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A271)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>87.311491370201111</v>
       </c>
       <c r="C271" s="106">
-        <f>D271/(avgTrSize/(avgTrSize+D245))</f>
+        <f t="shared" si="59"/>
         <v>25038.788261791571</v>
       </c>
       <c r="D271" s="106">
-        <f>B271/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>11641.532182693481</v>
       </c>
       <c r="E271" s="87">
-        <f>D271*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>40847.481342784144</v>
       </c>
       <c r="G271" s="93">
         <v>11</v>
       </c>
       <c r="H271" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G271)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>88009.98330116272</v>
       </c>
       <c r="I271" s="106">
-        <f>J271/(avgTrSize/(avgTrSize+D245))</f>
+        <f t="shared" si="63"/>
         <v>834.62627539305242</v>
       </c>
       <c r="J271" s="106">
-        <f>secondsPerBlock*H271/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>388.0510727564494</v>
       </c>
       <c r="K271" s="87">
-        <f>J271*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>1361.5827114261383</v>
       </c>
     </row>
@@ -21492,38 +21487,38 @@
         <v>12</v>
       </c>
       <c r="B272" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A272)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>109.13936421275139</v>
       </c>
       <c r="C272" s="106">
-        <f>D272/(avgTrSize/(avgTrSize+D246))</f>
+        <f t="shared" si="59"/>
         <v>31298.485327239465</v>
       </c>
       <c r="D272" s="106">
-        <f>B272/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>14551.915228366852</v>
       </c>
       <c r="E272" s="87">
-        <f>D272*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>51059.351678480183</v>
       </c>
       <c r="G272" s="93">
         <v>12</v>
       </c>
       <c r="H272" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G272)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>110012.4791264534</v>
       </c>
       <c r="I272" s="106">
-        <f>J272/(avgTrSize/(avgTrSize+D246))</f>
+        <f t="shared" si="63"/>
         <v>1043.2828442413156</v>
       </c>
       <c r="J272" s="106">
-        <f>secondsPerBlock*H272/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>485.06384094556176</v>
       </c>
       <c r="K272" s="87">
-        <f>J272*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>1701.9783892826729</v>
       </c>
     </row>
@@ -21532,38 +21527,38 @@
         <v>13</v>
       </c>
       <c r="B273" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A273)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>136.42420526593924</v>
       </c>
       <c r="C273" s="106">
-        <f>D273/(avgTrSize/(avgTrSize+D247))</f>
+        <f t="shared" si="59"/>
         <v>36672.257778482286</v>
       </c>
       <c r="D273" s="106">
-        <f>B273/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>18189.894035458565</v>
       </c>
       <c r="E273" s="87">
-        <f>D273*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>63824.189598100224</v>
       </c>
       <c r="G273" s="93">
         <v>13</v>
       </c>
       <c r="H273" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G273)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>137515.59890806675</v>
       </c>
       <c r="I273" s="106">
-        <f>J273/(avgTrSize/(avgTrSize+D247))</f>
+        <f t="shared" si="63"/>
         <v>1222.4085926160762</v>
       </c>
       <c r="J273" s="106">
-        <f>secondsPerBlock*H273/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>606.32980118195223</v>
       </c>
       <c r="K273" s="87">
-        <f>J273*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>2127.4729866033413</v>
       </c>
     </row>
@@ -21572,38 +21567,38 @@
         <v>14</v>
       </c>
       <c r="B274" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A274)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>170.53025658242404</v>
       </c>
       <c r="C274" s="106">
-        <f>D274/(avgTrSize/(avgTrSize+D248))</f>
+        <f t="shared" si="59"/>
         <v>45840.322223102856</v>
       </c>
       <c r="D274" s="106">
-        <f>B274/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>22737.367544323206</v>
       </c>
       <c r="E274" s="87">
-        <f>D274*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>79780.236997625281</v>
       </c>
       <c r="G274" s="93">
         <v>14</v>
       </c>
       <c r="H274" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G274)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>171894.49863508344</v>
       </c>
       <c r="I274" s="106">
-        <f>J274/(avgTrSize/(avgTrSize+D248))</f>
+        <f t="shared" si="63"/>
         <v>1528.0107407700953</v>
       </c>
       <c r="J274" s="106">
-        <f>secondsPerBlock*H274/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>757.91225147744024</v>
       </c>
       <c r="K274" s="87">
-        <f>J274*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>2659.3412332541766</v>
       </c>
     </row>
@@ -21612,38 +21607,38 @@
         <v>15</v>
       </c>
       <c r="B275" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,A275)*secondsPerBlock</f>
+        <f t="shared" si="58"/>
         <v>213.16282072803006</v>
       </c>
       <c r="C275" s="106">
-        <f>D275/(avgTrSize/(avgTrSize+D249))</f>
+        <f t="shared" si="59"/>
         <v>57300.402778878568</v>
       </c>
       <c r="D275" s="106">
-        <f>B275/neutrinoFilterRatio</f>
+        <f t="shared" si="60"/>
         <v>28421.709430404007</v>
       </c>
       <c r="E275" s="87">
-        <f>D275*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="61"/>
         <v>99725.296247031612</v>
       </c>
       <c r="G275" s="93">
         <v>15</v>
       </c>
       <c r="H275" s="42">
-        <f>bandwidth16*ongoingResourcePercentage16*mbToGB*1000*POWER(1+bandwidthGrowth,G275)*secondsPerYear*recentSyncTime16/365</f>
+        <f t="shared" si="62"/>
         <v>214868.12329385427</v>
       </c>
       <c r="I275" s="106">
-        <f>J275/(avgTrSize/(avgTrSize+D249))</f>
+        <f t="shared" si="63"/>
         <v>1910.0134259626188</v>
       </c>
       <c r="J275" s="106">
-        <f>secondsPerBlock*H275/(secondsPerYear*assumevalidBlockTime/365)/neutrinoFilterRatio</f>
+        <f t="shared" si="64"/>
         <v>947.39031434680021</v>
       </c>
       <c r="K275" s="87">
-        <f>J275*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" si="65"/>
         <v>3324.1765415677196</v>
       </c>
     </row>
@@ -22056,7 +22051,7 @@
         <v>0</v>
       </c>
       <c r="B292" s="133">
-        <f t="shared" ref="B292:B307" si="58">secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
+        <f t="shared" ref="B292:B307" si="66">secondsPerBlock*maximumMinerAdvantage2/targetMinerPercentHashpower2</f>
         <v>2.4</v>
       </c>
       <c r="C292" s="172">
@@ -22064,11 +22059,11 @@
         <v>0.38890982298128057</v>
       </c>
       <c r="D292" s="106">
-        <f t="shared" ref="D292:D307" si="59">(B292 - C292)*(avgLowRelayBandwidth*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A292)*mbToGB*1000)/(compactBlockCompactedness+missingTransactionRate)</f>
+        <f t="shared" ref="D292:D307" si="67">(B292 - C292)*(avgLowRelayBandwidth*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A292)*mbToGB*1000)/(compactBlockCompactedness+missingTransactionRate)</f>
         <v>66.154282138773667</v>
       </c>
       <c r="E292" s="106">
-        <f>(B292 - C292)*(avgTrSize+D234)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A292))/missingTransactionRate/1000/1000</f>
+        <f t="shared" ref="E292:E307" si="68">(B292 - C292)*(avgTrSize+D234)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A292))/missingTransactionRate/1000/1000</f>
         <v>115.60122198198215</v>
       </c>
       <c r="F292" s="106">
@@ -22076,7 +22071,7 @@
         <v>66.154282138773667</v>
       </c>
       <c r="G292" s="106">
-        <f>F292*endGameTransactionSize/(endGameTransactionSize+D234)</f>
+        <f t="shared" ref="G292:G307" si="69">F292*endGameTransactionSize/(endGameTransactionSize+D234)</f>
         <v>27.333213581397406</v>
       </c>
       <c r="H292" s="6">
@@ -22084,15 +22079,15 @@
         <v>95.906012566306686</v>
       </c>
       <c r="I292" s="136">
-        <f t="shared" ref="I292:I307" si="60">F292*(missingTransactionRate+compactBlockCompactedness)/(avgLowRelayBandwidth*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A292)*mbToGB*1000)</f>
+        <f t="shared" ref="I292:I307" si="70">F292*(missingTransactionRate+compactBlockCompactedness)/(avgLowRelayBandwidth*ongoingResourcePercent10thP2*POWER(1+bandwidthGrowth,A292)*mbToGB*1000)</f>
         <v>2.0110901770187195</v>
       </c>
       <c r="J292" s="137">
-        <f t="shared" ref="J292:J307" si="61">(G292*missingTransactionRate*1000*1000/avgTrSize)/(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A292))</f>
+        <f t="shared" ref="J292:J307" si="71">(G292*missingTransactionRate*1000*1000/avgTrSize)/(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A292))</f>
         <v>1.1508721507956803</v>
       </c>
       <c r="K292" s="180">
-        <f t="shared" ref="K292:K306" si="62">MAX(I292,J292)+C292</f>
+        <f t="shared" ref="K292:K306" si="72">MAX(I292,J292)+C292</f>
         <v>2.4</v>
       </c>
     </row>
@@ -22101,43 +22096,43 @@
         <v>1</v>
       </c>
       <c r="B293" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C293" s="172">
-        <f t="shared" ref="C293:C307" si="63">(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A293))))/1000</f>
+        <f t="shared" ref="C293:C307" si="73">(((avgHops20-1)*minLastMileLatency) + ((avgHops20-1)*proximityFavoringFactor2*(Latency1stP2-minLastMileLatency)+(Latency10thP2-minLastMileLatency))*(1-(1-POWER(1+latencyGrowth,A293))))/1000</f>
         <v>0.3795903267745388</v>
       </c>
       <c r="D293" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>83.076055642494282</v>
       </c>
       <c r="E293" s="106">
-        <f>(B293 - C293)*(avgTrSize+D235)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A293))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>135.8802011285845</v>
       </c>
       <c r="F293" s="106">
-        <f t="shared" ref="F293:F307" si="64">MIN(D293,E293)</f>
+        <f t="shared" ref="F293:F307" si="74">MIN(D293,E293)</f>
         <v>83.076055642494282</v>
       </c>
       <c r="G293" s="106">
-        <f>F293*endGameTransactionSize/(endGameTransactionSize+D235)</f>
+        <f t="shared" si="69"/>
         <v>34.324846388824334</v>
       </c>
       <c r="H293" s="6">
-        <f t="shared" ref="H293:H307" si="65">G293*1000*1000/secondsPerBlock/avgTrSize</f>
+        <f t="shared" ref="H293:H307" si="75">G293*1000*1000/secondsPerBlock/avgTrSize</f>
         <v>120.43805750464679</v>
       </c>
       <c r="I293" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>2.0204096732254611</v>
       </c>
       <c r="J293" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>1.2352621282527874</v>
       </c>
       <c r="K293" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4</v>
       </c>
     </row>
@@ -22146,43 +22141,43 @@
         <v>2</v>
       </c>
       <c r="B294" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C294" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.37055041545399936</v>
       </c>
       <c r="D294" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>104.30970315306335</v>
       </c>
       <c r="E294" s="106">
-        <f>(B294 - C294)*(avgTrSize+D236)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A294))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>159.69115819327311</v>
       </c>
       <c r="F294" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>104.30970315306335</v>
       </c>
       <c r="G294" s="106">
-        <f>F294*endGameTransactionSize/(endGameTransactionSize+D236)</f>
+        <f t="shared" si="69"/>
         <v>43.098032398174482</v>
       </c>
       <c r="H294" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>151.22116630938413</v>
       </c>
       <c r="I294" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>2.0294495845460006</v>
       </c>
       <c r="J294" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>1.3256293342922125</v>
       </c>
       <c r="K294" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4</v>
       </c>
     </row>
@@ -22191,43 +22186,43 @@
         <v>3</v>
       </c>
       <c r="B295" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C295" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.36178170147307603</v>
       </c>
       <c r="D295" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>130.95049718126307</v>
       </c>
       <c r="E295" s="106">
-        <f>(B295 - C295)*(avgTrSize+D237)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A295))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>177.19973725847595</v>
       </c>
       <c r="F295" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>130.95049718126307</v>
       </c>
       <c r="G295" s="106">
-        <f>F295*endGameTransactionSize/(endGameTransactionSize+D237)</f>
+        <f t="shared" si="69"/>
         <v>57.294901019172308</v>
       </c>
       <c r="H295" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>201.03474041814843</v>
       </c>
       <c r="I295" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>2.0382182985269237</v>
       </c>
       <c r="J295" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>1.5062420728464254</v>
       </c>
       <c r="K295" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4</v>
       </c>
     </row>
@@ -22236,43 +22231,43 @@
         <v>4</v>
       </c>
       <c r="B296" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C296" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.35327604891158049</v>
       </c>
       <c r="D296" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>164.37120546749875</v>
       </c>
       <c r="E296" s="106">
-        <f>(B296 - C296)*(avgTrSize+D238)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A296))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>208.18887140973581</v>
       </c>
       <c r="F296" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>164.37120546749875</v>
       </c>
       <c r="G296" s="106">
-        <f>F296*endGameTransactionSize/(endGameTransactionSize+D238)</f>
+        <f t="shared" si="69"/>
         <v>71.917496690573003</v>
       </c>
       <c r="H296" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>252.34209365113333</v>
       </c>
       <c r="I296" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>2.0467239510884196</v>
       </c>
       <c r="J296" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>1.6159484453782043</v>
       </c>
       <c r="K296" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -22281,43 +22276,43 @@
         <v>5</v>
       </c>
       <c r="B297" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C297" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.34502556592692973</v>
       </c>
       <c r="D297" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>206.29224617336374</v>
       </c>
       <c r="E297" s="106">
-        <f>(B297 - C297)*(avgTrSize+D239)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A297))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>244.56287098916613</v>
       </c>
       <c r="F297" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>206.29224617336374</v>
       </c>
       <c r="G297" s="106">
-        <f>F297*endGameTransactionSize/(endGameTransactionSize+D239)</f>
+        <f t="shared" si="69"/>
         <v>90.259251243352935</v>
       </c>
       <c r="H297" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>316.69912716965945</v>
       </c>
       <c r="I297" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>2.05497443407307</v>
       </c>
       <c r="J297" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>1.7334000460460328</v>
       </c>
       <c r="K297" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4</v>
       </c>
     </row>
@@ -22326,43 +22321,43 @@
         <v>6</v>
       </c>
       <c r="B298" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C298" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.33702259743181856</v>
       </c>
       <c r="D298" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>258.8695479152305</v>
       </c>
       <c r="E298" s="106">
-        <f>(B298 - C298)*(avgTrSize+D240)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A298))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>287.25290765232546</v>
       </c>
       <c r="F298" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>258.8695479152305</v>
       </c>
       <c r="G298" s="106">
-        <f>F298*endGameTransactionSize/(endGameTransactionSize+D240)</f>
+        <f t="shared" si="69"/>
         <v>113.26345026510693</v>
       </c>
       <c r="H298" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>397.41561496528743</v>
       </c>
       <c r="I298" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>2.0629774025681815</v>
       </c>
       <c r="J298" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>1.8591353240835971</v>
       </c>
       <c r="K298" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4</v>
       </c>
     </row>
@@ -22371,43 +22366,43 @@
         <v>7</v>
       </c>
       <c r="B299" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C299" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.32925971799156073</v>
       </c>
       <c r="D299" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>324.80457613475056</v>
       </c>
       <c r="E299" s="106">
-        <f>(B299 - C299)*(avgTrSize+D241)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A299))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>337.35057617368727</v>
       </c>
       <c r="F299" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>324.80457613475056</v>
       </c>
       <c r="G299" s="106">
-        <f>F299*endGameTransactionSize/(endGameTransactionSize+D241)</f>
+        <f t="shared" si="69"/>
         <v>142.11206861211897</v>
       </c>
       <c r="H299" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>498.63883723550526</v>
       </c>
       <c r="I299" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>2.0707402820084391</v>
       </c>
       <c r="J299" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>1.9937298676395898</v>
       </c>
       <c r="K299" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4</v>
       </c>
     </row>
@@ -22416,43 +22411,43 @@
         <v>8</v>
       </c>
       <c r="B300" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C300" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.32172972493451052</v>
       </c>
       <c r="D300" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>407.48211017280215</v>
       </c>
       <c r="E300" s="106">
-        <f>(B300 - C300)*(avgTrSize+D242)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A300))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>372.78265620680645</v>
       </c>
       <c r="F300" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>372.78265620680645</v>
       </c>
       <c r="G300" s="106">
-        <f>F300*endGameTransactionSize/(endGameTransactionSize+D242)</f>
+        <f t="shared" si="69"/>
         <v>173.32153792776947</v>
       </c>
       <c r="H300" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>608.14574711498074</v>
       </c>
       <c r="I300" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>1.901293563847541</v>
       </c>
       <c r="J300" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>2.0782702750654893</v>
       </c>
       <c r="K300" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4</v>
       </c>
     </row>
@@ -22461,43 +22456,43 @@
         <v>9</v>
       </c>
       <c r="B301" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C301" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.31442563166917192</v>
       </c>
       <c r="D301" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>511.1427605962939</v>
       </c>
       <c r="E301" s="106">
-        <f>(B301 - C301)*(avgTrSize+D243)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A301))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>437.68857959577861</v>
       </c>
       <c r="F301" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>437.68857959577861</v>
       </c>
       <c r="G301" s="106">
-        <f>F301*endGameTransactionSize/(endGameTransactionSize+D243)</f>
+        <f t="shared" si="69"/>
         <v>203.49889268152114</v>
       </c>
       <c r="H301" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>714.03120239130226</v>
       </c>
       <c r="I301" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>1.785865228436734</v>
       </c>
       <c r="J301" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>2.0855743683308283</v>
       </c>
       <c r="K301" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -22506,43 +22501,43 @@
         <v>10</v>
       </c>
       <c r="B302" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C302" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.30734066120179343</v>
       </c>
       <c r="D302" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>641.09897473772071</v>
       </c>
       <c r="E302" s="106">
-        <f>(B302 - C302)*(avgTrSize+D244)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A302))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>513.83529437125776</v>
       </c>
       <c r="F302" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>513.83529437125776</v>
       </c>
       <c r="G302" s="106">
-        <f>F302*endGameTransactionSize/(endGameTransactionSize+D244)</f>
+        <f t="shared" si="69"/>
         <v>238.90254007039417</v>
       </c>
       <c r="H302" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>838.25452656278651</v>
       </c>
       <c r="I302" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>1.6772483964898646</v>
       </c>
       <c r="J302" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>2.0926593387982062</v>
       </c>
       <c r="K302" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.3999999999999995</v>
       </c>
     </row>
@@ -22551,43 +22546,43 @@
         <v>11</v>
       </c>
       <c r="B303" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C303" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.30046823984843635</v>
       </c>
       <c r="D303" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>804.00547876287897</v>
       </c>
       <c r="E303" s="106">
-        <f>(B303 - C303)*(avgTrSize+D245)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A303))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>603.16163028591052</v>
       </c>
       <c r="F303" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>603.16163028591052</v>
       </c>
       <c r="G303" s="106">
-        <f>F303*endGameTransactionSize/(endGameTransactionSize+D245)</f>
+        <f t="shared" si="69"/>
         <v>280.43391944226926</v>
       </c>
       <c r="H303" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>983.97866470971667</v>
       </c>
       <c r="I303" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>1.5750601615782576</v>
       </c>
       <c r="J303" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>2.0995317601515637</v>
       </c>
       <c r="K303" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4</v>
       </c>
     </row>
@@ -22596,43 +22591,43 @@
         <v>12</v>
       </c>
       <c r="B304" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C304" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.29380199113567995</v>
       </c>
       <c r="D304" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>1008.1978578667315</v>
       </c>
       <c r="E304" s="106">
-        <f>(B304 - C304)*(avgTrSize+D246)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A304))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>707.93978121512487</v>
       </c>
       <c r="F304" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>707.93978121512487</v>
       </c>
       <c r="G304" s="106">
-        <f>F304*endGameTransactionSize/(endGameTransactionSize+D246)</f>
+        <f t="shared" si="69"/>
         <v>329.14946443319468</v>
       </c>
       <c r="H304" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>1154.9104015199812</v>
       </c>
       <c r="I304" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>1.4789372403013317</v>
       </c>
       <c r="J304" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>2.10619800886432</v>
       </c>
       <c r="K304" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4</v>
       </c>
     </row>
@@ -22641,43 +22636,43 @@
         <v>13</v>
       </c>
       <c r="B305" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C305" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.28733572988430622</v>
       </c>
       <c r="D305" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>1264.1164212468384</v>
       </c>
       <c r="E305" s="106">
-        <f>(B305 - C305)*(avgTrSize+D247)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A305))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>778.78536883613913</v>
       </c>
       <c r="F305" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>778.78536883613913</v>
       </c>
       <c r="G305" s="106">
-        <f>F305*endGameTransactionSize/(endGameTransactionSize+D247)</f>
+        <f t="shared" si="69"/>
         <v>386.28718801728388</v>
       </c>
       <c r="H305" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>1355.3936421659082</v>
       </c>
       <c r="I305" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>1.301551024237277</v>
       </c>
       <c r="J305" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>2.1126642701156944</v>
       </c>
       <c r="K305" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -22686,43 +22681,43 @@
         <v>14</v>
       </c>
       <c r="B306" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C306" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.28106345647047376</v>
       </c>
       <c r="D306" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>1584.8368089910737</v>
       </c>
       <c r="E306" s="106">
-        <f>(B306 - C306)*(avgTrSize+D248)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A306))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>913.88407381836271</v>
       </c>
       <c r="F306" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>913.88407381836271</v>
       </c>
       <c r="G306" s="106">
-        <f>F306*endGameTransactionSize/(endGameTransactionSize+D248)</f>
+        <f t="shared" si="69"/>
         <v>453.29781885431515</v>
       </c>
       <c r="H306" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>1590.51866264672</v>
       </c>
       <c r="I306" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>1.2218686173727495</v>
       </c>
       <c r="J306" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>2.118936543529526</v>
       </c>
       <c r="K306" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>2.4</v>
       </c>
     </row>
@@ -22731,39 +22726,39 @@
         <v>15</v>
       </c>
       <c r="B307" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="C307" s="172">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.2749793512590562</v>
       </c>
       <c r="D307" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>1986.7341911882802</v>
       </c>
       <c r="E307" s="106">
-        <f>(B307 - C307)*(avgTrSize+D249)*(avgLowRelayVerification*ongoingResourcePercent10thP2*POWER(1+cpuGrowth,A307))/missingTransactionRate/1000/1000</f>
+        <f t="shared" si="68"/>
         <v>1072.3144890861472</v>
       </c>
       <c r="F307" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>1072.3144890861472</v>
       </c>
       <c r="G307" s="106">
-        <f>F307*endGameTransactionSize/(endGameTransactionSize+D249)</f>
+        <f t="shared" si="69"/>
         <v>531.88126695075698</v>
       </c>
       <c r="H307" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>1866.2500594763403</v>
       </c>
       <c r="I307" s="136">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>1.1469528441996846</v>
       </c>
       <c r="J307" s="137">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>2.1250206487409438</v>
       </c>
       <c r="K307" s="180">
@@ -22826,7 +22821,7 @@
         <v>40</v>
       </c>
       <c r="C311" s="152">
-        <f t="shared" ref="C311:C321" si="66">(avgHops19)*B311/1000</f>
+        <f t="shared" ref="C311:C321" si="76">(avgHops19)*B311/1000</f>
         <v>0.20396252649193253</v>
       </c>
       <c r="E311" s="158">
@@ -22836,14 +22831,14 @@
         <v>100</v>
       </c>
       <c r="G311" s="152">
-        <f t="shared" ref="G311:G321" si="67">(E311*missingTransactionRate*1000/avgTrSize)/(F311*ongoingResourcePercent10thP2)</f>
+        <f t="shared" ref="G311:G321" si="77">(E311*missingTransactionRate*1000/avgTrSize)/(F311*ongoingResourcePercent10thP2)</f>
         <v>10.526315789473683</v>
       </c>
       <c r="I311" s="158">
         <v>500</v>
       </c>
       <c r="J311" s="152">
-        <f t="shared" ref="J311:J321" si="68">I311*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
+        <f t="shared" ref="J311:J321" si="78">I311*(missingTransactionRate+compactBlockCompactedness)/(avgRelayBandwidth*ongoingResourcePercent10thP2*mbToGB*KBperGB)</f>
         <v>1.52E-2</v>
       </c>
     </row>
@@ -22852,7 +22847,7 @@
         <v>60</v>
       </c>
       <c r="C312" s="152">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.30594378973789876</v>
       </c>
       <c r="E312" s="158">
@@ -22862,14 +22857,14 @@
         <v>200</v>
       </c>
       <c r="G312" s="152">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>5.2631578947368416</v>
       </c>
       <c r="I312" s="158">
         <v>1000</v>
       </c>
       <c r="J312" s="152">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>3.04E-2</v>
       </c>
     </row>
@@ -22878,7 +22873,7 @@
         <v>80</v>
       </c>
       <c r="C313" s="152">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.40792505298386506</v>
       </c>
       <c r="E313" s="158">
@@ -22888,14 +22883,14 @@
         <v>500</v>
       </c>
       <c r="G313" s="152">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>2.1052631578947367</v>
       </c>
       <c r="I313" s="158">
         <v>1500</v>
       </c>
       <c r="J313" s="152">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>4.5600000000000002E-2</v>
       </c>
     </row>
@@ -22904,7 +22899,7 @@
         <v>100</v>
       </c>
       <c r="C314" s="152">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.50990631622983129</v>
       </c>
       <c r="E314" s="158">
@@ -22914,14 +22909,14 @@
         <v>1000</v>
       </c>
       <c r="G314" s="152">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="I314" s="158">
         <v>2000</v>
       </c>
       <c r="J314" s="152">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>6.08E-2</v>
       </c>
     </row>
@@ -22930,7 +22925,7 @@
         <v>120</v>
       </c>
       <c r="C315" s="152">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.61188757947579753</v>
       </c>
       <c r="E315" s="158">
@@ -22940,14 +22935,14 @@
         <v>2000</v>
       </c>
       <c r="G315" s="152">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="I315" s="158">
         <v>2500</v>
       </c>
       <c r="J315" s="152">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
@@ -22956,7 +22951,7 @@
         <v>140</v>
       </c>
       <c r="C316" s="152">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.71386884272176387</v>
       </c>
       <c r="E316" s="158">
@@ -22966,14 +22961,14 @@
         <v>5000</v>
       </c>
       <c r="G316" s="152">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0.21052631578947367</v>
       </c>
       <c r="I316" s="158">
         <v>3000</v>
       </c>
       <c r="J316" s="152">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
@@ -22982,7 +22977,7 @@
         <v>160</v>
       </c>
       <c r="C317" s="152">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.81585010596773011</v>
       </c>
       <c r="E317" s="158">
@@ -22992,14 +22987,14 @@
         <v>10000</v>
       </c>
       <c r="G317" s="152">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="I317" s="158">
         <v>3500</v>
       </c>
       <c r="J317" s="152">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0.10639999999999999</v>
       </c>
     </row>
@@ -23008,7 +23003,7 @@
         <v>180</v>
       </c>
       <c r="C318" s="152">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.91783136921369624</v>
       </c>
       <c r="E318" s="158">
@@ -23018,14 +23013,14 @@
         <v>20000</v>
       </c>
       <c r="G318" s="152">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="I318" s="158">
         <v>4000</v>
       </c>
       <c r="J318" s="152">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0.1216</v>
       </c>
     </row>
@@ -23034,7 +23029,7 @@
         <v>200</v>
       </c>
       <c r="C319" s="152">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>1.0198126324596626</v>
       </c>
       <c r="E319" s="158">
@@ -23044,14 +23039,14 @@
         <v>50000</v>
       </c>
       <c r="G319" s="152">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>2.1052631578947368E-2</v>
       </c>
       <c r="I319" s="158">
         <v>4500</v>
       </c>
       <c r="J319" s="152">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0.1368</v>
       </c>
     </row>
@@ -23060,7 +23055,7 @@
         <v>220</v>
       </c>
       <c r="C320" s="152">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>1.1217938957056288</v>
       </c>
       <c r="E320" s="158">
@@ -23070,14 +23065,14 @@
         <v>100000</v>
       </c>
       <c r="G320" s="152">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>1.0526315789473684E-2</v>
       </c>
       <c r="I320" s="158">
         <v>5000</v>
       </c>
       <c r="J320" s="152">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0.152</v>
       </c>
     </row>
@@ -23086,7 +23081,7 @@
         <v>240</v>
       </c>
       <c r="C321" s="154">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>1.2237751589515951</v>
       </c>
       <c r="E321" s="159">
@@ -23096,14 +23091,14 @@
         <v>200000</v>
       </c>
       <c r="G321" s="154">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>5.263157894736842E-3</v>
       </c>
       <c r="I321" s="159">
         <v>5500</v>
       </c>
       <c r="J321" s="154">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0.16719999999999999</v>
       </c>
     </row>
@@ -23202,7 +23197,7 @@
         <v>182</v>
       </c>
       <c r="E333" s="92" t="str">
-        <f t="shared" ref="E333:E341" si="69">$A$118</f>
+        <f t="shared" ref="E333:E341" si="79">$A$118</f>
         <v>10th %ile</v>
       </c>
       <c r="F333" s="185">
@@ -23221,7 +23216,7 @@
         <v>4</v>
       </c>
       <c r="J333" s="178">
-        <f t="shared" ref="J333:K358" si="70">endGameUsers*utxosPerUserEndGame</f>
+        <f t="shared" ref="J333:J355" si="80">endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
@@ -23230,7 +23225,7 @@
         <v>181</v>
       </c>
       <c r="E334" s="92" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>10th %ile</v>
       </c>
       <c r="F334" s="87">
@@ -23249,7 +23244,7 @@
         <v>4</v>
       </c>
       <c r="J334" s="178">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>800</v>
       </c>
     </row>
@@ -23276,7 +23271,7 @@
         <v>4</v>
       </c>
       <c r="J335" s="178">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>800</v>
       </c>
     </row>
@@ -23305,7 +23300,7 @@
         <v>4</v>
       </c>
       <c r="J336" s="178">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>800</v>
       </c>
     </row>
@@ -23314,7 +23309,7 @@
         <v>123</v>
       </c>
       <c r="E337" s="92" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>10th %ile</v>
       </c>
       <c r="F337" s="185">
@@ -23333,7 +23328,7 @@
         <v>4</v>
       </c>
       <c r="J337" s="178">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>800</v>
       </c>
     </row>
@@ -23342,7 +23337,7 @@
         <v>189</v>
       </c>
       <c r="E338" s="92" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>10th %ile</v>
       </c>
       <c r="F338" s="185">
@@ -23361,7 +23356,7 @@
         <v>4</v>
       </c>
       <c r="J338" s="178">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>800</v>
       </c>
     </row>
@@ -23389,7 +23384,7 @@
         <v>4</v>
       </c>
       <c r="J339" s="178">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>800</v>
       </c>
     </row>
@@ -23398,7 +23393,7 @@
         <v>191</v>
       </c>
       <c r="E340" s="92" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>10th %ile</v>
       </c>
       <c r="F340" s="185">
@@ -23417,7 +23412,7 @@
         <v>4</v>
       </c>
       <c r="J340" s="178">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>800</v>
       </c>
     </row>
@@ -23429,7 +23424,7 @@
         <v>192</v>
       </c>
       <c r="E341" s="92" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>10th %ile</v>
       </c>
       <c r="F341" s="185">
@@ -23448,7 +23443,7 @@
         <v>4</v>
       </c>
       <c r="J341" s="178">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>800</v>
       </c>
     </row>
@@ -23526,7 +23521,7 @@
         <v>182</v>
       </c>
       <c r="E347" s="92" t="str">
-        <f t="shared" ref="E347:E354" si="71">$A$118</f>
+        <f t="shared" ref="E347:E354" si="81">$A$118</f>
         <v>10th %ile</v>
       </c>
       <c r="F347" s="185">
@@ -23545,7 +23540,7 @@
         <v>4</v>
       </c>
       <c r="J347" s="178">
-        <f t="shared" ref="J347:J354" si="72">endGameUsers*utxosPerUserEndGame</f>
+        <f t="shared" ref="J347:J354" si="82">endGameUsers*utxosPerUserEndGame</f>
         <v>800</v>
       </c>
     </row>
@@ -23575,7 +23570,7 @@
         <v>4</v>
       </c>
       <c r="J348" s="178">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>800</v>
       </c>
     </row>
@@ -23585,7 +23580,7 @@
         <v>181</v>
       </c>
       <c r="E349" s="92" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>10th %ile</v>
       </c>
       <c r="F349" s="87">
@@ -23604,7 +23599,7 @@
         <v>4</v>
       </c>
       <c r="J349" s="178">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>800</v>
       </c>
     </row>
@@ -23635,7 +23630,7 @@
         <v>4</v>
       </c>
       <c r="J350" s="178">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>800</v>
       </c>
     </row>
@@ -23647,7 +23642,7 @@
         <v>189</v>
       </c>
       <c r="E351" s="92" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>10th %ile</v>
       </c>
       <c r="F351" s="185">
@@ -23666,7 +23661,7 @@
         <v>4</v>
       </c>
       <c r="J351" s="178">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>800</v>
       </c>
     </row>
@@ -23677,7 +23672,7 @@
         <v>123</v>
       </c>
       <c r="E352" s="92" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>10th %ile</v>
       </c>
       <c r="F352" s="185">
@@ -23696,7 +23691,7 @@
         <v>4</v>
       </c>
       <c r="J352" s="178">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>800</v>
       </c>
     </row>
@@ -23708,7 +23703,7 @@
         <v>192</v>
       </c>
       <c r="E353" s="92" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>10th %ile</v>
       </c>
       <c r="F353" s="185">
@@ -23727,7 +23722,7 @@
         <v>4</v>
       </c>
       <c r="J353" s="178">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>800</v>
       </c>
     </row>
@@ -23739,7 +23734,7 @@
         <v>191</v>
       </c>
       <c r="E354" s="92" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>10th %ile</v>
       </c>
       <c r="F354" s="185">
@@ -23758,7 +23753,7 @@
         <v>4</v>
       </c>
       <c r="J354" s="178">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>800</v>
       </c>
     </row>
@@ -23789,24 +23784,34 @@
         <v>4</v>
       </c>
       <c r="J355" s="178">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A110:C110"/>
     <mergeCell ref="A256:E256"/>
     <mergeCell ref="G256:K256"/>
     <mergeCell ref="A109:C109"/>
     <mergeCell ref="A111:C111"/>
     <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A110:C110"/>
   </mergeCells>
   <conditionalFormatting sqref="F340:F341 F353:F354">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>$D$327</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108:F113">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="lessThan">
+      <formula>curMaxBlocksize/1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108:E113">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>curMaxBlocksize*1000/avgTrSize/secondsPerBlock</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23817,23 +23822,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="lessThan" id="{CCBBA876-7DF4-468C-8839-EA8CEE01F71E}">
-            <xm:f>'Current Bitcoin'!$C$19</xm:f>
-            <x14:dxf>
-              <font>
-                <color auto="1"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFBD1D7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F108 F110</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="lessThan" id="{E16F959B-687E-48F0-9CC9-FF6B850AFA7F}">
+          <x14:cfRule type="cellIs" priority="18" operator="lessThan" id="{E16F959B-687E-48F0-9CC9-FF6B850AFA7F}">
             <xm:f>'Current Bitcoin'!$B$19</xm:f>
             <x14:dxf>
               <fill>
@@ -23846,23 +23835,7 @@
           <xm:sqref>G113 G108:G110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" operator="lessThan" id="{321EA6B3-025D-4AB3-8E5D-63B63B669534}">
-            <xm:f>'Current Bitcoin'!$C$19/1000</xm:f>
-            <x14:dxf>
-              <font>
-                <color auto="1"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFBD1D7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F111:F113 F109</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="lessThan" id="{A26EE87F-1C32-41E6-AC03-91370DB0C051}">
+          <x14:cfRule type="cellIs" priority="23" operator="lessThan" id="{A26EE87F-1C32-41E6-AC03-91370DB0C051}">
             <xm:f>'Current Bitcoin'!$C$19*1000/'Current Bitcoin'!$C$10/'Current Bitcoin'!$A$15</xm:f>
             <x14:dxf>
               <fill>
@@ -23875,7 +23848,7 @@
           <xm:sqref>F333:F335 F337:F338 F355 F347:F352</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{BF534268-13FE-4670-A168-B3AF843E34D3}">
+          <x14:cfRule type="cellIs" priority="4" operator="lessThan" id="{BF534268-13FE-4670-A168-B3AF843E34D3}">
             <xm:f>'Current Bitcoin'!$C$19/1000</xm:f>
             <x14:dxf>
               <font>
